--- a/testdata/ExcelTestData/Newtestdata.xlsx
+++ b/testdata/ExcelTestData/Newtestdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shakuntala\Periscope\pandc\testdata\ExcelTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169E34DC-3455-465B-A9E8-C126C46540FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E61CF5-CD12-486A-B23D-3DD3F8C5F4C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="4" activeTab="7" xr2:uid="{D923499C-DDE5-4EE4-B604-8A52F010599A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="6" xr2:uid="{D923499C-DDE5-4EE4-B604-8A52F010599A}"/>
   </bookViews>
   <sheets>
     <sheet name="Named Insureds" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="450">
   <si>
     <t>Column Name</t>
   </si>
@@ -272,9 +272,6 @@
     <t>CA</t>
   </si>
   <si>
-    <t>548bdc87F</t>
-  </si>
-  <si>
     <t>Server Room /-&amp; Hardware spare room</t>
   </si>
   <si>
@@ -341,12 +338,6 @@
     <t>United States</t>
   </si>
   <si>
-    <t>Avenue Street 2</t>
-  </si>
-  <si>
-    <t>234def56E</t>
-  </si>
-  <si>
     <t>Test Contingent Note</t>
   </si>
   <si>
@@ -945,9 +936,6 @@
   </si>
   <si>
     <t>Avenue Street 1</t>
-  </si>
-  <si>
-    <t>878def983</t>
   </si>
   <si>
     <t>Test 1</t>
@@ -1269,6 +1257,140 @@
   </si>
   <si>
     <t>Test Location 1  From Delaware</t>
+  </si>
+  <si>
+    <t>Test Description</t>
+  </si>
+  <si>
+    <t>States with Operation:</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Prior employers contacted</t>
+  </si>
+  <si>
+    <t>Pre - placement drug screen</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Pre - placement physicals</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Driving records checked (MVR) </t>
+  </si>
+  <si>
+    <t>Test4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Injury Illness Prevention Program (IIPP) in place </t>
+  </si>
+  <si>
+    <t>Test5</t>
+  </si>
+  <si>
+    <t>Number of Company Vehicles:</t>
+  </si>
+  <si>
+    <t>Personal use Allowed?</t>
+  </si>
+  <si>
+    <t>Test22</t>
+  </si>
+  <si>
+    <t>Subcontractors Used:</t>
+  </si>
+  <si>
+    <t>Test23</t>
+  </si>
+  <si>
+    <t>Certificates of Insurance Required:</t>
+  </si>
+  <si>
+    <t>Test24</t>
+  </si>
+  <si>
+    <t>Person who is responsible for your safety program?</t>
+  </si>
+  <si>
+    <t>Test Person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Types or topics of safety training provided last year
+</t>
+  </si>
+  <si>
+    <t>Person who investigates accidents:</t>
+  </si>
+  <si>
+    <t>Test Investigator</t>
+  </si>
+  <si>
+    <t>Most frequent type of accident:</t>
+  </si>
+  <si>
+    <t>Test type</t>
+  </si>
+  <si>
+    <t>Most severe type of accident:</t>
+  </si>
+  <si>
+    <t>Test Severe</t>
+  </si>
+  <si>
+    <t>What are you doing to control these accidents?</t>
+  </si>
+  <si>
+    <t>Control Test</t>
+  </si>
+  <si>
+    <t>Test Note Supplementary</t>
+  </si>
+  <si>
+    <t>Test group medical</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>Frequency of safety meetings:</t>
+  </si>
+  <si>
+    <t>Date of last safety meeting:</t>
+  </si>
+  <si>
+    <t>Frequency of safety inspections
+(monthly / quarterly etc):</t>
+  </si>
+  <si>
+    <t>Date of last safety inspection:</t>
+  </si>
+  <si>
+    <t>BIO Hazard Level:</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>07/08/2020</t>
+  </si>
+  <si>
+    <t>monthly</t>
+  </si>
+  <si>
+    <t>Coverage Description</t>
+  </si>
+  <si>
+    <t>Avenue Street</t>
   </si>
 </sst>
 </file>
@@ -1278,9 +1400,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="165" formatCode="mm\/dd\/yyyy"/>
-    <numFmt numFmtId="167" formatCode="dd\/mm\/yyyy"/>
+    <numFmt numFmtId="166" formatCode="dd\/mm\/yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1321,6 +1443,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1396,7 +1524,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1461,10 +1589,41 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 4" xfId="1" builtinId="19"/>
@@ -1807,33 +1966,33 @@
     </row>
     <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B4" s="26">
         <v>123456789</v>
@@ -1842,7 +2001,7 @@
         <v>12345678910</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E4" s="26">
         <v>12345</v>
@@ -1850,22 +2009,22 @@
     </row>
     <row r="5" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B6" s="31">
         <v>43989</v>
@@ -1878,7 +2037,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -1887,10 +2046,10 @@
     </row>
     <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
@@ -1907,15 +2066,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0225CBA0-1286-43E7-81E1-D63CD105B082}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="44.5703125" style="8" customWidth="1"/>
     <col min="2" max="2" width="38.28515625" style="8" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" style="8" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
@@ -1926,570 +2085,265 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B2" s="8">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="B3" s="8">
-        <v>8</v>
+      <c r="A3" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="B4" s="8">
-        <v>7</v>
+      <c r="A4" s="35" t="s">
+        <v>376</v>
+      </c>
+      <c r="B4" s="35">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
+      <c r="A5" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>406</v>
       </c>
       <c r="C5" s="17"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="B6" s="8">
-        <v>5</v>
+      <c r="A6" s="37" t="s">
+        <v>407</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>408</v>
       </c>
       <c r="C6" s="17"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="B7" s="8">
-        <v>6</v>
-      </c>
+    <row r="7" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>438</v>
+      </c>
+      <c r="B7" s="34"/>
       <c r="C7" s="17"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>100</v>
+      <c r="A8" s="39" t="s">
+        <v>409</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>408</v>
       </c>
       <c r="C8" s="17"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>302</v>
+      <c r="A9" s="39" t="s">
+        <v>410</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>411</v>
       </c>
       <c r="C9" s="17"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>59</v>
+      <c r="A10" s="39" t="s">
+        <v>412</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>413</v>
       </c>
       <c r="C10" s="17"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>77</v>
+      <c r="A11" s="39" t="s">
+        <v>414</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>415</v>
       </c>
       <c r="C11" s="17"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>303</v>
+      <c r="A12" s="39" t="s">
+        <v>416</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>417</v>
       </c>
       <c r="C12" s="17"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="B13" s="8">
-        <v>98789</v>
-      </c>
+    <row r="13" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="17"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="B14" s="8">
-        <v>98987</v>
+      <c r="A14" s="44" t="s">
+        <v>418</v>
+      </c>
+      <c r="B14" s="34">
+        <v>25</v>
       </c>
       <c r="C14" s="17"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="B15" s="8">
-        <v>877889</v>
+      <c r="A15" s="44"/>
+      <c r="B15" s="34">
+        <v>15</v>
       </c>
       <c r="C15" s="17"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>318</v>
+      <c r="A16" s="39" t="s">
+        <v>419</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>420</v>
       </c>
       <c r="C16" s="17"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="B17" s="8">
-        <v>1000</v>
+      <c r="A17" s="39" t="s">
+        <v>421</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>422</v>
       </c>
       <c r="C17" s="17"/>
     </row>
-    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>166</v>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="39" t="s">
+        <v>423</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>424</v>
       </c>
       <c r="C18" s="17"/>
     </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>323</v>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="39" t="s">
+        <v>425</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>426</v>
       </c>
       <c r="C19" s="17"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="B20" s="23"/>
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>427</v>
+      </c>
+      <c r="B20" s="34">
+        <v>2</v>
+      </c>
       <c r="C20" s="17"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="B21" s="8">
-        <v>1000</v>
+    <row r="21" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
+        <v>439</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>445</v>
       </c>
       <c r="C21" s="17"/>
     </row>
-    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>324</v>
+    <row r="22" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
+        <v>440</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>446</v>
       </c>
       <c r="C22" s="17"/>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>325</v>
+    <row r="23" spans="1:3" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
+        <v>441</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>447</v>
       </c>
       <c r="C23" s="17"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="B24"/>
+    <row r="24" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="41" t="s">
+        <v>442</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>446</v>
+      </c>
       <c r="C24" s="17"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="B25" t="s">
-        <v>331</v>
+      <c r="A25" s="39" t="s">
+        <v>428</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>429</v>
       </c>
       <c r="C25" s="17"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="B26">
-        <v>8789</v>
+      <c r="A26" s="39" t="s">
+        <v>430</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>431</v>
       </c>
       <c r="C26" s="17"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="B27">
-        <v>8776</v>
+      <c r="A27" s="39" t="s">
+        <v>432</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>433</v>
       </c>
       <c r="C27" s="17"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="B28" t="s">
-        <v>332</v>
+      <c r="A28" s="39" t="s">
+        <v>434</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>435</v>
       </c>
       <c r="C28" s="17"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" t="s">
-        <v>333</v>
+    <row r="29" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="42" t="s">
+        <v>443</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>444</v>
       </c>
       <c r="C29" s="17"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="B30">
-        <v>8989</v>
+      <c r="A30" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>436</v>
       </c>
       <c r="C30" s="17"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="B31" t="s">
-        <v>335</v>
-      </c>
-      <c r="C31" s="17"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="B35" s="8">
-        <v>18500</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="B36" s="8">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="B37" s="8">
-        <v>17500</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="B38" s="8">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="B39" s="8">
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>341</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>377</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A14:A15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -2715,7 +2569,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B2">
         <v>250000</v>
@@ -2723,7 +2577,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B3">
         <v>100000</v>
@@ -2731,7 +2585,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B4">
         <v>120000</v>
@@ -2739,7 +2593,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B5">
         <v>110000</v>
@@ -2747,7 +2601,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B6">
         <v>10500</v>
@@ -2755,7 +2609,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B7">
         <v>150000</v>
@@ -2763,7 +2617,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B8">
         <v>125000</v>
@@ -2771,7 +2625,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B9">
         <v>112500</v>
@@ -2779,7 +2633,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B10">
         <v>102500</v>
@@ -2787,7 +2641,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B11">
         <v>9500</v>
@@ -2795,7 +2649,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B12">
         <v>9000</v>
@@ -2803,7 +2657,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B13">
         <v>100000</v>
@@ -2811,7 +2665,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B14">
         <v>9000</v>
@@ -2819,28 +2673,28 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B18" s="9">
         <v>5</v>
@@ -2848,7 +2702,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B19" s="1">
         <v>10</v>
@@ -2856,7 +2710,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B20" s="1">
         <v>600000</v>
@@ -2864,7 +2718,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B21" s="1">
         <v>30000</v>
@@ -2872,10 +2726,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2904,66 +2758,66 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" t="s">
         <v>161</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" t="s">
         <v>165</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D4" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B8" s="8">
         <v>20000</v>
@@ -2971,7 +2825,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B9" s="8">
         <v>19500</v>
@@ -2984,7 +2838,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B11" s="8">
         <v>18500</v>
@@ -2992,7 +2846,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B12" s="8">
         <v>18000</v>
@@ -3000,7 +2854,7 @@
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B13" s="8">
         <v>17500</v>
@@ -3008,7 +2862,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B14" s="8">
         <v>17000</v>
@@ -3016,7 +2870,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B15" s="8">
         <v>16500</v>
@@ -3024,7 +2878,7 @@
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B16" s="8">
         <v>16000</v>
@@ -3032,7 +2886,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B17" s="8">
         <v>15500</v>
@@ -3040,7 +2894,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B18" s="8">
         <v>15000</v>
@@ -3048,7 +2902,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B19" s="8">
         <v>14500</v>
@@ -3056,7 +2910,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B20" s="8">
         <v>14000</v>
@@ -3064,7 +2918,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B21" s="8">
         <v>13500</v>
@@ -3080,449 +2934,449 @@
         <v>52</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="18" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3536,7 +3390,7 @@
   <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3597,8 +3451,8 @@
       <c r="A7" t="s">
         <v>61</v>
       </c>
-      <c r="B7" t="s">
-        <v>78</v>
+      <c r="B7">
+        <v>1234567890</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3654,7 +3508,7 @@
         <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3678,7 +3532,7 @@
         <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3702,7 +3556,7 @@
         <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3984,7 +3838,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2">
         <v>5000000</v>
@@ -3992,7 +3846,7 @@
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3">
         <v>350000</v>
@@ -4000,7 +3854,7 @@
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4">
         <v>22</v>
@@ -4008,7 +3862,7 @@
     </row>
     <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5">
         <v>120000</v>
@@ -4016,23 +3870,23 @@
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B8">
         <v>4000000</v>
@@ -4040,7 +3894,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9">
         <v>200000</v>
@@ -4051,7 +3905,7 @@
         <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -4083,7 +3937,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2">
         <v>600000</v>
@@ -4091,18 +3945,18 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4110,7 +3964,7 @@
         <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4133,29 +3987,29 @@
       <c r="A8" t="s">
         <v>61</v>
       </c>
-      <c r="B8" t="s">
-        <v>102</v>
+      <c r="B8">
+        <v>1234567894</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11" s="9">
         <v>15</v>
@@ -4163,7 +4017,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12" s="25">
         <v>40000</v>
@@ -4174,7 +4028,7 @@
         <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4201,28 +4055,28 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
         <v>139</v>
-      </c>
-      <c r="B2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" t="s">
         <v>140</v>
-      </c>
-      <c r="B3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B4">
         <v>400000</v>
@@ -4230,26 +4084,26 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B5">
         <v>500000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="32"/>
+      <c r="A6" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="43"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B8" s="11">
         <v>1000</v>
@@ -4257,7 +4111,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B9" s="11">
         <v>1000</v>
@@ -4265,7 +4119,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B10" s="12">
         <v>1000</v>
@@ -4273,12 +4127,12 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B12" s="11">
         <v>1000</v>
@@ -4286,7 +4140,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B13" s="11">
         <v>1000</v>
@@ -4294,7 +4148,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B14" s="11">
         <v>1000</v>
@@ -4302,12 +4156,12 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B16" s="11">
         <v>1000</v>
@@ -4315,7 +4169,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B17" s="11">
         <v>1000</v>
@@ -4323,7 +4177,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B18" s="11">
         <v>1000</v>
@@ -4331,7 +4185,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B19">
         <v>99.55</v>
@@ -4378,7 +4232,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B23">
         <v>777.55</v>
@@ -4402,27 +4256,27 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="B26" s="32"/>
+      <c r="A26" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="43"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B29" s="11">
         <v>1000</v>
@@ -4430,7 +4284,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B30" s="11">
         <v>1000</v>
@@ -4438,7 +4292,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B31" s="11">
         <v>1000</v>
@@ -4446,12 +4300,12 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B33" s="11">
         <v>1000</v>
@@ -4459,7 +4313,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B34" s="11">
         <v>1000</v>
@@ -4467,7 +4321,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B35" s="11">
         <v>1000</v>
@@ -4475,12 +4329,12 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B37" s="11">
         <v>1000</v>
@@ -4488,7 +4342,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B38" s="11">
         <v>1000</v>
@@ -4496,7 +4350,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B39" s="11">
         <v>1000</v>
@@ -4504,7 +4358,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B40">
         <v>99.55</v>
@@ -4551,7 +4405,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B44">
         <v>777.55</v>
@@ -4576,17 +4430,17 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B48">
         <v>20000</v>
@@ -4594,7 +4448,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B49">
         <v>19500</v>
@@ -4602,7 +4456,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B50">
         <v>19000</v>
@@ -4615,7 +4469,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B52">
         <v>18500</v>
@@ -4623,7 +4477,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B53">
         <v>18000</v>
@@ -4631,7 +4485,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B54">
         <v>17500</v>
@@ -4639,7 +4493,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B55">
         <v>17000</v>
@@ -4647,7 +4501,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B56">
         <v>16500</v>
@@ -4655,7 +4509,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B57">
         <v>16000</v>
@@ -4663,7 +4517,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B58">
         <v>15500</v>
@@ -4671,7 +4525,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B59">
         <v>15000</v>
@@ -4679,7 +4533,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B60">
         <v>14500</v>
@@ -4687,7 +4541,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B61">
         <v>14000</v>
@@ -4695,7 +4549,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B62">
         <v>13500</v>
@@ -4703,12 +4557,12 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -4716,7 +4570,7 @@
         <v>52</v>
       </c>
       <c r="B65" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -4733,8 +4587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80E40C2-8F61-422B-8B66-5E35CD325EB0}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4750,17 +4604,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B3" s="8">
         <v>2015</v>
@@ -4768,45 +4622,45 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C5" s="17"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C6" s="17"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C7" s="17"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="17"/>
     </row>
@@ -4815,7 +4669,7 @@
         <v>57</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C9" s="17"/>
     </row>
@@ -4839,54 +4693,54 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>303</v>
+        <v>268</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1234567895</v>
       </c>
       <c r="C12" s="17"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C13" s="17"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C14" s="17"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C15" s="17"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C16" s="17"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="B17" s="33">
+        <v>273</v>
+      </c>
+      <c r="B17" s="32">
         <v>32330</v>
       </c>
       <c r="C17" s="17"/>
@@ -4902,14 +4756,14 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B19"/>
       <c r="C19" s="17"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B20">
         <v>1000</v>
@@ -4918,7 +4772,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B21">
         <v>1000</v>
@@ -4927,18 +4781,18 @@
     </row>
     <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B23">
         <v>300</v>
@@ -4949,83 +4803,83 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B24" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B32" s="8">
         <v>20000</v>
@@ -5033,7 +4887,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B33" s="8">
         <v>19500</v>
@@ -5046,7 +4900,7 @@
     </row>
     <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B35" s="8">
         <v>18500</v>
@@ -5054,7 +4908,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B36" s="8">
         <v>18000</v>
@@ -5062,7 +4916,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B37" s="8">
         <v>17500</v>
@@ -5070,7 +4924,7 @@
     </row>
     <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B38" s="8">
         <v>17000</v>
@@ -5078,7 +4932,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B39" s="8">
         <v>16500</v>
@@ -5086,7 +4940,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B40" s="8">
         <v>16000</v>
@@ -5094,15 +4948,15 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -5115,7 +4969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6855AF93-82AA-4D05-A803-46C5BBC6D83F}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -5130,17 +4984,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -5148,7 +5002,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -5156,28 +5010,28 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B5" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B6" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B8">
         <v>50</v>
@@ -5185,7 +5039,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -5193,18 +5047,18 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -5215,10 +5069,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AE8549-2611-4C3D-8F42-2BE39C7FE28A}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5234,12 +5088,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B2" s="8">
         <v>9</v>
@@ -5247,7 +5101,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B3" s="8">
         <v>8</v>
@@ -5255,7 +5109,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B4" s="8">
         <v>7</v>
@@ -5263,7 +5117,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -5272,7 +5126,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B6" s="8">
         <v>5</v>
@@ -5281,7 +5135,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B7" s="8">
         <v>6</v>
@@ -5290,10 +5144,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="17"/>
     </row>
@@ -5302,7 +5156,7 @@
         <v>57</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C9" s="17"/>
     </row>
@@ -5326,16 +5180,16 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>303</v>
+        <v>268</v>
+      </c>
+      <c r="B12" s="8">
+        <v>878983145</v>
       </c>
       <c r="C12" s="17"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B13" s="8">
         <v>98789</v>
@@ -5344,7 +5198,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B14" s="8">
         <v>98987</v>
@@ -5353,7 +5207,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B15" s="8">
         <v>877889</v>
@@ -5362,13 +5216,13 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C16" s="17"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B17" s="8">
         <v>1000</v>
@@ -5377,32 +5231,32 @@
     </row>
     <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C18" s="17"/>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C19" s="17"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="17"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B21" s="8">
         <v>1000</v>
@@ -5411,41 +5265,41 @@
     </row>
     <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B22" s="23" t="s">
         <v>320</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>324</v>
       </c>
       <c r="C22" s="17"/>
     </row>
     <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B23" s="23" t="s">
         <v>321</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>325</v>
       </c>
       <c r="C23" s="17"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B24"/>
       <c r="C24" s="17"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B25" t="s">
         <v>327</v>
-      </c>
-      <c r="B25" t="s">
-        <v>331</v>
       </c>
       <c r="C25" s="17"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B26">
         <v>8789</v>
@@ -5454,7 +5308,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B27">
         <v>8776</v>
@@ -5463,337 +5317,343 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B28" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C28" s="17"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" t="s">
-        <v>333</v>
+    <row r="29" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>141</v>
       </c>
       <c r="C29" s="17"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="B30">
-        <v>8989</v>
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>329</v>
       </c>
       <c r="C30" s="17"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="B31" t="s">
-        <v>335</v>
+        <v>312</v>
+      </c>
+      <c r="B31">
+        <v>8989</v>
       </c>
       <c r="C31" s="17"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>144</v>
-      </c>
+      <c r="A32" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B32" t="s">
+        <v>331</v>
+      </c>
+      <c r="C32" s="17"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
-        <v>145</v>
+      <c r="A33" s="18" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="B35" s="8">
-        <v>18500</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B36" s="8">
-        <v>18000</v>
+        <v>18500</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B37" s="8">
-        <v>17500</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B38" s="8">
-        <v>17000</v>
+        <v>17500</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B39" s="8">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B40" s="8">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="B39" s="8">
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B42" s="18" t="s">
+      <c r="B47" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="C42" s="18" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
+      <c r="B48" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
-        <v>347</v>
-      </c>
       <c r="B49" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>219</v>
+        <v>352</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>357</v>
+        <v>216</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>377</v>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/ExcelTestData/Newtestdata.xlsx
+++ b/testdata/ExcelTestData/Newtestdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shakuntala\Periscope\pandc\testdata\ExcelTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E61CF5-CD12-486A-B23D-3DD3F8C5F4C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27628187-93A1-4402-8D2E-BADE855FA0FC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="6" xr2:uid="{D923499C-DDE5-4EE4-B604-8A52F010599A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="5" activeTab="8" xr2:uid="{D923499C-DDE5-4EE4-B604-8A52F010599A}"/>
   </bookViews>
   <sheets>
     <sheet name="Named Insureds" sheetId="11" r:id="rId1"/>
@@ -21,10 +21,11 @@
     <sheet name="Transit" sheetId="6" r:id="rId6"/>
     <sheet name="Auto" sheetId="8" r:id="rId7"/>
     <sheet name="International Revenue &amp; Payroll" sheetId="12" r:id="rId8"/>
-    <sheet name="Workers Comp" sheetId="9" r:id="rId9"/>
-    <sheet name="WC Supplemental" sheetId="10" r:id="rId10"/>
-    <sheet name="Premium history " sheetId="1" r:id="rId11"/>
-    <sheet name="Crime" sheetId="5" r:id="rId12"/>
+    <sheet name="Auto Rental &amp; Travel" sheetId="13" r:id="rId9"/>
+    <sheet name="Workers Comp" sheetId="9" r:id="rId10"/>
+    <sheet name="WC Supplemental" sheetId="10" r:id="rId11"/>
+    <sheet name="Premium history " sheetId="1" r:id="rId12"/>
+    <sheet name="Crime" sheetId="5" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="482">
   <si>
     <t>Column Name</t>
   </si>
@@ -1208,9 +1209,6 @@
     <t>State of inc. or jurisdiction</t>
   </si>
   <si>
-    <t>abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2</t>
-  </si>
-  <si>
     <t>abc2@abc2@abc2@abc2@abc2@abc2@abc2@abc2@abc2@abc2@</t>
   </si>
   <si>
@@ -1391,6 +1389,106 @@
   </si>
   <si>
     <t>Avenue Street</t>
+  </si>
+  <si>
+    <t>abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2abcd2@abcd2</t>
+  </si>
+  <si>
+    <t>ABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDF$^&amp;!@&amp;1</t>
+  </si>
+  <si>
+    <t>12345678910ABC</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>20/20/2020</t>
+  </si>
+  <si>
+    <t>abc2$abc2$abc2$abc2$abc2$abc2$abc2$abc2$abc2$abc2$@@</t>
+  </si>
+  <si>
+    <t>Abcd@12$</t>
+  </si>
+  <si>
+    <t>abc2*&amp;@2aaabc2*&amp;@2abc2*&amp;bc2*&amp;@2abc2*&amp;@2abc2*&amp;@2abc2*&amp;@2abc2*&amp;@2abc2*&amp;@2abc2*&amp;@2abc2*&amp;@2abc2*&amp;@2abc2*&amp;@2abc2*&amp;@2abc2*&amp;@2abc2*&amp;@2abc2*&amp;@2abc2*&amp;@2bc2*&amp;@2</t>
+  </si>
+  <si>
+    <t>abcdeabcdeabcdeabcdeabcdeabcdeabcdeabcdeabcdeabcdeabcdeabcdeabcdeabcdeabcdeabcdeabcdeabcdeabcdeabcde</t>
+  </si>
+  <si>
+    <t>Abcd #@1</t>
+  </si>
+  <si>
+    <t>Test4006121</t>
+  </si>
+  <si>
+    <t>Ab@2$Ab@2$Ab@2$Ab@2$Ab@2$Ab@2$Ab@2$Ab@2$Ab@2$Ab@2$222S</t>
+  </si>
+  <si>
+    <t>Test*_!1234Test*_!1234Test*_!1234Test*_!1234Test*Test*_!1234Test*_!1234Test*_!1234Test*_!1234Test*_!1234Test*_!1234Test*_!_!1234Test*_!1234Test*_!1234</t>
+  </si>
+  <si>
+    <t>ABCW@@</t>
+  </si>
+  <si>
+    <t>abc123</t>
+  </si>
+  <si>
+    <t>DIV123@ DIV123T23Test@@ DIV123Test DIV123Test '</t>
+  </si>
+  <si>
+    <t>Add Row</t>
+  </si>
+  <si>
+    <t>Test Location 2 to Delware</t>
+  </si>
+  <si>
+    <t>Local Legal Entity</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Aveneu street -1, hollywood road.</t>
+  </si>
+  <si>
+    <t>St.Louis</t>
+  </si>
+  <si>
+    <t>Ind</t>
+  </si>
+  <si>
+    <t>United S</t>
+  </si>
+  <si>
+    <t>State or Province</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t>Estimated Annual GEstimated Annual Gross Revenue (USD)ross Revenue (USD)</t>
+  </si>
+  <si>
+    <t>Comments
+(Please Enter the Currency Code if Currency is not USD</t>
+  </si>
+  <si>
+    <t>Job Function</t>
+  </si>
+  <si>
+    <t>U.S National</t>
+  </si>
+  <si>
+    <t>Payroll (USD)</t>
+  </si>
+  <si>
+    <t>Local National</t>
+  </si>
+  <si>
+    <t>3rd Country National</t>
   </si>
 </sst>
 </file>
@@ -1524,7 +1622,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1618,6 +1716,17 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1942,8 +2051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE12E4D-FB7F-4E63-97F0-B0D0FFCBC628}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1997,8 +2106,8 @@
       <c r="B4" s="26">
         <v>123456789</v>
       </c>
-      <c r="C4" s="27">
-        <v>12345678910</v>
+      <c r="C4" s="27" t="s">
+        <v>451</v>
       </c>
       <c r="D4" s="27" t="s">
         <v>387</v>
@@ -2012,59 +2121,659 @@
         <v>388</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C5" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="D5" s="28" t="s">
         <v>389</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>390</v>
       </c>
       <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B6" s="31">
         <v>43989</v>
       </c>
-      <c r="C6" s="26">
-        <v>20032020</v>
+      <c r="C6" s="26" t="s">
+        <v>453</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="30"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="B7" s="26"/>
+        <v>391</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>452</v>
+      </c>
       <c r="C7" s="26"/>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>395</v>
-      </c>
-      <c r="C8" s="26"/>
+        <v>394</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>450</v>
+      </c>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{26826582-39D9-43B7-8255-2774B783E13D}"/>
+    <hyperlink ref="C8" display="ABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDF" xr:uid="{12252DAF-8F83-47AD-8C21-0929200B96DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AE8549-2611-4C3D-8F42-2BE39C7FE28A}">
+  <dimension ref="A1:C63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B3" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B4" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5" s="17"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B6" s="8">
+        <v>5</v>
+      </c>
+      <c r="C6" s="17"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B7" s="8">
+        <v>6</v>
+      </c>
+      <c r="C7" s="17"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="17"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="17"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="B12" s="8">
+        <v>878983145</v>
+      </c>
+      <c r="C12" s="17"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B13" s="8">
+        <v>98789</v>
+      </c>
+      <c r="C13" s="17"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B14" s="8">
+        <v>98987</v>
+      </c>
+      <c r="C14" s="17"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B15" s="8">
+        <v>877889</v>
+      </c>
+      <c r="C15" s="17"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C16" s="17"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B17" s="8">
+        <v>1000</v>
+      </c>
+      <c r="C17" s="17"/>
+    </row>
+    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="17"/>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C19" s="17"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="17"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B21" s="8">
+        <v>1000</v>
+      </c>
+      <c r="C21" s="17"/>
+    </row>
+    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="C22" s="17"/>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="C23" s="17"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="B24"/>
+      <c r="C24" s="17"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B25" t="s">
+        <v>327</v>
+      </c>
+      <c r="C25" s="17"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B26">
+        <v>8789</v>
+      </c>
+      <c r="C26" s="17"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B27">
+        <v>8776</v>
+      </c>
+      <c r="C27" s="17"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B28" t="s">
+        <v>328</v>
+      </c>
+      <c r="C28" s="17"/>
+    </row>
+    <row r="29" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="17"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>329</v>
+      </c>
+      <c r="C30" s="17"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B31">
+        <v>8989</v>
+      </c>
+      <c r="C31" s="17"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B32" t="s">
+        <v>331</v>
+      </c>
+      <c r="C32" s="17"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B36" s="8">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B37" s="8">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B38" s="8">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B39" s="8">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B40" s="8">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>373</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0225CBA0-1286-43E7-81E1-D63CD105B082}">
   <dimension ref="A1:C30"/>
   <sheetViews>
@@ -2101,7 +2810,7 @@
         <v>375</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2117,68 +2826,68 @@
         <v>377</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C5" s="17"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="37" t="s">
+        <v>406</v>
+      </c>
+      <c r="B6" s="34" t="s">
         <v>407</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>408</v>
       </c>
       <c r="C6" s="17"/>
     </row>
     <row r="7" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B7" s="34"/>
       <c r="C7" s="17"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C8" s="17"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
+        <v>409</v>
+      </c>
+      <c r="B9" s="34" t="s">
         <v>410</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>411</v>
       </c>
       <c r="C9" s="17"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="B10" s="34" t="s">
         <v>412</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>413</v>
       </c>
       <c r="C10" s="17"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
+        <v>413</v>
+      </c>
+      <c r="B11" s="34" t="s">
         <v>414</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>415</v>
       </c>
       <c r="C11" s="17"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
+        <v>415</v>
+      </c>
+      <c r="B12" s="34" t="s">
         <v>416</v>
-      </c>
-      <c r="B12" s="34" t="s">
-        <v>417</v>
       </c>
       <c r="C12" s="17"/>
     </row>
@@ -2188,8 +2897,8 @@
       <c r="C13" s="17"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
-        <v>418</v>
+      <c r="A14" s="49" t="s">
+        <v>417</v>
       </c>
       <c r="B14" s="34">
         <v>25</v>
@@ -2197,7 +2906,7 @@
       <c r="C14" s="17"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+      <c r="A15" s="49"/>
       <c r="B15" s="34">
         <v>15</v>
       </c>
@@ -2205,43 +2914,43 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
+        <v>418</v>
+      </c>
+      <c r="B16" s="34" t="s">
         <v>419</v>
-      </c>
-      <c r="B16" s="34" t="s">
-        <v>420</v>
       </c>
       <c r="C16" s="17"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
+        <v>420</v>
+      </c>
+      <c r="B17" s="34" t="s">
         <v>421</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>422</v>
       </c>
       <c r="C17" s="17"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="B18" s="34" t="s">
         <v>423</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>424</v>
       </c>
       <c r="C18" s="17"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="B19" s="34" t="s">
         <v>425</v>
-      </c>
-      <c r="B19" s="34" t="s">
-        <v>426</v>
       </c>
       <c r="C19" s="17"/>
     </row>
     <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B20" s="34">
         <v>2</v>
@@ -2250,82 +2959,82 @@
     </row>
     <row r="21" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C21" s="17"/>
     </row>
     <row r="22" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C22" s="17"/>
     </row>
     <row r="23" spans="1:3" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C23" s="17"/>
     </row>
     <row r="24" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="41" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C24" s="17"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
+        <v>427</v>
+      </c>
+      <c r="B25" s="34" t="s">
         <v>428</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>429</v>
       </c>
       <c r="C25" s="17"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
+        <v>429</v>
+      </c>
+      <c r="B26" s="34" t="s">
         <v>430</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>431</v>
       </c>
       <c r="C26" s="17"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="39" t="s">
+        <v>431</v>
+      </c>
+      <c r="B27" s="34" t="s">
         <v>432</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>433</v>
       </c>
       <c r="C27" s="17"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="s">
+        <v>433</v>
+      </c>
+      <c r="B28" s="34" t="s">
         <v>434</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>435</v>
       </c>
       <c r="C28" s="17"/>
     </row>
     <row r="29" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
+        <v>442</v>
+      </c>
+      <c r="B29" s="34" t="s">
         <v>443</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>444</v>
       </c>
       <c r="C29" s="17"/>
     </row>
@@ -2334,7 +3043,7 @@
         <v>52</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C30" s="17"/>
     </row>
@@ -2343,11 +3052,11 @@
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C884AA-D984-4FBE-A6B1-ADD5E612BF85}">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -2545,7 +3254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6772356F-1659-4F7E-AC7D-01E061448FE4}">
   <dimension ref="A1:B22"/>
   <sheetViews>
@@ -3810,7 +4519,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3918,7 +4627,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3964,7 +4673,7 @@
         <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4091,10 +4800,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="48"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -4256,10 +4965,10 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="43"/>
+      <c r="B26" s="48"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -4585,50 +5294,60 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80E40C2-8F61-422B-8B66-5E35CD325EB0}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.28515625" style="8" customWidth="1"/>
     <col min="2" max="2" width="38.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="3" max="4" width="14.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="E1" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>263</v>
       </c>
       <c r="B3" s="8">
         <v>2015</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" s="8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>264</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" s="28" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>265</v>
       </c>
@@ -4636,8 +5355,13 @@
         <v>296</v>
       </c>
       <c r="C5" s="17"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="17"/>
+      <c r="E5" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>266</v>
       </c>
@@ -4645,8 +5369,13 @@
         <v>297</v>
       </c>
       <c r="C6" s="17"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="17"/>
+      <c r="E6" s="28" t="s">
+        <v>454</v>
+      </c>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>267</v>
       </c>
@@ -4654,8 +5383,13 @@
         <v>298</v>
       </c>
       <c r="C7" s="17"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="17"/>
+      <c r="E7" s="43" t="s">
+        <v>455</v>
+      </c>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>93</v>
       </c>
@@ -4663,8 +5397,13 @@
         <v>99</v>
       </c>
       <c r="C8" s="17"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="17"/>
+      <c r="E8" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="F8" s="17"/>
+    </row>
+    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>57</v>
       </c>
@@ -4672,8 +5411,13 @@
         <v>299</v>
       </c>
       <c r="C9" s="17"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="17"/>
+      <c r="E9" s="29" t="s">
+        <v>456</v>
+      </c>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>59</v>
       </c>
@@ -4681,8 +5425,13 @@
         <v>59</v>
       </c>
       <c r="C10" s="17"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="17"/>
+      <c r="E10" s="43" t="s">
+        <v>455</v>
+      </c>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>60</v>
       </c>
@@ -4690,17 +5439,27 @@
         <v>77</v>
       </c>
       <c r="C11" s="17"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="17"/>
+      <c r="E11" s="28" t="s">
+        <v>457</v>
+      </c>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>268</v>
       </c>
       <c r="B12" s="8">
-        <v>1234567895</v>
+        <v>12345</v>
       </c>
       <c r="C12" s="17"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="17"/>
+      <c r="E12" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>269</v>
       </c>
@@ -4708,8 +5467,13 @@
         <v>300</v>
       </c>
       <c r="C13" s="17"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="17"/>
+      <c r="E13" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>270</v>
       </c>
@@ -4717,8 +5481,13 @@
         <v>301</v>
       </c>
       <c r="C14" s="17"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="17"/>
+      <c r="E14" s="44" t="s">
+        <v>460</v>
+      </c>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>271</v>
       </c>
@@ -4726,17 +5495,27 @@
         <v>302</v>
       </c>
       <c r="C15" s="17"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="17"/>
+      <c r="E15" s="28" t="s">
+        <v>461</v>
+      </c>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>272</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C16" s="17"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="17"/>
+      <c r="E16" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="F16" s="17"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>273</v>
       </c>
@@ -4744,8 +5523,13 @@
         <v>32330</v>
       </c>
       <c r="C17" s="17"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="17"/>
+      <c r="E17" s="27">
+        <v>61254</v>
+      </c>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>60</v>
       </c>
@@ -4753,15 +5537,23 @@
         <v>77</v>
       </c>
       <c r="C18" s="17"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="17"/>
+      <c r="E18" s="28" t="s">
+        <v>457</v>
+      </c>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>274</v>
       </c>
       <c r="B19"/>
       <c r="C19" s="17"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="17"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>128</v>
       </c>
@@ -4769,8 +5561,13 @@
         <v>1000</v>
       </c>
       <c r="C20" s="17"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="17"/>
+      <c r="E20" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>275</v>
       </c>
@@ -4778,8 +5575,13 @@
         <v>1000</v>
       </c>
       <c r="C21" s="17"/>
-    </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D21" s="17"/>
+      <c r="E21" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>276</v>
       </c>
@@ -4789,8 +5591,15 @@
       <c r="C22" s="21" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="17"/>
+      <c r="E22" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>279</v>
       </c>
@@ -4800,8 +5609,15 @@
       <c r="C23" s="17">
         <v>250</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="17"/>
+      <c r="E23" s="28" t="s">
+        <v>462</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>280</v>
       </c>
@@ -4811,8 +5627,15 @@
       <c r="C24" s="17" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D24" s="17"/>
+      <c r="E24" s="28" t="s">
+        <v>463</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>281</v>
       </c>
@@ -4822,8 +5645,15 @@
       <c r="C25" s="21" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D25" s="17"/>
+      <c r="E25" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>284</v>
       </c>
@@ -4833,8 +5663,11 @@
       <c r="C26" s="17" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="D26" s="17"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="17"/>
+    </row>
+    <row r="27" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>285</v>
       </c>
@@ -4844,8 +5677,11 @@
       <c r="C27" s="17" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D27" s="17"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>286</v>
       </c>
@@ -4855,8 +5691,11 @@
       <c r="C28" s="17" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="D28" s="17"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:6" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>287</v>
       </c>
@@ -4866,18 +5705,21 @@
       <c r="C29" s="17" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="17"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>288</v>
       </c>
@@ -4960,23 +5802,181 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{41E8F483-D018-47E4-9739-CDF826D61FCE}"/>
+    <hyperlink ref="E9" r:id="rId2" xr:uid="{9C7674AA-743C-4878-B8B8-10A150D6FE88}"/>
+    <hyperlink ref="E13" r:id="rId3" xr:uid="{3966AD61-0D14-475D-BF9C-AFE3112968A4}"/>
+    <hyperlink ref="E14" r:id="rId4" xr:uid="{4F30EE64-A767-4D2B-8A4D-ECC793F2113E}"/>
+    <hyperlink ref="E10" r:id="rId5" xr:uid="{7329CDD2-294B-465E-9055-F10B0E6F06B4}"/>
+    <hyperlink ref="E16" r:id="rId6" xr:uid="{DFC94777-4915-47E3-B8E8-CAB692DEE9A3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6855AF93-82AA-4D05-A803-46C5BBC6D83F}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
+        <v>467</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>468</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>469</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>470</v>
+      </c>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>471</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
+        <v>473</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>474</v>
+      </c>
+      <c r="D6" s="45"/>
+    </row>
+    <row r="7" spans="1:4" s="45" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="46" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
+        <v>475</v>
+      </c>
+      <c r="B8">
+        <v>234945223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="46" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="46" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="46" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="46" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="46" t="s">
+        <v>479</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC313E08-7E7B-4CCB-BC46-217595D676F7}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -4989,12 +5989,12 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -5002,7 +6002,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -5010,28 +6010,28 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B5" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B8">
         <v>50</v>
@@ -5039,7 +6039,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -5047,617 +6047,65 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>405</v>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="B12" s="26"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="B14" s="26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="B15" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>466</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AE8549-2611-4C3D-8F42-2BE39C7FE28A}">
-  <dimension ref="A1:C63"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.28515625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="B2" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="B3" s="8">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="B4" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="C5" s="17"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="B6" s="8">
-        <v>5</v>
-      </c>
-      <c r="C6" s="17"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B7" s="8">
-        <v>6</v>
-      </c>
-      <c r="C7" s="17"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="17"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="C9" s="17"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="17"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="17"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="B12" s="8">
-        <v>878983145</v>
-      </c>
-      <c r="C12" s="17"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="B13" s="8">
-        <v>98789</v>
-      </c>
-      <c r="C13" s="17"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="B14" s="8">
-        <v>98987</v>
-      </c>
-      <c r="C14" s="17"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="B15" s="8">
-        <v>877889</v>
-      </c>
-      <c r="C15" s="17"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="C16" s="17"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="B17" s="8">
-        <v>1000</v>
-      </c>
-      <c r="C17" s="17"/>
-    </row>
-    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C18" s="17"/>
-    </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="C19" s="17"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>318</v>
-      </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="17"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="B21" s="8">
-        <v>1000</v>
-      </c>
-      <c r="C21" s="17"/>
-    </row>
-    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="C22" s="17"/>
-    </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="C23" s="17"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="B24"/>
-      <c r="C24" s="17"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="B25" t="s">
-        <v>327</v>
-      </c>
-      <c r="C25" s="17"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="B26">
-        <v>8789</v>
-      </c>
-      <c r="C26" s="17"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="B27">
-        <v>8776</v>
-      </c>
-      <c r="C27" s="17"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="B28" t="s">
-        <v>328</v>
-      </c>
-      <c r="C28" s="17"/>
-    </row>
-    <row r="29" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="C29" s="17"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" t="s">
-        <v>329</v>
-      </c>
-      <c r="C30" s="17"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="B31">
-        <v>8989</v>
-      </c>
-      <c r="C31" s="17"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="B32" t="s">
-        <v>331</v>
-      </c>
-      <c r="C32" s="17"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="B36" s="8">
-        <v>18500</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="B37" s="8">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="B38" s="8">
-        <v>17500</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="B39" s="8">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="B40" s="8">
-        <v>16500</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>373</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testdata/ExcelTestData/Newtestdata.xlsx
+++ b/testdata/ExcelTestData/Newtestdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20356"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20337"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shakuntala\Periscope\pandc\testdata\ExcelTestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Shakuntala\Periscope\pandc\testdata\ExcelTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9074FCA5-B97A-4863-BFC5-2FB0FA43BB26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9371F5FE-3032-4667-89EA-126F4E00BDC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{D923499C-DDE5-4EE4-B604-8A52F010599A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="6" activeTab="9" xr2:uid="{D923499C-DDE5-4EE4-B604-8A52F010599A}"/>
   </bookViews>
   <sheets>
     <sheet name="CoverPage" sheetId="20" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <sheet name="Premium history " sheetId="1" r:id="rId21"/>
     <sheet name="Crime" sheetId="5" r:id="rId22"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="712">
   <si>
     <t>Column Name</t>
   </si>
@@ -1796,9 +1796,6 @@
     <t>Test Street</t>
   </si>
   <si>
-    <t>Test Company  2</t>
-  </si>
-  <si>
     <t>Test Street  2</t>
   </si>
   <si>
@@ -2232,6 +2229,12 @@
   </si>
   <si>
     <t>Test Info</t>
+  </si>
+  <si>
+    <t>Test Company 2</t>
+  </si>
+  <si>
+    <t>abcd@</t>
   </si>
 </sst>
 </file>
@@ -2467,7 +2470,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2637,12 +2640,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 4" xfId="1" builtinId="19"/>
@@ -2961,7 +2967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED3C3E-F680-454C-8DD3-367FA26F8D89}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -2976,20 +2982,20 @@
         <v>25</v>
       </c>
       <c r="B1" s="54" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>305</v>
@@ -3000,23 +3006,23 @@
         <v>254</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -3026,10 +3032,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7386B1F8-159A-49CF-ACED-F12B36D938AD}">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3038,9 +3044,11 @@
     <col min="2" max="2" width="38.28515625" style="8" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" style="8" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="67"/>
+    <col min="10" max="12" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -3048,12 +3056,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>148</v>
       </c>
@@ -3066,8 +3074,26 @@
       <c r="D3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="85" t="s">
+        <v>711</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="J3" s="84">
+        <v>12345678912365</v>
+      </c>
+      <c r="K3" s="84">
+        <v>12345678912365</v>
+      </c>
+      <c r="L3" s="84">
+        <v>12345678912365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>149</v>
       </c>
@@ -3080,8 +3106,26 @@
       <c r="D4">
         <v>10000000</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="J4" s="84">
+        <v>12345678912365</v>
+      </c>
+      <c r="K4" s="84">
+        <v>12345678912365</v>
+      </c>
+      <c r="L4" s="84">
+        <v>12345678912365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>150</v>
       </c>
@@ -3092,17 +3136,17 @@
         <v>18000000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>152</v>
       </c>
@@ -3110,7 +3154,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>153</v>
       </c>
@@ -3118,12 +3162,12 @@
         <v>19500</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>154</v>
       </c>
@@ -3131,7 +3175,7 @@
         <v>18500</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>155</v>
       </c>
@@ -3139,7 +3183,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>156</v>
       </c>
@@ -3147,7 +3191,7 @@
         <v>17500</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>157</v>
       </c>
@@ -3155,7 +3199,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>158</v>
       </c>
@@ -3163,7 +3207,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>159</v>
       </c>
@@ -3668,7 +3712,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{08716E94-C74C-454F-9918-6A6544CA63AD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3694,15 +3742,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B3">
         <v>120000</v>
@@ -3957,10 +4005,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="72" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B3" s="67" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C3" s="67"/>
       <c r="D3" s="67"/>
@@ -3970,7 +4018,7 @@
         <v>56</v>
       </c>
       <c r="B4" s="67" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C4" s="46"/>
       <c r="D4" s="67"/>
@@ -3980,7 +4028,7 @@
         <v>55</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C5" s="46"/>
       <c r="D5" s="67"/>
@@ -3990,7 +4038,7 @@
         <v>57</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C6" s="46"/>
       <c r="D6" s="67"/>
@@ -4016,10 +4064,10 @@
     </row>
     <row r="9" spans="1:6" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="72" t="s">
+        <v>593</v>
+      </c>
+      <c r="B9" s="67" t="s">
         <v>594</v>
-      </c>
-      <c r="B9" s="67" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4035,7 +4083,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="72" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B11" s="22">
         <v>1</v>
@@ -4046,7 +4094,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="72" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B12" s="67">
         <v>8000</v>
@@ -4057,7 +4105,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="72" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B13" s="22">
         <v>1</v>
@@ -4068,7 +4116,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="72" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B14">
         <v>9000</v>
@@ -4079,7 +4127,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="72" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B15" s="22">
         <v>1</v>
@@ -4090,7 +4138,7 @@
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="72" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B16">
         <v>12</v>
@@ -4101,7 +4149,7 @@
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="72" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B17">
         <v>12000</v>
@@ -4112,7 +4160,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="72" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B18">
         <v>365</v>
@@ -4201,10 +4249,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="81"/>
+      <c r="B6" s="82"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
@@ -4368,10 +4416,10 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="81" t="s">
+      <c r="A26" s="82" t="s">
         <v>125</v>
       </c>
-      <c r="B26" s="81"/>
+      <c r="B26" s="82"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -4855,7 +4903,7 @@
         <v>251</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -5250,7 +5298,7 @@
         <v>443</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C2" s="41"/>
       <c r="D2" s="41"/>
@@ -5270,7 +5318,7 @@
         <v>57</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C4" s="41"/>
       <c r="D4" s="41"/>
@@ -5303,10 +5351,10 @@
     </row>
     <row r="7" spans="1:4" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="72" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="41" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -5314,7 +5362,7 @@
         <v>449</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
@@ -5663,7 +5711,7 @@
         <v>251</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C12" s="15"/>
     </row>
@@ -6336,7 +6384,7 @@
         <v>382</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C6" s="15"/>
     </row>
@@ -6398,7 +6446,7 @@
       <c r="C13" s="15"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="83" t="s">
         <v>393</v>
       </c>
       <c r="B14" s="30">
@@ -6407,7 +6455,7 @@
       <c r="C14" s="15"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="82"/>
+      <c r="A15" s="83"/>
       <c r="B15" s="30">
         <v>15</v>
       </c>
@@ -6971,10 +7019,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
+        <v>587</v>
+      </c>
+      <c r="B2" s="55" t="s">
         <v>588</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6982,15 +7030,15 @@
         <v>56</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
+        <v>590</v>
+      </c>
+      <c r="B4" s="55" t="s">
         <v>591</v>
-      </c>
-      <c r="B4" s="55" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -7011,7 +7059,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="58" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B7" s="55" t="s">
         <v>69</v>
@@ -7019,15 +7067,15 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="58" t="s">
+        <v>593</v>
+      </c>
+      <c r="B8" s="55" t="s">
         <v>594</v>
-      </c>
-      <c r="B8" s="55" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="58" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B9" s="78">
         <v>15000</v>
@@ -7035,7 +7083,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="58" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B10" s="78">
         <v>10000</v>
@@ -7043,7 +7091,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="58" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B11" s="78">
         <v>10000</v>
@@ -7067,7 +7115,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="58" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B14" s="78">
         <v>10000</v>
@@ -7075,7 +7123,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="58" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B15" s="78">
         <v>10000</v>
@@ -7083,7 +7131,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="59" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B16" s="78">
         <v>10000</v>
@@ -7091,7 +7139,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="58" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B17" s="78">
         <v>10000</v>
@@ -7099,7 +7147,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="58" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B18" s="78">
         <v>10000</v>
@@ -7107,7 +7155,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="58" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B19" s="78">
         <v>10000</v>
@@ -7115,7 +7163,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="58" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B20" s="78">
         <v>10000</v>
@@ -7123,7 +7171,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="58" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B21" s="78">
         <v>10000</v>
@@ -7131,7 +7179,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="58" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B22" s="78">
         <v>10000</v>
@@ -7139,7 +7187,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="58" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B23" s="78">
         <v>10000</v>
@@ -7147,7 +7195,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="58" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B24" s="78">
         <v>10000</v>
@@ -7155,7 +7203,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="58" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B25" s="78">
         <v>10000</v>
@@ -7163,7 +7211,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="58" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B26" s="78">
         <v>10000</v>
@@ -7171,7 +7219,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="58" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B27" s="78">
         <v>10000</v>
@@ -7179,7 +7227,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="58" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B28" s="78">
         <v>10000</v>
@@ -7187,7 +7235,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="58" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B29" s="78">
         <v>10000</v>
@@ -7195,7 +7243,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="58" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B30" s="78">
         <v>10000</v>
@@ -7203,7 +7251,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="58" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B31" s="78">
         <v>10000</v>
@@ -7211,7 +7259,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="58" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B32" s="78">
         <v>10000</v>
@@ -7219,7 +7267,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="58" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B33" s="78">
         <v>10000</v>
@@ -7227,7 +7275,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="58" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B34" s="78">
         <v>10000</v>
@@ -7235,7 +7283,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="58" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B35" s="78">
         <v>10000</v>
@@ -7243,7 +7291,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="58" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B36" s="78">
         <v>10000</v>
@@ -7251,7 +7299,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="58" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B37" s="78">
         <v>10000</v>
@@ -7291,7 +7339,7 @@
     </row>
     <row r="42" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="58" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B42" s="78">
         <v>45000</v>
@@ -7342,10 +7390,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="58" t="s">
+        <v>622</v>
+      </c>
+      <c r="B48" s="55" t="s">
         <v>623</v>
-      </c>
-      <c r="B48" s="55" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -7366,15 +7414,15 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="58" t="s">
+        <v>624</v>
+      </c>
+      <c r="B51" s="55" t="s">
         <v>625</v>
-      </c>
-      <c r="B51" s="55" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="58" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B52" s="55">
         <v>1000</v>
@@ -7390,7 +7438,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="58" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B54" s="55">
         <v>80</v>
@@ -7406,7 +7454,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="58" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B56" s="55">
         <v>15</v>
@@ -8046,7 +8094,7 @@
         <v>65</v>
       </c>
       <c r="B42" s="41" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -8100,8 +8148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D2AA5C-E1C4-4CA2-AB01-8B2F45BFCDB3}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8128,26 +8176,26 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="67" t="s">
+        <v>677</v>
+      </c>
+      <c r="B3" s="67" t="s">
         <v>678</v>
-      </c>
-      <c r="B3" s="67" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="67" t="s">
+        <v>679</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>680</v>
-      </c>
-      <c r="B4" s="67" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="67" t="s">
+        <v>681</v>
+      </c>
+      <c r="B5" s="67" t="s">
         <v>682</v>
-      </c>
-      <c r="B5" s="67" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -8200,7 +8248,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="67" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B12" s="75">
         <v>10000</v>
@@ -8208,7 +8256,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="67" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B13" s="71">
         <v>0.2</v>
@@ -8219,23 +8267,23 @@
     </row>
     <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="72" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B14" s="70">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="67" t="s">
-        <v>687</v>
-      </c>
-      <c r="B15" s="75">
+      <c r="A15" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="B15" s="81">
         <v>10000</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="67" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B16" s="73">
         <v>3</v>
@@ -8243,10 +8291,10 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="67" t="s">
+        <v>688</v>
+      </c>
+      <c r="B17" s="67" t="s">
         <v>689</v>
-      </c>
-      <c r="B17" s="67" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -8254,7 +8302,7 @@
         <v>65</v>
       </c>
       <c r="B18" s="67" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -8335,10 +8383,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="82" t="s">
         <v>504</v>
       </c>
-      <c r="B2" s="81"/>
+      <c r="B2" s="82"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
@@ -8357,10 +8405,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="82" t="s">
         <v>507</v>
       </c>
-      <c r="B5" s="81"/>
+      <c r="B5" s="82"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
@@ -8387,10 +8435,10 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="82" t="s">
         <v>512</v>
       </c>
-      <c r="B9" s="81"/>
+      <c r="B9" s="82"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
@@ -9006,7 +9054,7 @@
         <v>548</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -9014,12 +9062,12 @@
         <v>549</v>
       </c>
       <c r="B3" s="55" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="55" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B4" s="55" t="s">
         <v>79</v>
@@ -9027,15 +9075,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="55" t="s">
+        <v>574</v>
+      </c>
+      <c r="B5" s="55" t="s">
         <v>575</v>
-      </c>
-      <c r="B5" s="55" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="55" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B6" s="55" t="s">
         <v>79</v>
@@ -9046,23 +9094,23 @@
         <v>557</v>
       </c>
       <c r="B7" s="55" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="55" t="s">
+        <v>578</v>
+      </c>
+      <c r="B8" s="55" t="s">
         <v>579</v>
-      </c>
-      <c r="B8" s="55" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="55" t="s">
+        <v>580</v>
+      </c>
+      <c r="B9" s="55" t="s">
         <v>581</v>
-      </c>
-      <c r="B9" s="55" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -9075,7 +9123,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="55" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B11" s="55" t="s">
         <v>537</v>
@@ -9086,12 +9134,12 @@
         <v>560</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="55" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B13" s="55" t="s">
         <v>79</v>
@@ -9099,7 +9147,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="55" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B14" s="55" t="s">
         <v>79</v>
@@ -9110,7 +9158,7 @@
         <v>558</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -9123,7 +9171,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9218,7 +9266,7 @@
         <v>82</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>565</v>
+        <v>710</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -9226,7 +9274,7 @@
         <v>55</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -9234,7 +9282,7 @@
         <v>57</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -9250,7 +9298,7 @@
         <v>446</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -9298,7 +9346,7 @@
         <v>557</v>
       </c>
       <c r="B21" s="41" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -9306,7 +9354,7 @@
         <v>558</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -9322,7 +9370,7 @@
         <v>560</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -9358,7 +9406,7 @@
         <v>455</v>
       </c>
       <c r="B2" s="66" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -9366,7 +9414,7 @@
         <v>55</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -9374,7 +9422,7 @@
         <v>57</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -9395,15 +9443,15 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="63" t="s">
+        <v>593</v>
+      </c>
+      <c r="B7" s="66" t="s">
         <v>594</v>
-      </c>
-      <c r="B7" s="66" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="63" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B8" s="79">
         <v>10000</v>
@@ -9411,7 +9459,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="63" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B9" s="79">
         <v>10000</v>
@@ -9419,7 +9467,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="63" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B10" s="79">
         <v>10000</v>
@@ -9427,7 +9475,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="63" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B11" s="79">
         <v>10000</v>
@@ -9435,7 +9483,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="63" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B12" s="79">
         <v>10000</v>
@@ -9443,7 +9491,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="63" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B13" s="79">
         <v>10000</v>
@@ -9451,7 +9499,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="63" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B14" s="79">
         <v>10000</v>
@@ -9459,7 +9507,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="63" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B15" s="79">
         <v>10000</v>
@@ -9467,7 +9515,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="63" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B16" s="79">
         <v>10000</v>
@@ -9475,7 +9523,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="63" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B17" s="79">
         <v>10000</v>
@@ -9483,7 +9531,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="63" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B18" s="79">
         <v>10000</v>
@@ -9491,7 +9539,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="63" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B19" s="79">
         <v>10000</v>
@@ -9499,7 +9547,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="63" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B20" s="79">
         <v>10000</v>
@@ -9507,7 +9555,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="63" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B21" s="79">
         <v>10000</v>
@@ -9515,7 +9563,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="63" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B22" s="79">
         <v>10000</v>
@@ -9523,7 +9571,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="63" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B23" s="79">
         <v>10000</v>
@@ -9531,7 +9579,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="63" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B24" s="79">
         <v>10000</v>
@@ -9539,7 +9587,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="63" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B25" s="79">
         <v>10000</v>
@@ -9547,7 +9595,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="63" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B26" s="79">
         <v>10000</v>
@@ -9555,7 +9603,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="63" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B27" s="79">
         <v>10000</v>
@@ -9563,7 +9611,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="63" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B28" s="79">
         <v>10000</v>
@@ -9571,7 +9619,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="63" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B29" s="79">
         <v>10000</v>
@@ -9579,7 +9627,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="63" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B30" s="79">
         <v>10000</v>
@@ -9587,7 +9635,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="63" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B31" s="79">
         <v>10000</v>
@@ -9595,7 +9643,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="63" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B32" s="79">
         <v>10000</v>
@@ -9606,7 +9654,7 @@
         <v>62</v>
       </c>
       <c r="B33" s="66" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -9646,7 +9694,7 @@
         <v>65</v>
       </c>
       <c r="B38" s="66" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -9670,7 +9718,7 @@
         <v>557</v>
       </c>
       <c r="B41" s="66" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -9686,12 +9734,12 @@
         <v>486</v>
       </c>
       <c r="B43" s="66" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="63" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B44" s="66" t="s">
         <v>70</v>
@@ -9699,7 +9747,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="63" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B45" s="66" t="s">
         <v>79</v>
@@ -9707,7 +9755,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="63" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B46" s="66" t="s">
         <v>79</v>
@@ -9715,7 +9763,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="63" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B47" s="66" t="s">
         <v>79</v>
@@ -9723,15 +9771,15 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="63" t="s">
+        <v>654</v>
+      </c>
+      <c r="B48" s="66" t="s">
         <v>655</v>
-      </c>
-      <c r="B48" s="66" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="63" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B49" s="66" t="s">
         <v>79</v>
@@ -9739,7 +9787,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="63" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B50" s="66" t="s">
         <v>79</v>
@@ -9747,15 +9795,15 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="63" t="s">
+        <v>658</v>
+      </c>
+      <c r="B51" s="66" t="s">
         <v>659</v>
-      </c>
-      <c r="B51" s="66" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="63" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B52" s="66" t="s">
         <v>79</v>
@@ -9763,15 +9811,15 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="63" t="s">
+        <v>661</v>
+      </c>
+      <c r="B53" s="66" t="s">
         <v>662</v>
-      </c>
-      <c r="B53" s="66" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="63" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B54" s="66" t="s">
         <v>79</v>
@@ -9779,7 +9827,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="63" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B55" s="66" t="s">
         <v>79</v>
@@ -9787,39 +9835,39 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="63" t="s">
+        <v>665</v>
+      </c>
+      <c r="B56" s="66" t="s">
         <v>666</v>
-      </c>
-      <c r="B56" s="66" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="63" t="s">
+        <v>667</v>
+      </c>
+      <c r="B57" s="66" t="s">
         <v>668</v>
-      </c>
-      <c r="B57" s="66" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="63" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B58" s="66" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="63" t="s">
+        <v>670</v>
+      </c>
+      <c r="B59" s="66" t="s">
         <v>671</v>
-      </c>
-      <c r="B59" s="66" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="63" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B60" s="66" t="s">
         <v>79</v>
@@ -9827,7 +9875,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="63" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B61" s="66" t="s">
         <v>79</v>
@@ -9835,10 +9883,10 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="63" t="s">
+        <v>674</v>
+      </c>
+      <c r="B62" s="66" t="s">
         <v>675</v>
-      </c>
-      <c r="B62" s="66" t="s">
-        <v>676</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/ExcelTestData/Newtestdata.xlsx
+++ b/testdata/ExcelTestData/Newtestdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Shakuntala\Periscope\pandc\testdata\ExcelTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8C2BA2-A007-4FF7-BE63-7A1831220C34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{506DC759-2CC8-41BA-BFBB-7A09DBC1D1D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{D923499C-DDE5-4EE4-B604-8A52F010599A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="15" activeTab="16" xr2:uid="{D923499C-DDE5-4EE4-B604-8A52F010599A}"/>
   </bookViews>
   <sheets>
     <sheet name="CoverPage" sheetId="20" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1425" uniqueCount="749">
   <si>
     <t>Column Name</t>
   </si>
@@ -2280,13 +2280,7 @@
     <t>United States12</t>
   </si>
   <si>
-    <t>abcde12345678</t>
-  </si>
-  <si>
     <t>Test1Test1Test1Test1Test1Test1Test1Test1Test1Test1Test1Test1Test1Test1Test1Test1Test1Test1Test1Test1Test1Test1Test1Test1Test1Test1Test1Test1Test1Test12</t>
-  </si>
-  <si>
-    <t>avcd</t>
   </si>
   <si>
     <t>45abcd</t>
@@ -2339,6 +2333,21 @@
   </si>
   <si>
     <t>Extra Expense</t>
+  </si>
+  <si>
+    <t>878983@@@</t>
+  </si>
+  <si>
+    <t>abcde1@</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstZZZ</t>
+  </si>
+  <si>
+    <t>VIN_6987\der2322$#</t>
   </si>
 </sst>
 </file>
@@ -2627,7 +2636,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2672,7 +2681,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2825,20 +2833,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2974,6 +2968,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3313,10 +3346,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="52" t="s">
         <v>630</v>
       </c>
     </row>
@@ -3332,7 +3365,7 @@
       <c r="A3" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>305</v>
       </c>
     </row>
@@ -3379,7 +3412,7 @@
     <col min="2" max="2" width="38.28515625" style="7" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" style="7" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="57"/>
+    <col min="9" max="9" width="9.140625" style="56"/>
     <col min="10" max="12" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3390,27 +3423,27 @@
       <c r="B1" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="146" t="s">
+      <c r="F1" s="139" t="s">
         <v>710</v>
       </c>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="137"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
+      <c r="K1" s="137"/>
+      <c r="L1" s="137"/>
     </row>
     <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -3425,24 +3458,24 @@
       <c r="D3">
         <v>10000</v>
       </c>
-      <c r="F3" s="145" t="s">
-        <v>708</v>
-      </c>
-      <c r="G3" s="145" t="s">
-        <v>708</v>
-      </c>
-      <c r="H3" s="145" t="s">
-        <v>708</v>
-      </c>
-      <c r="I3" s="144"/>
-      <c r="J3" s="147">
+      <c r="F3" s="138" t="s">
+        <v>708</v>
+      </c>
+      <c r="G3" s="138" t="s">
+        <v>708</v>
+      </c>
+      <c r="H3" s="138" t="s">
+        <v>708</v>
+      </c>
+      <c r="I3" s="137"/>
+      <c r="J3" s="140">
         <v>12345678912365</v>
       </c>
-      <c r="K3" s="148" t="s">
-        <v>733</v>
-      </c>
-      <c r="L3" s="148" t="s">
-        <v>733</v>
+      <c r="K3" s="141" t="s">
+        <v>731</v>
+      </c>
+      <c r="L3" s="141" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -3458,24 +3491,24 @@
       <c r="D4">
         <v>10000000</v>
       </c>
-      <c r="F4" s="145" t="s">
-        <v>708</v>
-      </c>
-      <c r="G4" s="145" t="s">
-        <v>708</v>
-      </c>
-      <c r="H4" s="145" t="s">
-        <v>708</v>
-      </c>
-      <c r="I4" s="144"/>
-      <c r="J4" s="147">
+      <c r="F4" s="138" t="s">
+        <v>708</v>
+      </c>
+      <c r="G4" s="138" t="s">
+        <v>708</v>
+      </c>
+      <c r="H4" s="138" t="s">
+        <v>708</v>
+      </c>
+      <c r="I4" s="137"/>
+      <c r="J4" s="140">
         <v>12345678912365</v>
       </c>
-      <c r="K4" s="148" t="s">
-        <v>733</v>
-      </c>
-      <c r="L4" s="148" t="s">
-        <v>733</v>
+      <c r="K4" s="141" t="s">
+        <v>731</v>
+      </c>
+      <c r="L4" s="141" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3488,49 +3521,49 @@
       <c r="C5" s="14">
         <v>18000000</v>
       </c>
-      <c r="F5" s="145" t="s">
-        <v>708</v>
-      </c>
-      <c r="G5" s="145" t="s">
-        <v>708</v>
-      </c>
-      <c r="H5" s="145" t="s">
-        <v>708</v>
-      </c>
-      <c r="I5" s="144"/>
-      <c r="J5" s="147">
+      <c r="F5" s="138" t="s">
+        <v>708</v>
+      </c>
+      <c r="G5" s="138" t="s">
+        <v>708</v>
+      </c>
+      <c r="H5" s="138" t="s">
+        <v>708</v>
+      </c>
+      <c r="I5" s="137"/>
+      <c r="J5" s="140">
         <v>12345678912365</v>
       </c>
-      <c r="K5" s="148" t="s">
-        <v>733</v>
-      </c>
-      <c r="L5" s="148" t="s">
-        <v>733</v>
+      <c r="K5" s="141" t="s">
+        <v>731</v>
+      </c>
+      <c r="L5" s="141" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="144"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="137"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="144"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -3539,13 +3572,13 @@
       <c r="B8" s="7">
         <v>20000</v>
       </c>
-      <c r="F8" s="144"/>
-      <c r="G8" s="144"/>
-      <c r="H8" s="144"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="144"/>
-      <c r="K8" s="144"/>
-      <c r="L8" s="144"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="137"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -3554,25 +3587,25 @@
       <c r="B9" s="7">
         <v>19500</v>
       </c>
-      <c r="F9" s="144"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="144"/>
-      <c r="I9" s="144"/>
-      <c r="J9" s="144"/>
-      <c r="K9" s="144"/>
-      <c r="L9" s="144"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="137"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="144"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="144"/>
-      <c r="I10" s="144"/>
-      <c r="J10" s="144"/>
-      <c r="K10" s="144"/>
-      <c r="L10" s="144"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="137"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -3581,13 +3614,13 @@
       <c r="B11" s="7">
         <v>18500</v>
       </c>
-      <c r="F11" s="144"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="144"/>
-      <c r="I11" s="144"/>
-      <c r="J11" s="144"/>
-      <c r="K11" s="144"/>
-      <c r="L11" s="144"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="137"/>
+      <c r="K11" s="137"/>
+      <c r="L11" s="137"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -3596,13 +3629,13 @@
       <c r="B12" s="7">
         <v>18000</v>
       </c>
-      <c r="F12" s="144"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="144"/>
-      <c r="I12" s="144"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="144"/>
-      <c r="L12" s="144"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="137"/>
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -3611,13 +3644,13 @@
       <c r="B13" s="7">
         <v>17500</v>
       </c>
-      <c r="F13" s="144"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="144"/>
-      <c r="J13" s="144"/>
-      <c r="K13" s="144"/>
-      <c r="L13" s="144"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="137"/>
+      <c r="L13" s="137"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
@@ -3626,13 +3659,13 @@
       <c r="B14" s="7">
         <v>17000</v>
       </c>
-      <c r="F14" s="144"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="144"/>
-      <c r="I14" s="144"/>
-      <c r="J14" s="144"/>
-      <c r="K14" s="144"/>
-      <c r="L14" s="144"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="137"/>
+      <c r="L14" s="137"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -3641,13 +3674,13 @@
       <c r="B15" s="7">
         <v>16500</v>
       </c>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144"/>
-      <c r="J15" s="144"/>
-      <c r="K15" s="144"/>
-      <c r="L15" s="144"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="137"/>
+      <c r="L15" s="137"/>
     </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
@@ -3656,13 +3689,13 @@
       <c r="B16" s="7">
         <v>16000</v>
       </c>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="137"/>
+      <c r="L16" s="137"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -4182,25 +4215,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="156" t="s">
+      <c r="D1" s="149" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="39" t="s">
         <v>627</v>
       </c>
       <c r="B2" t="s">
         <v>629</v>
       </c>
-      <c r="D2" s="157" t="s">
-        <v>727</v>
+      <c r="D2" s="150" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4210,7 +4243,7 @@
       <c r="B3">
         <v>120000</v>
       </c>
-      <c r="D3" s="155" t="s">
+      <c r="D3" s="148" t="s">
         <v>708</v>
       </c>
     </row>
@@ -4333,14 +4366,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>492</v>
       </c>
-      <c r="F1" s="153" t="s">
-        <v>734</v>
-      </c>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
+      <c r="F1" s="146" t="s">
+        <v>732</v>
+      </c>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -4349,131 +4382,131 @@
       <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="154" t="s">
+      <c r="F2" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="43" t="s">
         <v>495</v>
       </c>
-      <c r="C3" s="44" t="s">
+      <c r="C3" s="43" t="s">
         <v>496</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="43" t="s">
         <v>501</v>
       </c>
-      <c r="F3" s="151" t="s">
+      <c r="F3" s="144" t="s">
+        <v>733</v>
+      </c>
+      <c r="G3" s="144" t="s">
+        <v>734</v>
+      </c>
+      <c r="H3" s="144" t="s">
         <v>735</v>
       </c>
-      <c r="G3" s="151" t="s">
-        <v>736</v>
-      </c>
-      <c r="H3" s="151" t="s">
-        <v>737</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="58" t="s">
         <v>493</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="39">
         <v>400</v>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="44">
         <v>0.95</v>
       </c>
       <c r="E4">
         <v>0.95</v>
       </c>
-      <c r="F4" s="150" t="s">
-        <v>708</v>
-      </c>
-      <c r="G4" s="149" t="s">
-        <v>708</v>
-      </c>
-      <c r="H4" s="149"/>
+      <c r="F4" s="143" t="s">
+        <v>708</v>
+      </c>
+      <c r="G4" s="142" t="s">
+        <v>708</v>
+      </c>
+      <c r="H4" s="142"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="58" t="s">
         <v>494</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="39">
         <v>100</v>
       </c>
-      <c r="C5" s="45">
+      <c r="C5" s="44">
         <v>0.95</v>
       </c>
       <c r="E5">
         <v>0.95</v>
       </c>
-      <c r="F5" s="149" t="s">
-        <v>708</v>
-      </c>
-      <c r="G5" s="149" t="s">
-        <v>708</v>
-      </c>
-      <c r="H5" s="152"/>
+      <c r="F5" s="142" t="s">
+        <v>708</v>
+      </c>
+      <c r="G5" s="142" t="s">
+        <v>708</v>
+      </c>
+      <c r="H5" s="145"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="58" t="s">
         <v>497</v>
       </c>
       <c r="B6">
         <v>100</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="44">
         <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" s="149" t="s">
-        <v>708</v>
-      </c>
-      <c r="G6" s="149" t="s">
-        <v>708</v>
-      </c>
-      <c r="H6" s="149"/>
+      <c r="F6" s="142" t="s">
+        <v>708</v>
+      </c>
+      <c r="G6" s="142" t="s">
+        <v>708</v>
+      </c>
+      <c r="H6" s="142"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="58" t="s">
         <v>498</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="39">
         <v>1000</v>
       </c>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149" t="s">
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="58" t="s">
         <v>499</v>
       </c>
       <c r="D8">
         <v>365</v>
       </c>
-      <c r="F8" s="149"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="149" t="s">
+      <c r="F8" s="142"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="142" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="58" t="s">
         <v>500</v>
       </c>
       <c r="D9">
         <v>12</v>
       </c>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149" t="s">
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="142" t="s">
         <v>708</v>
       </c>
     </row>
@@ -4499,207 +4532,207 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>492</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="57" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="58" t="s">
         <v>691</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="56" t="s">
         <v>700</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="56" t="s">
         <v>701</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="57"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="56"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="56" t="s">
         <v>702</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="57"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="56"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="56" t="s">
         <v>703</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="57"/>
-    </row>
-    <row r="7" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
+      <c r="C6" s="44"/>
+      <c r="D6" s="56"/>
+    </row>
+    <row r="7" spans="1:6" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="45"/>
+      <c r="C7" s="44"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="58" t="s">
         <v>444</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-    </row>
-    <row r="9" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+    </row>
+    <row r="9" spans="1:6" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="58" t="s">
         <v>591</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="56" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="58" t="s">
         <v>493</v>
       </c>
-      <c r="B10" s="57">
+      <c r="B10" s="56">
         <v>10000</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="F10" s="57"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="F10" s="56"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="58" t="s">
         <v>692</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="20">
         <v>1</v>
       </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="F11" s="57"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="F11" s="56"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="58" t="s">
         <v>693</v>
       </c>
-      <c r="B12" s="57">
+      <c r="B12" s="56">
         <v>8000</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="F12" s="57"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="F12" s="56"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="58" t="s">
         <v>694</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="20">
         <v>1</v>
       </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="F13" s="57"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="F13" s="56"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="58" t="s">
         <v>695</v>
       </c>
       <c r="B14">
         <v>9000</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="F14" s="57"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="F14" s="56"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="58" t="s">
         <v>696</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="20">
         <v>1</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="F15" s="57"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="F15" s="56"/>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="58" t="s">
         <v>697</v>
       </c>
       <c r="B16">
         <v>12</v>
       </c>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="F16" s="57"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="F16" s="56"/>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="58" t="s">
         <v>698</v>
       </c>
       <c r="B17">
         <v>12000</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="F17" s="57"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="F17" s="56"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="58" t="s">
         <v>699</v>
       </c>
       <c r="B18">
         <v>365</v>
       </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="F18" s="57"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="F18" s="56"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="F19" s="57"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="F19" s="56"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="F20" s="57"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="F20" s="56"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="F21" s="57"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="F21" s="56"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D22" s="57"/>
-      <c r="F22" s="57"/>
+      <c r="D22" s="56"/>
+      <c r="F22" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4720,90 +4753,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="163" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="171" t="s">
+      <c r="B1" s="164" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="162" t="s">
+        <v>739</v>
+      </c>
+      <c r="B2" s="162" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="162" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="162">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="162" t="s">
         <v>741</v>
       </c>
-      <c r="B2" s="169" t="s">
+      <c r="B4" s="162">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="162" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="169" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="169">
+      <c r="B5" s="162">
         <v>1500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="169" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="162" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="162">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="162" t="s">
         <v>743</v>
       </c>
-      <c r="B4" s="169">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="169" t="s">
-        <v>744</v>
-      </c>
-      <c r="B5" s="169">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="169" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="169">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="169" t="s">
-        <v>745</v>
-      </c>
-      <c r="B7" s="169">
+      <c r="B7" s="162">
         <v>10000</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="169" t="s">
+      <c r="A8" s="162" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="169" t="s">
+      <c r="B8" s="162" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="169" t="s">
+      <c r="A9" s="162" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="169" t="s">
+      <c r="B9" s="162" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="169" t="s">
+      <c r="A10" s="162" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="169">
+      <c r="B10" s="162">
         <v>10000</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="169" t="s">
+      <c r="A11" s="162" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="169">
+      <c r="B11" s="162">
         <v>10000</v>
       </c>
     </row>
@@ -4867,10 +4900,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="172" t="s">
+      <c r="A6" s="180" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="172"/>
+      <c r="B6" s="180"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -4881,7 +4914,7 @@
       <c r="A8" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="57">
+      <c r="B8" s="56">
         <v>1000</v>
       </c>
     </row>
@@ -4889,7 +4922,7 @@
       <c r="A9" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="57">
+      <c r="B9" s="56">
         <v>1000</v>
       </c>
     </row>
@@ -4897,7 +4930,7 @@
       <c r="A10" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="57">
+      <c r="B10" s="56">
         <v>1000</v>
       </c>
     </row>
@@ -4905,13 +4938,13 @@
       <c r="A11" t="s">
         <v>121</v>
       </c>
-      <c r="B11" s="57"/>
+      <c r="B11" s="56"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="57">
+      <c r="B12" s="56">
         <v>1000</v>
       </c>
     </row>
@@ -4919,7 +4952,7 @@
       <c r="A13" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="57">
+      <c r="B13" s="56">
         <v>1000</v>
       </c>
     </row>
@@ -4927,7 +4960,7 @@
       <c r="A14" t="s">
         <v>120</v>
       </c>
-      <c r="B14" s="57">
+      <c r="B14" s="56">
         <v>1000</v>
       </c>
     </row>
@@ -4935,13 +4968,13 @@
       <c r="A15" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="57"/>
+      <c r="B15" s="56"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="57">
+      <c r="B16" s="56">
         <v>1000</v>
       </c>
     </row>
@@ -4949,7 +4982,7 @@
       <c r="A17" t="s">
         <v>119</v>
       </c>
-      <c r="B17" s="57">
+      <c r="B17" s="56">
         <v>1000</v>
       </c>
     </row>
@@ -4957,7 +4990,7 @@
       <c r="A18" t="s">
         <v>120</v>
       </c>
-      <c r="B18" s="57">
+      <c r="B18" s="56">
         <v>1000</v>
       </c>
     </row>
@@ -5034,10 +5067,10 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="172" t="s">
+      <c r="A26" s="180" t="s">
         <v>125</v>
       </c>
-      <c r="B26" s="172"/>
+      <c r="B26" s="180"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -5056,7 +5089,7 @@
       <c r="A29" t="s">
         <v>118</v>
       </c>
-      <c r="B29" s="57">
+      <c r="B29" s="56">
         <v>1000</v>
       </c>
     </row>
@@ -5064,7 +5097,7 @@
       <c r="A30" t="s">
         <v>119</v>
       </c>
-      <c r="B30" s="57">
+      <c r="B30" s="56">
         <v>1000</v>
       </c>
     </row>
@@ -5072,7 +5105,7 @@
       <c r="A31" t="s">
         <v>120</v>
       </c>
-      <c r="B31" s="57">
+      <c r="B31" s="56">
         <v>1000</v>
       </c>
     </row>
@@ -5080,13 +5113,13 @@
       <c r="A32" t="s">
         <v>121</v>
       </c>
-      <c r="B32" s="57"/>
+      <c r="B32" s="56"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>118</v>
       </c>
-      <c r="B33" s="57">
+      <c r="B33" s="56">
         <v>1000</v>
       </c>
     </row>
@@ -5094,7 +5127,7 @@
       <c r="A34" t="s">
         <v>119</v>
       </c>
-      <c r="B34" s="57">
+      <c r="B34" s="56">
         <v>1000</v>
       </c>
     </row>
@@ -5102,7 +5135,7 @@
       <c r="A35" t="s">
         <v>120</v>
       </c>
-      <c r="B35" s="57">
+      <c r="B35" s="56">
         <v>1000</v>
       </c>
     </row>
@@ -5110,13 +5143,13 @@
       <c r="A36" t="s">
         <v>122</v>
       </c>
-      <c r="B36" s="57"/>
+      <c r="B36" s="56"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>118</v>
       </c>
-      <c r="B37" s="57">
+      <c r="B37" s="56">
         <v>1000</v>
       </c>
     </row>
@@ -5124,7 +5157,7 @@
       <c r="A38" t="s">
         <v>119</v>
       </c>
-      <c r="B38" s="57">
+      <c r="B38" s="56">
         <v>1000</v>
       </c>
     </row>
@@ -5132,7 +5165,7 @@
       <c r="A39" t="s">
         <v>120</v>
       </c>
-      <c r="B39" s="57">
+      <c r="B39" s="56">
         <v>1000</v>
       </c>
     </row>
@@ -5367,8 +5400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80E40C2-8F61-422B-8B66-5E35CD325EB0}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5414,7 +5447,7 @@
       <c r="B4" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="23" t="s">
         <v>428</v>
       </c>
     </row>
@@ -5427,7 +5460,7 @@
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="23" t="s">
         <v>428</v>
       </c>
       <c r="F5" s="14"/>
@@ -5439,9 +5472,11 @@
       <c r="B6" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="C6" s="14"/>
+      <c r="C6" s="14" t="s">
+        <v>748</v>
+      </c>
       <c r="D6" s="14"/>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="23" t="s">
         <v>428</v>
       </c>
       <c r="F6" s="14"/>
@@ -5455,7 +5490,7 @@
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="37" t="s">
         <v>429</v>
       </c>
       <c r="F7" s="14"/>
@@ -5469,7 +5504,7 @@
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="23" t="s">
         <v>432</v>
       </c>
       <c r="F8" s="14"/>
@@ -5483,7 +5518,7 @@
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="24" t="s">
         <v>430</v>
       </c>
       <c r="F9" s="14"/>
@@ -5497,7 +5532,7 @@
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="37" t="s">
         <v>429</v>
       </c>
       <c r="F10" s="14"/>
@@ -5511,7 +5546,7 @@
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="23" t="s">
         <v>431</v>
       </c>
       <c r="F11" s="14"/>
@@ -5525,7 +5560,7 @@
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="23" t="s">
         <v>433</v>
       </c>
       <c r="F12" s="14"/>
@@ -5539,7 +5574,7 @@
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="24" t="s">
         <v>434</v>
       </c>
       <c r="F13" s="14"/>
@@ -5553,7 +5588,7 @@
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="38" t="s">
         <v>434</v>
       </c>
       <c r="F14" s="14"/>
@@ -5567,7 +5602,7 @@
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="23" t="s">
         <v>435</v>
       </c>
       <c r="F15" s="14"/>
@@ -5581,7 +5616,7 @@
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="24" t="s">
         <v>438</v>
       </c>
       <c r="F16" s="14"/>
@@ -5590,12 +5625,12 @@
       <c r="A17" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="26">
         <v>32330</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="23">
+      <c r="E17" s="22">
         <v>61254</v>
       </c>
       <c r="F17" s="14"/>
@@ -5609,7 +5644,7 @@
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="23" t="s">
         <v>431</v>
       </c>
       <c r="F18" s="14"/>
@@ -5621,7 +5656,7 @@
       <c r="B19"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="22"/>
+      <c r="E19" s="21"/>
       <c r="F19" s="14"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -5633,7 +5668,7 @@
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="23" t="s">
         <v>436</v>
       </c>
       <c r="F20" s="14"/>
@@ -5647,7 +5682,7 @@
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="23" t="s">
         <v>436</v>
       </c>
       <c r="F21" s="14"/>
@@ -5681,10 +5716,10 @@
         <v>250</v>
       </c>
       <c r="D23" s="14"/>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="23" t="s">
         <v>436</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="23" t="s">
         <v>436</v>
       </c>
     </row>
@@ -5699,10 +5734,10 @@
         <v>45000</v>
       </c>
       <c r="D24" s="14"/>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="23" t="s">
         <v>437</v>
       </c>
-      <c r="F24" s="24" t="s">
+      <c r="F24" s="23" t="s">
         <v>437</v>
       </c>
     </row>
@@ -5735,7 +5770,7 @@
         <v>12000</v>
       </c>
       <c r="D26" s="14"/>
-      <c r="E26" s="21"/>
+      <c r="E26" s="20"/>
       <c r="F26" s="14"/>
     </row>
     <row r="27" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -5749,7 +5784,7 @@
         <v>70</v>
       </c>
       <c r="D27" s="14"/>
-      <c r="E27" s="22"/>
+      <c r="E27" s="21"/>
       <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -5763,7 +5798,7 @@
         <v>70</v>
       </c>
       <c r="D28" s="14"/>
-      <c r="E28" s="22"/>
+      <c r="E28" s="21"/>
       <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:6" ht="43.5" x14ac:dyDescent="0.25">
@@ -5777,7 +5812,7 @@
         <v>70</v>
       </c>
       <c r="D29" s="14"/>
-      <c r="E29" s="22"/>
+      <c r="E29" s="21"/>
       <c r="F29" s="14"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -5909,142 +5944,142 @@
       <c r="B1" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="F1" s="160" t="s">
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="F1" s="153" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="40" t="s">
         <v>441</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>569</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="F2" s="158"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="F2" s="151"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>422</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="F3" s="158"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="F3" s="151"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>688</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="F4" s="158"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="F4" s="151"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="39" t="s">
         <v>442</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="39" t="s">
         <v>443</v>
       </c>
-      <c r="F5" s="158" t="s">
-        <v>738</v>
+      <c r="F5" s="151" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="40" t="s">
         <v>444</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="39" t="s">
         <v>445</v>
       </c>
-      <c r="D6" s="40"/>
-      <c r="F6" s="158" t="s">
+      <c r="D6" s="39"/>
+      <c r="F6" s="151" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
+    <row r="7" spans="1:6" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="58" t="s">
         <v>687</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="56" t="s">
         <v>689</v>
       </c>
-      <c r="F7" s="158">
+      <c r="F7" s="151">
         <v>12345678912</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="40" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+    <row r="8" spans="1:6" s="39" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
         <v>447</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="39" t="s">
         <v>690</v>
       </c>
-      <c r="F8" s="158"/>
+      <c r="F8" s="151"/>
     </row>
     <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="40" t="s">
         <v>446</v>
       </c>
-      <c r="B9" s="60">
+      <c r="B9" s="59">
         <v>50000</v>
       </c>
-      <c r="F9" s="159" t="s">
+      <c r="F9" s="152" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="40" t="s">
         <v>448</v>
       </c>
       <c r="B10" t="s">
         <v>128</v>
       </c>
-      <c r="F10" s="158"/>
+      <c r="F10" s="151"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>449</v>
       </c>
-      <c r="F11" s="158"/>
+      <c r="F11" s="151"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="40" t="s">
         <v>295</v>
       </c>
       <c r="B12">
         <v>100</v>
       </c>
-      <c r="F12" s="159" t="s">
+      <c r="F12" s="152" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="40" t="s">
         <v>450</v>
       </c>
-      <c r="B13" s="60">
+      <c r="B13" s="59">
         <v>50000</v>
       </c>
-      <c r="F13" s="159" t="s">
+      <c r="F13" s="152" t="s">
         <v>708</v>
       </c>
     </row>
@@ -6052,27 +6087,27 @@
       <c r="A14" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="F14" s="158"/>
-    </row>
-    <row r="15" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+      <c r="F14" s="151"/>
+    </row>
+    <row r="15" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="21">
         <v>200</v>
       </c>
-      <c r="F15" s="159" t="s">
+      <c r="F15" s="152" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="40" t="s">
         <v>450</v>
       </c>
-      <c r="B16" s="60">
+      <c r="B16" s="59">
         <v>100000</v>
       </c>
-      <c r="F16" s="159" t="s">
+      <c r="F16" s="152" t="s">
         <v>708</v>
       </c>
     </row>
@@ -6080,27 +6115,27 @@
       <c r="A17" s="15" t="s">
         <v>452</v>
       </c>
-      <c r="F17" s="158"/>
+      <c r="F17" s="151"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="40" t="s">
         <v>295</v>
       </c>
       <c r="B18">
         <v>100</v>
       </c>
-      <c r="F18" s="159" t="s">
+      <c r="F18" s="152" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="40" t="s">
         <v>450</v>
       </c>
-      <c r="B19" s="60">
+      <c r="B19" s="59">
         <v>50000</v>
       </c>
-      <c r="F19" s="159" t="s">
+      <c r="F19" s="152" t="s">
         <v>708</v>
       </c>
     </row>
@@ -6132,7 +6167,7 @@
       <c r="B1" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="163" t="s">
+      <c r="D1" s="156" t="s">
         <v>710</v>
       </c>
     </row>
@@ -6140,7 +6175,7 @@
       <c r="A2" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="D2" s="161"/>
+      <c r="D2" s="154"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -6149,7 +6184,7 @@
       <c r="B3">
         <v>5</v>
       </c>
-      <c r="D3" s="164">
+      <c r="D3" s="157">
         <v>12345</v>
       </c>
     </row>
@@ -6160,7 +6195,7 @@
       <c r="B4">
         <v>5</v>
       </c>
-      <c r="D4" s="164" t="s">
+      <c r="D4" s="157" t="s">
         <v>714</v>
       </c>
     </row>
@@ -6171,7 +6206,7 @@
       <c r="B5" t="s">
         <v>377</v>
       </c>
-      <c r="D5" s="164"/>
+      <c r="D5" s="157"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -6180,13 +6215,13 @@
       <c r="B6" t="s">
         <v>376</v>
       </c>
-      <c r="D6" s="164"/>
+      <c r="D6" s="157"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="D7" s="161"/>
+      <c r="D7" s="154"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -6195,7 +6230,7 @@
       <c r="B8">
         <v>50</v>
       </c>
-      <c r="D8" s="164" t="s">
+      <c r="D8" s="157" t="s">
         <v>714</v>
       </c>
     </row>
@@ -6206,7 +6241,7 @@
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="D9" s="164">
+      <c r="D9" s="157">
         <v>12345</v>
       </c>
     </row>
@@ -6214,42 +6249,42 @@
       <c r="A10" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="D10" s="161"/>
+      <c r="D10" s="154"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="D11" s="161"/>
+      <c r="D11" s="154"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="D12" s="161"/>
+      <c r="B12" s="21"/>
+      <c r="D12" s="154"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="161"/>
+      <c r="D13" s="154"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="B14" s="22">
+      <c r="B14" s="21">
         <v>60</v>
       </c>
-      <c r="D14" s="164" t="s">
+      <c r="D14" s="157" t="s">
         <v>714</v>
       </c>
     </row>
@@ -6257,10 +6292,10 @@
       <c r="A15" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="B15" s="22">
+      <c r="B15" s="21">
         <v>5</v>
       </c>
-      <c r="D15" s="164">
+      <c r="D15" s="157">
         <v>12345</v>
       </c>
     </row>
@@ -6268,31 +6303,31 @@
       <c r="A16" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="D16" s="161"/>
+      <c r="D16" s="154"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="D17" s="161"/>
+      <c r="D17" s="154"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="162"/>
+      <c r="D20" s="155"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="162"/>
+      <c r="D21" s="155"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="162"/>
+      <c r="D23" s="155"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="162"/>
+      <c r="D24" s="155"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6303,7 +6338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE12E4D-FB7F-4E63-97F0-B0D0FFCBC628}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -6317,108 +6352,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="108" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="101" t="s">
         <v>710</v>
       </c>
-      <c r="E1" s="22"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="109" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="102" t="s">
         <v>358</v>
       </c>
-      <c r="E2" s="22"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>359</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="106" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="99" t="s">
         <v>361</v>
       </c>
-      <c r="E3" s="22"/>
+      <c r="E3" s="21"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="22" t="s">
         <v>362</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="21">
         <v>123456789</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="105" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="98" t="s">
         <v>425</v>
       </c>
-      <c r="E4" s="22"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>367</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="106" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="99" t="s">
         <v>423</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="21"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>364</v>
       </c>
-      <c r="B6" s="63">
+      <c r="B6" s="62">
         <v>43989</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="104" t="s">
+      <c r="C6" s="21"/>
+      <c r="D6" s="97" t="s">
         <v>427</v>
       </c>
-      <c r="E6" s="26"/>
+      <c r="E6" s="25"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>426</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="104" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="97" t="s">
         <v>426</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="21"/>
     </row>
     <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>366</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>368</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="107" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="100" t="s">
         <v>424</v>
       </c>
-      <c r="E8" s="22"/>
+      <c r="E8" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6433,8 +6468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AE8549-2611-4C3D-8F42-2BE39C7FE28A}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6446,650 +6481,675 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="169" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="101" t="s">
+      <c r="C1" s="165"/>
+      <c r="D1" s="176" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="167" t="s">
         <v>285</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="167">
         <v>9</v>
       </c>
-      <c r="D2" s="98"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="166" t="s">
         <v>286</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="167">
         <v>8</v>
       </c>
-      <c r="D3" s="98"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="167" t="s">
         <v>287</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="167">
         <v>7</v>
       </c>
-      <c r="D4" s="98"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="167" t="s">
         <v>288</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="165">
         <v>6</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="98"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="165"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="167" t="s">
         <v>289</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="167">
         <v>5</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="98"/>
+      <c r="C6" s="170"/>
+      <c r="D6" s="165"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="167" t="s">
         <v>290</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="167">
         <v>6</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="98"/>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="C7" s="170"/>
+      <c r="D7" s="165"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="167" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="167" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="100" t="s">
+      <c r="C8" s="170"/>
+      <c r="D8" s="174" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="167" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="167" t="s">
         <v>281</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="100" t="s">
+      <c r="C9" s="170"/>
+      <c r="D9" s="174" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="167" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="167" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="102">
+      <c r="C10" s="170"/>
+      <c r="D10" s="177">
         <v>2565896</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="167" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="167" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="98" t="s">
+      <c r="C11" s="170"/>
+      <c r="D11" s="165" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="167" t="s">
         <v>251</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="167" t="s">
         <v>705</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="100">
-        <v>87898314512</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="C12" s="170"/>
+      <c r="D12" s="174" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="167" t="s">
         <v>291</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="167">
         <v>98789</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="102" t="s">
+      <c r="C13" s="170"/>
+      <c r="D13" s="179" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="167" t="s">
+        <v>292</v>
+      </c>
+      <c r="B14" s="167">
+        <v>98987</v>
+      </c>
+      <c r="C14" s="170"/>
+      <c r="D14" s="177" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="167" t="s">
+        <v>293</v>
+      </c>
+      <c r="B15" s="167">
+        <v>877889</v>
+      </c>
+      <c r="C15" s="170"/>
+      <c r="D15" s="177" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="171" t="s">
+        <v>294</v>
+      </c>
+      <c r="B16" s="165"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="165"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="167" t="s">
+        <v>295</v>
+      </c>
+      <c r="B17" s="167">
+        <v>1000</v>
+      </c>
+      <c r="C17" s="170"/>
+      <c r="D17" s="177">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="167" t="s">
+        <v>296</v>
+      </c>
+      <c r="B18" s="167">
+        <v>2000000</v>
+      </c>
+      <c r="C18" s="170"/>
+      <c r="D18" s="175" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="167" t="s">
+        <v>297</v>
+      </c>
+      <c r="B19" s="167">
+        <v>4000000</v>
+      </c>
+      <c r="C19" s="170"/>
+      <c r="D19" s="175" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="171" t="s">
+        <v>298</v>
+      </c>
+      <c r="B20" s="173"/>
+      <c r="C20" s="170"/>
+      <c r="D20" s="165"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="167" t="s">
+        <v>295</v>
+      </c>
+      <c r="B21" s="167">
+        <v>1000</v>
+      </c>
+      <c r="C21" s="170"/>
+      <c r="D21" s="177">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="167" t="s">
+        <v>296</v>
+      </c>
+      <c r="B22" s="167">
+        <v>1500000</v>
+      </c>
+      <c r="C22" s="170"/>
+      <c r="D22" s="178" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="167" t="s">
+        <v>297</v>
+      </c>
+      <c r="B23" s="167">
+        <v>3000000</v>
+      </c>
+      <c r="C23" s="170"/>
+      <c r="D23" s="175" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="171" t="s">
+        <v>299</v>
+      </c>
+      <c r="B24" s="165"/>
+      <c r="C24" s="170"/>
+      <c r="D24" s="165"/>
+    </row>
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="167" t="s">
+        <v>300</v>
+      </c>
+      <c r="B25" s="165" t="s">
+        <v>304</v>
+      </c>
+      <c r="C25" s="170"/>
+      <c r="D25" s="167" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="167" t="s">
+        <v>301</v>
+      </c>
+      <c r="B26" s="165">
+        <v>1234567891</v>
+      </c>
+      <c r="C26" s="170"/>
+      <c r="D26" s="177" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="167" t="s">
+        <v>302</v>
+      </c>
+      <c r="B27" s="165">
+        <v>8776</v>
+      </c>
+      <c r="C27" s="170"/>
+      <c r="D27" s="177" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="167" t="s">
+        <v>303</v>
+      </c>
+      <c r="B28" s="165">
+        <v>150000</v>
+      </c>
+      <c r="C28" s="170"/>
+      <c r="D28" s="177" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="171" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="165"/>
+      <c r="C29" s="170"/>
+      <c r="D29" s="165"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="167" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="165" t="s">
+        <v>305</v>
+      </c>
+      <c r="C30" s="170"/>
+      <c r="D30" s="165"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="167" t="s">
         <v>292</v>
       </c>
-      <c r="B14" s="7">
-        <v>98987</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="102">
-        <v>12345678912</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="B15" s="7">
-        <v>877889</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="102" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="98"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="B17" s="7">
-        <v>1000</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="102">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="B18" s="59">
-        <v>2000000</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="103">
-        <v>1.22233344455566E+18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="B19" s="59">
-        <v>4000000</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="99" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="98"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="B21" s="7">
-        <v>1000</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="102">
-        <v>12345</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="B22" s="59">
-        <v>1500000</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="103">
-        <v>1.22233344455566E+18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="B23" s="59">
-        <v>3000000</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="99" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="B24"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="98"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="B25" t="s">
-        <v>304</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="98"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="B26">
-        <v>8789</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="102" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="B27">
-        <v>8776</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="102" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="B28">
-        <v>150000</v>
-      </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="102" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="98"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" t="s">
-        <v>305</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="98"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="B31">
+      <c r="B31" s="165">
         <v>8989</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="98"/>
+      <c r="C31" s="170"/>
+      <c r="D31" s="165"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="167" t="s">
         <v>306</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="165" t="s">
         <v>307</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="98"/>
+      <c r="C32" s="170"/>
+      <c r="D32" s="165"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="171" t="s">
         <v>421</v>
       </c>
+      <c r="B33" s="165"/>
+      <c r="C33" s="165"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="172" t="s">
         <v>132</v>
       </c>
+      <c r="B34" s="165"/>
+      <c r="C34" s="165"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="172" t="s">
         <v>34</v>
       </c>
+      <c r="B35" s="165"/>
+      <c r="C35" s="165"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="167" t="s">
         <v>308</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="167">
         <v>18500</v>
       </c>
+      <c r="C36" s="165"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="167" t="s">
         <v>309</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="167">
         <v>18000</v>
       </c>
+      <c r="C37" s="165"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="167" t="s">
         <v>310</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="167">
         <v>17500</v>
       </c>
+      <c r="C38" s="165"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="167" t="s">
         <v>311</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="167">
         <v>17000</v>
       </c>
+      <c r="C39" s="165"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="167" t="s">
         <v>312</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="167">
         <v>16500</v>
       </c>
+      <c r="C40" s="165"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="171" t="s">
         <v>52</v>
       </c>
+      <c r="B41" s="165"/>
+      <c r="C41" s="165"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="167" t="s">
         <v>243</v>
       </c>
+      <c r="C42" s="165"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="171" t="s">
         <v>104</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="171" t="s">
         <v>313</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="171" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="167" t="s">
         <v>314</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="167" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="167" t="s">
         <v>188</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="167" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="167" t="s">
         <v>315</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="167" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="167" t="s">
         <v>316</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="167" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="167" t="s">
         <v>317</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="167" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="167" t="s">
         <v>318</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="167" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="167" t="s">
         <v>319</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="167" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="167" t="s">
         <v>320</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="167" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="167" t="s">
         <v>321</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="167" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="167" t="s">
         <v>322</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="167" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="167" t="s">
         <v>323</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="167" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="167" t="s">
         <v>324</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="167" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="167" t="s">
         <v>325</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="167" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="167" t="s">
         <v>326</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="167" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="167" t="s">
         <v>327</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="167" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="167" t="s">
         <v>328</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="167" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="167" t="s">
         <v>199</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="167" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="167" t="s">
         <v>329</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="167" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="167" t="s">
         <v>330</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="167" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="167" t="s">
         <v>331</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="167" t="s">
         <v>349</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D13" r:id="rId1" xr:uid="{4B6CB8AE-6B72-4863-A581-BAAD2EEE515E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7116,7 +7176,7 @@
       <c r="B1" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="167" t="s">
+      <c r="D1" s="160" t="s">
         <v>710</v>
       </c>
     </row>
@@ -7127,319 +7187,319 @@
       <c r="B2" s="7">
         <v>9</v>
       </c>
-      <c r="D2" s="165" t="s">
+      <c r="D2" s="158" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>351</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="D3" s="165"/>
+      <c r="D3" s="158"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="29">
         <v>35</v>
       </c>
-      <c r="D4" s="165" t="s">
+      <c r="D4" s="158" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="30" t="s">
         <v>353</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>379</v>
       </c>
       <c r="C5" s="14"/>
-      <c r="D5" s="165"/>
+      <c r="D5" s="158"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="28" t="s">
         <v>704</v>
       </c>
       <c r="C6" s="14"/>
-      <c r="D6" s="165"/>
-    </row>
-    <row r="7" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="D6" s="158"/>
+    </row>
+    <row r="7" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
         <v>411</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="165"/>
+      <c r="D7" s="158"/>
     </row>
     <row r="8" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>382</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="28" t="s">
         <v>381</v>
       </c>
       <c r="C8" s="14"/>
-      <c r="D8" s="168" t="s">
-        <v>727</v>
+      <c r="D8" s="161" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="28" t="s">
         <v>384</v>
       </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="168" t="s">
-        <v>727</v>
+      <c r="D9" s="161" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="33" t="s">
         <v>385</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="28" t="s">
         <v>386</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="168" t="s">
-        <v>727</v>
+      <c r="D10" s="161" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="33" t="s">
         <v>387</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="28" t="s">
         <v>388</v>
       </c>
       <c r="C11" s="14"/>
-      <c r="D11" s="168" t="s">
-        <v>727</v>
+      <c r="D11" s="161" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="33" t="s">
         <v>389</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="28" t="s">
         <v>390</v>
       </c>
       <c r="C12" s="14"/>
-      <c r="D12" s="168" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="29"/>
+      <c r="D12" s="161" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="32"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="165"/>
+      <c r="D13" s="158"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="175" t="s">
+      <c r="A14" s="183" t="s">
         <v>391</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="28">
         <v>25</v>
       </c>
       <c r="C14" s="14"/>
-      <c r="D14" s="166" t="s">
+      <c r="D14" s="159" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="175"/>
-      <c r="B15" s="29">
+      <c r="A15" s="183"/>
+      <c r="B15" s="28">
         <v>15</v>
       </c>
       <c r="C15" s="14"/>
-      <c r="D15" s="166" t="s">
+      <c r="D15" s="159" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="33" t="s">
         <v>392</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="28" t="s">
         <v>393</v>
       </c>
       <c r="C16" s="14"/>
-      <c r="D16" s="168" t="s">
-        <v>727</v>
+      <c r="D16" s="161" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="33" t="s">
         <v>394</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="28" t="s">
         <v>395</v>
       </c>
       <c r="C17" s="14"/>
-      <c r="D17" s="168" t="s">
-        <v>739</v>
+      <c r="D17" s="161" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="33" t="s">
         <v>396</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="28" t="s">
         <v>397</v>
       </c>
       <c r="C18" s="14"/>
-      <c r="D18" s="168" t="s">
-        <v>739</v>
+      <c r="D18" s="161" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="33" t="s">
         <v>398</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="28" t="s">
         <v>399</v>
       </c>
       <c r="C19" s="14"/>
-      <c r="D19" s="168" t="s">
-        <v>727</v>
+      <c r="D19" s="161" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="30" t="s">
         <v>400</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B20" s="28">
         <v>2</v>
       </c>
       <c r="C20" s="14"/>
-      <c r="D20" s="168" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="22" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="D20" s="161" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
         <v>412</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="28" t="s">
         <v>418</v>
       </c>
       <c r="C21" s="14"/>
-      <c r="D21" s="168" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
+      <c r="D21" s="161" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
         <v>413</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="34" t="s">
         <v>419</v>
       </c>
       <c r="C22" s="14"/>
-      <c r="D22" s="168" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="22" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
+      <c r="D22" s="161" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
         <v>414</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="28" t="s">
         <v>420</v>
       </c>
       <c r="C23" s="14"/>
-      <c r="D23" s="168" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
+      <c r="D23" s="161" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
         <v>415</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="34" t="s">
         <v>419</v>
       </c>
       <c r="C24" s="14"/>
-      <c r="D24" s="168" t="s">
-        <v>740</v>
+      <c r="D24" s="161" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="33" t="s">
         <v>401</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="28" t="s">
         <v>402</v>
       </c>
       <c r="C25" s="14"/>
-      <c r="D25" s="168" t="s">
-        <v>727</v>
+      <c r="D25" s="161" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="33" t="s">
         <v>403</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="28" t="s">
         <v>404</v>
       </c>
       <c r="C26" s="14"/>
-      <c r="D26" s="168" t="s">
-        <v>727</v>
+      <c r="D26" s="161" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="180" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
+      <c r="A27" s="33" t="s">
         <v>405</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="28" t="s">
         <v>406</v>
       </c>
       <c r="C27" s="14"/>
-      <c r="D27" s="168" t="s">
-        <v>727</v>
+      <c r="D27" s="161" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="33" t="s">
         <v>407</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="28" t="s">
         <v>408</v>
       </c>
       <c r="C28" s="14"/>
-      <c r="D28" s="165"/>
-    </row>
-    <row r="29" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+      <c r="D28" s="158"/>
+    </row>
+    <row r="29" spans="1:4" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="s">
         <v>416</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="28" t="s">
         <v>417</v>
       </c>
       <c r="C29" s="14"/>
-      <c r="D29" s="165"/>
+      <c r="D29" s="158"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="28" t="s">
         <v>409</v>
       </c>
       <c r="C30" s="14"/>
-      <c r="D30" s="165"/>
+      <c r="D30" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7856,1006 +7916,1006 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="111" t="s">
+      <c r="C1" s="63"/>
+      <c r="D1" s="104" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="67" t="s">
         <v>585</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="64" t="s">
         <v>586</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="110" t="s">
+      <c r="C2" s="63"/>
+      <c r="D2" s="103" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="64" t="s">
         <v>587</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="110" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="103" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="67" t="s">
         <v>588</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="64" t="s">
         <v>589</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="110" t="s">
+      <c r="C4" s="63"/>
+      <c r="D4" s="103" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="64" t="s">
         <v>422</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="114" t="s">
+      <c r="C5" s="63"/>
+      <c r="D5" s="107" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="114" t="s">
+      <c r="C6" s="63"/>
+      <c r="D6" s="107" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="67" t="s">
         <v>590</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="110" t="s">
+      <c r="C7" s="63"/>
+      <c r="D7" s="103" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="67" t="s">
         <v>591</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="64" t="s">
         <v>592</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="113">
+      <c r="C8" s="63"/>
+      <c r="D8" s="106">
         <v>1234567812</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="67" t="s">
         <v>593</v>
       </c>
-      <c r="B9" s="72">
+      <c r="B9" s="71">
         <v>15000</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="110" t="s">
+      <c r="C9" s="63"/>
+      <c r="D9" s="103" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="67" t="s">
         <v>594</v>
       </c>
-      <c r="B10" s="72">
+      <c r="B10" s="71">
         <v>10000</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="110" t="s">
+      <c r="C10" s="63"/>
+      <c r="D10" s="103" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="67" t="s">
         <v>595</v>
       </c>
-      <c r="B11" s="72">
+      <c r="B11" s="71">
         <v>10000</v>
       </c>
-      <c r="C11" s="64"/>
-      <c r="D11" s="110" t="s">
+      <c r="C11" s="63"/>
+      <c r="D11" s="103" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="72">
+      <c r="B12" s="71">
         <v>10000</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="110" t="s">
+      <c r="C12" s="63"/>
+      <c r="D12" s="103" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="B13" s="72">
+      <c r="B13" s="71">
         <v>10000</v>
       </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="110" t="s">
+      <c r="C13" s="63"/>
+      <c r="D13" s="103" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="67" t="s">
         <v>596</v>
       </c>
-      <c r="B14" s="72">
+      <c r="B14" s="71">
         <v>10000</v>
       </c>
-      <c r="C14" s="64"/>
-      <c r="D14" s="110" t="s">
+      <c r="C14" s="63"/>
+      <c r="D14" s="103" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="67" t="s">
         <v>597</v>
       </c>
-      <c r="B15" s="72">
+      <c r="B15" s="71">
         <v>10000</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="110" t="s">
+      <c r="C15" s="63"/>
+      <c r="D15" s="103" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="68" t="s">
         <v>598</v>
       </c>
-      <c r="B16" s="72">
+      <c r="B16" s="71">
         <v>10000</v>
       </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="110" t="s">
+      <c r="C16" s="63"/>
+      <c r="D16" s="103" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="67" t="s">
         <v>599</v>
       </c>
-      <c r="B17" s="72">
+      <c r="B17" s="71">
         <v>10000</v>
       </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="110" t="s">
+      <c r="C17" s="63"/>
+      <c r="D17" s="103" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="67" t="s">
         <v>600</v>
       </c>
-      <c r="B18" s="72">
+      <c r="B18" s="71">
         <v>10000</v>
       </c>
-      <c r="C18" s="64"/>
-      <c r="D18" s="110" t="s">
+      <c r="C18" s="63"/>
+      <c r="D18" s="103" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="68" t="s">
+      <c r="A19" s="67" t="s">
         <v>601</v>
       </c>
-      <c r="B19" s="72">
+      <c r="B19" s="71">
         <v>10000</v>
       </c>
-      <c r="C19" s="64"/>
-      <c r="D19" s="110" t="s">
+      <c r="C19" s="63"/>
+      <c r="D19" s="103" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="67" t="s">
         <v>602</v>
       </c>
-      <c r="B20" s="72">
+      <c r="B20" s="71">
         <v>10000</v>
       </c>
-      <c r="C20" s="64"/>
-      <c r="D20" s="110" t="s">
+      <c r="C20" s="63"/>
+      <c r="D20" s="103" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="67" t="s">
         <v>603</v>
       </c>
-      <c r="B21" s="72">
+      <c r="B21" s="71">
         <v>10000</v>
       </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="110" t="s">
+      <c r="C21" s="63"/>
+      <c r="D21" s="103" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="67" t="s">
         <v>604</v>
       </c>
-      <c r="B22" s="72">
+      <c r="B22" s="71">
         <v>10000</v>
       </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="110" t="s">
+      <c r="C22" s="63"/>
+      <c r="D22" s="103" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="68" t="s">
+      <c r="A23" s="67" t="s">
         <v>605</v>
       </c>
-      <c r="B23" s="72">
+      <c r="B23" s="71">
         <v>10000</v>
       </c>
-      <c r="C23" s="64"/>
-      <c r="D23" s="110" t="s">
+      <c r="C23" s="63"/>
+      <c r="D23" s="103" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="68" t="s">
+      <c r="A24" s="67" t="s">
         <v>606</v>
       </c>
-      <c r="B24" s="72">
+      <c r="B24" s="71">
         <v>10000</v>
       </c>
-      <c r="C24" s="64"/>
-      <c r="D24" s="110" t="s">
+      <c r="C24" s="63"/>
+      <c r="D24" s="103" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="68" t="s">
+      <c r="A25" s="67" t="s">
         <v>607</v>
       </c>
-      <c r="B25" s="72">
+      <c r="B25" s="71">
         <v>10000</v>
       </c>
-      <c r="C25" s="64"/>
-      <c r="D25" s="110" t="s">
+      <c r="C25" s="63"/>
+      <c r="D25" s="103" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="68" t="s">
+      <c r="A26" s="67" t="s">
         <v>608</v>
       </c>
-      <c r="B26" s="72">
+      <c r="B26" s="71">
         <v>10000</v>
       </c>
-      <c r="C26" s="64"/>
-      <c r="D26" s="110" t="s">
+      <c r="C26" s="63"/>
+      <c r="D26" s="103" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="67" t="s">
         <v>609</v>
       </c>
-      <c r="B27" s="72">
+      <c r="B27" s="71">
         <v>10000</v>
       </c>
-      <c r="C27" s="64"/>
-      <c r="D27" s="110" t="s">
+      <c r="C27" s="63"/>
+      <c r="D27" s="103" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="67" t="s">
         <v>610</v>
       </c>
-      <c r="B28" s="72">
+      <c r="B28" s="71">
         <v>10000</v>
       </c>
-      <c r="C28" s="64"/>
-      <c r="D28" s="110" t="s">
+      <c r="C28" s="63"/>
+      <c r="D28" s="103" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="67" t="s">
         <v>611</v>
       </c>
-      <c r="B29" s="72">
+      <c r="B29" s="71">
         <v>10000</v>
       </c>
-      <c r="C29" s="64"/>
-      <c r="D29" s="110" t="s">
+      <c r="C29" s="63"/>
+      <c r="D29" s="103" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="67" t="s">
         <v>612</v>
       </c>
-      <c r="B30" s="72">
+      <c r="B30" s="71">
         <v>10000</v>
       </c>
-      <c r="C30" s="64"/>
-      <c r="D30" s="110" t="s">
+      <c r="C30" s="63"/>
+      <c r="D30" s="103" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="68" t="s">
+      <c r="A31" s="67" t="s">
         <v>613</v>
       </c>
-      <c r="B31" s="72">
+      <c r="B31" s="71">
         <v>10000</v>
       </c>
-      <c r="C31" s="64"/>
-      <c r="D31" s="110" t="s">
+      <c r="C31" s="63"/>
+      <c r="D31" s="103" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="67" t="s">
         <v>614</v>
       </c>
-      <c r="B32" s="72">
+      <c r="B32" s="71">
         <v>10000</v>
       </c>
-      <c r="C32" s="64"/>
-      <c r="D32" s="110" t="s">
+      <c r="C32" s="63"/>
+      <c r="D32" s="103" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="68" t="s">
+      <c r="A33" s="67" t="s">
         <v>615</v>
       </c>
-      <c r="B33" s="72">
+      <c r="B33" s="71">
         <v>10000</v>
       </c>
-      <c r="C33" s="64"/>
-      <c r="D33" s="110" t="s">
+      <c r="C33" s="63"/>
+      <c r="D33" s="103" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="68" t="s">
+      <c r="A34" s="67" t="s">
         <v>616</v>
       </c>
-      <c r="B34" s="72">
+      <c r="B34" s="71">
         <v>10000</v>
       </c>
-      <c r="C34" s="64"/>
-      <c r="D34" s="110" t="s">
+      <c r="C34" s="63"/>
+      <c r="D34" s="103" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="68" t="s">
+      <c r="A35" s="67" t="s">
         <v>617</v>
       </c>
-      <c r="B35" s="72">
+      <c r="B35" s="71">
         <v>10000</v>
       </c>
-      <c r="C35" s="64"/>
-      <c r="D35" s="110" t="s">
+      <c r="C35" s="63"/>
+      <c r="D35" s="103" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="68" t="s">
+      <c r="A36" s="67" t="s">
         <v>618</v>
       </c>
-      <c r="B36" s="72">
+      <c r="B36" s="71">
         <v>10000</v>
       </c>
-      <c r="C36" s="64"/>
-      <c r="D36" s="110" t="s">
+      <c r="C36" s="63"/>
+      <c r="D36" s="103" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="67" t="s">
         <v>619</v>
       </c>
-      <c r="B37" s="72">
+      <c r="B37" s="71">
         <v>10000</v>
       </c>
-      <c r="C37" s="64"/>
-      <c r="D37" s="110" t="s">
+      <c r="C37" s="63"/>
+      <c r="D37" s="103" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="68" t="s">
+      <c r="A38" s="67" t="s">
         <v>477</v>
       </c>
-      <c r="B38" s="72">
+      <c r="B38" s="71">
         <v>15000</v>
       </c>
-      <c r="C38" s="64"/>
-      <c r="D38" s="110" t="s">
+      <c r="C38" s="63"/>
+      <c r="D38" s="103" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="68" t="s">
+      <c r="A39" s="67" t="s">
         <v>478</v>
       </c>
-      <c r="B39" s="72">
+      <c r="B39" s="71">
         <v>45000</v>
       </c>
-      <c r="C39" s="64"/>
-      <c r="D39" s="110" t="s">
+      <c r="C39" s="63"/>
+      <c r="D39" s="103" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="68" t="s">
+      <c r="A40" s="67" t="s">
         <v>479</v>
       </c>
-      <c r="B40" s="72">
+      <c r="B40" s="71">
         <v>15000</v>
       </c>
-      <c r="C40" s="64"/>
-      <c r="D40" s="110" t="s">
+      <c r="C40" s="63"/>
+      <c r="D40" s="103" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="68" t="s">
+      <c r="A41" s="67" t="s">
         <v>480</v>
       </c>
-      <c r="B41" s="72">
+      <c r="B41" s="71">
         <v>45000</v>
       </c>
-      <c r="C41" s="64"/>
-      <c r="D41" s="110" t="s">
+      <c r="C41" s="63"/>
+      <c r="D41" s="103" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="68" t="s">
+    <row r="42" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="67" t="s">
         <v>639</v>
       </c>
-      <c r="B42" s="72">
+      <c r="B42" s="71">
         <v>45000</v>
       </c>
-      <c r="C42" s="64"/>
-      <c r="D42" s="110" t="s">
+      <c r="C42" s="63"/>
+      <c r="D42" s="103" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="68" t="s">
+      <c r="A43" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="65" t="s">
+      <c r="B43" s="64" t="s">
         <v>490</v>
       </c>
-      <c r="C43" s="64"/>
-      <c r="D43" s="116">
+      <c r="C43" s="63"/>
+      <c r="D43" s="109">
         <v>1234566789900</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="57" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="68" t="s">
+    <row r="44" spans="1:4" s="56" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="67" t="s">
         <v>709</v>
       </c>
-      <c r="B44" s="65" t="s">
+      <c r="B44" s="64" t="s">
         <v>686</v>
       </c>
-      <c r="C44" s="64"/>
-      <c r="D44" s="115" t="s">
-        <v>730</v>
+      <c r="C44" s="63"/>
+      <c r="D44" s="108" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="68" t="s">
+      <c r="A45" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="65">
+      <c r="B45" s="64">
         <v>5000</v>
       </c>
-      <c r="C45" s="64"/>
-      <c r="D45" s="110" t="s">
+      <c r="C45" s="63"/>
+      <c r="D45" s="103" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="68" t="s">
+      <c r="A46" s="67" t="s">
         <v>481</v>
       </c>
-      <c r="B46" s="65">
+      <c r="B46" s="64">
         <v>4700</v>
       </c>
-      <c r="C46" s="64"/>
-      <c r="D46" s="110" t="s">
+      <c r="C46" s="63"/>
+      <c r="D46" s="103" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="68" t="s">
+      <c r="A47" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="70">
+      <c r="B47" s="69">
         <v>0.96</v>
       </c>
-      <c r="C47" s="64">
+      <c r="C47" s="63">
         <v>1</v>
       </c>
-      <c r="D47" s="110" t="s">
+      <c r="D47" s="103" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="68" t="s">
+      <c r="A48" s="67" t="s">
         <v>482</v>
       </c>
-      <c r="B48" s="65" t="s">
+      <c r="B48" s="64" t="s">
         <v>491</v>
       </c>
-      <c r="C48" s="64"/>
-      <c r="D48" s="110"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="103"/>
     </row>
     <row r="49" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="68" t="s">
+      <c r="A49" s="67" t="s">
         <v>620</v>
       </c>
-      <c r="B49" s="73" t="s">
+      <c r="B49" s="72" t="s">
         <v>621</v>
       </c>
-      <c r="C49" s="64"/>
-      <c r="D49" s="110"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="103"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="68" t="s">
+      <c r="A50" s="67" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="65">
+      <c r="B50" s="64">
         <v>2001</v>
       </c>
-      <c r="C50" s="64"/>
-      <c r="D50" s="112">
+      <c r="C50" s="63"/>
+      <c r="D50" s="105">
         <v>123456</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="68" t="s">
+      <c r="A51" s="67" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="65">
+      <c r="B51" s="64">
         <v>4</v>
       </c>
-      <c r="C51" s="64"/>
-      <c r="D51" s="110" t="s">
+      <c r="C51" s="63"/>
+      <c r="D51" s="103" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="68" t="s">
+      <c r="A52" s="67" t="s">
         <v>622</v>
       </c>
-      <c r="B52" s="65" t="s">
+      <c r="B52" s="64" t="s">
         <v>623</v>
       </c>
-      <c r="C52" s="64"/>
-      <c r="D52" s="110" t="s">
+      <c r="C52" s="63"/>
+      <c r="D52" s="103" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="68" t="s">
+      <c r="A53" s="67" t="s">
         <v>624</v>
       </c>
-      <c r="B53" s="65">
+      <c r="B53" s="64">
         <v>1000</v>
       </c>
-      <c r="C53" s="64"/>
-      <c r="D53" s="110" t="s">
+      <c r="C53" s="63"/>
+      <c r="D53" s="103" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="68" t="s">
+      <c r="A54" s="67" t="s">
         <v>306</v>
       </c>
-      <c r="B54" s="72">
+      <c r="B54" s="71">
         <v>30000</v>
       </c>
-      <c r="C54" s="64"/>
-      <c r="D54" s="110" t="s">
+      <c r="C54" s="63"/>
+      <c r="D54" s="103" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="68" t="s">
+      <c r="A55" s="67" t="s">
         <v>625</v>
       </c>
-      <c r="B55" s="65">
+      <c r="B55" s="64">
         <v>80</v>
       </c>
-      <c r="C55" s="64"/>
-      <c r="D55" s="110" t="s">
+      <c r="C55" s="63"/>
+      <c r="D55" s="103" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="68" t="s">
+      <c r="A56" s="67" t="s">
         <v>295</v>
       </c>
-      <c r="B56" s="65">
+      <c r="B56" s="64">
         <v>10</v>
       </c>
-      <c r="C56" s="64"/>
-      <c r="D56" s="110" t="s">
+      <c r="C56" s="63"/>
+      <c r="D56" s="103" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="68" t="s">
+      <c r="A57" s="67" t="s">
         <v>626</v>
       </c>
-      <c r="B57" s="65">
+      <c r="B57" s="64">
         <v>15</v>
       </c>
-      <c r="C57" s="64"/>
-      <c r="D57" s="110" t="s">
+      <c r="C57" s="63"/>
+      <c r="D57" s="103" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="68" t="s">
+      <c r="A58" s="67" t="s">
         <v>483</v>
       </c>
-      <c r="B58" s="65" t="s">
+      <c r="B58" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="C58" s="64"/>
-      <c r="D58" s="110"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="103"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="68" t="s">
+      <c r="A59" s="67" t="s">
         <v>484</v>
       </c>
-      <c r="B59" s="65" t="s">
+      <c r="B59" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="C59" s="64"/>
-      <c r="D59" s="110"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="103"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="71" t="s">
+      <c r="A60" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="B60" s="68"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="110"/>
+      <c r="B60" s="67"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="103"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="68" t="s">
+      <c r="A61" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="68">
+      <c r="B61" s="67">
         <v>100000</v>
       </c>
-      <c r="C61" s="64"/>
-      <c r="D61" s="110"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="103"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="68" t="s">
+      <c r="A62" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="B62" s="68">
+      <c r="B62" s="67">
         <v>100000</v>
       </c>
-      <c r="C62" s="64"/>
-      <c r="D62" s="110"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="103"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="68" t="s">
+      <c r="A63" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="B63" s="68">
+      <c r="B63" s="67">
         <v>100000</v>
       </c>
-      <c r="C63" s="64"/>
-      <c r="D63" s="110"/>
+      <c r="C63" s="63"/>
+      <c r="D63" s="103"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="68" t="s">
+      <c r="A64" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="68">
+      <c r="B64" s="67">
         <v>90000</v>
       </c>
-      <c r="C64" s="64"/>
-      <c r="D64" s="110"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="103"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="68" t="s">
+      <c r="A65" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="B65" s="68">
+      <c r="B65" s="67">
         <v>7000</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="68" t="s">
+      <c r="A66" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="B66" s="68">
+      <c r="B66" s="67">
         <v>7500</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="68" t="s">
+      <c r="A67" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="68">
+      <c r="B67" s="67">
         <v>6900</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="68" t="s">
+      <c r="A68" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="B68" s="68">
+      <c r="B68" s="67">
         <v>6500</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="71" t="s">
+      <c r="A69" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="B69" s="68"/>
+      <c r="B69" s="67"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="68" t="s">
+      <c r="A70" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="B70" s="68"/>
+      <c r="B70" s="67"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="68" t="s">
+      <c r="A71" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="B71" s="68">
+      <c r="B71" s="67">
         <v>15000</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="68" t="s">
+      <c r="A72" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="B72" s="68">
+      <c r="B72" s="67">
         <v>14500</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="68" t="s">
+      <c r="A73" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="B73" s="68">
+      <c r="B73" s="67">
         <v>14000</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="68" t="s">
+      <c r="A74" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="B74" s="68">
+      <c r="B74" s="67">
         <v>13500</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="68" t="s">
+      <c r="A75" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B75" s="68">
+      <c r="B75" s="67">
         <v>13000</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="68" t="s">
+      <c r="A76" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B76" s="68">
+      <c r="B76" s="67">
         <v>12500</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="68" t="s">
+      <c r="A77" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="B77" s="68">
+      <c r="B77" s="67">
         <v>12000</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="68" t="s">
+      <c r="A78" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="B78" s="68">
+      <c r="B78" s="67">
         <v>11500</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="68" t="s">
+      <c r="A79" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="B79" s="68">
+      <c r="B79" s="67">
         <v>11000</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="68" t="s">
+      <c r="A80" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="B80" s="68">
+      <c r="B80" s="67">
         <v>10500</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="68" t="s">
+      <c r="A81" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B81" s="68">
+      <c r="B81" s="67">
         <v>10000</v>
       </c>
-      <c r="C81" s="64"/>
-      <c r="D81" s="110"/>
+      <c r="C81" s="63"/>
+      <c r="D81" s="103"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="68" t="s">
+      <c r="A82" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="B82" s="68">
+      <c r="B82" s="67">
         <v>9500</v>
       </c>
-      <c r="C82" s="64"/>
-      <c r="D82" s="110"/>
+      <c r="C82" s="63"/>
+      <c r="D82" s="103"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="68" t="s">
+      <c r="A83" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="B83" s="68">
+      <c r="B83" s="67">
         <v>9000</v>
       </c>
-      <c r="C83" s="64"/>
-      <c r="D83" s="110"/>
+      <c r="C83" s="63"/>
+      <c r="D83" s="103"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="68" t="s">
+      <c r="A84" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B84" s="68">
+      <c r="B84" s="67">
         <v>8500</v>
       </c>
-      <c r="C84" s="64"/>
-      <c r="D84" s="110"/>
+      <c r="C84" s="63"/>
+      <c r="D84" s="103"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="68" t="s">
+      <c r="A85" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="B85" s="68">
+      <c r="B85" s="67">
         <v>8000</v>
       </c>
-      <c r="C85" s="64"/>
-      <c r="D85" s="110"/>
+      <c r="C85" s="63"/>
+      <c r="D85" s="103"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="68" t="s">
+      <c r="A86" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="B86" s="68">
+      <c r="B86" s="67">
         <v>7500</v>
       </c>
-      <c r="C86" s="64"/>
-      <c r="D86" s="110"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="103"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="68" t="s">
+      <c r="A87" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="B87" s="68">
+      <c r="B87" s="67">
         <v>7000</v>
       </c>
-      <c r="C87" s="64"/>
-      <c r="D87" s="110"/>
+      <c r="C87" s="63"/>
+      <c r="D87" s="103"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="68" t="s">
+      <c r="A88" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="B88" s="68">
+      <c r="B88" s="67">
         <v>6500</v>
       </c>
-      <c r="C88" s="64"/>
-      <c r="D88" s="110"/>
+      <c r="C88" s="63"/>
+      <c r="D88" s="103"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="68" t="s">
+      <c r="A89" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="B89" s="68">
+      <c r="B89" s="67">
         <v>6000</v>
       </c>
-      <c r="C89" s="64"/>
-      <c r="D89" s="110"/>
+      <c r="C89" s="63"/>
+      <c r="D89" s="103"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="68" t="s">
+      <c r="A90" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="B90" s="68">
+      <c r="B90" s="67">
         <v>5500</v>
       </c>
-      <c r="C90" s="64"/>
-      <c r="D90" s="110"/>
+      <c r="C90" s="63"/>
+      <c r="D90" s="103"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="68" t="s">
+      <c r="A91" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="B91" s="68"/>
-      <c r="C91" s="64"/>
-      <c r="D91" s="110"/>
+      <c r="B91" s="67"/>
+      <c r="C91" s="63"/>
+      <c r="D91" s="103"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="68" t="s">
+      <c r="A92" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="B92" s="68" t="s">
+      <c r="B92" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="C92" s="64"/>
-      <c r="D92" s="110"/>
+      <c r="C92" s="63"/>
+      <c r="D92" s="103"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="68" t="s">
+      <c r="A93" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="B93" s="64" t="s">
+      <c r="B93" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="C93" s="64"/>
-      <c r="D93" s="110" t="s">
+      <c r="C93" s="63"/>
+      <c r="D93" s="103" t="s">
         <v>717</v>
       </c>
     </row>
@@ -8881,590 +8941,590 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="120" t="s">
+      <c r="C1" s="73"/>
+      <c r="D1" s="113" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="74">
+      <c r="B2" s="73">
         <v>10</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="119" t="s">
+      <c r="C2" s="73"/>
+      <c r="D2" s="112" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="73" t="s">
         <v>485</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="119" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="112" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+    <row r="4" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="73" t="s">
         <v>453</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="73" t="s">
         <v>486</v>
       </c>
-      <c r="C4" s="74"/>
-      <c r="D4" s="119" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="112" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="73" t="s">
         <v>487</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="123" t="s">
+      <c r="C5" s="73"/>
+      <c r="D5" s="116" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="73" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="73" t="s">
         <v>488</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="123" t="s">
+      <c r="C6" s="73"/>
+      <c r="D6" s="116" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="74" t="s">
+      <c r="A7" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="117" t="s">
+      <c r="C7" s="73"/>
+      <c r="D7" s="110" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="74" t="s">
+    <row r="8" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="117"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="110"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="73" t="s">
         <v>489</v>
       </c>
-      <c r="C9" s="74"/>
-      <c r="D9" s="122">
+      <c r="C9" s="73"/>
+      <c r="D9" s="115">
         <v>1234567812</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="76" t="s">
+    <row r="10" spans="1:4" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="75" t="s">
         <v>454</v>
       </c>
-      <c r="B10" s="74">
+      <c r="B10" s="73">
         <v>10000</v>
       </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="118" t="s">
+      <c r="C10" s="73"/>
+      <c r="D10" s="111" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="77" t="s">
+      <c r="A11" s="76" t="s">
         <v>455</v>
       </c>
-      <c r="B11" s="74">
+      <c r="B11" s="73">
         <v>10000</v>
       </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="118" t="s">
+      <c r="C11" s="73"/>
+      <c r="D11" s="111" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="75" t="s">
         <v>456</v>
       </c>
-      <c r="B12" s="74">
+      <c r="B12" s="73">
         <v>10000</v>
       </c>
-      <c r="C12" s="74"/>
-      <c r="D12" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="76" t="s">
+      <c r="C12" s="73"/>
+      <c r="D12" s="111" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="75" t="s">
         <v>457</v>
       </c>
-      <c r="B13" s="74">
+      <c r="B13" s="73">
         <v>10000</v>
       </c>
-      <c r="C13" s="74"/>
-      <c r="D13" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="76" t="s">
+      <c r="C13" s="73"/>
+      <c r="D13" s="111" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="75" t="s">
         <v>458</v>
       </c>
-      <c r="B14" s="74">
+      <c r="B14" s="73">
         <v>10000</v>
       </c>
-      <c r="C14" s="74"/>
-      <c r="D14" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="76" t="s">
+      <c r="C14" s="73"/>
+      <c r="D14" s="111" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="75" t="s">
         <v>459</v>
       </c>
-      <c r="B15" s="74">
+      <c r="B15" s="73">
         <v>10000</v>
       </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="76" t="s">
+      <c r="C15" s="73"/>
+      <c r="D15" s="111" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="75" t="s">
         <v>460</v>
       </c>
-      <c r="B16" s="74">
+      <c r="B16" s="73">
         <v>10000</v>
       </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="76" t="s">
+      <c r="C16" s="73"/>
+      <c r="D16" s="111" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="75" t="s">
         <v>461</v>
       </c>
-      <c r="B17" s="74">
+      <c r="B17" s="73">
         <v>10000</v>
       </c>
-      <c r="C17" s="74"/>
-      <c r="D17" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="76" t="s">
+      <c r="C17" s="73"/>
+      <c r="D17" s="111" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="75" t="s">
         <v>462</v>
       </c>
-      <c r="B18" s="74">
+      <c r="B18" s="73">
         <v>10000</v>
       </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="76" t="s">
+      <c r="C18" s="73"/>
+      <c r="D18" s="111" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="75" t="s">
         <v>463</v>
       </c>
-      <c r="B19" s="74">
+      <c r="B19" s="73">
         <v>10000</v>
       </c>
-      <c r="C19" s="74"/>
-      <c r="D19" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="76" t="s">
+      <c r="C19" s="73"/>
+      <c r="D19" s="111" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="75" t="s">
         <v>464</v>
       </c>
-      <c r="B20" s="74">
+      <c r="B20" s="73">
         <v>10000</v>
       </c>
-      <c r="C20" s="74"/>
-      <c r="D20" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="40" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="76" t="s">
+      <c r="C20" s="73"/>
+      <c r="D20" s="111" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="75" t="s">
         <v>465</v>
       </c>
-      <c r="B21" s="74">
+      <c r="B21" s="73">
         <v>10000</v>
       </c>
-      <c r="C21" s="74"/>
-      <c r="D21" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="76" t="s">
+      <c r="C21" s="73"/>
+      <c r="D21" s="111" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="75" t="s">
         <v>466</v>
       </c>
-      <c r="B22" s="74">
+      <c r="B22" s="73">
         <v>10000</v>
       </c>
-      <c r="C22" s="74"/>
-      <c r="D22" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="76" t="s">
+      <c r="C22" s="73"/>
+      <c r="D22" s="111" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="75" t="s">
         <v>467</v>
       </c>
-      <c r="B23" s="74">
+      <c r="B23" s="73">
         <v>10000</v>
       </c>
-      <c r="C23" s="74"/>
-      <c r="D23" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="76" t="s">
+      <c r="C23" s="73"/>
+      <c r="D23" s="111" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="75" t="s">
         <v>718</v>
       </c>
-      <c r="B24" s="74">
+      <c r="B24" s="73">
         <v>10000</v>
       </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="76" t="s">
+      <c r="C24" s="73"/>
+      <c r="D24" s="111" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="75" t="s">
         <v>468</v>
       </c>
-      <c r="B25" s="74">
+      <c r="B25" s="73">
         <v>10000</v>
       </c>
-      <c r="C25" s="74"/>
-      <c r="D25" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="76" t="s">
+      <c r="C25" s="73"/>
+      <c r="D25" s="111" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="75" t="s">
         <v>469</v>
       </c>
-      <c r="B26" s="74">
+      <c r="B26" s="73">
         <v>10000</v>
       </c>
-      <c r="C26" s="74"/>
-      <c r="D26" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="76" t="s">
+      <c r="C26" s="73"/>
+      <c r="D26" s="111" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="75" t="s">
         <v>470</v>
       </c>
-      <c r="B27" s="74">
+      <c r="B27" s="73">
         <v>10000</v>
       </c>
-      <c r="C27" s="74"/>
-      <c r="D27" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="76" t="s">
+      <c r="C27" s="73"/>
+      <c r="D27" s="111" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="75" t="s">
         <v>471</v>
       </c>
-      <c r="B28" s="74">
+      <c r="B28" s="73">
         <v>10000</v>
       </c>
-      <c r="C28" s="74"/>
-      <c r="D28" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="76" t="s">
+      <c r="C28" s="73"/>
+      <c r="D28" s="111" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="75" t="s">
         <v>472</v>
       </c>
-      <c r="B29" s="74">
+      <c r="B29" s="73">
         <v>10000</v>
       </c>
-      <c r="C29" s="74"/>
-      <c r="D29" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="76" t="s">
+      <c r="C29" s="73"/>
+      <c r="D29" s="111" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="75" t="s">
         <v>473</v>
       </c>
-      <c r="B30" s="74">
+      <c r="B30" s="73">
         <v>10000</v>
       </c>
-      <c r="C30" s="74"/>
-      <c r="D30" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="76" t="s">
+      <c r="C30" s="73"/>
+      <c r="D30" s="111" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="75" t="s">
         <v>474</v>
       </c>
-      <c r="B31" s="74">
+      <c r="B31" s="73">
         <v>10000</v>
       </c>
-      <c r="C31" s="74"/>
-      <c r="D31" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="76" t="s">
+      <c r="C31" s="73"/>
+      <c r="D31" s="111" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="75" t="s">
         <v>475</v>
       </c>
-      <c r="B32" s="74">
+      <c r="B32" s="73">
         <v>10000</v>
       </c>
-      <c r="C32" s="74"/>
-      <c r="D32" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="76" t="s">
+      <c r="C32" s="73"/>
+      <c r="D32" s="111" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="75" t="s">
         <v>476</v>
       </c>
-      <c r="B33" s="74">
+      <c r="B33" s="73">
         <v>10000</v>
       </c>
-      <c r="C33" s="74"/>
-      <c r="D33" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="76" t="s">
+      <c r="C33" s="73"/>
+      <c r="D33" s="111" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="75" t="s">
         <v>477</v>
       </c>
-      <c r="B34" s="74">
+      <c r="B34" s="73">
         <v>10000</v>
       </c>
-      <c r="C34" s="74"/>
-      <c r="D34" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="76" t="s">
+      <c r="C34" s="73"/>
+      <c r="D34" s="111" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="75" t="s">
         <v>478</v>
       </c>
-      <c r="B35" s="74">
+      <c r="B35" s="73">
         <v>10000</v>
       </c>
-      <c r="C35" s="74"/>
-      <c r="D35" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="76" t="s">
+      <c r="C35" s="73"/>
+      <c r="D35" s="111" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="75" t="s">
         <v>479</v>
       </c>
-      <c r="B36" s="74">
+      <c r="B36" s="73">
         <v>10000</v>
       </c>
-      <c r="C36" s="74"/>
-      <c r="D36" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="76" t="s">
+      <c r="C36" s="73"/>
+      <c r="D36" s="111" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="75" t="s">
         <v>480</v>
       </c>
-      <c r="B37" s="74">
+      <c r="B37" s="73">
         <v>10000</v>
       </c>
-      <c r="C37" s="74"/>
-      <c r="D37" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="76" t="s">
+      <c r="C37" s="73"/>
+      <c r="D37" s="111" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="74" t="s">
+      <c r="B38" s="73" t="s">
         <v>490</v>
       </c>
-      <c r="C38" s="74"/>
-      <c r="D38" s="124" t="s">
+      <c r="C38" s="73"/>
+      <c r="D38" s="117" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="40" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A39" s="76" t="s">
+    <row r="39" spans="1:4" s="39" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="75" t="s">
         <v>709</v>
       </c>
-      <c r="B39" s="74" t="s">
+      <c r="B39" s="73" t="s">
         <v>686</v>
       </c>
-      <c r="C39" s="74"/>
-      <c r="D39" s="125" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="76" t="s">
+      <c r="C39" s="73"/>
+      <c r="D39" s="118" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="74">
+      <c r="B40" s="73">
         <v>4000</v>
       </c>
-      <c r="C40" s="74"/>
-      <c r="D40" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="76" t="s">
+      <c r="C40" s="73"/>
+      <c r="D40" s="111" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="75" t="s">
         <v>481</v>
       </c>
-      <c r="B41" s="74">
+      <c r="B41" s="73">
         <v>3500</v>
       </c>
-      <c r="C41" s="74"/>
-      <c r="D41" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="76" t="s">
+      <c r="C41" s="73"/>
+      <c r="D41" s="111" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="78">
+      <c r="B42" s="77">
         <v>1</v>
       </c>
-      <c r="C42" s="74">
+      <c r="C42" s="73">
         <v>1</v>
       </c>
-      <c r="D42" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="76" t="s">
+      <c r="D42" s="111" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="75" t="s">
         <v>482</v>
       </c>
-      <c r="B43" s="74" t="s">
+      <c r="B43" s="73" t="s">
         <v>491</v>
       </c>
-      <c r="C43" s="74"/>
-      <c r="D43" s="117"/>
-    </row>
-    <row r="44" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="76" t="s">
+      <c r="C43" s="73"/>
+      <c r="D43" s="110"/>
+    </row>
+    <row r="44" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="74" t="s">
+      <c r="B44" s="73" t="s">
         <v>674</v>
       </c>
-      <c r="C44" s="74"/>
-      <c r="D44" s="117"/>
-    </row>
-    <row r="45" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="76" t="s">
+      <c r="C44" s="73"/>
+      <c r="D44" s="110"/>
+    </row>
+    <row r="45" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="74">
+      <c r="B45" s="73">
         <v>2011</v>
       </c>
-      <c r="C45" s="74"/>
-      <c r="D45" s="121">
+      <c r="C45" s="73"/>
+      <c r="D45" s="114">
         <v>12345</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="76" t="s">
+    <row r="46" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="74">
+      <c r="B46" s="73">
         <v>5</v>
       </c>
-      <c r="C46" s="74"/>
-      <c r="D46" s="121" t="s">
+      <c r="C46" s="73"/>
+      <c r="D46" s="114" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="76" t="s">
+    <row r="47" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="75" t="s">
         <v>483</v>
       </c>
-      <c r="B47" s="74" t="s">
+      <c r="B47" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="74"/>
-      <c r="D47" s="117"/>
-    </row>
-    <row r="48" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="76" t="s">
+      <c r="C47" s="73"/>
+      <c r="D47" s="110"/>
+    </row>
+    <row r="48" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="75" t="s">
         <v>484</v>
       </c>
-      <c r="B48" s="74" t="s">
+      <c r="B48" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="74"/>
-      <c r="D48" s="117"/>
-    </row>
-    <row r="49" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="76"/>
-      <c r="B49" s="74"/>
-      <c r="C49" s="74"/>
-      <c r="D49" s="117"/>
+      <c r="C48" s="73"/>
+      <c r="D48" s="110"/>
+    </row>
+    <row r="49" spans="1:4" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="75"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="110"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="76"/>
-      <c r="B50" s="74"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="117"/>
+      <c r="A50" s="75"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="73"/>
+      <c r="D50" s="110"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="76"/>
-      <c r="B51" s="74"/>
-      <c r="C51" s="74"/>
-      <c r="D51" s="117"/>
+      <c r="A51" s="75"/>
+      <c r="B51" s="73"/>
+      <c r="C51" s="73"/>
+      <c r="D51" s="110"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9488,278 +9548,278 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="127" t="s">
+      <c r="C1" s="84"/>
+      <c r="D1" s="120" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="95">
+      <c r="B2" s="94">
         <v>1000000</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="126"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="119"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="84" t="s">
         <v>675</v>
       </c>
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="84" t="s">
         <v>676</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="128" t="s">
+      <c r="C3" s="84"/>
+      <c r="D3" s="121" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="84" t="s">
         <v>677</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="84" t="s">
         <v>678</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="128" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="121" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="84" t="s">
         <v>679</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="84" t="s">
         <v>680</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="128" t="s">
+      <c r="C5" s="84"/>
+      <c r="D5" s="121" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="85"/>
-      <c r="D6" s="128" t="s">
+      <c r="C6" s="84"/>
+      <c r="D6" s="121" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="84" t="s">
         <v>422</v>
       </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="128" t="s">
+      <c r="C7" s="84"/>
+      <c r="D7" s="121" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="128" t="s">
+      <c r="C8" s="84"/>
+      <c r="D8" s="121" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="85"/>
-      <c r="D9" s="128" t="s">
+      <c r="C9" s="84"/>
+      <c r="D9" s="121" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="128" t="s">
+      <c r="C10" s="84"/>
+      <c r="D10" s="121" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="84" t="s">
         <v>489</v>
       </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="128" t="s">
+      <c r="C11" s="84"/>
+      <c r="D11" s="121" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="84" t="s">
         <v>681</v>
       </c>
-      <c r="B12" s="95">
+      <c r="B12" s="94">
         <v>10000</v>
       </c>
-      <c r="C12" s="85"/>
-      <c r="D12" s="128" t="s">
+      <c r="C12" s="84"/>
+      <c r="D12" s="121" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="84" t="s">
         <v>682</v>
       </c>
-      <c r="B13" s="92">
+      <c r="B13" s="91">
         <v>0.2</v>
       </c>
-      <c r="C13" s="85">
+      <c r="C13" s="84">
         <v>0.2</v>
       </c>
-      <c r="D13" s="128" t="s">
+      <c r="D13" s="121" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="87" t="s">
+      <c r="A14" s="86" t="s">
         <v>683</v>
       </c>
-      <c r="B14" s="91">
+      <c r="B14" s="90">
         <v>5</v>
       </c>
-      <c r="C14" s="85"/>
-      <c r="D14" s="128" t="s">
+      <c r="C14" s="84"/>
+      <c r="D14" s="121" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="84" t="s">
         <v>684</v>
       </c>
-      <c r="B15" s="93">
+      <c r="B15" s="92">
         <v>3</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="128" t="s">
+      <c r="C15" s="84"/>
+      <c r="D15" s="121" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="96" t="s">
+      <c r="A16" s="95" t="s">
         <v>724</v>
       </c>
-      <c r="B16" s="93"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="128"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="121"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="84" t="s">
         <v>685</v>
       </c>
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="84" t="s">
         <v>686</v>
       </c>
-      <c r="C17" s="85"/>
-      <c r="D17" s="129"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="122"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="85" t="s">
+      <c r="A18" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="85" t="s">
+      <c r="B18" s="84" t="s">
         <v>674</v>
       </c>
-      <c r="C18" s="85"/>
-      <c r="D18" s="126"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="119"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="85" t="s">
+      <c r="A19" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="91">
+      <c r="B19" s="90">
         <v>2001</v>
       </c>
-      <c r="C19" s="85"/>
-      <c r="D19" s="128">
+      <c r="C19" s="84"/>
+      <c r="D19" s="121">
         <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="86" t="s">
+      <c r="A20" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="87" t="s">
         <v>354</v>
       </c>
-      <c r="C20" s="85"/>
-      <c r="D20" s="130"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="123"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="86" t="s">
+      <c r="A21" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="87" t="s">
         <v>355</v>
       </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="126"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="119"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="86" t="s">
+      <c r="A22" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="88">
+      <c r="B22" s="87">
         <v>15</v>
       </c>
-      <c r="C22" s="85"/>
-      <c r="D22" s="128" t="s">
+      <c r="C22" s="84"/>
+      <c r="D22" s="121" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="86" t="s">
+      <c r="A23" s="85" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="94">
+      <c r="B23" s="93">
         <v>40000</v>
       </c>
-      <c r="C23" s="85"/>
-      <c r="D23" s="128" t="s">
+      <c r="C23" s="84"/>
+      <c r="D23" s="121" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="85" t="s">
+      <c r="B24" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="85"/>
-      <c r="D24" s="126"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="119"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9792,103 +9852,103 @@
       <c r="B1" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="132" t="s">
+      <c r="J1" s="125" t="s">
         <v>710</v>
       </c>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="180" t="s">
         <v>502</v>
       </c>
-      <c r="B2" s="172"/>
-      <c r="J2" s="173" t="s">
+      <c r="B2" s="180"/>
+      <c r="J2" s="181" t="s">
         <v>502</v>
       </c>
-      <c r="K2" s="173"/>
-      <c r="L2" s="131"/>
+      <c r="K2" s="181"/>
+      <c r="L2" s="124"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>504</v>
       </c>
-      <c r="B3" s="60">
+      <c r="B3" s="59">
         <v>10000</v>
       </c>
-      <c r="J3" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
+      <c r="J3" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>503</v>
       </c>
-      <c r="B4" s="60">
+      <c r="B4" s="59">
         <v>12000</v>
       </c>
-      <c r="J4" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131"/>
+      <c r="J4" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="172" t="s">
+      <c r="A5" s="180" t="s">
         <v>505</v>
       </c>
-      <c r="B5" s="172"/>
-      <c r="J5" s="173" t="s">
+      <c r="B5" s="180"/>
+      <c r="J5" s="181" t="s">
         <v>505</v>
       </c>
-      <c r="K5" s="173"/>
-      <c r="L5" s="131"/>
+      <c r="K5" s="181"/>
+      <c r="L5" s="124"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>506</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="39" t="s">
         <v>542</v>
       </c>
-      <c r="J6" s="131"/>
-      <c r="K6" s="131"/>
-      <c r="L6" s="131"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="124"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>507</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="J7" s="131"/>
-      <c r="K7" s="131"/>
-      <c r="L7" s="131"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="124"/>
+      <c r="L7" s="124"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>508</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="131"/>
-      <c r="K8" s="131"/>
-      <c r="L8" s="131"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="124"/>
+      <c r="L8" s="124"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="172" t="s">
+      <c r="A9" s="180" t="s">
         <v>510</v>
       </c>
-      <c r="B9" s="172"/>
-      <c r="J9" s="174" t="s">
+      <c r="B9" s="180"/>
+      <c r="J9" s="182" t="s">
         <v>510</v>
       </c>
-      <c r="K9" s="174"/>
-      <c r="L9" s="131"/>
+      <c r="K9" s="182"/>
+      <c r="L9" s="124"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
@@ -9900,62 +9960,62 @@
       <c r="D10" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="E10" s="46"/>
-      <c r="J10" s="132" t="s">
+      <c r="E10" s="45"/>
+      <c r="J10" s="125" t="s">
         <v>511</v>
       </c>
-      <c r="K10" s="132" t="s">
+      <c r="K10" s="125" t="s">
         <v>512</v>
       </c>
-      <c r="L10" s="132" t="s">
+      <c r="L10" s="125" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="47" t="s">
         <v>509</v>
       </c>
-      <c r="J11" s="131"/>
-      <c r="K11" s="131"/>
-      <c r="L11" s="131"/>
+      <c r="J11" s="124"/>
+      <c r="K11" s="124"/>
+      <c r="L11" s="124"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="23" t="s">
         <v>514</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="39" t="s">
         <v>543</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="39" t="s">
         <v>543</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="39" t="s">
         <v>543</v>
       </c>
-      <c r="J12" s="131"/>
-      <c r="K12" s="131"/>
-      <c r="L12" s="131"/>
+      <c r="J12" s="124"/>
+      <c r="K12" s="124"/>
+      <c r="L12" s="124"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="23" t="s">
         <v>515</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="39" t="s">
         <v>544</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="39" t="s">
         <v>545</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="J13" s="131"/>
-      <c r="K13" s="131"/>
-      <c r="L13" s="131"/>
+      <c r="D13" s="39"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="124"/>
+      <c r="L13" s="124"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="23" t="s">
         <v>516</v>
       </c>
-      <c r="B14" s="40">
+      <c r="B14" s="39">
         <v>10</v>
       </c>
       <c r="C14">
@@ -9964,21 +10024,21 @@
       <c r="D14">
         <v>10</v>
       </c>
-      <c r="J14" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="K14" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="L14" s="131" t="s">
+      <c r="J14" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="K14" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="L14" s="124" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="B15" s="40">
+      <c r="B15" s="39">
         <v>10</v>
       </c>
       <c r="C15">
@@ -9987,21 +10047,21 @@
       <c r="D15">
         <v>10</v>
       </c>
-      <c r="J15" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="K15" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="L15" s="131" t="s">
+      <c r="J15" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="K15" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="L15" s="124" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="23" t="s">
         <v>518</v>
       </c>
-      <c r="B16" s="40">
+      <c r="B16" s="39">
         <v>10</v>
       </c>
       <c r="C16">
@@ -10010,380 +10070,380 @@
       <c r="D16">
         <v>10</v>
       </c>
-      <c r="J16" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="K16" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="L16" s="131" t="s">
+      <c r="J16" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="K16" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="L16" s="124" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="47" t="s">
         <v>519</v>
       </c>
-      <c r="J17" s="131"/>
-      <c r="K17" s="131"/>
-      <c r="L17" s="131"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="124"/>
+      <c r="L17" s="124"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="23" t="s">
         <v>520</v>
       </c>
-      <c r="B18" s="61">
+      <c r="B18" s="60">
         <v>50</v>
       </c>
-      <c r="C18" s="61">
+      <c r="C18" s="60">
         <v>50</v>
       </c>
-      <c r="D18" s="61">
+      <c r="D18" s="60">
         <v>50</v>
       </c>
       <c r="F18">
         <v>0.5</v>
       </c>
-      <c r="G18" s="57">
+      <c r="G18" s="56">
         <v>0.5</v>
       </c>
-      <c r="H18" s="57">
+      <c r="H18" s="56">
         <v>0.5</v>
       </c>
-      <c r="J18" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="K18" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="L18" s="131" t="s">
+      <c r="J18" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="K18" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="L18" s="124" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="23" t="s">
         <v>521</v>
       </c>
-      <c r="B19" s="61">
+      <c r="B19" s="60">
         <v>20</v>
       </c>
-      <c r="C19" s="61">
+      <c r="C19" s="60">
         <v>20</v>
       </c>
-      <c r="D19" s="61">
+      <c r="D19" s="60">
         <v>20</v>
       </c>
       <c r="F19">
         <v>0.2</v>
       </c>
-      <c r="G19" s="57">
+      <c r="G19" s="56">
         <v>0.2</v>
       </c>
-      <c r="H19" s="57">
+      <c r="H19" s="56">
         <v>0.2</v>
       </c>
-      <c r="J19" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="K19" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="L19" s="131" t="s">
+      <c r="J19" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="K19" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="L19" s="124" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="23" t="s">
         <v>522</v>
       </c>
-      <c r="B20" s="61">
+      <c r="B20" s="60">
         <v>30</v>
       </c>
-      <c r="C20" s="61">
+      <c r="C20" s="60">
         <v>30</v>
       </c>
-      <c r="D20" s="61">
+      <c r="D20" s="60">
         <v>30</v>
       </c>
       <c r="F20">
         <v>0.3</v>
       </c>
-      <c r="G20" s="57">
+      <c r="G20" s="56">
         <v>0.3</v>
       </c>
-      <c r="H20" s="57">
+      <c r="H20" s="56">
         <v>0.3</v>
       </c>
-      <c r="J20" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="K20" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="L20" s="131" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
+      <c r="J20" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="K20" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="L20" s="124" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="47" t="s">
         <v>523</v>
       </c>
-      <c r="J21" s="131"/>
-      <c r="K21" s="131"/>
-      <c r="L21" s="131"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="124"/>
+      <c r="L21" s="124"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="46" t="s">
         <v>525</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="J22" s="131"/>
-      <c r="K22" s="131"/>
-      <c r="L22" s="131"/>
+      <c r="B22" s="61"/>
+      <c r="J22" s="124"/>
+      <c r="K22" s="124"/>
+      <c r="L22" s="124"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="23" t="s">
         <v>524</v>
       </c>
-      <c r="B23" s="62">
+      <c r="B23" s="61">
         <v>10</v>
       </c>
-      <c r="C23" s="62">
+      <c r="C23" s="61">
         <v>10</v>
       </c>
-      <c r="D23" s="62">
+      <c r="D23" s="61">
         <v>10</v>
       </c>
       <c r="F23">
         <v>0.1</v>
       </c>
-      <c r="G23" s="57">
+      <c r="G23" s="56">
         <v>0.1</v>
       </c>
-      <c r="H23" s="57">
+      <c r="H23" s="56">
         <v>0.1</v>
       </c>
-      <c r="J23" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="K23" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="L23" s="131" t="s">
+      <c r="J23" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="K23" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="L23" s="124" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="23" t="s">
         <v>526</v>
       </c>
-      <c r="B24" s="62">
+      <c r="B24" s="61">
         <v>10</v>
       </c>
-      <c r="C24" s="62">
+      <c r="C24" s="61">
         <v>10</v>
       </c>
-      <c r="D24" s="62">
+      <c r="D24" s="61">
         <v>10</v>
       </c>
-      <c r="F24" s="57">
+      <c r="F24" s="56">
         <v>0.1</v>
       </c>
-      <c r="G24" s="57">
+      <c r="G24" s="56">
         <v>0.1</v>
       </c>
-      <c r="H24" s="57">
+      <c r="H24" s="56">
         <v>0.1</v>
       </c>
-      <c r="J24" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="K24" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="L24" s="131" t="s">
+      <c r="J24" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="K24" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="L24" s="124" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="23" t="s">
         <v>527</v>
       </c>
-      <c r="B25" s="62">
+      <c r="B25" s="61">
         <v>10</v>
       </c>
-      <c r="C25" s="62">
+      <c r="C25" s="61">
         <v>10</v>
       </c>
-      <c r="D25" s="62">
+      <c r="D25" s="61">
         <v>10</v>
       </c>
-      <c r="F25" s="57">
+      <c r="F25" s="56">
         <v>0.1</v>
       </c>
-      <c r="G25" s="57">
+      <c r="G25" s="56">
         <v>0.1</v>
       </c>
-      <c r="H25" s="57">
+      <c r="H25" s="56">
         <v>0.1</v>
       </c>
-      <c r="J25" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="K25" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="L25" s="131" t="s">
+      <c r="J25" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="K25" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="L25" s="124" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="23" t="s">
         <v>528</v>
       </c>
-      <c r="B26" s="62">
+      <c r="B26" s="61">
         <v>10</v>
       </c>
-      <c r="C26" s="62">
+      <c r="C26" s="61">
         <v>10</v>
       </c>
-      <c r="D26" s="62">
+      <c r="D26" s="61">
         <v>10</v>
       </c>
-      <c r="F26" s="57">
+      <c r="F26" s="56">
         <v>0.1</v>
       </c>
-      <c r="G26" s="57">
+      <c r="G26" s="56">
         <v>0.1</v>
       </c>
-      <c r="H26" s="57">
+      <c r="H26" s="56">
         <v>0.1</v>
       </c>
-      <c r="J26" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="K26" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="L26" s="131" t="s">
+      <c r="J26" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="K26" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="L26" s="124" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="23" t="s">
         <v>529</v>
       </c>
-      <c r="B27" s="62">
+      <c r="B27" s="61">
         <v>10</v>
       </c>
-      <c r="C27" s="62">
+      <c r="C27" s="61">
         <v>10</v>
       </c>
-      <c r="D27" s="62">
+      <c r="D27" s="61">
         <v>10</v>
       </c>
-      <c r="F27" s="57">
+      <c r="F27" s="56">
         <v>0.1</v>
       </c>
-      <c r="G27" s="57">
+      <c r="G27" s="56">
         <v>0.1</v>
       </c>
-      <c r="H27" s="57">
+      <c r="H27" s="56">
         <v>0.1</v>
       </c>
-      <c r="J27" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="K27" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="L27" s="131" t="s">
+      <c r="J27" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="K27" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="L27" s="124" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="23" t="s">
         <v>530</v>
       </c>
-      <c r="B28" s="62">
+      <c r="B28" s="61">
         <v>10</v>
       </c>
-      <c r="C28" s="62">
+      <c r="C28" s="61">
         <v>10</v>
       </c>
-      <c r="D28" s="62">
+      <c r="D28" s="61">
         <v>10</v>
       </c>
-      <c r="F28" s="57">
+      <c r="F28" s="56">
         <v>0.1</v>
       </c>
-      <c r="G28" s="57">
+      <c r="G28" s="56">
         <v>0.1</v>
       </c>
-      <c r="H28" s="57">
+      <c r="H28" s="56">
         <v>0.1</v>
       </c>
-      <c r="J28" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="K28" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="L28" s="131" t="s">
+      <c r="J28" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="K28" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="L28" s="124" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="23" t="s">
         <v>531</v>
       </c>
-      <c r="B29" s="62">
+      <c r="B29" s="61">
         <v>40</v>
       </c>
-      <c r="C29" s="62">
+      <c r="C29" s="61">
         <v>40</v>
       </c>
-      <c r="D29" s="62">
+      <c r="D29" s="61">
         <v>40</v>
       </c>
       <c r="F29">
         <v>0.4</v>
       </c>
-      <c r="G29" s="57">
+      <c r="G29" s="56">
         <v>0.4</v>
       </c>
-      <c r="H29" s="57">
+      <c r="H29" s="56">
         <v>0.4</v>
       </c>
-      <c r="J29" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="K29" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="L29" s="131" t="s">
+      <c r="J29" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="K29" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="L29" s="124" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="46" t="s">
         <v>532</v>
       </c>
-      <c r="J30" s="131"/>
-      <c r="K30" s="131"/>
-      <c r="L30" s="131"/>
+      <c r="J30" s="124"/>
+      <c r="K30" s="124"/>
+      <c r="L30" s="124"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>524</v>
       </c>
-      <c r="B31" s="62">
+      <c r="B31" s="61">
         <v>100</v>
       </c>
-      <c r="C31" s="62">
+      <c r="C31" s="61">
         <v>100</v>
       </c>
-      <c r="D31" s="62">
+      <c r="D31" s="61">
         <v>100</v>
       </c>
       <c r="F31">
@@ -10395,317 +10455,317 @@
       <c r="H31">
         <v>1</v>
       </c>
-      <c r="J31" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="K31" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="L31" s="131" t="s">
+      <c r="J31" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="K31" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="L31" s="124" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="46" t="s">
         <v>533</v>
       </c>
-      <c r="J32" s="131"/>
-      <c r="K32" s="131"/>
-      <c r="L32" s="131"/>
+      <c r="J32" s="124"/>
+      <c r="K32" s="124"/>
+      <c r="L32" s="124"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="23" t="s">
         <v>524</v>
       </c>
-      <c r="B33" s="61">
+      <c r="B33" s="60">
         <v>50</v>
       </c>
-      <c r="C33" s="61">
+      <c r="C33" s="60">
         <v>50</v>
       </c>
-      <c r="D33" s="61">
+      <c r="D33" s="60">
         <v>50</v>
       </c>
       <c r="F33">
         <v>0.5</v>
       </c>
-      <c r="G33" s="57">
+      <c r="G33" s="56">
         <v>0.5</v>
       </c>
-      <c r="H33" s="57">
+      <c r="H33" s="56">
         <v>0.5</v>
       </c>
-      <c r="J33" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="K33" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="L33" s="131" t="s">
+      <c r="J33" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="K33" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="L33" s="124" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="B34" s="61">
+      <c r="B34" s="60">
         <v>50</v>
       </c>
-      <c r="C34" s="61">
+      <c r="C34" s="60">
         <v>50</v>
       </c>
-      <c r="D34" s="61">
+      <c r="D34" s="60">
         <v>50</v>
       </c>
-      <c r="F34" s="57">
+      <c r="F34" s="56">
         <v>0.5</v>
       </c>
-      <c r="G34" s="57">
+      <c r="G34" s="56">
         <v>0.5</v>
       </c>
-      <c r="H34" s="57">
+      <c r="H34" s="56">
         <v>0.5</v>
       </c>
-      <c r="J34" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="K34" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="L34" s="131" t="s">
+      <c r="J34" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="K34" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="L34" s="124" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="47" t="s">
         <v>534</v>
       </c>
-      <c r="J35" s="131"/>
-      <c r="K35" s="131"/>
-      <c r="L35" s="131"/>
+      <c r="J35" s="124"/>
+      <c r="K35" s="124"/>
+      <c r="L35" s="124"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="23" t="s">
         <v>535</v>
       </c>
-      <c r="B36" s="62">
+      <c r="B36" s="61">
         <v>10</v>
       </c>
-      <c r="C36" s="62">
+      <c r="C36" s="61">
         <v>10</v>
       </c>
-      <c r="D36" s="62">
+      <c r="D36" s="61">
         <v>10</v>
       </c>
-      <c r="F36" s="57">
+      <c r="F36" s="56">
         <v>0.1</v>
       </c>
-      <c r="G36" s="57">
+      <c r="G36" s="56">
         <v>0.1</v>
       </c>
-      <c r="H36" s="57">
+      <c r="H36" s="56">
         <v>0.1</v>
       </c>
-      <c r="J36" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="K36" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="L36" s="131" t="s">
+      <c r="J36" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="K36" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="L36" s="124" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="23" t="s">
         <v>536</v>
       </c>
-      <c r="B37" s="62">
+      <c r="B37" s="61">
         <v>10</v>
       </c>
-      <c r="C37" s="62">
+      <c r="C37" s="61">
         <v>10</v>
       </c>
-      <c r="D37" s="62">
+      <c r="D37" s="61">
         <v>10</v>
       </c>
-      <c r="F37" s="57">
+      <c r="F37" s="56">
         <v>0.1</v>
       </c>
-      <c r="G37" s="57">
+      <c r="G37" s="56">
         <v>0.1</v>
       </c>
-      <c r="H37" s="57">
+      <c r="H37" s="56">
         <v>0.1</v>
       </c>
-      <c r="J37" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="K37" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="L37" s="131" t="s">
+      <c r="J37" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="K37" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="L37" s="124" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="23" t="s">
         <v>537</v>
       </c>
-      <c r="B38" s="62">
+      <c r="B38" s="61">
         <v>10</v>
       </c>
-      <c r="C38" s="62">
+      <c r="C38" s="61">
         <v>10</v>
       </c>
-      <c r="D38" s="62">
+      <c r="D38" s="61">
         <v>10</v>
       </c>
-      <c r="F38" s="57">
+      <c r="F38" s="56">
         <v>0.1</v>
       </c>
-      <c r="G38" s="57">
+      <c r="G38" s="56">
         <v>0.1</v>
       </c>
-      <c r="H38" s="57">
+      <c r="H38" s="56">
         <v>0.1</v>
       </c>
-      <c r="J38" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="K38" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="L38" s="131" t="s">
+      <c r="J38" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="K38" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="L38" s="124" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="23" t="s">
         <v>538</v>
       </c>
-      <c r="B39" s="62">
+      <c r="B39" s="61">
         <v>10</v>
       </c>
-      <c r="C39" s="62">
+      <c r="C39" s="61">
         <v>10</v>
       </c>
-      <c r="D39" s="62">
+      <c r="D39" s="61">
         <v>10</v>
       </c>
-      <c r="F39" s="57">
+      <c r="F39" s="56">
         <v>0.1</v>
       </c>
-      <c r="G39" s="57">
+      <c r="G39" s="56">
         <v>0.1</v>
       </c>
-      <c r="H39" s="57">
+      <c r="H39" s="56">
         <v>0.1</v>
       </c>
-      <c r="J39" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="K39" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="L39" s="131" t="s">
+      <c r="J39" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="K39" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="L39" s="124" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="23" t="s">
         <v>539</v>
       </c>
-      <c r="B40" s="62">
+      <c r="B40" s="61">
         <v>10</v>
       </c>
-      <c r="C40" s="62">
+      <c r="C40" s="61">
         <v>10</v>
       </c>
-      <c r="D40" s="62">
+      <c r="D40" s="61">
         <v>10</v>
       </c>
-      <c r="F40" s="57">
+      <c r="F40" s="56">
         <v>0.1</v>
       </c>
-      <c r="G40" s="57">
+      <c r="G40" s="56">
         <v>0.1</v>
       </c>
-      <c r="H40" s="57">
+      <c r="H40" s="56">
         <v>0.1</v>
       </c>
-      <c r="J40" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="K40" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="L40" s="131" t="s">
+      <c r="J40" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="K40" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="L40" s="124" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="23" t="s">
         <v>540</v>
       </c>
-      <c r="B41" s="62">
+      <c r="B41" s="61">
         <v>10</v>
       </c>
-      <c r="C41" s="62">
+      <c r="C41" s="61">
         <v>10</v>
       </c>
-      <c r="D41" s="62">
+      <c r="D41" s="61">
         <v>10</v>
       </c>
-      <c r="F41" s="57">
+      <c r="F41" s="56">
         <v>0.1</v>
       </c>
-      <c r="G41" s="57">
+      <c r="G41" s="56">
         <v>0.1</v>
       </c>
-      <c r="H41" s="57">
+      <c r="H41" s="56">
         <v>0.1</v>
       </c>
-      <c r="J41" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="K41" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="L41" s="131" t="s">
+      <c r="J41" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="K41" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="L41" s="124" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="23" t="s">
         <v>541</v>
       </c>
-      <c r="B42" s="62">
+      <c r="B42" s="61">
         <v>40</v>
       </c>
-      <c r="C42" s="62">
+      <c r="C42" s="61">
         <v>40</v>
       </c>
-      <c r="D42" s="62">
+      <c r="D42" s="61">
         <v>40</v>
       </c>
       <c r="F42">
         <v>0.4</v>
       </c>
-      <c r="G42" s="57">
+      <c r="G42" s="56">
         <v>0.4</v>
       </c>
-      <c r="H42" s="57">
+      <c r="H42" s="56">
         <v>0.4</v>
       </c>
-      <c r="J42" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="K42" s="131" t="s">
-        <v>708</v>
-      </c>
-      <c r="L42" s="131" t="s">
+      <c r="J42" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="K42" s="124" t="s">
+        <v>708</v>
+      </c>
+      <c r="L42" s="124" t="s">
         <v>708</v>
       </c>
     </row>
@@ -10738,143 +10798,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="134" t="s">
-        <v>731</v>
+      <c r="D1" s="127" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="53" t="s">
         <v>546</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="53" t="s">
         <v>569</v>
       </c>
-      <c r="D2" s="133"/>
+      <c r="D2" s="126"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="53" t="s">
         <v>547</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="53" t="s">
         <v>570</v>
       </c>
-      <c r="D3" s="133"/>
+      <c r="D3" s="126"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="53" t="s">
         <v>571</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="133"/>
+      <c r="D4" s="126"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="53" t="s">
         <v>572</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="53" t="s">
         <v>573</v>
       </c>
-      <c r="D5" s="133"/>
+      <c r="D5" s="126"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="53" t="s">
         <v>574</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="133"/>
+      <c r="D6" s="126"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="53" t="s">
         <v>555</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="53" t="s">
         <v>575</v>
       </c>
-      <c r="D7" s="133"/>
+      <c r="D7" s="126"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="53" t="s">
         <v>576</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="53" t="s">
         <v>577</v>
       </c>
-      <c r="D8" s="133"/>
+      <c r="D8" s="126"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="53" t="s">
         <v>578</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="53" t="s">
         <v>579</v>
       </c>
-      <c r="D9" s="133"/>
+      <c r="D9" s="126"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="53" t="s">
         <v>557</v>
       </c>
-      <c r="B10" s="54">
+      <c r="B10" s="53">
         <v>300</v>
       </c>
-      <c r="D10" s="133" t="s">
-        <v>732</v>
+      <c r="D10" s="126" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="53" t="s">
         <v>580</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="53" t="s">
         <v>535</v>
       </c>
-      <c r="D11" s="133"/>
+      <c r="D11" s="126"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="53" t="s">
         <v>558</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="53" t="s">
         <v>581</v>
       </c>
-      <c r="D12" s="133"/>
+      <c r="D12" s="126"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="53" t="s">
         <v>582</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="133"/>
+      <c r="D13" s="126"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="53" t="s">
         <v>583</v>
       </c>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="133"/>
+      <c r="D14" s="126"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="53" t="s">
         <v>556</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="53" t="s">
         <v>584</v>
       </c>
-      <c r="D15" s="133"/>
+      <c r="D15" s="126"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10896,233 +10956,233 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="137" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="130" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="48" t="s">
         <v>546</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>559</v>
       </c>
-      <c r="D2" s="135"/>
+      <c r="D2" s="128"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="48" t="s">
         <v>547</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>560</v>
       </c>
-      <c r="D3" s="135"/>
+      <c r="D3" s="128"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="48" t="s">
         <v>548</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="39">
         <v>3</v>
       </c>
-      <c r="D4" s="135"/>
+      <c r="D4" s="128"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="48" t="s">
         <v>549</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="39">
         <v>2</v>
       </c>
-      <c r="D5" s="135"/>
+      <c r="D5" s="128"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="39" t="s">
         <v>561</v>
       </c>
-      <c r="D6" s="135"/>
+      <c r="D6" s="128"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="39" t="s">
         <v>562</v>
       </c>
-      <c r="D7" s="135"/>
+      <c r="D7" s="128"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="135"/>
+      <c r="D8" s="128"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="135"/>
+      <c r="D9" s="128"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="48" t="s">
         <v>444</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="135" t="s">
+      <c r="D10" s="128" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="39" t="s">
         <v>707</v>
       </c>
-      <c r="D11" s="135"/>
+      <c r="D11" s="128"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="39" t="s">
         <v>563</v>
       </c>
-      <c r="D12" s="135"/>
+      <c r="D12" s="128"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="39" t="s">
         <v>564</v>
       </c>
-      <c r="D13" s="135"/>
+      <c r="D13" s="128"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="135"/>
+      <c r="D14" s="128"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="48" t="s">
         <v>444</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="39" t="s">
         <v>565</v>
       </c>
-      <c r="D15" s="135"/>
+      <c r="D15" s="128"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="48" t="s">
         <v>550</v>
       </c>
-      <c r="B16" s="40">
+      <c r="B16" s="39">
         <v>10000</v>
       </c>
-      <c r="D16" s="136" t="s">
+      <c r="D16" s="129" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="48" t="s">
         <v>551</v>
       </c>
-      <c r="B17" s="40">
+      <c r="B17" s="39">
         <v>4</v>
       </c>
-      <c r="D17" s="136" t="s">
+      <c r="D17" s="129" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="48" t="s">
         <v>552</v>
       </c>
-      <c r="B18" s="40">
+      <c r="B18" s="39">
         <v>10000</v>
       </c>
-      <c r="D18" s="136" t="s">
+      <c r="D18" s="129" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="48" t="s">
         <v>553</v>
       </c>
-      <c r="B19" s="40">
+      <c r="B19" s="39">
         <v>4</v>
       </c>
-      <c r="D19" s="136" t="s">
+      <c r="D19" s="129" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="48" t="s">
         <v>554</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="135"/>
+      <c r="D20" s="128"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="48" t="s">
         <v>555</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="39" t="s">
         <v>566</v>
       </c>
-      <c r="D21" s="135"/>
+      <c r="D21" s="128"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="48" t="s">
         <v>556</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="39" t="s">
         <v>567</v>
       </c>
-      <c r="D22" s="135"/>
+      <c r="D22" s="128"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="48" t="s">
         <v>557</v>
       </c>
-      <c r="B23" s="40">
+      <c r="B23" s="39">
         <v>400</v>
       </c>
-      <c r="D23" s="135"/>
+      <c r="D23" s="128"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="48" t="s">
         <v>558</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="39" t="s">
         <v>568</v>
       </c>
-      <c r="D24" s="135"/>
+      <c r="D24" s="128"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11146,668 +11206,668 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82" t="s">
+      <c r="B1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="140" t="s">
+      <c r="C1" s="80"/>
+      <c r="D1" s="133" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="80" t="s">
         <v>453</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="82" t="s">
         <v>589</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="138"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="131"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="A3" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="82" t="s">
         <v>640</v>
       </c>
-      <c r="C3" s="81"/>
-      <c r="D3" s="138"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="131"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="82" t="s">
         <v>641</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="138"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="131"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="80" t="s">
         <v>444</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="B5" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="138"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="131"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="83" t="s">
+      <c r="B6" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="138"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="131"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="80" t="s">
         <v>591</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="82" t="s">
         <v>592</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="142">
+      <c r="C7" s="80"/>
+      <c r="D7" s="135">
         <v>12345678901</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="80" t="s">
         <v>597</v>
       </c>
-      <c r="B8" s="84">
+      <c r="B8" s="83">
         <v>10000</v>
       </c>
-      <c r="C8" s="81"/>
-      <c r="D8" s="143" t="s">
+      <c r="C8" s="80"/>
+      <c r="D8" s="136" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="80" t="s">
         <v>598</v>
       </c>
-      <c r="B9" s="84">
+      <c r="B9" s="83">
         <v>10000</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="143" t="s">
+      <c r="C9" s="80"/>
+      <c r="D9" s="136" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="80" t="s">
         <v>599</v>
       </c>
-      <c r="B10" s="84">
+      <c r="B10" s="83">
         <v>10000</v>
       </c>
-      <c r="C10" s="81"/>
-      <c r="D10" s="143" t="s">
+      <c r="C10" s="80"/>
+      <c r="D10" s="136" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="80" t="s">
         <v>600</v>
       </c>
-      <c r="B11" s="84">
+      <c r="B11" s="83">
         <v>10000</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="143" t="s">
+      <c r="C11" s="80"/>
+      <c r="D11" s="136" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="80" t="s">
         <v>601</v>
       </c>
-      <c r="B12" s="84">
+      <c r="B12" s="83">
         <v>10000</v>
       </c>
-      <c r="C12" s="81"/>
-      <c r="D12" s="143" t="s">
+      <c r="C12" s="80"/>
+      <c r="D12" s="136" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="80" t="s">
         <v>602</v>
       </c>
-      <c r="B13" s="84">
+      <c r="B13" s="83">
         <v>10000</v>
       </c>
-      <c r="C13" s="81"/>
-      <c r="D13" s="143" t="s">
+      <c r="C13" s="80"/>
+      <c r="D13" s="136" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="80" t="s">
         <v>603</v>
       </c>
-      <c r="B14" s="84">
+      <c r="B14" s="83">
         <v>10000</v>
       </c>
-      <c r="C14" s="81"/>
-      <c r="D14" s="143" t="s">
+      <c r="C14" s="80"/>
+      <c r="D14" s="136" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="80" t="s">
         <v>604</v>
       </c>
-      <c r="B15" s="84">
+      <c r="B15" s="83">
         <v>10000</v>
       </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="143" t="s">
+      <c r="C15" s="80"/>
+      <c r="D15" s="136" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="80" t="s">
         <v>605</v>
       </c>
-      <c r="B16" s="84">
+      <c r="B16" s="83">
         <v>10000</v>
       </c>
-      <c r="C16" s="81"/>
-      <c r="D16" s="143" t="s">
+      <c r="C16" s="80"/>
+      <c r="D16" s="136" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="81" t="s">
+      <c r="A17" s="80" t="s">
         <v>606</v>
       </c>
-      <c r="B17" s="84">
+      <c r="B17" s="83">
         <v>10000</v>
       </c>
-      <c r="C17" s="81"/>
-      <c r="D17" s="143" t="s">
+      <c r="C17" s="80"/>
+      <c r="D17" s="136" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="81" t="s">
+      <c r="A18" s="80" t="s">
         <v>607</v>
       </c>
-      <c r="B18" s="84">
+      <c r="B18" s="83">
         <v>10000</v>
       </c>
-      <c r="C18" s="81"/>
-      <c r="D18" s="143" t="s">
+      <c r="C18" s="80"/>
+      <c r="D18" s="136" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="81" t="s">
+      <c r="A19" s="80" t="s">
         <v>608</v>
       </c>
-      <c r="B19" s="84">
+      <c r="B19" s="83">
         <v>10000</v>
       </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="143" t="s">
+      <c r="C19" s="80"/>
+      <c r="D19" s="136" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="80" t="s">
         <v>609</v>
       </c>
-      <c r="B20" s="84">
+      <c r="B20" s="83">
         <v>10000</v>
       </c>
-      <c r="C20" s="81"/>
-      <c r="D20" s="143" t="s">
+      <c r="C20" s="80"/>
+      <c r="D20" s="136" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="81" t="s">
+      <c r="A21" s="80" t="s">
         <v>610</v>
       </c>
-      <c r="B21" s="84">
+      <c r="B21" s="83">
         <v>10000</v>
       </c>
-      <c r="C21" s="81"/>
-      <c r="D21" s="143" t="s">
+      <c r="C21" s="80"/>
+      <c r="D21" s="136" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="80" t="s">
         <v>720</v>
       </c>
-      <c r="B22" s="84">
+      <c r="B22" s="83">
         <v>10000</v>
       </c>
-      <c r="C22" s="81"/>
-      <c r="D22" s="143"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="136"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="81" t="s">
+      <c r="A23" s="80" t="s">
         <v>611</v>
       </c>
-      <c r="B23" s="84">
+      <c r="B23" s="83">
         <v>10000</v>
       </c>
-      <c r="C23" s="81"/>
-      <c r="D23" s="143" t="s">
+      <c r="C23" s="80"/>
+      <c r="D23" s="136" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="81" t="s">
+      <c r="A24" s="80" t="s">
         <v>612</v>
       </c>
-      <c r="B24" s="84">
+      <c r="B24" s="83">
         <v>10000</v>
       </c>
-      <c r="C24" s="81"/>
-      <c r="D24" s="143" t="s">
+      <c r="C24" s="80"/>
+      <c r="D24" s="136" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="81" t="s">
+      <c r="A25" s="80" t="s">
         <v>642</v>
       </c>
-      <c r="B25" s="84">
+      <c r="B25" s="83">
         <v>10000</v>
       </c>
-      <c r="C25" s="81"/>
-      <c r="D25" s="143" t="s">
+      <c r="C25" s="80"/>
+      <c r="D25" s="136" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="81" t="s">
+      <c r="A26" s="80" t="s">
         <v>614</v>
       </c>
-      <c r="B26" s="84">
+      <c r="B26" s="83">
         <v>10000</v>
       </c>
-      <c r="C26" s="81"/>
-      <c r="D26" s="143" t="s">
+      <c r="C26" s="80"/>
+      <c r="D26" s="136" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="81" t="s">
+      <c r="A27" s="80" t="s">
         <v>643</v>
       </c>
-      <c r="B27" s="84">
+      <c r="B27" s="83">
         <v>10000</v>
       </c>
-      <c r="C27" s="81"/>
-      <c r="D27" s="143" t="s">
+      <c r="C27" s="80"/>
+      <c r="D27" s="136" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="81" t="s">
+      <c r="A28" s="80" t="s">
         <v>616</v>
       </c>
-      <c r="B28" s="84">
+      <c r="B28" s="83">
         <v>10000</v>
       </c>
-      <c r="C28" s="81"/>
-      <c r="D28" s="143" t="s">
+      <c r="C28" s="80"/>
+      <c r="D28" s="136" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="81" t="s">
+      <c r="A29" s="80" t="s">
         <v>617</v>
       </c>
-      <c r="B29" s="84">
+      <c r="B29" s="83">
         <v>10000</v>
       </c>
-      <c r="C29" s="81"/>
-      <c r="D29" s="143" t="s">
+      <c r="C29" s="80"/>
+      <c r="D29" s="136" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="81" t="s">
+      <c r="A30" s="80" t="s">
         <v>618</v>
       </c>
-      <c r="B30" s="84">
+      <c r="B30" s="83">
         <v>10000</v>
       </c>
-      <c r="C30" s="81"/>
-      <c r="D30" s="143" t="s">
+      <c r="C30" s="80"/>
+      <c r="D30" s="136" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="81" t="s">
+      <c r="A31" s="80" t="s">
         <v>619</v>
       </c>
-      <c r="B31" s="84">
+      <c r="B31" s="83">
         <v>10000</v>
       </c>
-      <c r="C31" s="81"/>
-      <c r="D31" s="143" t="s">
+      <c r="C31" s="80"/>
+      <c r="D31" s="136" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="81" t="s">
+      <c r="A32" s="80" t="s">
         <v>644</v>
       </c>
-      <c r="B32" s="84">
+      <c r="B32" s="83">
         <v>10000</v>
       </c>
-      <c r="C32" s="81"/>
-      <c r="D32" s="143" t="s">
+      <c r="C32" s="80"/>
+      <c r="D32" s="136" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="81" t="s">
+      <c r="A33" s="80" t="s">
         <v>645</v>
       </c>
-      <c r="B33" s="84">
+      <c r="B33" s="83">
         <v>10000</v>
       </c>
-      <c r="C33" s="81"/>
-      <c r="D33" s="143" t="s">
+      <c r="C33" s="80"/>
+      <c r="D33" s="136" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="81" t="s">
+      <c r="A34" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="83" t="s">
+      <c r="B34" s="82" t="s">
         <v>646</v>
       </c>
-      <c r="C34" s="81"/>
-      <c r="D34" s="138"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="131"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="81" t="s">
+      <c r="A35" s="80" t="s">
         <v>709</v>
       </c>
-      <c r="B35" s="83" t="s">
+      <c r="B35" s="82" t="s">
         <v>686</v>
       </c>
-      <c r="C35" s="81"/>
-      <c r="D35" s="141"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="134"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="81" t="s">
+      <c r="A36" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="83">
+      <c r="B36" s="82">
         <v>3000</v>
       </c>
-      <c r="C36" s="81"/>
-      <c r="D36" s="138"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="131"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="81" t="s">
+      <c r="A37" s="80" t="s">
         <v>481</v>
       </c>
-      <c r="B37" s="83">
+      <c r="B37" s="82">
         <v>2500</v>
       </c>
-      <c r="C37" s="81"/>
-      <c r="D37" s="139" t="s">
+      <c r="C37" s="80"/>
+      <c r="D37" s="132" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="81" t="s">
+      <c r="A38" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="83">
+      <c r="B38" s="82">
         <v>100</v>
       </c>
-      <c r="C38" s="81"/>
-      <c r="D38" s="139" t="s">
+      <c r="C38" s="80"/>
+      <c r="D38" s="132" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="81" t="s">
+      <c r="A39" s="80" t="s">
         <v>482</v>
       </c>
-      <c r="B39" s="83" t="s">
+      <c r="B39" s="82" t="s">
         <v>491</v>
       </c>
-      <c r="C39" s="81"/>
-      <c r="D39" s="138"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="131"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="81" t="s">
+      <c r="A40" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="B40" s="83" t="s">
+      <c r="B40" s="82" t="s">
         <v>674</v>
       </c>
-      <c r="C40" s="81"/>
-      <c r="D40" s="138"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="131"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="81" t="s">
+      <c r="A41" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="83">
+      <c r="B41" s="82">
         <v>2006</v>
       </c>
-      <c r="C41" s="81"/>
-      <c r="D41" s="138"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="131"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="81" t="s">
+      <c r="A42" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="83">
+      <c r="B42" s="82">
         <v>4</v>
       </c>
-      <c r="C42" s="81"/>
-      <c r="D42" s="138"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="131"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="81" t="s">
+      <c r="A43" s="80" t="s">
         <v>555</v>
       </c>
-      <c r="B43" s="83" t="s">
+      <c r="B43" s="82" t="s">
         <v>647</v>
       </c>
-      <c r="C43" s="81"/>
-      <c r="D43" s="138"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="131"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="81" t="s">
+      <c r="A44" s="80" t="s">
         <v>483</v>
       </c>
-      <c r="B44" s="83" t="s">
+      <c r="B44" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="81"/>
-      <c r="D44" s="138"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="131"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="81" t="s">
+      <c r="A45" s="80" t="s">
         <v>484</v>
       </c>
-      <c r="B45" s="83" t="s">
+      <c r="B45" s="82" t="s">
         <v>706</v>
       </c>
-      <c r="C45" s="81"/>
-      <c r="D45" s="138"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="131"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="81" t="s">
+      <c r="A46" s="80" t="s">
         <v>648</v>
       </c>
-      <c r="B46" s="83" t="s">
+      <c r="B46" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="81"/>
-      <c r="D46" s="138"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="131"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="81" t="s">
+      <c r="A47" s="80" t="s">
         <v>649</v>
       </c>
-      <c r="B47" s="83" t="s">
+      <c r="B47" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="81"/>
-      <c r="D47" s="138"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="131"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="81" t="s">
+      <c r="A48" s="80" t="s">
         <v>650</v>
       </c>
-      <c r="B48" s="83" t="s">
+      <c r="B48" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="81"/>
-      <c r="D48" s="138"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="131"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="81" t="s">
+      <c r="A49" s="80" t="s">
         <v>651</v>
       </c>
-      <c r="B49" s="83" t="s">
+      <c r="B49" s="82" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="81" t="s">
+      <c r="A50" s="80" t="s">
         <v>652</v>
       </c>
-      <c r="B50" s="83" t="s">
+      <c r="B50" s="82" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="81" t="s">
+      <c r="A51" s="80" t="s">
         <v>654</v>
       </c>
-      <c r="B51" s="83" t="s">
+      <c r="B51" s="82" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="81" t="s">
+      <c r="A52" s="80" t="s">
         <v>655</v>
       </c>
-      <c r="B52" s="83" t="s">
+      <c r="B52" s="82" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="81" t="s">
+      <c r="A53" s="80" t="s">
         <v>656</v>
       </c>
-      <c r="B53" s="83" t="s">
+      <c r="B53" s="82" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="81" t="s">
+      <c r="A54" s="80" t="s">
         <v>658</v>
       </c>
-      <c r="B54" s="83" t="s">
+      <c r="B54" s="82" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="81" t="s">
+      <c r="A55" s="80" t="s">
         <v>659</v>
       </c>
-      <c r="B55" s="83" t="s">
+      <c r="B55" s="82" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="81" t="s">
+      <c r="A56" s="80" t="s">
         <v>661</v>
       </c>
-      <c r="B56" s="83" t="s">
+      <c r="B56" s="82" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="81" t="s">
+      <c r="A57" s="80" t="s">
         <v>662</v>
       </c>
-      <c r="B57" s="83" t="s">
+      <c r="B57" s="82" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="81" t="s">
+      <c r="A58" s="80" t="s">
         <v>663</v>
       </c>
-      <c r="B58" s="83" t="s">
+      <c r="B58" s="82" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="81" t="s">
+      <c r="A59" s="80" t="s">
         <v>665</v>
       </c>
-      <c r="B59" s="83" t="s">
+      <c r="B59" s="82" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="81" t="s">
+      <c r="A60" s="80" t="s">
         <v>667</v>
       </c>
-      <c r="B60" s="83" t="s">
+      <c r="B60" s="82" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="81" t="s">
+      <c r="A61" s="80" t="s">
         <v>668</v>
       </c>
-      <c r="B61" s="83" t="s">
+      <c r="B61" s="82" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="81" t="s">
+      <c r="A62" s="80" t="s">
         <v>670</v>
       </c>
-      <c r="B62" s="83" t="s">
+      <c r="B62" s="82" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="81" t="s">
+      <c r="A63" s="80" t="s">
         <v>671</v>
       </c>
-      <c r="B63" s="83" t="s">
+      <c r="B63" s="82" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="81" t="s">
+      <c r="A64" s="80" t="s">
         <v>672</v>
       </c>
-      <c r="B64" s="83" t="s">
+      <c r="B64" s="82" t="s">
         <v>673</v>
       </c>
     </row>

--- a/testdata/ExcelTestData/Newtestdata.xlsx
+++ b/testdata/ExcelTestData/Newtestdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20337"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20366"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Shakuntala\Periscope\pandc\testdata\ExcelTestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Periscope\pandc\testdata\ExcelTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8C2BA2-A007-4FF7-BE63-7A1831220C34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497A2C99-2E65-46BB-9837-BEFD09F5B09F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{D923499C-DDE5-4EE4-B604-8A52F010599A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="13" activeTab="14" xr2:uid="{D923499C-DDE5-4EE4-B604-8A52F010599A}"/>
   </bookViews>
   <sheets>
     <sheet name="CoverPage" sheetId="20" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1419" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="747">
   <si>
     <t>Column Name</t>
   </si>
@@ -887,9 +887,6 @@
   </si>
   <si>
     <t>Creta</t>
-  </si>
-  <si>
-    <t>VIN_8769\der2322$#</t>
   </si>
   <si>
     <t>Avenue Street 1</t>
@@ -2339,6 +2336,12 @@
   </si>
   <si>
     <t>Extra Expense</t>
+  </si>
+  <si>
+    <t>VIN_6987\der2322$#</t>
+  </si>
+  <si>
+    <t>VIN_8769\der2322$#</t>
   </si>
 </sst>
 </file>
@@ -3306,58 +3309,58 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.26953125" customWidth="1"/>
+    <col min="2" max="2" width="44.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="53" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>632</v>
-      </c>
       <c r="B3" s="23" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>254</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>636</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -3373,17 +3376,17 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="57"/>
-    <col min="10" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.26953125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="38.26953125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" style="57"/>
+    <col min="10" max="12" width="15.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3391,7 +3394,7 @@
         <v>116</v>
       </c>
       <c r="F1" s="146" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G1" s="144"/>
       <c r="H1" s="144"/>
@@ -3400,7 +3403,7 @@
       <c r="K1" s="144"/>
       <c r="L1" s="144"/>
     </row>
-    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>147</v>
       </c>
@@ -3412,7 +3415,7 @@
       <c r="K2" s="144"/>
       <c r="L2" s="144"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>148</v>
       </c>
@@ -3426,26 +3429,26 @@
         <v>10000</v>
       </c>
       <c r="F3" s="145" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G3" s="145" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H3" s="145" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I3" s="144"/>
       <c r="J3" s="147">
         <v>12345678912365</v>
       </c>
       <c r="K3" s="148" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="L3" s="148" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>149</v>
       </c>
@@ -3459,26 +3462,26 @@
         <v>10000000</v>
       </c>
       <c r="F4" s="145" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G4" s="145" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H4" s="145" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I4" s="144"/>
       <c r="J4" s="147">
         <v>12345678912365</v>
       </c>
       <c r="K4" s="148" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="L4" s="148" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="7" t="s">
         <v>150</v>
       </c>
@@ -3489,26 +3492,26 @@
         <v>18000000</v>
       </c>
       <c r="F5" s="145" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G5" s="145" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H5" s="145" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I5" s="144"/>
       <c r="J5" s="147">
         <v>12345678912365</v>
       </c>
       <c r="K5" s="148" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="L5" s="148" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>131</v>
       </c>
@@ -3520,7 +3523,7 @@
       <c r="K6" s="144"/>
       <c r="L6" s="144"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
         <v>132</v>
       </c>
@@ -3532,7 +3535,7 @@
       <c r="K7" s="144"/>
       <c r="L7" s="144"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>152</v>
       </c>
@@ -3547,7 +3550,7 @@
       <c r="K8" s="144"/>
       <c r="L8" s="144"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>153</v>
       </c>
@@ -3562,7 +3565,7 @@
       <c r="K9" s="144"/>
       <c r="L9" s="144"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
         <v>34</v>
       </c>
@@ -3574,7 +3577,7 @@
       <c r="K10" s="144"/>
       <c r="L10" s="144"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>154</v>
       </c>
@@ -3589,7 +3592,7 @@
       <c r="K11" s="144"/>
       <c r="L11" s="144"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>155</v>
       </c>
@@ -3604,7 +3607,7 @@
       <c r="K12" s="144"/>
       <c r="L12" s="144"/>
     </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>156</v>
       </c>
@@ -3619,7 +3622,7 @@
       <c r="K13" s="144"/>
       <c r="L13" s="144"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>157</v>
       </c>
@@ -3634,7 +3637,7 @@
       <c r="K14" s="144"/>
       <c r="L14" s="144"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>158</v>
       </c>
@@ -3649,7 +3652,7 @@
       <c r="K15" s="144"/>
       <c r="L15" s="144"/>
     </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>159</v>
       </c>
@@ -3664,7 +3667,7 @@
       <c r="K16" s="144"/>
       <c r="L16" s="144"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>160</v>
       </c>
@@ -3672,7 +3675,7 @@
         <v>15500</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>161</v>
       </c>
@@ -3680,7 +3683,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>162</v>
       </c>
@@ -3688,7 +3691,7 @@
         <v>14500</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>163</v>
       </c>
@@ -3696,7 +3699,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>164</v>
       </c>
@@ -3704,12 +3707,12 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>52</v>
       </c>
@@ -3717,7 +3720,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
         <v>104</v>
       </c>
@@ -3728,7 +3731,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>167</v>
       </c>
@@ -3739,7 +3742,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>168</v>
       </c>
@@ -3750,7 +3753,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>169</v>
       </c>
@@ -3761,7 +3764,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>170</v>
       </c>
@@ -3772,7 +3775,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>171</v>
       </c>
@@ -3783,7 +3786,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>172</v>
       </c>
@@ -3794,7 +3797,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>173</v>
       </c>
@@ -3805,7 +3808,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>174</v>
       </c>
@@ -3816,7 +3819,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>175</v>
       </c>
@@ -3827,7 +3830,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>176</v>
       </c>
@@ -3838,7 +3841,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>177</v>
       </c>
@@ -3849,7 +3852,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>178</v>
       </c>
@@ -3860,7 +3863,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>179</v>
       </c>
@@ -3871,7 +3874,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>180</v>
       </c>
@@ -3882,7 +3885,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>181</v>
       </c>
@@ -3893,7 +3896,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
         <v>182</v>
       </c>
@@ -3904,7 +3907,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>183</v>
       </c>
@@ -3915,7 +3918,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>184</v>
       </c>
@@ -3926,7 +3929,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>185</v>
       </c>
@@ -3937,7 +3940,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>186</v>
       </c>
@@ -3948,7 +3951,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>187</v>
       </c>
@@ -3959,7 +3962,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>188</v>
       </c>
@@ -3970,7 +3973,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>189</v>
       </c>
@@ -3981,7 +3984,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>190</v>
       </c>
@@ -3992,7 +3995,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>191</v>
       </c>
@@ -4003,7 +4006,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>192</v>
       </c>
@@ -4014,7 +4017,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>193</v>
       </c>
@@ -4025,7 +4028,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>194</v>
       </c>
@@ -4036,7 +4039,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>195</v>
       </c>
@@ -4047,7 +4050,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>196</v>
       </c>
@@ -4058,7 +4061,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>197</v>
       </c>
@@ -4069,7 +4072,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>198</v>
       </c>
@@ -4080,7 +4083,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>199</v>
       </c>
@@ -4091,7 +4094,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>200</v>
       </c>
@@ -4102,7 +4105,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>201</v>
       </c>
@@ -4113,7 +4116,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>202</v>
       </c>
@@ -4124,7 +4127,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>203</v>
       </c>
@@ -4135,7 +4138,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>204</v>
       </c>
@@ -4146,12 +4149,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="15" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>244</v>
       </c>
@@ -4174,14 +4177,14 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.28515625" customWidth="1"/>
+    <col min="4" max="4" width="47.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -4189,29 +4192,29 @@
         <v>1</v>
       </c>
       <c r="D1" s="156" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="40" t="s">
+        <v>626</v>
+      </c>
+      <c r="B2" t="s">
+        <v>628</v>
+      </c>
+      <c r="D2" s="157" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>627</v>
-      </c>
-      <c r="B2" t="s">
-        <v>629</v>
-      </c>
-      <c r="D2" s="157" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>628</v>
       </c>
       <c r="B3">
         <v>120000</v>
       </c>
       <c r="D3" s="155" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -4226,13 +4229,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="1" max="1" width="40.453125" customWidth="1"/>
+    <col min="2" max="2" width="36.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -4240,7 +4243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -4248,7 +4251,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>72</v>
       </c>
@@ -4256,7 +4259,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>73</v>
       </c>
@@ -4264,7 +4267,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>74</v>
       </c>
@@ -4272,7 +4275,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>75</v>
       </c>
@@ -4280,7 +4283,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -4288,7 +4291,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -4296,7 +4299,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -4304,7 +4307,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -4325,24 +4328,24 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="27.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="43" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F1" s="153" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G1" s="149"/>
       <c r="H1" s="149"/>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -4355,29 +4358,29 @@
       <c r="G2" s="152"/>
       <c r="H2" s="152"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" s="44" t="s">
+        <v>494</v>
+      </c>
+      <c r="C3" s="44" t="s">
         <v>495</v>
       </c>
-      <c r="C3" s="44" t="s">
-        <v>496</v>
-      </c>
       <c r="D3" s="44" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="F3" s="151" t="s">
+        <v>734</v>
+      </c>
+      <c r="G3" s="151" t="s">
         <v>735</v>
       </c>
-      <c r="G3" s="151" t="s">
+      <c r="H3" s="151" t="s">
         <v>736</v>
       </c>
-      <c r="H3" s="151" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="59" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B4" s="40">
         <v>400</v>
@@ -4389,16 +4392,16 @@
         <v>0.95</v>
       </c>
       <c r="F4" s="150" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G4" s="149" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H4" s="149"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="59" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B5" s="40">
         <v>100</v>
@@ -4410,16 +4413,16 @@
         <v>0.95</v>
       </c>
       <c r="F5" s="149" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G5" s="149" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H5" s="152"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="59" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -4431,16 +4434,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="149" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G6" s="149" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H6" s="149"/>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="59" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D7" s="40">
         <v>1000</v>
@@ -4448,12 +4451,12 @@
       <c r="F7" s="149"/>
       <c r="G7" s="149"/>
       <c r="H7" s="149" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="59" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D8">
         <v>365</v>
@@ -4461,12 +4464,12 @@
       <c r="F8" s="149"/>
       <c r="G8" s="149"/>
       <c r="H8" s="149" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="59" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D9">
         <v>12</v>
@@ -4474,7 +4477,7 @@
       <c r="F9" s="149"/>
       <c r="G9" s="149"/>
       <c r="H9" s="149" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -4491,22 +4494,22 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="56.140625" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.1796875" customWidth="1"/>
+    <col min="2" max="2" width="34.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="43" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
       <c r="D1" s="57"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="58" t="s">
         <v>25</v>
       </c>
@@ -4516,47 +4519,47 @@
       <c r="C2" s="57"/>
       <c r="D2" s="57"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="59" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C3" s="57"/>
       <c r="D3" s="57"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="59" t="s">
         <v>56</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C4" s="45"/>
       <c r="D4" s="57"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="59" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C5" s="45"/>
       <c r="D5" s="57"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="59" t="s">
         <v>57</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C6" s="45"/>
       <c r="D6" s="57"/>
     </row>
-    <row r="7" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="59" t="s">
         <v>83</v>
       </c>
@@ -4565,9 +4568,9 @@
       </c>
       <c r="C7" s="45"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="59" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B8" s="57" t="s">
         <v>69</v>
@@ -4575,17 +4578,17 @@
       <c r="C8" s="57"/>
       <c r="D8" s="57"/>
     </row>
-    <row r="9" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="59" t="s">
+        <v>590</v>
+      </c>
+      <c r="B9" s="57" t="s">
         <v>591</v>
       </c>
-      <c r="B9" s="57" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="59" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B10" s="57">
         <v>10000</v>
@@ -4594,9 +4597,9 @@
       <c r="D10" s="57"/>
       <c r="F10" s="57"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="59" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B11" s="21">
         <v>1</v>
@@ -4605,9 +4608,9 @@
       <c r="D11" s="57"/>
       <c r="F11" s="57"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="59" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B12" s="57">
         <v>8000</v>
@@ -4616,9 +4619,9 @@
       <c r="D12" s="57"/>
       <c r="F12" s="57"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="59" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B13" s="21">
         <v>1</v>
@@ -4627,9 +4630,9 @@
       <c r="D13" s="57"/>
       <c r="F13" s="57"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="59" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B14">
         <v>9000</v>
@@ -4638,9 +4641,9 @@
       <c r="D14" s="57"/>
       <c r="F14" s="57"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="59" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B15" s="21">
         <v>1</v>
@@ -4649,9 +4652,9 @@
       <c r="D15" s="57"/>
       <c r="F15" s="57"/>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="59" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B16">
         <v>12</v>
@@ -4660,9 +4663,9 @@
       <c r="D16" s="57"/>
       <c r="F16" s="57"/>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="59" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B17">
         <v>12000</v>
@@ -4671,9 +4674,9 @@
       <c r="D17" s="57"/>
       <c r="F17" s="57"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="59" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B18">
         <v>365</v>
@@ -4682,22 +4685,22 @@
       <c r="D18" s="57"/>
       <c r="F18" s="57"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C19" s="57"/>
       <c r="D19" s="57"/>
       <c r="F19" s="57"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C20" s="57"/>
       <c r="D20" s="57"/>
       <c r="F20" s="57"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C21" s="57"/>
       <c r="D21" s="57"/>
       <c r="F21" s="57"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D22" s="57"/>
       <c r="F22" s="57"/>
     </row>
@@ -4709,102 +4712,138 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB9E15E-982A-4378-870E-0EBD59B87B42}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="97" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="170" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="171" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" s="171" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="169" t="s">
+        <v>740</v>
+      </c>
+      <c r="B2" s="169" t="s">
         <v>741</v>
       </c>
-      <c r="B2" s="169" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" s="166" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="169" t="s">
         <v>71</v>
       </c>
       <c r="B3" s="169">
         <v>1500</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" s="166" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="169" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B4" s="169">
         <v>2500</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4" s="166" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="169" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B5" s="169">
         <v>1500</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5" s="166" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="169" t="s">
         <v>73</v>
       </c>
       <c r="B6" s="169">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6" s="166" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="169" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B7" s="169">
         <v>10000</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D7" s="166" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="169" t="s">
         <v>75</v>
       </c>
       <c r="B8" s="169" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D8" s="166" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="169" t="s">
         <v>76</v>
       </c>
       <c r="B9" s="169" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D9" s="166" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="169" t="s">
         <v>77</v>
       </c>
       <c r="B10" s="169">
         <v>10000</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D10" s="166" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="169" t="s">
         <v>78</v>
       </c>
       <c r="B11" s="169">
         <v>10000</v>
+      </c>
+      <c r="D11" s="166" t="s">
+        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -4820,13 +4859,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1"/>
+    <col min="1" max="1" width="30.26953125" customWidth="1"/>
+    <col min="2" max="2" width="38.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4834,7 +4873,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -4842,7 +4881,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>127</v>
       </c>
@@ -4850,7 +4889,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>128</v>
       </c>
@@ -4858,7 +4897,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>117</v>
       </c>
@@ -4866,18 +4905,18 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="172" t="s">
         <v>115</v>
       </c>
       <c r="B6" s="172"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>118</v>
       </c>
@@ -4885,7 +4924,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>119</v>
       </c>
@@ -4893,7 +4932,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>120</v>
       </c>
@@ -4901,13 +4940,13 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>121</v>
       </c>
       <c r="B11" s="57"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -4915,7 +4954,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>119</v>
       </c>
@@ -4923,7 +4962,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>120</v>
       </c>
@@ -4931,13 +4970,13 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>122</v>
       </c>
       <c r="B15" s="57"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>118</v>
       </c>
@@ -4945,7 +4984,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>119</v>
       </c>
@@ -4953,7 +4992,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>120</v>
       </c>
@@ -4961,7 +5000,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>123</v>
       </c>
@@ -4975,7 +5014,7 @@
         <v>99.55</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>100.45</v>
       </c>
@@ -4986,7 +5025,7 @@
         <v>100.45</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>55</v>
       </c>
@@ -4997,7 +5036,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>999</v>
       </c>
@@ -5008,7 +5047,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>124</v>
       </c>
@@ -5022,7 +5061,7 @@
         <v>777.55</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>10</v>
       </c>
@@ -5033,13 +5072,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="172" t="s">
         <v>125</v>
       </c>
       <c r="B26" s="172"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -5047,12 +5086,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>118</v>
       </c>
@@ -5060,7 +5099,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>119</v>
       </c>
@@ -5068,7 +5107,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>120</v>
       </c>
@@ -5076,13 +5115,13 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>121</v>
       </c>
       <c r="B32" s="57"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>118</v>
       </c>
@@ -5090,7 +5129,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>119</v>
       </c>
@@ -5098,7 +5137,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>120</v>
       </c>
@@ -5106,13 +5145,13 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>122</v>
       </c>
       <c r="B36" s="57"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>118</v>
       </c>
@@ -5120,7 +5159,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>119</v>
       </c>
@@ -5128,7 +5167,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>120</v>
       </c>
@@ -5136,7 +5175,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>123</v>
       </c>
@@ -5150,7 +5189,7 @@
         <v>99.55</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B41">
         <v>100.45</v>
       </c>
@@ -5161,7 +5200,7 @@
         <v>100.45</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B42">
         <v>55</v>
       </c>
@@ -5172,7 +5211,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>999</v>
       </c>
@@ -5183,7 +5222,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>124</v>
       </c>
@@ -5197,7 +5236,7 @@
         <v>777.55</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B45">
         <v>10</v>
       </c>
@@ -5208,17 +5247,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>133</v>
       </c>
@@ -5226,7 +5265,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>134</v>
       </c>
@@ -5234,7 +5273,7 @@
         <v>19500</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>135</v>
       </c>
@@ -5242,12 +5281,12 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>133</v>
       </c>
@@ -5255,7 +5294,7 @@
         <v>18500</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>136</v>
       </c>
@@ -5263,7 +5302,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>137</v>
       </c>
@@ -5271,7 +5310,7 @@
         <v>17500</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>138</v>
       </c>
@@ -5279,7 +5318,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>139</v>
       </c>
@@ -5287,7 +5326,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>140</v>
       </c>
@@ -5295,7 +5334,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>141</v>
       </c>
@@ -5303,7 +5342,7 @@
         <v>15500</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>142</v>
       </c>
@@ -5311,7 +5350,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>143</v>
       </c>
@@ -5319,7 +5358,7 @@
         <v>14500</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>134</v>
       </c>
@@ -5327,7 +5366,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>134</v>
       </c>
@@ -5335,17 +5374,17 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>52</v>
       </c>
@@ -5367,20 +5406,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80E40C2-8F61-422B-8B66-5E35CD325EB0}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" style="7" customWidth="1"/>
-    <col min="3" max="4" width="14.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="30.26953125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="38.26953125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="22.36328125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.26953125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5391,12 +5431,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>246</v>
       </c>
@@ -5407,7 +5447,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>247</v>
       </c>
@@ -5415,10 +5455,10 @@
         <v>278</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>248</v>
       </c>
@@ -5428,25 +5468,27 @@
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="24" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F5" s="14"/>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>249</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="C6" s="14"/>
+        <v>746</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>745</v>
+      </c>
       <c r="D6" s="14"/>
       <c r="E6" s="24" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F6" s="14"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>250</v>
       </c>
@@ -5456,11 +5498,11 @@
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="38" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>83</v>
       </c>
@@ -5470,25 +5512,25 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="24" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="25" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>57</v>
       </c>
@@ -5498,11 +5540,11 @@
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="38" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>58</v>
       </c>
@@ -5512,81 +5554,81 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="24" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>251</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="24" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>252</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="25" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F13" s="14"/>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>253</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="39" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F14" s="14"/>
     </row>
-    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="24" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F15" s="14"/>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>255</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="25" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F16" s="14"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>256</v>
       </c>
@@ -5600,7 +5642,7 @@
       </c>
       <c r="F17" s="14"/>
     </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>58</v>
       </c>
@@ -5610,11 +5652,11 @@
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="24" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F18" s="14"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
         <v>257</v>
       </c>
@@ -5624,7 +5666,7 @@
       <c r="E19" s="22"/>
       <c r="F19" s="14"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>118</v>
       </c>
@@ -5634,11 +5676,11 @@
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F20" s="14"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>258</v>
       </c>
@@ -5648,11 +5690,11 @@
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F21" s="14"/>
     </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
         <v>259</v>
       </c>
@@ -5670,7 +5712,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>262</v>
       </c>
@@ -5682,13 +5724,13 @@
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>263</v>
       </c>
@@ -5700,13 +5742,13 @@
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="15" t="s">
         <v>264</v>
       </c>
@@ -5724,7 +5766,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>267</v>
       </c>
@@ -5735,10 +5777,14 @@
         <v>12000</v>
       </c>
       <c r="D26" s="14"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="14"/>
-    </row>
-    <row r="27" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="E26" s="166" t="s">
+        <v>707</v>
+      </c>
+      <c r="F26" s="166" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>268</v>
       </c>
@@ -5749,10 +5795,14 @@
         <v>70</v>
       </c>
       <c r="D27" s="14"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="14"/>
-    </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E27" s="166" t="s">
+        <v>707</v>
+      </c>
+      <c r="F27" s="166" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>269</v>
       </c>
@@ -5763,10 +5813,14 @@
         <v>70</v>
       </c>
       <c r="D28" s="14"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="1:6" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="E28" s="166" t="s">
+        <v>707</v>
+      </c>
+      <c r="F28" s="166" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="42.5" x14ac:dyDescent="0.35">
       <c r="A29" s="19" t="s">
         <v>270</v>
       </c>
@@ -5777,20 +5831,24 @@
         <v>70</v>
       </c>
       <c r="D29" s="14"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="14"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" s="166" t="s">
+        <v>707</v>
+      </c>
+      <c r="F29" s="166" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>271</v>
       </c>
@@ -5798,7 +5856,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>272</v>
       </c>
@@ -5806,12 +5864,12 @@
         <v>19500</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>273</v>
       </c>
@@ -5819,7 +5877,7 @@
         <v>18500</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>274</v>
       </c>
@@ -5827,7 +5885,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>160</v>
       </c>
@@ -5835,7 +5893,7 @@
         <v>17500</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>275</v>
       </c>
@@ -5843,7 +5901,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>276</v>
       </c>
@@ -5851,7 +5909,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>277</v>
       </c>
@@ -5859,12 +5917,12 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="15" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>244</v>
       </c>
@@ -5894,15 +5952,15 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.54296875" customWidth="1"/>
+    <col min="2" max="2" width="29.453125" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5912,43 +5970,43 @@
       <c r="C1" s="42"/>
       <c r="D1" s="42"/>
       <c r="F1" s="160" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="41" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
       <c r="F2" s="158"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="41" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
       <c r="F3" s="158"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="41" t="s">
         <v>57</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
       <c r="F4" s="158"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
         <v>83</v>
       </c>
@@ -5956,152 +6014,152 @@
         <v>89</v>
       </c>
       <c r="C5" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="D5" s="40" t="s">
         <v>442</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="F5" s="158" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="41" t="s">
         <v>443</v>
-      </c>
-      <c r="F5" s="158" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
-        <v>444</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>69</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D6" s="40"/>
       <c r="F6" s="158" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.25">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="59" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F7" s="158">
         <v>12345678912</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="40" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="40" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="41" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F8" s="158"/>
     </row>
-    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="41" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B9" s="60">
         <v>50000</v>
       </c>
       <c r="F9" s="159" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="41" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B10" t="s">
         <v>128</v>
       </c>
       <c r="F10" s="158"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F11" s="158"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B12">
         <v>100</v>
       </c>
       <c r="F12" s="159" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="41" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B13" s="60">
         <v>50000</v>
       </c>
       <c r="F13" s="159" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F14" s="158"/>
     </row>
-    <row r="15" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B15" s="22">
         <v>200</v>
       </c>
       <c r="F15" s="159" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="41" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B16" s="60">
         <v>100000</v>
       </c>
       <c r="F16" s="159" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F17" s="158"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B18">
         <v>100</v>
       </c>
       <c r="F18" s="159" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="41" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B19" s="60">
         <v>50000</v>
       </c>
       <c r="F19" s="159" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -6112,186 +6170,187 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC313E08-7E7B-4CCB-BC46-217595D676F7}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7265625" customWidth="1"/>
+    <col min="5" max="5" width="30.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="163" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="163" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="D2" s="161"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+      <c r="E2" s="161"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
-      <c r="D3" s="164">
+      <c r="E3" s="164">
         <v>12345</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
-      <c r="D4" s="164" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="164" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B5" t="s">
+        <v>376</v>
+      </c>
+      <c r="E5" s="164"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="B6" t="s">
+        <v>375</v>
+      </c>
+      <c r="E6" s="164"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="B5" t="s">
-        <v>377</v>
-      </c>
-      <c r="D5" s="164"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="B6" t="s">
-        <v>376</v>
-      </c>
-      <c r="D6" s="164"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="D7" s="161"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="161"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B8">
         <v>50</v>
       </c>
-      <c r="D8" s="164" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="164" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="D9" s="164">
+      <c r="E9" s="164">
         <v>12345</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B10" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="E10" s="161"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="B11" s="22" t="s">
         <v>377</v>
       </c>
-      <c r="D10" s="161"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>378</v>
-      </c>
-      <c r="D11" s="161"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="161"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B12" s="22"/>
-      <c r="D12" s="161"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="161"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
       <c r="B13" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="161"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="161"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B14" s="22">
         <v>60</v>
       </c>
-      <c r="D14" s="164" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="164" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B15" s="22">
         <v>5</v>
       </c>
-      <c r="D15" s="164">
+      <c r="E15" s="164">
         <v>12345</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>377</v>
-      </c>
-      <c r="D16" s="161"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+      <c r="E16" s="161"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>440</v>
-      </c>
-      <c r="D17" s="161"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+      <c r="E17" s="161"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D20" s="162"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D21" s="162"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D23" s="162"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D24" s="162"/>
     </row>
   </sheetData>
@@ -6303,20 +6362,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE12E4D-FB7F-4E63-97F0-B0D0FFCBC628}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="93.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="216.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="93.54296875" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="216.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -6325,98 +6384,98 @@
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="108" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E1" s="22"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>356</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>357</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="109" t="s">
+        <v>357</v>
+      </c>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="E2" s="22"/>
-    </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="B3" s="23" t="s">
         <v>359</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>360</v>
       </c>
       <c r="C3" s="24"/>
       <c r="D3" s="106" t="s">
+        <v>360</v>
+      </c>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="23" t="s">
         <v>361</v>
-      </c>
-      <c r="E3" s="22"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
-        <v>362</v>
       </c>
       <c r="B4" s="22">
         <v>123456789</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="105" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E4" s="22"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="106" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E5" s="22"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B6" s="63">
         <v>43989</v>
       </c>
       <c r="C6" s="22"/>
       <c r="D6" s="104" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E6" s="26"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="104" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E7" s="22"/>
     </row>
-    <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="107" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E8" s="22"/>
     </row>
@@ -6437,15 +6496,15 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="30.26953125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="38.26953125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" style="7" customWidth="1"/>
     <col min="4" max="4" width="71" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6453,39 +6512,39 @@
         <v>116</v>
       </c>
       <c r="D1" s="101" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B2" s="7">
         <v>9</v>
       </c>
       <c r="D2" s="98"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B3" s="7">
         <v>8</v>
       </c>
       <c r="D3" s="98"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B4" s="7">
         <v>7</v>
       </c>
       <c r="D4" s="98"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -6493,9 +6552,9 @@
       <c r="C5" s="14"/>
       <c r="D5" s="98"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B6" s="7">
         <v>5</v>
@@ -6503,9 +6562,9 @@
       <c r="C6" s="14"/>
       <c r="D6" s="98"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B7" s="7">
         <v>6</v>
@@ -6513,7 +6572,7 @@
       <c r="C7" s="14"/>
       <c r="D7" s="98"/>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>83</v>
       </c>
@@ -6522,22 +6581,22 @@
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="100" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="100" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>57</v>
       </c>
@@ -6549,7 +6608,7 @@
         <v>2565896</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>58</v>
       </c>
@@ -6558,36 +6617,36 @@
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="98" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>251</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="100">
         <v>87898314512</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B13" s="7">
         <v>98789</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="102" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B14" s="7">
         <v>98987</v>
@@ -6597,28 +6656,28 @@
         <v>12345678912</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B15" s="7">
         <v>877889</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="102" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="98"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B17" s="7">
         <v>1000</v>
@@ -6628,9 +6687,9 @@
         <v>12345</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B18" s="59">
         <v>2000000</v>
@@ -6640,29 +6699,29 @@
         <v>1.22233344455566E+18</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B19" s="59">
         <v>4000000</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="99" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="14"/>
       <c r="D20" s="98"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B21" s="7">
         <v>1000</v>
@@ -6672,9 +6731,9 @@
         <v>12345</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B22" s="59">
         <v>1500000</v>
@@ -6684,92 +6743,92 @@
         <v>1.22233344455566E+18</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B23" s="59">
         <v>3000000</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="99" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B24"/>
       <c r="C24" s="14"/>
       <c r="D24" s="98"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B25" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="98"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B26">
         <v>8789</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="102" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B27">
         <v>8776</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="102" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B28">
         <v>150000</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="102" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="15" t="s">
         <v>131</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="98"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="98"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B31">
         <v>8989</v>
@@ -6777,77 +6836,77 @@
       <c r="C31" s="14"/>
       <c r="D31" s="98"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B32" t="s">
         <v>306</v>
-      </c>
-      <c r="B32" t="s">
-        <v>307</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="98"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="15" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B36" s="7">
         <v>18500</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B37" s="7">
         <v>18000</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B38" s="7">
         <v>17500</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B39" s="7">
         <v>17000</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B40" s="7">
         <v>16500</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>52</v>
       </c>
@@ -6855,29 +6914,29 @@
         <v>243</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="15" t="s">
         <v>104</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>79</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>188</v>
       </c>
@@ -6885,164 +6944,164 @@
         <v>79</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>79</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>79</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>79</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>79</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>79</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>79</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>79</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>79</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>79</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>79</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>79</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>79</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B58" s="7" t="s">
         <v>79</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>79</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>199</v>
       </c>
@@ -7050,40 +7109,40 @@
         <v>79</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>79</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>79</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="58" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>79</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -7101,15 +7160,15 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.5703125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="44.54296875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="38.26953125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -7117,326 +7176,326 @@
         <v>116</v>
       </c>
       <c r="D1" s="167" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B2" s="7">
         <v>9</v>
       </c>
       <c r="D2" s="165" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>409</v>
+      </c>
+      <c r="D3" s="165"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="30" t="s">
         <v>351</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>410</v>
-      </c>
-      <c r="D3" s="165"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>352</v>
       </c>
       <c r="B4" s="30">
         <v>35</v>
       </c>
       <c r="D4" s="165" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="31" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="165"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="165"/>
     </row>
-    <row r="7" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="33" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="14"/>
       <c r="D7" s="165"/>
     </row>
-    <row r="8" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="168" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A9" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="B9" s="29" t="s">
         <v>383</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>384</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="168" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A10" s="34" t="s">
+        <v>384</v>
+      </c>
+      <c r="B10" s="29" t="s">
         <v>385</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>386</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="168" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A11" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="B11" s="29" t="s">
         <v>387</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>388</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="168" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A12" s="34" t="s">
+        <v>388</v>
+      </c>
+      <c r="B12" s="29" t="s">
         <v>389</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>390</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="168" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33"/>
       <c r="B13" s="29"/>
       <c r="C13" s="14"/>
       <c r="D13" s="165"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="175" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B14" s="29">
         <v>25</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="166" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="175"/>
       <c r="B15" s="29">
         <v>15</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="166" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A16" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="B16" s="29" t="s">
         <v>392</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>393</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="168" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A17" s="34" t="s">
+        <v>393</v>
+      </c>
+      <c r="B17" s="29" t="s">
         <v>394</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>395</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="168" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A18" s="34" t="s">
+        <v>395</v>
+      </c>
+      <c r="B18" s="29" t="s">
         <v>396</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>397</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="168" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A19" s="34" t="s">
+        <v>397</v>
+      </c>
+      <c r="B19" s="29" t="s">
         <v>398</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>399</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="168" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A20" s="31" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B20" s="29">
         <v>2</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="168" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="22" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="22" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A21" s="31" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="168" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="37" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="168" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="22" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="22" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A23" s="31" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="168" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="36" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="168" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A25" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="B25" s="29" t="s">
         <v>401</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>402</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="168" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A26" s="34" t="s">
+        <v>402</v>
+      </c>
+      <c r="B26" s="29" t="s">
         <v>403</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>404</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="168" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A27" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="B27" s="29" t="s">
         <v>405</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>406</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="168" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="34" t="s">
+        <v>406</v>
+      </c>
+      <c r="B28" s="29" t="s">
         <v>407</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>408</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="165"/>
     </row>
-    <row r="29" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="37" t="s">
+        <v>415</v>
+      </c>
+      <c r="B29" s="29" t="s">
         <v>416</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>417</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="165"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="34" t="s">
         <v>52</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="165"/>
@@ -7458,16 +7517,16 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.81640625" customWidth="1"/>
+    <col min="2" max="2" width="26.26953125" customWidth="1"/>
+    <col min="3" max="3" width="14.54296875" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7475,7 +7534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -7483,7 +7542,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -7503,7 +7562,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -7523,7 +7582,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -7543,7 +7602,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -7563,7 +7622,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -7583,7 +7642,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -7603,7 +7662,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -7623,7 +7682,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -7656,13 +7715,13 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35.453125" customWidth="1"/>
+    <col min="2" max="2" width="33.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -7670,7 +7729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -7678,7 +7737,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -7686,7 +7745,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>93</v>
       </c>
@@ -7694,7 +7753,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -7702,7 +7761,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -7710,7 +7769,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>96</v>
       </c>
@@ -7718,7 +7777,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -7726,7 +7785,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>98</v>
       </c>
@@ -7734,7 +7793,7 @@
         <v>112500</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>99</v>
       </c>
@@ -7742,7 +7801,7 @@
         <v>102500</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>100</v>
       </c>
@@ -7750,7 +7809,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>101</v>
       </c>
@@ -7758,7 +7817,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>102</v>
       </c>
@@ -7766,7 +7825,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>103</v>
       </c>
@@ -7774,12 +7833,12 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>105</v>
       </c>
@@ -7787,7 +7846,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>106</v>
       </c>
@@ -7795,7 +7854,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>107</v>
       </c>
@@ -7803,7 +7862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>108</v>
       </c>
@@ -7811,7 +7870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>109</v>
       </c>
@@ -7819,7 +7878,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>112</v>
       </c>
@@ -7827,7 +7886,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>113</v>
       </c>
@@ -7848,14 +7907,14 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="67.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="186.7109375" customWidth="1"/>
+    <col min="1" max="1" width="67.7265625" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="4" max="4" width="186.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
@@ -7864,58 +7923,58 @@
       </c>
       <c r="C1" s="64"/>
       <c r="D1" s="111" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="68" t="s">
+        <v>584</v>
+      </c>
+      <c r="B2" s="65" t="s">
         <v>585</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>586</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="110" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="68" t="s">
         <v>56</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C3" s="64"/>
       <c r="D3" s="110" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="68" t="s">
+        <v>587</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>588</v>
-      </c>
-      <c r="B4" s="65" t="s">
-        <v>589</v>
       </c>
       <c r="C4" s="64"/>
       <c r="D4" s="110" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="68" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C5" s="64"/>
       <c r="D5" s="114" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="68" t="s">
         <v>57</v>
       </c>
@@ -7924,70 +7983,70 @@
       </c>
       <c r="C6" s="64"/>
       <c r="D6" s="114" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="68" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B7" s="65" t="s">
         <v>69</v>
       </c>
       <c r="C7" s="64"/>
       <c r="D7" s="110" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="68" t="s">
+        <v>590</v>
+      </c>
+      <c r="B8" s="65" t="s">
         <v>591</v>
-      </c>
-      <c r="B8" s="65" t="s">
-        <v>592</v>
       </c>
       <c r="C8" s="64"/>
       <c r="D8" s="113">
         <v>1234567812</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="68" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B9" s="72">
         <v>15000</v>
       </c>
       <c r="C9" s="64"/>
       <c r="D9" s="110" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="68" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B10" s="72">
         <v>10000</v>
       </c>
       <c r="C10" s="64"/>
       <c r="D10" s="110" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="68" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B11" s="72">
         <v>10000</v>
       </c>
       <c r="C11" s="64"/>
       <c r="D11" s="110" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="68" t="s">
         <v>60</v>
       </c>
@@ -7996,10 +8055,10 @@
       </c>
       <c r="C12" s="64"/>
       <c r="D12" s="110" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="68" t="s">
         <v>61</v>
       </c>
@@ -8008,382 +8067,382 @@
       </c>
       <c r="C13" s="64"/>
       <c r="D13" s="110" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="68" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B14" s="72">
         <v>10000</v>
       </c>
       <c r="C14" s="64"/>
       <c r="D14" s="110" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="68" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B15" s="72">
         <v>10000</v>
       </c>
       <c r="C15" s="64"/>
       <c r="D15" s="110" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="69" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B16" s="72">
         <v>10000</v>
       </c>
       <c r="C16" s="64"/>
       <c r="D16" s="110" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="68" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B17" s="72">
         <v>10000</v>
       </c>
       <c r="C17" s="64"/>
       <c r="D17" s="110" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="68" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B18" s="72">
         <v>10000</v>
       </c>
       <c r="C18" s="64"/>
       <c r="D18" s="110" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="68" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B19" s="72">
         <v>10000</v>
       </c>
       <c r="C19" s="64"/>
       <c r="D19" s="110" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="68" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B20" s="72">
         <v>10000</v>
       </c>
       <c r="C20" s="64"/>
       <c r="D20" s="110" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="68" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B21" s="72">
         <v>10000</v>
       </c>
       <c r="C21" s="64"/>
       <c r="D21" s="110" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="68" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B22" s="72">
         <v>10000</v>
       </c>
       <c r="C22" s="64"/>
       <c r="D22" s="110" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="68" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B23" s="72">
         <v>10000</v>
       </c>
       <c r="C23" s="64"/>
       <c r="D23" s="110" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="68" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B24" s="72">
         <v>10000</v>
       </c>
       <c r="C24" s="64"/>
       <c r="D24" s="110" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="68" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B25" s="72">
         <v>10000</v>
       </c>
       <c r="C25" s="64"/>
       <c r="D25" s="110" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="68" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B26" s="72">
         <v>10000</v>
       </c>
       <c r="C26" s="64"/>
       <c r="D26" s="110" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="68" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B27" s="72">
         <v>10000</v>
       </c>
       <c r="C27" s="64"/>
       <c r="D27" s="110" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="68" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B28" s="72">
         <v>10000</v>
       </c>
       <c r="C28" s="64"/>
       <c r="D28" s="110" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="68" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B29" s="72">
         <v>10000</v>
       </c>
       <c r="C29" s="64"/>
       <c r="D29" s="110" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="68" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B30" s="72">
         <v>10000</v>
       </c>
       <c r="C30" s="64"/>
       <c r="D30" s="110" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="68" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B31" s="72">
         <v>10000</v>
       </c>
       <c r="C31" s="64"/>
       <c r="D31" s="110" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="68" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B32" s="72">
         <v>10000</v>
       </c>
       <c r="C32" s="64"/>
       <c r="D32" s="110" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="68" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B33" s="72">
         <v>10000</v>
       </c>
       <c r="C33" s="64"/>
       <c r="D33" s="110" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="68" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B34" s="72">
         <v>10000</v>
       </c>
       <c r="C34" s="64"/>
       <c r="D34" s="110" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="68" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B35" s="72">
         <v>10000</v>
       </c>
       <c r="C35" s="64"/>
       <c r="D35" s="110" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="68" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B36" s="72">
         <v>10000</v>
       </c>
       <c r="C36" s="64"/>
       <c r="D36" s="110" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="68" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B37" s="72">
         <v>10000</v>
       </c>
       <c r="C37" s="64"/>
       <c r="D37" s="110" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="68" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B38" s="72">
         <v>15000</v>
       </c>
       <c r="C38" s="64"/>
       <c r="D38" s="110" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="68" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B39" s="72">
         <v>45000</v>
       </c>
       <c r="C39" s="64"/>
       <c r="D39" s="110" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="68" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B40" s="72">
         <v>15000</v>
       </c>
       <c r="C40" s="64"/>
       <c r="D40" s="110" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="68" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B41" s="72">
         <v>45000</v>
       </c>
       <c r="C41" s="64"/>
       <c r="D41" s="110" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="68" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B42" s="72">
         <v>45000</v>
       </c>
       <c r="C42" s="64"/>
       <c r="D42" s="110" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="68" t="s">
         <v>62</v>
       </c>
       <c r="B43" s="65" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C43" s="64"/>
       <c r="D43" s="116">
         <v>1234566789900</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="57" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" s="57" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="68" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B44" s="65" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C44" s="64"/>
       <c r="D44" s="115" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="68" t="s">
         <v>63</v>
       </c>
@@ -8392,22 +8451,22 @@
       </c>
       <c r="C45" s="64"/>
       <c r="D45" s="110" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="68" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B46" s="65">
         <v>4700</v>
       </c>
       <c r="C46" s="64"/>
       <c r="D46" s="110" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="68" t="s">
         <v>64</v>
       </c>
@@ -8418,30 +8477,30 @@
         <v>1</v>
       </c>
       <c r="D47" s="110" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="68" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B48" s="65" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C48" s="64"/>
       <c r="D48" s="110"/>
     </row>
-    <row r="49" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A49" s="68" t="s">
+        <v>619</v>
+      </c>
+      <c r="B49" s="73" t="s">
         <v>620</v>
-      </c>
-      <c r="B49" s="73" t="s">
-        <v>621</v>
       </c>
       <c r="C49" s="64"/>
       <c r="D49" s="110"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="68" t="s">
         <v>66</v>
       </c>
@@ -8453,7 +8512,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="68" t="s">
         <v>67</v>
       </c>
@@ -8462,84 +8521,84 @@
       </c>
       <c r="C51" s="64"/>
       <c r="D51" s="110" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="68" t="s">
+        <v>621</v>
+      </c>
+      <c r="B52" s="65" t="s">
         <v>622</v>
-      </c>
-      <c r="B52" s="65" t="s">
-        <v>623</v>
       </c>
       <c r="C52" s="64"/>
       <c r="D52" s="110" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="68" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B53" s="65">
         <v>1000</v>
       </c>
       <c r="C53" s="64"/>
       <c r="D53" s="110" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="68" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B54" s="72">
         <v>30000</v>
       </c>
       <c r="C54" s="64"/>
       <c r="D54" s="110" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="68" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B55" s="65">
         <v>80</v>
       </c>
       <c r="C55" s="64"/>
       <c r="D55" s="110" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="68" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B56" s="65">
         <v>10</v>
       </c>
       <c r="C56" s="64"/>
       <c r="D56" s="110" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="68" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B57" s="65">
         <v>15</v>
       </c>
       <c r="C57" s="64"/>
       <c r="D57" s="110" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="68" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B58" s="65" t="s">
         <v>70</v>
@@ -8547,9 +8606,9 @@
       <c r="C58" s="64"/>
       <c r="D58" s="110"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="68" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B59" s="65" t="s">
         <v>70</v>
@@ -8557,7 +8616,7 @@
       <c r="C59" s="64"/>
       <c r="D59" s="110"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="71" t="s">
         <v>26</v>
       </c>
@@ -8565,7 +8624,7 @@
       <c r="C60" s="64"/>
       <c r="D60" s="110"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="68" t="s">
         <v>11</v>
       </c>
@@ -8575,7 +8634,7 @@
       <c r="C61" s="64"/>
       <c r="D61" s="110"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="68" t="s">
         <v>27</v>
       </c>
@@ -8585,7 +8644,7 @@
       <c r="C62" s="64"/>
       <c r="D62" s="110"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="68" t="s">
         <v>28</v>
       </c>
@@ -8595,7 +8654,7 @@
       <c r="C63" s="64"/>
       <c r="D63" s="110"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="68" t="s">
         <v>29</v>
       </c>
@@ -8605,7 +8664,7 @@
       <c r="C64" s="64"/>
       <c r="D64" s="110"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="68" t="s">
         <v>30</v>
       </c>
@@ -8613,7 +8672,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="68" t="s">
         <v>31</v>
       </c>
@@ -8621,7 +8680,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="68" t="s">
         <v>32</v>
       </c>
@@ -8629,7 +8688,7 @@
         <v>6900</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="68" t="s">
         <v>33</v>
       </c>
@@ -8637,19 +8696,19 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="71" t="s">
         <v>34</v>
       </c>
       <c r="B69" s="68"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="68" t="s">
         <v>35</v>
       </c>
       <c r="B70" s="68"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="68" t="s">
         <v>36</v>
       </c>
@@ -8657,7 +8716,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="68" t="s">
         <v>37</v>
       </c>
@@ -8665,7 +8724,7 @@
         <v>14500</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="68" t="s">
         <v>38</v>
       </c>
@@ -8673,7 +8732,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="68" t="s">
         <v>39</v>
       </c>
@@ -8681,7 +8740,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="68" t="s">
         <v>40</v>
       </c>
@@ -8689,7 +8748,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="68" t="s">
         <v>32</v>
       </c>
@@ -8697,7 +8756,7 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="68" t="s">
         <v>33</v>
       </c>
@@ -8705,7 +8764,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="68" t="s">
         <v>41</v>
       </c>
@@ -8713,7 +8772,7 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="68" t="s">
         <v>27</v>
       </c>
@@ -8721,7 +8780,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="68" t="s">
         <v>42</v>
       </c>
@@ -8729,7 +8788,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="68" t="s">
         <v>43</v>
       </c>
@@ -8739,7 +8798,7 @@
       <c r="C81" s="64"/>
       <c r="D81" s="110"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="68" t="s">
         <v>44</v>
       </c>
@@ -8749,7 +8808,7 @@
       <c r="C82" s="64"/>
       <c r="D82" s="110"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="68" t="s">
         <v>39</v>
       </c>
@@ -8759,7 +8818,7 @@
       <c r="C83" s="64"/>
       <c r="D83" s="110"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="68" t="s">
         <v>40</v>
       </c>
@@ -8769,7 +8828,7 @@
       <c r="C84" s="64"/>
       <c r="D84" s="110"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="68" t="s">
         <v>45</v>
       </c>
@@ -8779,7 +8838,7 @@
       <c r="C85" s="64"/>
       <c r="D85" s="110"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="68" t="s">
         <v>46</v>
       </c>
@@ -8789,7 +8848,7 @@
       <c r="C86" s="64"/>
       <c r="D86" s="110"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="68" t="s">
         <v>47</v>
       </c>
@@ -8799,7 +8858,7 @@
       <c r="C87" s="64"/>
       <c r="D87" s="110"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="68" t="s">
         <v>48</v>
       </c>
@@ -8809,7 +8868,7 @@
       <c r="C88" s="64"/>
       <c r="D88" s="110"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="68" t="s">
         <v>49</v>
       </c>
@@ -8819,7 +8878,7 @@
       <c r="C89" s="64"/>
       <c r="D89" s="110"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="68" t="s">
         <v>50</v>
       </c>
@@ -8829,7 +8888,7 @@
       <c r="C90" s="64"/>
       <c r="D90" s="110"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="68" t="s">
         <v>51</v>
       </c>
@@ -8837,7 +8896,7 @@
       <c r="C91" s="64"/>
       <c r="D91" s="110"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="68" t="s">
         <v>52</v>
       </c>
@@ -8847,7 +8906,7 @@
       <c r="C92" s="64"/>
       <c r="D92" s="110"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="68" t="s">
         <v>83</v>
       </c>
@@ -8856,7 +8915,7 @@
       </c>
       <c r="C93" s="64"/>
       <c r="D93" s="110" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
   </sheetData>
@@ -8873,14 +8932,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="76.7109375" customWidth="1"/>
+    <col min="1" max="1" width="46.453125" customWidth="1"/>
+    <col min="2" max="2" width="28.54296875" customWidth="1"/>
+    <col min="4" max="4" width="76.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="79" t="s">
         <v>25</v>
       </c>
@@ -8889,10 +8948,10 @@
       </c>
       <c r="C1" s="74"/>
       <c r="D1" s="120" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="75" t="s">
         <v>54</v>
       </c>
@@ -8901,58 +8960,58 @@
       </c>
       <c r="C2" s="74"/>
       <c r="D2" s="119" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="74" t="s">
         <v>56</v>
       </c>
       <c r="B3" s="74" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C3" s="74"/>
       <c r="D3" s="119" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="74" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B4" s="74" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C4" s="74"/>
       <c r="D4" s="119" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A5" s="74" t="s">
         <v>55</v>
       </c>
       <c r="B5" s="74" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C5" s="74"/>
       <c r="D5" s="123" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A6" s="74" t="s">
         <v>57</v>
       </c>
       <c r="B6" s="74" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C6" s="74"/>
       <c r="D6" s="123" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="74" t="s">
         <v>58</v>
       </c>
@@ -8961,10 +9020,10 @@
       </c>
       <c r="C7" s="74"/>
       <c r="D7" s="117" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="74" t="s">
         <v>83</v>
       </c>
@@ -8974,379 +9033,379 @@
       <c r="C8" s="74"/>
       <c r="D8" s="117"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="74" t="s">
         <v>59</v>
       </c>
       <c r="B9" s="74" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C9" s="74"/>
       <c r="D9" s="122">
         <v>1234567812</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="76" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B10" s="74">
         <v>10000</v>
       </c>
       <c r="C10" s="74"/>
       <c r="D10" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="77" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B11" s="74">
         <v>10000</v>
       </c>
       <c r="C11" s="74"/>
       <c r="D11" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="76" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B12" s="74">
         <v>10000</v>
       </c>
       <c r="C12" s="74"/>
       <c r="D12" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="76" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B13" s="74">
         <v>10000</v>
       </c>
       <c r="C13" s="74"/>
       <c r="D13" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="76" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B14" s="74">
         <v>10000</v>
       </c>
       <c r="C14" s="74"/>
       <c r="D14" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="76" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B15" s="74">
         <v>10000</v>
       </c>
       <c r="C15" s="74"/>
       <c r="D15" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="76" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B16" s="74">
         <v>10000</v>
       </c>
       <c r="C16" s="74"/>
       <c r="D16" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="76" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B17" s="74">
         <v>10000</v>
       </c>
       <c r="C17" s="74"/>
       <c r="D17" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="76" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B18" s="74">
         <v>10000</v>
       </c>
       <c r="C18" s="74"/>
       <c r="D18" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="76" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B19" s="74">
         <v>10000</v>
       </c>
       <c r="C19" s="74"/>
       <c r="D19" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="76" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B20" s="74">
         <v>10000</v>
       </c>
       <c r="C20" s="74"/>
       <c r="D20" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="40" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="40" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="76" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B21" s="74">
         <v>10000</v>
       </c>
       <c r="C21" s="74"/>
       <c r="D21" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="76" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B22" s="74">
         <v>10000</v>
       </c>
       <c r="C22" s="74"/>
       <c r="D22" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="76" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B23" s="74">
         <v>10000</v>
       </c>
       <c r="C23" s="74"/>
       <c r="D23" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="76" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B24" s="74">
         <v>10000</v>
       </c>
       <c r="C24" s="74"/>
       <c r="D24" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="76" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B25" s="74">
         <v>10000</v>
       </c>
       <c r="C25" s="74"/>
       <c r="D25" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="76" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B26" s="74">
         <v>10000</v>
       </c>
       <c r="C26" s="74"/>
       <c r="D26" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="76" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B27" s="74">
         <v>10000</v>
       </c>
       <c r="C27" s="74"/>
       <c r="D27" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="76" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B28" s="74">
         <v>10000</v>
       </c>
       <c r="C28" s="74"/>
       <c r="D28" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="76" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B29" s="74">
         <v>10000</v>
       </c>
       <c r="C29" s="74"/>
       <c r="D29" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="76" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B30" s="74">
         <v>10000</v>
       </c>
       <c r="C30" s="74"/>
       <c r="D30" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="76" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B31" s="74">
         <v>10000</v>
       </c>
       <c r="C31" s="74"/>
       <c r="D31" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="76" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B32" s="74">
         <v>10000</v>
       </c>
       <c r="C32" s="74"/>
       <c r="D32" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="76" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B33" s="74">
         <v>10000</v>
       </c>
       <c r="C33" s="74"/>
       <c r="D33" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="76" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B34" s="74">
         <v>10000</v>
       </c>
       <c r="C34" s="74"/>
       <c r="D34" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="76" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B35" s="74">
         <v>10000</v>
       </c>
       <c r="C35" s="74"/>
       <c r="D35" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="76" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B36" s="74">
         <v>10000</v>
       </c>
       <c r="C36" s="74"/>
       <c r="D36" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="76" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B37" s="74">
         <v>10000</v>
       </c>
       <c r="C37" s="74"/>
       <c r="D37" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="40" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="76" t="s">
         <v>62</v>
       </c>
       <c r="B38" s="74" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C38" s="74"/>
       <c r="D38" s="124" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" s="40" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="40" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A39" s="76" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B39" s="74" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C39" s="74"/>
       <c r="D39" s="125" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="76" t="s">
         <v>63</v>
       </c>
@@ -9355,22 +9414,22 @@
       </c>
       <c r="C40" s="74"/>
       <c r="D40" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="76" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B41" s="74">
         <v>3500</v>
       </c>
       <c r="C41" s="74"/>
       <c r="D41" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="76" t="s">
         <v>64</v>
       </c>
@@ -9381,30 +9440,30 @@
         <v>1</v>
       </c>
       <c r="D42" s="118" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="76" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B43" s="74" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C43" s="74"/>
       <c r="D43" s="117"/>
     </row>
-    <row r="44" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="76" t="s">
         <v>65</v>
       </c>
       <c r="B44" s="74" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C44" s="74"/>
       <c r="D44" s="117"/>
     </row>
-    <row r="45" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="76" t="s">
         <v>66</v>
       </c>
@@ -9416,7 +9475,7 @@
         <v>12345</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="76" t="s">
         <v>67</v>
       </c>
@@ -9425,12 +9484,12 @@
       </c>
       <c r="C46" s="74"/>
       <c r="D46" s="121" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="76" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B47" s="74" t="s">
         <v>70</v>
@@ -9438,9 +9497,9 @@
       <c r="C47" s="74"/>
       <c r="D47" s="117"/>
     </row>
-    <row r="48" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="76" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B48" s="74" t="s">
         <v>70</v>
@@ -9448,19 +9507,19 @@
       <c r="C48" s="74"/>
       <c r="D48" s="117"/>
     </row>
-    <row r="49" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="76"/>
       <c r="B49" s="74"/>
       <c r="C49" s="74"/>
       <c r="D49" s="117"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="76"/>
       <c r="B50" s="74"/>
       <c r="C50" s="74"/>
       <c r="D50" s="117"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="76"/>
       <c r="B51" s="74"/>
       <c r="C51" s="74"/>
@@ -9480,14 +9539,14 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" customWidth="1"/>
-    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.453125" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" customWidth="1"/>
+    <col min="4" max="4" width="255.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="89" t="s">
         <v>25</v>
       </c>
@@ -9496,10 +9555,10 @@
       </c>
       <c r="C1" s="85"/>
       <c r="D1" s="127" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="85" t="s">
         <v>81</v>
       </c>
@@ -9509,43 +9568,43 @@
       <c r="C2" s="85"/>
       <c r="D2" s="126"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="85" t="s">
+        <v>674</v>
+      </c>
+      <c r="B3" s="85" t="s">
         <v>675</v>
-      </c>
-      <c r="B3" s="85" t="s">
-        <v>676</v>
       </c>
       <c r="C3" s="85"/>
       <c r="D3" s="128" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="85" t="s">
+        <v>676</v>
+      </c>
+      <c r="B4" s="85" t="s">
         <v>677</v>
-      </c>
-      <c r="B4" s="85" t="s">
-        <v>678</v>
       </c>
       <c r="C4" s="85"/>
       <c r="D4" s="128" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="85" t="s">
+        <v>678</v>
+      </c>
+      <c r="B5" s="85" t="s">
         <v>679</v>
-      </c>
-      <c r="B5" s="85" t="s">
-        <v>680</v>
       </c>
       <c r="C5" s="85"/>
       <c r="D5" s="128" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="85" t="s">
         <v>82</v>
       </c>
@@ -9554,22 +9613,22 @@
       </c>
       <c r="C6" s="85"/>
       <c r="D6" s="128" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="85" t="s">
         <v>55</v>
       </c>
       <c r="B7" s="85" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C7" s="85"/>
       <c r="D7" s="128" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="85" t="s">
         <v>57</v>
       </c>
@@ -9578,10 +9637,10 @@
       </c>
       <c r="C8" s="85"/>
       <c r="D8" s="128" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="85" t="s">
         <v>83</v>
       </c>
@@ -9590,10 +9649,10 @@
       </c>
       <c r="C9" s="85"/>
       <c r="D9" s="128" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="85" t="s">
         <v>58</v>
       </c>
@@ -9602,36 +9661,36 @@
       </c>
       <c r="C10" s="85"/>
       <c r="D10" s="128" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="85" t="s">
         <v>59</v>
       </c>
       <c r="B11" s="85" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C11" s="85"/>
       <c r="D11" s="128" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="85" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B12" s="95">
         <v>10000</v>
       </c>
       <c r="C12" s="85"/>
       <c r="D12" s="128" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="85" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B13" s="92">
         <v>0.2</v>
@@ -9640,62 +9699,62 @@
         <v>0.2</v>
       </c>
       <c r="D13" s="128" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="87" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B14" s="91">
         <v>5</v>
       </c>
       <c r="C14" s="85"/>
       <c r="D14" s="128" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="85" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B15" s="93">
         <v>3</v>
       </c>
       <c r="C15" s="85"/>
       <c r="D15" s="128" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="96" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B16" s="93"/>
       <c r="C16" s="85"/>
       <c r="D16" s="128"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="85" t="s">
+        <v>684</v>
+      </c>
+      <c r="B17" s="85" t="s">
         <v>685</v>
-      </c>
-      <c r="B17" s="85" t="s">
-        <v>686</v>
       </c>
       <c r="C17" s="85"/>
       <c r="D17" s="129"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="85" t="s">
         <v>65</v>
       </c>
       <c r="B18" s="85" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C18" s="85"/>
       <c r="D18" s="126"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="85" t="s">
         <v>66</v>
       </c>
@@ -9707,27 +9766,27 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="86" t="s">
         <v>84</v>
       </c>
       <c r="B20" s="88" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C20" s="85"/>
       <c r="D20" s="130"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="86" t="s">
         <v>85</v>
       </c>
       <c r="B21" s="88" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C21" s="85"/>
       <c r="D21" s="126"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="86" t="s">
         <v>86</v>
       </c>
@@ -9736,10 +9795,10 @@
       </c>
       <c r="C22" s="85"/>
       <c r="D22" s="128" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="86" t="s">
         <v>87</v>
       </c>
@@ -9748,10 +9807,10 @@
       </c>
       <c r="C23" s="85"/>
       <c r="D23" s="128" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="85" t="s">
         <v>52</v>
       </c>
@@ -9774,18 +9833,18 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="54.140625" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="22.140625" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="54.1796875" customWidth="1"/>
+    <col min="2" max="2" width="33.7265625" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7265625" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
+    <col min="12" max="12" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9793,73 +9852,73 @@
         <v>116</v>
       </c>
       <c r="J1" s="132" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K1" s="131"/>
       <c r="L1" s="131"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="172" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B2" s="172"/>
       <c r="J2" s="173" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K2" s="173"/>
       <c r="L2" s="131"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B3" s="60">
         <v>10000</v>
       </c>
       <c r="J3" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K3" s="131"/>
       <c r="L3" s="131"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B4" s="60">
         <v>12000</v>
       </c>
       <c r="J4" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K4" s="131"/>
       <c r="L4" s="131"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="172" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B5" s="172"/>
       <c r="J5" s="173" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K5" s="173"/>
       <c r="L5" s="131"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="24" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J6" s="131"/>
       <c r="K6" s="131"/>
       <c r="L6" s="131"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="24" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B7" s="40" t="s">
         <v>79</v>
@@ -9868,9 +9927,9 @@
       <c r="K7" s="131"/>
       <c r="L7" s="131"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="24" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>70</v>
@@ -9879,81 +9938,81 @@
       <c r="K8" s="131"/>
       <c r="L8" s="131"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="172" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B9" s="172"/>
       <c r="J9" s="174" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K9" s="174"/>
       <c r="L9" s="131"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B10" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>512</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>513</v>
       </c>
       <c r="E10" s="46"/>
       <c r="J10" s="132" t="s">
+        <v>510</v>
+      </c>
+      <c r="K10" s="132" t="s">
         <v>511</v>
       </c>
-      <c r="K10" s="132" t="s">
+      <c r="L10" s="132" t="s">
         <v>512</v>
       </c>
-      <c r="L10" s="132" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="48" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="J11" s="131"/>
       <c r="K11" s="131"/>
       <c r="L11" s="131"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="24" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J12" s="131"/>
       <c r="K12" s="131"/>
       <c r="L12" s="131"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="24" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B13" s="40" t="s">
+        <v>543</v>
+      </c>
+      <c r="C13" s="40" t="s">
         <v>544</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>545</v>
       </c>
       <c r="D13" s="40"/>
       <c r="J13" s="131"/>
       <c r="K13" s="131"/>
       <c r="L13" s="131"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="24" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B14" s="40">
         <v>10</v>
@@ -9965,18 +10024,18 @@
         <v>10</v>
       </c>
       <c r="J14" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K14" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="L14" s="131" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="24" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B15" s="40">
         <v>10</v>
@@ -9988,18 +10047,18 @@
         <v>10</v>
       </c>
       <c r="J15" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K15" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="L15" s="131" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="24" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B16" s="40">
         <v>10</v>
@@ -10011,26 +10070,26 @@
         <v>10</v>
       </c>
       <c r="J16" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K16" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="L16" s="131" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="48" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J17" s="131"/>
       <c r="K17" s="131"/>
       <c r="L17" s="131"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="24" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B18" s="61">
         <v>50</v>
@@ -10051,18 +10110,18 @@
         <v>0.5</v>
       </c>
       <c r="J18" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K18" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="L18" s="131" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="24" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B19" s="61">
         <v>20</v>
@@ -10083,18 +10142,18 @@
         <v>0.2</v>
       </c>
       <c r="J19" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K19" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="L19" s="131" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="24" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B20" s="61">
         <v>30</v>
@@ -10115,35 +10174,35 @@
         <v>0.3</v>
       </c>
       <c r="J20" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K20" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="L20" s="131" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="48" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="J21" s="131"/>
       <c r="K21" s="131"/>
       <c r="L21" s="131"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="47" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B22" s="62"/>
       <c r="J22" s="131"/>
       <c r="K22" s="131"/>
       <c r="L22" s="131"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="24" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B23" s="62">
         <v>10</v>
@@ -10164,18 +10223,18 @@
         <v>0.1</v>
       </c>
       <c r="J23" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K23" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="L23" s="131" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="24" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B24" s="62">
         <v>10</v>
@@ -10196,18 +10255,18 @@
         <v>0.1</v>
       </c>
       <c r="J24" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K24" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="L24" s="131" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="24" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B25" s="62">
         <v>10</v>
@@ -10228,18 +10287,18 @@
         <v>0.1</v>
       </c>
       <c r="J25" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K25" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="L25" s="131" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="24" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B26" s="62">
         <v>10</v>
@@ -10260,18 +10319,18 @@
         <v>0.1</v>
       </c>
       <c r="J26" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K26" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="L26" s="131" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="24" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B27" s="62">
         <v>10</v>
@@ -10292,18 +10351,18 @@
         <v>0.1</v>
       </c>
       <c r="J27" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K27" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="L27" s="131" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="24" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B28" s="62">
         <v>10</v>
@@ -10324,18 +10383,18 @@
         <v>0.1</v>
       </c>
       <c r="J28" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K28" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="L28" s="131" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="24" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B29" s="62">
         <v>40</v>
@@ -10356,26 +10415,26 @@
         <v>0.4</v>
       </c>
       <c r="J29" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K29" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="L29" s="131" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="47" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J30" s="131"/>
       <c r="K30" s="131"/>
       <c r="L30" s="131"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B31" s="62">
         <v>100</v>
@@ -10396,26 +10455,26 @@
         <v>1</v>
       </c>
       <c r="J31" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K31" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="L31" s="131" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="47" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J32" s="131"/>
       <c r="K32" s="131"/>
       <c r="L32" s="131"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="24" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B33" s="61">
         <v>50</v>
@@ -10436,16 +10495,16 @@
         <v>0.5</v>
       </c>
       <c r="J33" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K33" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="L33" s="131" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="24" t="s">
         <v>119</v>
       </c>
@@ -10468,26 +10527,26 @@
         <v>0.5</v>
       </c>
       <c r="J34" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K34" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="L34" s="131" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="48" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J35" s="131"/>
       <c r="K35" s="131"/>
       <c r="L35" s="131"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="24" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B36" s="62">
         <v>10</v>
@@ -10508,18 +10567,18 @@
         <v>0.1</v>
       </c>
       <c r="J36" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K36" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="L36" s="131" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="24" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B37" s="62">
         <v>10</v>
@@ -10540,18 +10599,18 @@
         <v>0.1</v>
       </c>
       <c r="J37" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K37" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="L37" s="131" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B38" s="62">
         <v>10</v>
@@ -10572,18 +10631,18 @@
         <v>0.1</v>
       </c>
       <c r="J38" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K38" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="L38" s="131" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="24" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B39" s="62">
         <v>10</v>
@@ -10604,18 +10663,18 @@
         <v>0.1</v>
       </c>
       <c r="J39" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K39" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="L39" s="131" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="24" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B40" s="62">
         <v>10</v>
@@ -10636,18 +10695,18 @@
         <v>0.1</v>
       </c>
       <c r="J40" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K40" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="L40" s="131" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="24" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B41" s="62">
         <v>10</v>
@@ -10668,18 +10727,18 @@
         <v>0.1</v>
       </c>
       <c r="J41" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K41" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="L41" s="131" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="24" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B42" s="62">
         <v>40</v>
@@ -10700,13 +10759,13 @@
         <v>0.4</v>
       </c>
       <c r="J42" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K42" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="L42" s="131" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -10731,13 +10790,13 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="71.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -10745,134 +10804,134 @@
         <v>1</v>
       </c>
       <c r="D1" s="134" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="54" t="s">
+        <v>545</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>568</v>
+      </c>
+      <c r="D2" s="133"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="54" t="s">
         <v>546</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B3" s="54" t="s">
         <v>569</v>
       </c>
-      <c r="D2" s="133"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
-        <v>547</v>
-      </c>
-      <c r="B3" s="54" t="s">
+      <c r="D3" s="133"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="54" t="s">
         <v>570</v>
-      </c>
-      <c r="D3" s="133"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
-        <v>571</v>
       </c>
       <c r="B4" s="54" t="s">
         <v>79</v>
       </c>
       <c r="D4" s="133"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="54" t="s">
+        <v>571</v>
+      </c>
+      <c r="B5" s="54" t="s">
         <v>572</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="D5" s="133"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="54" t="s">
         <v>573</v>
-      </c>
-      <c r="D5" s="133"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
-        <v>574</v>
       </c>
       <c r="B6" s="54" t="s">
         <v>79</v>
       </c>
       <c r="D6" s="133"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="54" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B7" s="54" t="s">
+        <v>574</v>
+      </c>
+      <c r="D7" s="133"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="54" t="s">
         <v>575</v>
       </c>
-      <c r="D7" s="133"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
+      <c r="B8" s="54" t="s">
         <v>576</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="D8" s="133"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="54" t="s">
         <v>577</v>
       </c>
-      <c r="D8" s="133"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
+      <c r="B9" s="54" t="s">
         <v>578</v>
       </c>
-      <c r="B9" s="54" t="s">
-        <v>579</v>
-      </c>
       <c r="D9" s="133"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="54" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B10" s="54">
         <v>300</v>
       </c>
       <c r="D10" s="133" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="54" t="s">
+        <v>579</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>534</v>
+      </c>
+      <c r="D11" s="133"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="54" t="s">
+        <v>557</v>
+      </c>
+      <c r="B12" s="54" t="s">
         <v>580</v>
       </c>
-      <c r="B11" s="54" t="s">
-        <v>535</v>
-      </c>
-      <c r="D11" s="133"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="54" t="s">
-        <v>558</v>
-      </c>
-      <c r="B12" s="54" t="s">
+      <c r="D12" s="133"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="54" t="s">
         <v>581</v>
-      </c>
-      <c r="D12" s="133"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
-        <v>582</v>
       </c>
       <c r="B13" s="54" t="s">
         <v>79</v>
       </c>
       <c r="D13" s="133"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="54" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B14" s="54" t="s">
         <v>79</v>
       </c>
       <c r="D14" s="133"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="54" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B15" s="54" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D15" s="133"/>
     </row>
@@ -10889,13 +10948,13 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="45.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -10904,64 +10963,64 @@
       </c>
       <c r="C1" s="40"/>
       <c r="D1" s="137" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="49" t="s">
+        <v>545</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>558</v>
+      </c>
+      <c r="D2" s="135"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="49" t="s">
         <v>546</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B3" s="40" t="s">
         <v>559</v>
       </c>
-      <c r="D2" s="135"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="D3" s="135"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="49" t="s">
         <v>547</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>560</v>
-      </c>
-      <c r="D3" s="135"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
-        <v>548</v>
       </c>
       <c r="B4" s="40">
         <v>3</v>
       </c>
       <c r="D4" s="135"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="49" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B5" s="40">
         <v>2</v>
       </c>
       <c r="D5" s="135"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="49" t="s">
         <v>82</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D6" s="135"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="49" t="s">
         <v>55</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D7" s="135"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="49" t="s">
         <v>57</v>
       </c>
@@ -10970,7 +11029,7 @@
       </c>
       <c r="D8" s="135"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="49" t="s">
         <v>83</v>
       </c>
@@ -10979,45 +11038,45 @@
       </c>
       <c r="D9" s="135"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="49" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B10" s="40" t="s">
         <v>69</v>
       </c>
       <c r="D10" s="135" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="49" t="s">
         <v>82</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D11" s="135"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="49" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D12" s="135"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="49" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D13" s="135"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="49" t="s">
         <v>83</v>
       </c>
@@ -11026,101 +11085,101 @@
       </c>
       <c r="D14" s="135"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="49" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D15" s="135"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="49" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B16" s="40">
         <v>10000</v>
       </c>
       <c r="D16" s="136" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="49" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B17" s="40">
         <v>4</v>
       </c>
       <c r="D17" s="136" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="49" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B18" s="40">
         <v>10000</v>
       </c>
       <c r="D18" s="136" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="49" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B19" s="40">
         <v>4</v>
       </c>
       <c r="D19" s="136" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="49" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B20" s="40" t="s">
         <v>79</v>
       </c>
       <c r="D20" s="135"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="49" t="s">
+        <v>554</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>565</v>
+      </c>
+      <c r="D21" s="135"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="49" t="s">
         <v>555</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B22" s="40" t="s">
         <v>566</v>
       </c>
-      <c r="D21" s="135"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="49" t="s">
+      <c r="D22" s="135"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="49" t="s">
         <v>556</v>
-      </c>
-      <c r="B22" s="40" t="s">
-        <v>567</v>
-      </c>
-      <c r="D22" s="135"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="49" t="s">
-        <v>557</v>
       </c>
       <c r="B23" s="40">
         <v>400</v>
       </c>
       <c r="D23" s="135"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="49" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D24" s="135"/>
     </row>
@@ -11138,14 +11197,14 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="73.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="73.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="97" t="s">
         <v>0</v>
       </c>
@@ -11154,42 +11213,42 @@
       </c>
       <c r="C1" s="81"/>
       <c r="D1" s="140" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="81" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B2" s="83" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C2" s="81"/>
       <c r="D2" s="138"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="81" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="83" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C3" s="81"/>
       <c r="D3" s="138"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="81" t="s">
         <v>57</v>
       </c>
       <c r="B4" s="83" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C4" s="81"/>
       <c r="D4" s="138"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="81" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B5" s="83" t="s">
         <v>69</v>
@@ -11197,7 +11256,7 @@
       <c r="C5" s="81"/>
       <c r="D5" s="138"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="81" t="s">
         <v>83</v>
       </c>
@@ -11207,189 +11266,189 @@
       <c r="C6" s="81"/>
       <c r="D6" s="138"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="81" t="s">
+        <v>590</v>
+      </c>
+      <c r="B7" s="83" t="s">
         <v>591</v>
-      </c>
-      <c r="B7" s="83" t="s">
-        <v>592</v>
       </c>
       <c r="C7" s="81"/>
       <c r="D7" s="142">
         <v>12345678901</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="81" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B8" s="84">
         <v>10000</v>
       </c>
       <c r="C8" s="81"/>
       <c r="D8" s="143" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="81" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B9" s="84">
         <v>10000</v>
       </c>
       <c r="C9" s="81"/>
       <c r="D9" s="143" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="81" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B10" s="84">
         <v>10000</v>
       </c>
       <c r="C10" s="81"/>
       <c r="D10" s="143" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="81" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B11" s="84">
         <v>10000</v>
       </c>
       <c r="C11" s="81"/>
       <c r="D11" s="143" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="81" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B12" s="84">
         <v>10000</v>
       </c>
       <c r="C12" s="81"/>
       <c r="D12" s="143" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="81" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B13" s="84">
         <v>10000</v>
       </c>
       <c r="C13" s="81"/>
       <c r="D13" s="143" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="81" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B14" s="84">
         <v>10000</v>
       </c>
       <c r="C14" s="81"/>
       <c r="D14" s="143" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="81" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B15" s="84">
         <v>10000</v>
       </c>
       <c r="C15" s="81"/>
       <c r="D15" s="143" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="81" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B16" s="84">
         <v>10000</v>
       </c>
       <c r="C16" s="81"/>
       <c r="D16" s="143" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="81" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B17" s="84">
         <v>10000</v>
       </c>
       <c r="C17" s="81"/>
       <c r="D17" s="143" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="81" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B18" s="84">
         <v>10000</v>
       </c>
       <c r="C18" s="81"/>
       <c r="D18" s="143" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="81" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B19" s="84">
         <v>10000</v>
       </c>
       <c r="C19" s="81"/>
       <c r="D19" s="143" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="81" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B20" s="84">
         <v>10000</v>
       </c>
       <c r="C20" s="81"/>
       <c r="D20" s="143" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="81" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B21" s="84">
         <v>10000</v>
       </c>
       <c r="C21" s="81"/>
       <c r="D21" s="143" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="81" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B22" s="84">
         <v>10000</v>
@@ -11397,159 +11456,159 @@
       <c r="C22" s="81"/>
       <c r="D22" s="143"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="81" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B23" s="84">
         <v>10000</v>
       </c>
       <c r="C23" s="81"/>
       <c r="D23" s="143" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="81" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B24" s="84">
         <v>10000</v>
       </c>
       <c r="C24" s="81"/>
       <c r="D24" s="143" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="81" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B25" s="84">
         <v>10000</v>
       </c>
       <c r="C25" s="81"/>
       <c r="D25" s="143" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="81" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B26" s="84">
         <v>10000</v>
       </c>
       <c r="C26" s="81"/>
       <c r="D26" s="143" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="81" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B27" s="84">
         <v>10000</v>
       </c>
       <c r="C27" s="81"/>
       <c r="D27" s="143" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="81" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B28" s="84">
         <v>10000</v>
       </c>
       <c r="C28" s="81"/>
       <c r="D28" s="143" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="81" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B29" s="84">
         <v>10000</v>
       </c>
       <c r="C29" s="81"/>
       <c r="D29" s="143" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="81" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B30" s="84">
         <v>10000</v>
       </c>
       <c r="C30" s="81"/>
       <c r="D30" s="143" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="81" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B31" s="84">
         <v>10000</v>
       </c>
       <c r="C31" s="81"/>
       <c r="D31" s="143" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="81" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B32" s="84">
         <v>10000</v>
       </c>
       <c r="C32" s="81"/>
       <c r="D32" s="143" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="81" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B33" s="84">
         <v>10000</v>
       </c>
       <c r="C33" s="81"/>
       <c r="D33" s="143" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="81" t="s">
         <v>62</v>
       </c>
       <c r="B34" s="83" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C34" s="81"/>
       <c r="D34" s="138"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="81" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B35" s="83" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C35" s="81"/>
       <c r="D35" s="141"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="81" t="s">
         <v>63</v>
       </c>
@@ -11559,19 +11618,19 @@
       <c r="C36" s="81"/>
       <c r="D36" s="138"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="81" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B37" s="83">
         <v>2500</v>
       </c>
       <c r="C37" s="81"/>
       <c r="D37" s="139" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="81" t="s">
         <v>64</v>
       </c>
@@ -11580,30 +11639,30 @@
       </c>
       <c r="C38" s="81"/>
       <c r="D38" s="139" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="81" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B39" s="83" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C39" s="81"/>
       <c r="D39" s="138"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="81" t="s">
         <v>65</v>
       </c>
       <c r="B40" s="83" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C40" s="81"/>
       <c r="D40" s="138"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="81" t="s">
         <v>66</v>
       </c>
@@ -11613,7 +11672,7 @@
       <c r="C41" s="81"/>
       <c r="D41" s="138"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="81" t="s">
         <v>67</v>
       </c>
@@ -11623,19 +11682,19 @@
       <c r="C42" s="81"/>
       <c r="D42" s="138"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="81" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B43" s="83" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C43" s="81"/>
       <c r="D43" s="138"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="81" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B44" s="83" t="s">
         <v>70</v>
@@ -11643,19 +11702,19 @@
       <c r="C44" s="81"/>
       <c r="D44" s="138"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="81" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B45" s="83" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C45" s="81"/>
       <c r="D45" s="138"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="81" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B46" s="83" t="s">
         <v>70</v>
@@ -11663,9 +11722,9 @@
       <c r="C46" s="81"/>
       <c r="D46" s="138"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="81" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B47" s="83" t="s">
         <v>79</v>
@@ -11673,9 +11732,9 @@
       <c r="C47" s="81"/>
       <c r="D47" s="138"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="81" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B48" s="83" t="s">
         <v>79</v>
@@ -11683,132 +11742,132 @@
       <c r="C48" s="81"/>
       <c r="D48" s="138"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="81" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B49" s="83" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="81" t="s">
+        <v>651</v>
+      </c>
+      <c r="B50" s="83" t="s">
         <v>652</v>
       </c>
-      <c r="B50" s="83" t="s">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="81" t="s">
         <v>653</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="81" t="s">
-        <v>654</v>
       </c>
       <c r="B51" s="83" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="81" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B52" s="83" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="81" t="s">
+        <v>655</v>
+      </c>
+      <c r="B53" s="83" t="s">
         <v>656</v>
       </c>
-      <c r="B53" s="83" t="s">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="81" t="s">
         <v>657</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="81" t="s">
-        <v>658</v>
       </c>
       <c r="B54" s="83" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="81" t="s">
+        <v>658</v>
+      </c>
+      <c r="B55" s="83" t="s">
         <v>659</v>
       </c>
-      <c r="B55" s="83" t="s">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="81" t="s">
         <v>660</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="81" t="s">
-        <v>661</v>
       </c>
       <c r="B56" s="83" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="81" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B57" s="83" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="81" t="s">
+        <v>662</v>
+      </c>
+      <c r="B58" s="83" t="s">
         <v>663</v>
       </c>
-      <c r="B58" s="83" t="s">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="81" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="81" t="s">
+      <c r="B59" s="83" t="s">
         <v>665</v>
       </c>
-      <c r="B59" s="83" t="s">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="81" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="81" t="s">
+      <c r="B60" s="83" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="81" t="s">
         <v>667</v>
       </c>
-      <c r="B60" s="83" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="81" t="s">
+      <c r="B61" s="83" t="s">
         <v>668</v>
       </c>
-      <c r="B61" s="83" t="s">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="81" t="s">
         <v>669</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="81" t="s">
-        <v>670</v>
       </c>
       <c r="B62" s="83" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="81" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B63" s="83" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="81" t="s">
+        <v>671</v>
+      </c>
+      <c r="B64" s="83" t="s">
         <v>672</v>
-      </c>
-      <c r="B64" s="83" t="s">
-        <v>673</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/ExcelTestData/Newtestdata.xlsx
+++ b/testdata/ExcelTestData/Newtestdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Periscope\pandc\testdata\ExcelTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497A2C99-2E65-46BB-9837-BEFD09F5B09F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABD547A-45B4-44A3-8021-BB32EC5AF704}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="13" activeTab="14" xr2:uid="{D923499C-DDE5-4EE4-B604-8A52F010599A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{D923499C-DDE5-4EE4-B604-8A52F010599A}"/>
   </bookViews>
   <sheets>
     <sheet name="CoverPage" sheetId="20" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <sheet name="Premium history " sheetId="1" r:id="rId22"/>
     <sheet name="Crime" sheetId="5" r:id="rId23"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="748">
   <si>
     <t>Column Name</t>
   </si>
@@ -2277,9 +2277,6 @@
     <t>United States12</t>
   </si>
   <si>
-    <t>abcde12345678</t>
-  </si>
-  <si>
     <t>Test1Test1Test1Test1Test1Test1Test1Test1Test1Test1Test1Test1Test1Test1Test1Test1Test1Test1Test1Test1Test1Test1Test1Test1Test1Test1Test1Test1Test1Test12</t>
   </si>
   <si>
@@ -2342,6 +2339,12 @@
   </si>
   <si>
     <t>VIN_8769\der2322$#</t>
+  </si>
+  <si>
+    <t>abc!@</t>
+  </si>
+  <si>
+    <t>abc</t>
   </si>
 </sst>
 </file>
@@ -2630,7 +2633,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2977,6 +2980,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3307,7 +3311,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED3C3E-F680-454C-8DD3-367FA26F8D89}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3442,10 +3448,10 @@
         <v>12345678912365</v>
       </c>
       <c r="K3" s="148" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="L3" s="148" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -3475,10 +3481,10 @@
         <v>12345678912365</v>
       </c>
       <c r="K4" s="148" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="L4" s="148" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -3505,10 +3511,10 @@
         <v>12345678912365</v>
       </c>
       <c r="K5" s="148" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="L5" s="148" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -4203,7 +4209,7 @@
         <v>628</v>
       </c>
       <c r="D2" s="157" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -4340,7 +4346,7 @@
         <v>491</v>
       </c>
       <c r="F1" s="153" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G1" s="149"/>
       <c r="H1" s="149"/>
@@ -4369,13 +4375,13 @@
         <v>500</v>
       </c>
       <c r="F3" s="151" t="s">
+        <v>733</v>
+      </c>
+      <c r="G3" s="151" t="s">
         <v>734</v>
       </c>
-      <c r="G3" s="151" t="s">
+      <c r="H3" s="151" t="s">
         <v>735</v>
-      </c>
-      <c r="H3" s="151" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -4714,7 +4720,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB9E15E-982A-4378-870E-0EBD59B87B42}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -4738,10 +4744,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="169" t="s">
+        <v>739</v>
+      </c>
+      <c r="B2" s="169" t="s">
         <v>740</v>
-      </c>
-      <c r="B2" s="169" t="s">
-        <v>741</v>
       </c>
       <c r="D2" s="166" t="s">
         <v>707</v>
@@ -4760,7 +4766,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="169" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B4" s="169">
         <v>2500</v>
@@ -4771,7 +4777,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="169" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B5" s="169">
         <v>1500</v>
@@ -4793,7 +4799,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="169" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B7" s="169">
         <v>10000</v>
@@ -4906,10 +4912,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="172" t="s">
+      <c r="A6" s="173" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="172"/>
+      <c r="B6" s="173"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
@@ -5073,10 +5079,10 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="172" t="s">
+      <c r="A26" s="173" t="s">
         <v>125</v>
       </c>
-      <c r="B26" s="172"/>
+      <c r="B26" s="173"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
@@ -5414,7 +5420,7 @@
   <cols>
     <col min="1" max="1" width="30.26953125" style="7" customWidth="1"/>
     <col min="2" max="2" width="38.26953125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="22.36328125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" style="7" customWidth="1"/>
     <col min="4" max="4" width="14.7265625" style="7" customWidth="1"/>
     <col min="5" max="5" width="38.26953125" style="7" customWidth="1"/>
     <col min="6" max="6" width="14.7265625" style="7" customWidth="1"/>
@@ -5477,10 +5483,10 @@
         <v>249</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="24" t="s">
@@ -6020,7 +6026,7 @@
         <v>442</v>
       </c>
       <c r="F5" s="158" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -6184,7 +6190,7 @@
     <col min="5" max="5" width="30.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6492,8 +6498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AE8549-2611-4C3D-8F42-2BE39C7FE28A}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6640,8 +6646,8 @@
         <v>98789</v>
       </c>
       <c r="C13" s="14"/>
-      <c r="D13" s="102" t="s">
-        <v>725</v>
+      <c r="D13" s="172" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -6652,8 +6658,8 @@
         <v>98987</v>
       </c>
       <c r="C14" s="14"/>
-      <c r="D14" s="102">
-        <v>12345678912</v>
+      <c r="D14" s="166" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
@@ -6665,7 +6671,7 @@
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="102" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -6782,7 +6788,7 @@
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="102" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -6794,7 +6800,7 @@
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="102" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -6806,7 +6812,7 @@
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="102" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.35">
@@ -7147,8 +7153,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D13" r:id="rId1" xr:uid="{F95C9710-F6B1-459C-8840-5F047364CDEC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7247,7 +7256,7 @@
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="168" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
@@ -7259,7 +7268,7 @@
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="168" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
@@ -7271,7 +7280,7 @@
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="168" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
@@ -7283,7 +7292,7 @@
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="168" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
@@ -7295,7 +7304,7 @@
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="168" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.35">
@@ -7305,7 +7314,7 @@
       <c r="D13" s="165"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="175" t="s">
+      <c r="A14" s="176" t="s">
         <v>390</v>
       </c>
       <c r="B14" s="29">
@@ -7317,7 +7326,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="175"/>
+      <c r="A15" s="176"/>
       <c r="B15" s="29">
         <v>15</v>
       </c>
@@ -7335,7 +7344,7 @@
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="168" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
@@ -7347,7 +7356,7 @@
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="168" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
@@ -7359,7 +7368,7 @@
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="168" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
@@ -7371,7 +7380,7 @@
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="168" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
@@ -7383,7 +7392,7 @@
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="168" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="22" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
@@ -7395,7 +7404,7 @@
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="168" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.35">
@@ -7407,7 +7416,7 @@
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="168" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="22" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
@@ -7419,7 +7428,7 @@
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="168" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.35">
@@ -7431,7 +7440,7 @@
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="168" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
@@ -7443,7 +7452,7 @@
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="168" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
@@ -7455,7 +7464,7 @@
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="168" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
@@ -7467,7 +7476,7 @@
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="168" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
@@ -8439,7 +8448,7 @@
       </c>
       <c r="C44" s="64"/>
       <c r="D44" s="115" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -9402,7 +9411,7 @@
       </c>
       <c r="C39" s="74"/>
       <c r="D39" s="125" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.35">
@@ -9858,14 +9867,14 @@
       <c r="L1" s="131"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="173" t="s">
         <v>501</v>
       </c>
-      <c r="B2" s="172"/>
-      <c r="J2" s="173" t="s">
+      <c r="B2" s="173"/>
+      <c r="J2" s="174" t="s">
         <v>501</v>
       </c>
-      <c r="K2" s="173"/>
+      <c r="K2" s="174"/>
       <c r="L2" s="131"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -9895,14 +9904,14 @@
       <c r="L4" s="131"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="172" t="s">
+      <c r="A5" s="173" t="s">
         <v>504</v>
       </c>
-      <c r="B5" s="172"/>
-      <c r="J5" s="173" t="s">
+      <c r="B5" s="173"/>
+      <c r="J5" s="174" t="s">
         <v>504</v>
       </c>
-      <c r="K5" s="173"/>
+      <c r="K5" s="174"/>
       <c r="L5" s="131"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -9939,14 +9948,14 @@
       <c r="L8" s="131"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="172" t="s">
+      <c r="A9" s="173" t="s">
         <v>509</v>
       </c>
-      <c r="B9" s="172"/>
-      <c r="J9" s="174" t="s">
+      <c r="B9" s="173"/>
+      <c r="J9" s="175" t="s">
         <v>509</v>
       </c>
-      <c r="K9" s="174"/>
+      <c r="K9" s="175"/>
       <c r="L9" s="131"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -10804,7 +10813,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="134" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -10887,7 +10896,7 @@
         <v>300</v>
       </c>
       <c r="D10" s="133" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">

--- a/testdata/ExcelTestData/Newtestdata.xlsx
+++ b/testdata/ExcelTestData/Newtestdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Shakuntala\Periscope\pandc\testdata\ExcelTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236A4117-3615-43C5-A83A-F057232A9FCC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8291608-9C6D-43A1-886E-57C4B94E4A47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="17" activeTab="19" xr2:uid="{D923499C-DDE5-4EE4-B604-8A52F010599A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="9" activeTab="10" xr2:uid="{D923499C-DDE5-4EE4-B604-8A52F010599A}"/>
   </bookViews>
   <sheets>
     <sheet name="CoverPage" sheetId="20" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1440" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="755">
   <si>
     <t>Column Name</t>
   </si>
@@ -2345,6 +2345,27 @@
   </si>
   <si>
     <t>abc</t>
+  </si>
+  <si>
+    <t>City123</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>No. of Units</t>
+  </si>
+  <si>
+    <t>No. of Prescriptions</t>
+  </si>
+  <si>
+    <t>No. of End users</t>
+  </si>
+  <si>
+    <t>Revenue per unit</t>
+  </si>
+  <si>
+    <t>Number of Newly Enrolled Estimated Patients</t>
   </si>
 </sst>
 </file>
@@ -2980,6 +3001,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2992,7 +3014,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Heading 4" xfId="1" builtinId="19"/>
@@ -4175,15 +4196,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B651C0-D06A-4FA6-8AD2-0327450B7699}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.28515625" customWidth="1"/>
   </cols>
@@ -4217,8 +4238,96 @@
       <c r="B3">
         <v>120000</v>
       </c>
-      <c r="D3" s="155" t="s">
-        <v>707</v>
+      <c r="D3" s="155">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="169" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="D4" s="166">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="169" t="s">
+        <v>749</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="166">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="169" t="s">
+        <v>532</v>
+      </c>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="166">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="169" t="s">
+        <v>750</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="D7" s="166">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="169" t="s">
+        <v>751</v>
+      </c>
+      <c r="B8">
+        <v>90</v>
+      </c>
+      <c r="D8" s="166">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="169" t="s">
+        <v>752</v>
+      </c>
+      <c r="B9">
+        <v>80</v>
+      </c>
+      <c r="D9" s="166">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="169" t="s">
+        <v>753</v>
+      </c>
+      <c r="B10">
+        <v>2000</v>
+      </c>
+      <c r="D10" s="166">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="106" t="s">
+        <v>754</v>
+      </c>
+      <c r="B11">
+        <v>30</v>
+      </c>
+      <c r="D11" s="166">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
@@ -4910,10 +5019,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="172" t="s">
+      <c r="A6" s="173" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="172"/>
+      <c r="B6" s="173"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -5077,10 +5186,10 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="172" t="s">
+      <c r="A26" s="173" t="s">
         <v>125</v>
       </c>
-      <c r="B26" s="172"/>
+      <c r="B26" s="173"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -5410,8 +5519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80E40C2-8F61-422B-8B66-5E35CD325EB0}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5539,7 +5648,7 @@
         <v>57</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>57</v>
+        <v>748</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -6496,8 +6605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AE8549-2611-4C3D-8F42-2BE39C7FE28A}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6644,7 +6753,7 @@
         <v>98789</v>
       </c>
       <c r="C13" s="14"/>
-      <c r="D13" s="176" t="s">
+      <c r="D13" s="172" t="s">
         <v>746</v>
       </c>
     </row>
@@ -7312,7 +7421,7 @@
       <c r="D13" s="165"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="175" t="s">
+      <c r="A14" s="176" t="s">
         <v>390</v>
       </c>
       <c r="B14" s="29">
@@ -7324,7 +7433,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="175"/>
+      <c r="A15" s="176"/>
       <c r="B15" s="29">
         <v>15</v>
       </c>
@@ -9865,14 +9974,14 @@
       <c r="L1" s="131"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="173" t="s">
         <v>501</v>
       </c>
-      <c r="B2" s="172"/>
-      <c r="J2" s="173" t="s">
+      <c r="B2" s="173"/>
+      <c r="J2" s="174" t="s">
         <v>501</v>
       </c>
-      <c r="K2" s="173"/>
+      <c r="K2" s="174"/>
       <c r="L2" s="131"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -9902,14 +10011,14 @@
       <c r="L4" s="131"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="172" t="s">
+      <c r="A5" s="173" t="s">
         <v>504</v>
       </c>
-      <c r="B5" s="172"/>
-      <c r="J5" s="173" t="s">
+      <c r="B5" s="173"/>
+      <c r="J5" s="174" t="s">
         <v>504</v>
       </c>
-      <c r="K5" s="173"/>
+      <c r="K5" s="174"/>
       <c r="L5" s="131"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -9946,14 +10055,14 @@
       <c r="L8" s="131"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="172" t="s">
+      <c r="A9" s="173" t="s">
         <v>509</v>
       </c>
-      <c r="B9" s="172"/>
-      <c r="J9" s="174" t="s">
+      <c r="B9" s="173"/>
+      <c r="J9" s="175" t="s">
         <v>509</v>
       </c>
-      <c r="K9" s="174"/>
+      <c r="K9" s="175"/>
       <c r="L9" s="131"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">

--- a/testdata/ExcelTestData/Newtestdata.xlsx
+++ b/testdata/ExcelTestData/Newtestdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Shakuntala\Periscope\pandc\testdata\ExcelTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8291608-9C6D-43A1-886E-57C4B94E4A47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF91FA3-E950-454E-A4BC-3C63F0D83C68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="9" activeTab="10" xr2:uid="{D923499C-DDE5-4EE4-B604-8A52F010599A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="900" firstSheet="19" activeTab="25" xr2:uid="{D923499C-DDE5-4EE4-B604-8A52F010599A}"/>
   </bookViews>
   <sheets>
     <sheet name="CoverPage" sheetId="20" r:id="rId1"/>
@@ -24,19 +24,26 @@
     <sheet name="Transit Loc Inv" sheetId="21" r:id="rId9"/>
     <sheet name="Revenue &amp; Liability Limits" sheetId="7" r:id="rId10"/>
     <sheet name="Product Liability" sheetId="19" r:id="rId11"/>
-    <sheet name="BI worksheet" sheetId="3" r:id="rId12"/>
-    <sheet name="Single BI Worksheet" sheetId="15" r:id="rId13"/>
-    <sheet name="Multi Location BI Worksheet" sheetId="22" r:id="rId14"/>
-    <sheet name="Continuing Expense BI Worksheet" sheetId="23" r:id="rId15"/>
-    <sheet name="Transit" sheetId="6" r:id="rId16"/>
-    <sheet name="Auto" sheetId="8" r:id="rId17"/>
-    <sheet name="International Revenue &amp; Payroll" sheetId="12" r:id="rId18"/>
-    <sheet name="Auto Rental &amp; Travel" sheetId="13" r:id="rId19"/>
-    <sheet name="US Workers Compensation" sheetId="9" r:id="rId20"/>
-    <sheet name="WC Supplemental" sheetId="10" r:id="rId21"/>
-    <sheet name="Premium history " sheetId="1" r:id="rId22"/>
-    <sheet name="Crime" sheetId="5" r:id="rId23"/>
+    <sheet name="ERISA 401(K) Plan" sheetId="24" r:id="rId12"/>
+    <sheet name="BI worksheet" sheetId="3" r:id="rId13"/>
+    <sheet name="Single BI Worksheet" sheetId="15" r:id="rId14"/>
+    <sheet name="Multi Location BI Worksheet" sheetId="22" r:id="rId15"/>
+    <sheet name="Continuing Expense BI Worksheet" sheetId="23" r:id="rId16"/>
+    <sheet name="Transit" sheetId="6" r:id="rId17"/>
+    <sheet name="Auto" sheetId="8" r:id="rId18"/>
+    <sheet name="International Revenue &amp; Payroll" sheetId="12" r:id="rId19"/>
+    <sheet name="Auto Rental &amp; Travel" sheetId="13" r:id="rId20"/>
+    <sheet name="US Workers Compensation" sheetId="9" r:id="rId21"/>
+    <sheet name="WC Supplemental" sheetId="10" r:id="rId22"/>
+    <sheet name="Premium history " sheetId="1" r:id="rId23"/>
+    <sheet name="Crime" sheetId="5" r:id="rId24"/>
+    <sheet name="Equipment Exposure" sheetId="26" r:id="rId25"/>
+    <sheet name="Defects Data" sheetId="25" r:id="rId26"/>
   </sheets>
+  <definedNames>
+    <definedName name="country_list">#REF!</definedName>
+    <definedName name="us_states">#REF!</definedName>
+  </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="783">
   <si>
     <t>Column Name</t>
   </si>
@@ -1187,9 +1194,6 @@
   </si>
   <si>
     <t>Test Description</t>
-  </si>
-  <si>
-    <t>States with Operation:</t>
   </si>
   <si>
     <t>Test1</t>
@@ -2367,6 +2371,93 @@
   <si>
     <t>Number of Newly Enrolled Estimated Patients</t>
   </si>
+  <si>
+    <t>Column value</t>
+  </si>
+  <si>
+    <t>Test@123Test@123Test@123Test@123Test@123Test@123Test@123Test@123Test@123Test@123Test@123Test@123Test@123Test@123Test@123Test@123Test@123Test@123Test@123Test@123Test@123Test@123Test@123Test@123Test@123Test@123Test@123Test@123Test@123Test@123Test@123Test@123</t>
+  </si>
+  <si>
+    <t>CAs</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>Plan1</t>
+  </si>
+  <si>
+    <t>Avenue</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Quarterly</t>
+  </si>
+  <si>
+    <t>StreetAddress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CA</t>
+  </si>
+  <si>
+    <t>Years in Business (Since):</t>
+  </si>
+  <si>
+    <t>Equipment Description</t>
+  </si>
+  <si>
+    <t>Asset / Serial Number</t>
+  </si>
+  <si>
+    <t>Equipment Owned/Leased</t>
+  </si>
+  <si>
+    <t>102-B</t>
+  </si>
+  <si>
+    <t>Street 11</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Test Equipment 1</t>
+  </si>
+  <si>
+    <t>MK24</t>
+  </si>
+  <si>
+    <t>MOD-988</t>
+  </si>
+  <si>
+    <t>ASE-2345#22</t>
+  </si>
+  <si>
+    <t>Leased</t>
+  </si>
+  <si>
+    <t>98765-4321</t>
+  </si>
+  <si>
+    <t>Estimated Annual Remuneration Projection for Current Policy Year</t>
+  </si>
+  <si>
+    <t>Restricted Stock Units (RSUs) for Current Policy Year</t>
+  </si>
+  <si>
+    <t>Estimated Annual Remuneration Projection for Projected Policy Year</t>
+  </si>
+  <si>
+    <t>Restricted Stock Units (RSUs) Projected for Policy Year</t>
+  </si>
+  <si>
+    <t>Us Workers</t>
+  </si>
 </sst>
 </file>
 
@@ -2376,7 +2467,7 @@
     <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd\/mm\/yyyy"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2505,8 +2596,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2615,6 +2719,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2654,7 +2764,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3002,6 +3112,11 @@
     <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3013,6 +3128,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3345,20 +3469,20 @@
         <v>25</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>304</v>
@@ -3369,23 +3493,23 @@
         <v>254</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -3419,7 +3543,7 @@
         <v>116</v>
       </c>
       <c r="F1" s="146" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G1" s="144"/>
       <c r="H1" s="144"/>
@@ -3454,23 +3578,23 @@
         <v>10000</v>
       </c>
       <c r="F3" s="145" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G3" s="145" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H3" s="145" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I3" s="144"/>
       <c r="J3" s="147">
         <v>12345678912365</v>
       </c>
       <c r="K3" s="148" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="L3" s="148" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -3487,23 +3611,23 @@
         <v>10000000</v>
       </c>
       <c r="F4" s="145" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G4" s="145" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H4" s="145" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I4" s="144"/>
       <c r="J4" s="147">
         <v>12345678912365</v>
       </c>
       <c r="K4" s="148" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="L4" s="148" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3517,23 +3641,23 @@
         <v>18000000</v>
       </c>
       <c r="F5" s="145" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G5" s="145" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H5" s="145" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I5" s="144"/>
       <c r="J5" s="147">
         <v>12345678912365</v>
       </c>
       <c r="K5" s="148" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="L5" s="148" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -4198,8 +4322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B651C0-D06A-4FA6-8AD2-0327450B7699}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4217,29 +4341,29 @@
         <v>1</v>
       </c>
       <c r="D1" s="156" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D2" s="157" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B3">
         <v>120000</v>
       </c>
-      <c r="D3" s="155">
-        <v>1.5</v>
+      <c r="D3" s="155" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4249,85 +4373,85 @@
       <c r="B4">
         <v>1000</v>
       </c>
-      <c r="D4" s="166">
-        <v>1.5</v>
+      <c r="D4" s="166" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="169" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B5">
         <v>1000</v>
       </c>
-      <c r="D5" s="166">
-        <v>1.5</v>
+      <c r="D5" s="166" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="169" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B6">
         <v>1000</v>
       </c>
-      <c r="D6" s="166">
-        <v>1.5</v>
+      <c r="D6" s="166" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="169" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B7">
         <v>100</v>
       </c>
-      <c r="D7" s="166">
-        <v>1.5</v>
+      <c r="D7" s="166" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="169" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B8">
         <v>90</v>
       </c>
-      <c r="D8" s="166">
-        <v>1.5</v>
+      <c r="D8" s="166" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="169" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B9">
         <v>80</v>
       </c>
-      <c r="D9" s="166">
-        <v>1.5</v>
+      <c r="D9" s="166" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="169" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B10">
         <v>2000</v>
       </c>
-      <c r="D10" s="166">
-        <v>1.5</v>
+      <c r="D10" s="166" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="106" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B11">
         <v>30</v>
       </c>
-      <c r="D11" s="166">
-        <v>1.5</v>
+      <c r="D11" s="166" t="s">
+        <v>712</v>
       </c>
     </row>
   </sheetData>
@@ -4337,6 +4461,145 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C7BD6D-4371-4A84-BA86-10BAE755AFE9}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="125.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="174" t="s">
+        <v>754</v>
+      </c>
+      <c r="C1" s="169"/>
+      <c r="D1" s="175" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="169" t="s">
+        <v>758</v>
+      </c>
+      <c r="D2" s="162" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="169" t="s">
+        <v>759</v>
+      </c>
+      <c r="D3" s="162" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="169" t="s">
+        <v>760</v>
+      </c>
+      <c r="D4" s="162" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B5" s="169" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="169" t="s">
+        <v>589</v>
+      </c>
+      <c r="B6" s="169">
+        <v>123456789</v>
+      </c>
+      <c r="D6" s="169" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="162" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="169">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="169" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="169" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9">
+        <v>500000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="169" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10">
+        <v>20000</v>
+      </c>
+      <c r="D10" t="s">
+        <v>757</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Maximum 255 characters are allowed" sqref="B2:B4" xr:uid="{703614F9-5DD0-4FA0-9461-C7F8A560222D}">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Maximum 10 characters are allowed" sqref="B6:B7" xr:uid="{7F642A1E-7B0E-4A60-9E98-DC2EEA7D3BA3}">
+      <formula1>10</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E98ACFED-53D8-4B8E-A1BE-A313061888EE}">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -4433,7 +4696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B2CF2CC-C2A3-4FF1-8AA7-AFD43E8CEE02}">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -4450,10 +4713,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F1" s="153" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G1" s="149"/>
       <c r="H1" s="149"/>
@@ -4473,27 +4736,27 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="44" t="s">
+        <v>493</v>
+      </c>
+      <c r="C3" s="44" t="s">
         <v>494</v>
       </c>
-      <c r="C3" s="44" t="s">
-        <v>495</v>
-      </c>
       <c r="D3" s="44" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="F3" s="151" t="s">
+        <v>732</v>
+      </c>
+      <c r="G3" s="151" t="s">
         <v>733</v>
       </c>
-      <c r="G3" s="151" t="s">
+      <c r="H3" s="151" t="s">
         <v>734</v>
-      </c>
-      <c r="H3" s="151" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B4" s="40">
         <v>400</v>
@@ -4505,16 +4768,16 @@
         <v>0.95</v>
       </c>
       <c r="F4" s="150" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G4" s="149" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H4" s="149"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B5" s="40">
         <v>100</v>
@@ -4526,16 +4789,16 @@
         <v>0.95</v>
       </c>
       <c r="F5" s="149" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G5" s="149" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H5" s="152"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="59" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B6">
         <v>100</v>
@@ -4547,16 +4810,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="149" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G6" s="149" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H6" s="149"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="59" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D7" s="40">
         <v>1000</v>
@@ -4564,12 +4827,12 @@
       <c r="F7" s="149"/>
       <c r="G7" s="149"/>
       <c r="H7" s="149" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="59" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D8">
         <v>365</v>
@@ -4577,12 +4840,12 @@
       <c r="F8" s="149"/>
       <c r="G8" s="149"/>
       <c r="H8" s="149" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="59" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D9">
         <v>12</v>
@@ -4590,7 +4853,7 @@
       <c r="F9" s="149"/>
       <c r="G9" s="149"/>
       <c r="H9" s="149" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
   </sheetData>
@@ -4599,7 +4862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6224BEA-6CB2-4130-9C1A-A927A46E2FD1}">
   <dimension ref="A1:F22"/>
   <sheetViews>
@@ -4616,7 +4879,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -4634,10 +4897,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C3" s="57"/>
       <c r="D3" s="57"/>
@@ -4647,7 +4910,7 @@
         <v>56</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C4" s="45"/>
       <c r="D4" s="57"/>
@@ -4657,7 +4920,7 @@
         <v>55</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C5" s="45"/>
       <c r="D5" s="57"/>
@@ -4667,7 +4930,7 @@
         <v>57</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C6" s="45"/>
       <c r="D6" s="57"/>
@@ -4683,7 +4946,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="59" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B8" s="57" t="s">
         <v>69</v>
@@ -4693,15 +4956,15 @@
     </row>
     <row r="9" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="59" t="s">
+        <v>589</v>
+      </c>
+      <c r="B9" s="57" t="s">
         <v>590</v>
-      </c>
-      <c r="B9" s="57" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="59" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B10" s="57">
         <v>10000</v>
@@ -4712,7 +4975,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="59" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B11" s="21">
         <v>1</v>
@@ -4723,7 +4986,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="59" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B12" s="57">
         <v>8000</v>
@@ -4734,7 +4997,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="59" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B13" s="21">
         <v>1</v>
@@ -4745,7 +5008,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="59" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B14">
         <v>9000</v>
@@ -4756,7 +5019,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="59" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B15" s="21">
         <v>1</v>
@@ -4767,7 +5030,7 @@
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="59" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B16">
         <v>12</v>
@@ -4778,7 +5041,7 @@
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="59" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B17">
         <v>12000</v>
@@ -4789,7 +5052,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="59" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B18">
         <v>365</v>
@@ -4823,7 +5086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB9E15E-982A-4378-870E-0EBD59B87B42}">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -4846,18 +5109,18 @@
         <v>1</v>
       </c>
       <c r="D1" s="171" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="169" t="s">
+        <v>738</v>
+      </c>
+      <c r="B2" s="169" t="s">
         <v>739</v>
       </c>
-      <c r="B2" s="169" t="s">
-        <v>740</v>
-      </c>
       <c r="D2" s="166" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4868,29 +5131,29 @@
         <v>1500</v>
       </c>
       <c r="D3" s="166" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="169" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B4" s="169">
         <v>2500</v>
       </c>
       <c r="D4" s="166" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="169" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B5" s="169">
         <v>1500</v>
       </c>
       <c r="D5" s="166" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4901,18 +5164,18 @@
         <v>6</v>
       </c>
       <c r="D6" s="166" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="169" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B7" s="169">
         <v>10000</v>
       </c>
       <c r="D7" s="166" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4923,7 +5186,7 @@
         <v>70</v>
       </c>
       <c r="D8" s="166" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4934,7 +5197,7 @@
         <v>70</v>
       </c>
       <c r="D9" s="166" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -4945,7 +5208,7 @@
         <v>10000</v>
       </c>
       <c r="D10" s="166" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -4956,7 +5219,7 @@
         <v>10000</v>
       </c>
       <c r="D11" s="166" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
   </sheetData>
@@ -4964,7 +5227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD64823-EFCF-44A3-A118-48D047AF17D3}">
   <dimension ref="A1:D65"/>
   <sheetViews>
@@ -5019,10 +5282,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="173" t="s">
+      <c r="A6" s="176" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="173"/>
+      <c r="B6" s="176"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -5186,10 +5449,10 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="173" t="s">
+      <c r="A26" s="176" t="s">
         <v>125</v>
       </c>
-      <c r="B26" s="173"/>
+      <c r="B26" s="176"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -5515,7 +5778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80E40C2-8F61-422B-8B66-5E35CD325EB0}">
   <dimension ref="A1:F42"/>
   <sheetViews>
@@ -5568,7 +5831,7 @@
         <v>278</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5581,7 +5844,7 @@
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="24" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F5" s="14"/>
     </row>
@@ -5590,14 +5853,14 @@
         <v>249</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D6" s="14"/>
       <c r="E6" s="24" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F6" s="14"/>
     </row>
@@ -5611,7 +5874,7 @@
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="38" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F7" s="14"/>
     </row>
@@ -5625,7 +5888,7 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="24" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F8" s="14"/>
     </row>
@@ -5639,7 +5902,7 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="25" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F9" s="14"/>
     </row>
@@ -5648,12 +5911,12 @@
         <v>57</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="38" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F10" s="14"/>
     </row>
@@ -5667,7 +5930,7 @@
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
       <c r="E11" s="24" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F11" s="14"/>
     </row>
@@ -5676,12 +5939,12 @@
         <v>251</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="24" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F12" s="14"/>
     </row>
@@ -5695,7 +5958,7 @@
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="25" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F13" s="14"/>
     </row>
@@ -5704,12 +5967,12 @@
         <v>253</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="39" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F14" s="14"/>
     </row>
@@ -5723,7 +5986,7 @@
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
       <c r="E15" s="24" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F15" s="14"/>
     </row>
@@ -5737,7 +6000,7 @@
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="25" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F16" s="14"/>
     </row>
@@ -5765,7 +6028,7 @@
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="24" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F18" s="14"/>
     </row>
@@ -5789,7 +6052,7 @@
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="24" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F20" s="14"/>
     </row>
@@ -5803,7 +6066,7 @@
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="24" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F21" s="14"/>
     </row>
@@ -5837,10 +6100,10 @@
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="24" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -5855,10 +6118,10 @@
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5891,10 +6154,10 @@
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="166" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F26" s="166" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="75" x14ac:dyDescent="0.25">
@@ -5909,10 +6172,10 @@
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="166" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F27" s="166" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -5927,10 +6190,10 @@
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="166" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F28" s="166" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="43.5" x14ac:dyDescent="0.25">
@@ -5945,10 +6208,10 @@
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="166" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F29" s="166" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -6057,7 +6320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6855AF93-82AA-4D05-A803-46C5BBC6D83F}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -6083,15 +6346,15 @@
       <c r="C1" s="42"/>
       <c r="D1" s="42"/>
       <c r="F1" s="160" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
@@ -6102,7 +6365,7 @@
         <v>55</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
@@ -6113,7 +6376,7 @@
         <v>57</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
@@ -6127,36 +6390,36 @@
         <v>89</v>
       </c>
       <c r="C5" s="40" t="s">
+        <v>440</v>
+      </c>
+      <c r="D5" s="40" t="s">
         <v>441</v>
       </c>
-      <c r="D5" s="40" t="s">
-        <v>442</v>
-      </c>
       <c r="F5" s="158" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B6" s="40" t="s">
         <v>69</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D6" s="40"/>
       <c r="F6" s="158" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="59" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F7" s="158">
         <v>12345678912</v>
@@ -6164,27 +6427,27 @@
     </row>
     <row r="8" spans="1:6" s="40" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F8" s="158"/>
     </row>
     <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B9" s="60">
         <v>50000</v>
       </c>
       <c r="F9" s="159" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B10" t="s">
         <v>128</v>
@@ -6193,7 +6456,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F11" s="158"/>
     </row>
@@ -6205,23 +6468,23 @@
         <v>100</v>
       </c>
       <c r="F12" s="159" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B13" s="60">
         <v>50000</v>
       </c>
       <c r="F13" s="159" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F14" s="158"/>
     </row>
@@ -6233,23 +6496,23 @@
         <v>200</v>
       </c>
       <c r="F15" s="159" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B16" s="60">
         <v>100000</v>
       </c>
       <c r="F16" s="159" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F17" s="158"/>
     </row>
@@ -6261,18 +6524,18 @@
         <v>100</v>
       </c>
       <c r="F18" s="159" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="41" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B19" s="60">
         <v>50000</v>
       </c>
       <c r="F19" s="159" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
   </sheetData>
@@ -6281,12 +6544,140 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE12E4D-FB7F-4E63-97F0-B0D0FFCBC628}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="93.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="216.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="108" t="s">
+        <v>708</v>
+      </c>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="109" t="s">
+        <v>357</v>
+      </c>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="106" t="s">
+        <v>360</v>
+      </c>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="B4" s="22">
+        <v>123456789</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="105" t="s">
+        <v>423</v>
+      </c>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="106" t="s">
+        <v>421</v>
+      </c>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="B6" s="63">
+        <v>43989</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="104" t="s">
+        <v>425</v>
+      </c>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="104" t="s">
+        <v>424</v>
+      </c>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="107" t="s">
+        <v>422</v>
+      </c>
+      <c r="E8" s="22"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D8" display="ABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDF" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC313E08-7E7B-4CCB-BC46-217595D676F7}">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6305,7 +6696,7 @@
         <v>116</v>
       </c>
       <c r="E1" s="163" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6333,7 +6724,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="164" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -6368,7 +6759,7 @@
         <v>50</v>
       </c>
       <c r="E8" s="164" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -6402,7 +6793,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B12" s="22"/>
       <c r="E12" s="161"/>
@@ -6422,7 +6813,7 @@
         <v>60</v>
       </c>
       <c r="E14" s="164" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -6450,7 +6841,7 @@
         <v>370</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E17" s="161"/>
     </row>
@@ -6471,142 +6862,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE12E4D-FB7F-4E63-97F0-B0D0FFCBC628}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="93.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="216.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="108" t="s">
-        <v>709</v>
-      </c>
-      <c r="E1" s="22"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>356</v>
-      </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="109" t="s">
-        <v>357</v>
-      </c>
-      <c r="E2" s="22"/>
-    </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="106" t="s">
-        <v>360</v>
-      </c>
-      <c r="E3" s="22"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
-        <v>361</v>
-      </c>
-      <c r="B4" s="22">
-        <v>123456789</v>
-      </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="105" t="s">
-        <v>424</v>
-      </c>
-      <c r="E4" s="22"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>362</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>366</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="106" t="s">
-        <v>422</v>
-      </c>
-      <c r="E5" s="22"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>363</v>
-      </c>
-      <c r="B6" s="63">
-        <v>43989</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="104" t="s">
-        <v>426</v>
-      </c>
-      <c r="E6" s="26"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>364</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>425</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="104" t="s">
-        <v>425</v>
-      </c>
-      <c r="E7" s="22"/>
-    </row>
-    <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>365</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>367</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="107" t="s">
-        <v>423</v>
-      </c>
-      <c r="E8" s="22"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D8" display="ABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDFABCDF" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AE8549-2611-4C3D-8F42-2BE39C7FE28A}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6625,7 +6886,7 @@
         <v>116</v>
       </c>
       <c r="D1" s="101" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -6694,7 +6955,7 @@
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="100" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -6706,7 +6967,7 @@
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="100" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -6730,7 +6991,7 @@
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="98" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -6738,7 +6999,7 @@
         <v>251</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="100">
@@ -6754,7 +7015,7 @@
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="172" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -6766,7 +7027,7 @@
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="166" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -6778,7 +7039,7 @@
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="102" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -6821,7 +7082,7 @@
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="99" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -6865,7 +7126,7 @@
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="99" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -6895,7 +7156,7 @@
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="102" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -6907,7 +7168,7 @@
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="102" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -6919,7 +7180,7 @@
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="102" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -6961,7 +7222,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -7268,12 +7529,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0225CBA0-1286-43E7-81E1-D63CD105B082}">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7281,7 +7542,7 @@
     <col min="1" max="1" width="44.5703125" style="7" customWidth="1"/>
     <col min="2" max="2" width="38.28515625" style="7" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -7292,7 +7553,7 @@
         <v>116</v>
       </c>
       <c r="D1" s="167" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7303,7 +7564,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="165" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -7311,7 +7572,7 @@
         <v>350</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D3" s="165"/>
     </row>
@@ -7323,7 +7584,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="165" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -7338,80 +7599,80 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>379</v>
+        <v>765</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="165"/>
     </row>
     <row r="7" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="14"/>
       <c r="D7" s="165"/>
     </row>
-    <row r="8" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="168" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="B9" s="29" t="s">
         <v>382</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>383</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="168" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
+        <v>383</v>
+      </c>
+      <c r="B10" s="29" t="s">
         <v>384</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>385</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="168" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="B11" s="29" t="s">
         <v>386</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>387</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="168" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="B12" s="29" t="s">
         <v>388</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>389</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="168" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -7421,187 +7682,189 @@
       <c r="D13" s="165"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="176" t="s">
-        <v>390</v>
+      <c r="A14" s="179" t="s">
+        <v>389</v>
       </c>
       <c r="B14" s="29">
         <v>25</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="166" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="176"/>
+      <c r="A15" s="179"/>
       <c r="B15" s="29">
         <v>15</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="166" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="B16" s="29" t="s">
         <v>391</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>392</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="168" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="B17" s="29" t="s">
         <v>393</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>394</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="168" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
+        <v>394</v>
+      </c>
+      <c r="B18" s="29" t="s">
         <v>395</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>396</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="168" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="B19" s="29" t="s">
         <v>397</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>398</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="168" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B20" s="29">
         <v>2</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="168" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="22" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="31" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="168" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="37" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="168" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="22" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="31" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>419</v>
-      </c>
-      <c r="C23" s="14"/>
+        <v>418</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>761</v>
+      </c>
       <c r="D23" s="168" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="168" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="34" t="s">
+        <v>399</v>
+      </c>
+      <c r="B25" s="29" t="s">
         <v>400</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>401</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="168" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A26" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="B26" s="29" t="s">
         <v>402</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>403</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="168" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
+        <v>403</v>
+      </c>
+      <c r="B27" s="29" t="s">
         <v>404</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>405</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="168" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
+        <v>405</v>
+      </c>
+      <c r="B28" s="29" t="s">
         <v>406</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>407</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="165"/>
     </row>
     <row r="29" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
+        <v>414</v>
+      </c>
+      <c r="B29" s="29" t="s">
         <v>415</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>416</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="165"/>
@@ -7611,7 +7874,7 @@
         <v>52</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="165"/>
@@ -7625,7 +7888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C884AA-D984-4FBE-A6B1-ADD5E612BF85}">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -7823,12 +8086,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6772356F-1659-4F7E-AC7D-01E061448FE4}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8015,12 +8278,249 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E395C2C-893B-4614-9CE5-21C36B380118}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="134" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="169" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="169" t="s">
+        <v>451</v>
+      </c>
+      <c r="B3" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="169" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="169" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="169" t="s">
+        <v>442</v>
+      </c>
+      <c r="B6" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="169" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="169" t="s">
+        <v>589</v>
+      </c>
+      <c r="B8" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="169" t="s">
+        <v>766</v>
+      </c>
+      <c r="B9" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="169" t="s">
+        <v>247</v>
+      </c>
+      <c r="B10" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="169" t="s">
+        <v>248</v>
+      </c>
+      <c r="B11" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="169" t="s">
+        <v>767</v>
+      </c>
+      <c r="B12" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="169" t="s">
+        <v>768</v>
+      </c>
+      <c r="B13" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="169" t="s">
+        <v>250</v>
+      </c>
+      <c r="B14">
+        <v>10000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079DEC00-3AA1-408E-BD73-5592DDC980E2}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="146" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B4" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="169" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="182" t="s">
+        <v>782</v>
+      </c>
+      <c r="B6" s="182"/>
+    </row>
+    <row r="7" spans="1:4" ht="99" x14ac:dyDescent="0.25">
+      <c r="A7" s="180" t="s">
+        <v>778</v>
+      </c>
+      <c r="B7" s="181">
+        <v>10</v>
+      </c>
+      <c r="C7" s="180"/>
+      <c r="D7" s="180"/>
+    </row>
+    <row r="8" spans="1:4" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="180" t="s">
+        <v>779</v>
+      </c>
+      <c r="B8" s="181">
+        <v>10</v>
+      </c>
+      <c r="C8" s="180"/>
+      <c r="D8" s="180"/>
+    </row>
+    <row r="9" spans="1:4" ht="99" x14ac:dyDescent="0.25">
+      <c r="A9" s="180" t="s">
+        <v>780</v>
+      </c>
+      <c r="B9" s="181">
+        <v>10</v>
+      </c>
+      <c r="C9" s="181">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="180"/>
+    </row>
+    <row r="10" spans="1:4" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="180" t="s">
+        <v>781</v>
+      </c>
+      <c r="B10" s="181">
+        <v>10</v>
+      </c>
+      <c r="C10" s="181">
+        <v>1000</v>
+      </c>
+      <c r="D10" s="180"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{327F0A58-02FC-4F22-8797-343AD32130AA}">
   <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8039,19 +8539,19 @@
       </c>
       <c r="C1" s="64"/>
       <c r="D1" s="111" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="68" t="s">
+        <v>583</v>
+      </c>
+      <c r="B2" s="65" t="s">
         <v>584</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>585</v>
       </c>
       <c r="C2" s="64"/>
       <c r="D2" s="110" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -8059,23 +8559,23 @@
         <v>56</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C3" s="64"/>
       <c r="D3" s="110" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
+        <v>586</v>
+      </c>
+      <c r="B4" s="65" t="s">
         <v>587</v>
-      </c>
-      <c r="B4" s="65" t="s">
-        <v>588</v>
       </c>
       <c r="C4" s="64"/>
       <c r="D4" s="110" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -8083,11 +8583,11 @@
         <v>55</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C5" s="64"/>
       <c r="D5" s="114" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -8099,27 +8599,27 @@
       </c>
       <c r="C6" s="64"/>
       <c r="D6" s="114" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="68" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B7" s="65" t="s">
         <v>69</v>
       </c>
       <c r="C7" s="64"/>
       <c r="D7" s="110" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="68" t="s">
+        <v>589</v>
+      </c>
+      <c r="B8" s="65" t="s">
         <v>590</v>
-      </c>
-      <c r="B8" s="65" t="s">
-        <v>591</v>
       </c>
       <c r="C8" s="64"/>
       <c r="D8" s="113">
@@ -8128,38 +8628,38 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="68" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B9" s="72">
         <v>15000</v>
       </c>
       <c r="C9" s="64"/>
       <c r="D9" s="110" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="68" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B10" s="72">
         <v>10000</v>
       </c>
       <c r="C10" s="64"/>
       <c r="D10" s="110" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="68" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B11" s="72">
         <v>10000</v>
       </c>
       <c r="C11" s="64"/>
       <c r="D11" s="110" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -8171,7 +8671,7 @@
       </c>
       <c r="C12" s="64"/>
       <c r="D12" s="110" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -8183,355 +8683,355 @@
       </c>
       <c r="C13" s="64"/>
       <c r="D13" s="110" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="68" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B14" s="72">
         <v>10000</v>
       </c>
       <c r="C14" s="64"/>
       <c r="D14" s="110" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="68" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B15" s="72">
         <v>10000</v>
       </c>
       <c r="C15" s="64"/>
       <c r="D15" s="110" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="69" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B16" s="72">
         <v>10000</v>
       </c>
       <c r="C16" s="64"/>
       <c r="D16" s="110" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="68" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B17" s="72">
         <v>10000</v>
       </c>
       <c r="C17" s="64"/>
       <c r="D17" s="110" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="68" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B18" s="72">
         <v>10000</v>
       </c>
       <c r="C18" s="64"/>
       <c r="D18" s="110" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="68" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B19" s="72">
         <v>10000</v>
       </c>
       <c r="C19" s="64"/>
       <c r="D19" s="110" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="68" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B20" s="72">
         <v>10000</v>
       </c>
       <c r="C20" s="64"/>
       <c r="D20" s="110" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="68" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B21" s="72">
         <v>10000</v>
       </c>
       <c r="C21" s="64"/>
       <c r="D21" s="110" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="68" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B22" s="72">
         <v>10000</v>
       </c>
       <c r="C22" s="64"/>
       <c r="D22" s="110" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="68" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B23" s="72">
         <v>10000</v>
       </c>
       <c r="C23" s="64"/>
       <c r="D23" s="110" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="68" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B24" s="72">
         <v>10000</v>
       </c>
       <c r="C24" s="64"/>
       <c r="D24" s="110" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="68" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B25" s="72">
         <v>10000</v>
       </c>
       <c r="C25" s="64"/>
       <c r="D25" s="110" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="68" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B26" s="72">
         <v>10000</v>
       </c>
       <c r="C26" s="64"/>
       <c r="D26" s="110" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="68" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B27" s="72">
         <v>10000</v>
       </c>
       <c r="C27" s="64"/>
       <c r="D27" s="110" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="68" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B28" s="72">
         <v>10000</v>
       </c>
       <c r="C28" s="64"/>
       <c r="D28" s="110" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="68" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B29" s="72">
         <v>10000</v>
       </c>
       <c r="C29" s="64"/>
       <c r="D29" s="110" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="68" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B30" s="72">
         <v>10000</v>
       </c>
       <c r="C30" s="64"/>
       <c r="D30" s="110" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="68" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B31" s="72">
         <v>10000</v>
       </c>
       <c r="C31" s="64"/>
       <c r="D31" s="110" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="68" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B32" s="72">
         <v>10000</v>
       </c>
       <c r="C32" s="64"/>
       <c r="D32" s="110" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="68" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B33" s="72">
         <v>10000</v>
       </c>
       <c r="C33" s="64"/>
       <c r="D33" s="110" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="68" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B34" s="72">
         <v>10000</v>
       </c>
       <c r="C34" s="64"/>
       <c r="D34" s="110" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="68" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B35" s="72">
         <v>10000</v>
       </c>
       <c r="C35" s="64"/>
       <c r="D35" s="110" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="68" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B36" s="72">
         <v>10000</v>
       </c>
       <c r="C36" s="64"/>
       <c r="D36" s="110" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="68" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B37" s="72">
         <v>10000</v>
       </c>
       <c r="C37" s="64"/>
       <c r="D37" s="110" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="68" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B38" s="72">
         <v>15000</v>
       </c>
       <c r="C38" s="64"/>
       <c r="D38" s="110" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="68" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B39" s="72">
         <v>45000</v>
       </c>
       <c r="C39" s="64"/>
       <c r="D39" s="110" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="68" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B40" s="72">
         <v>15000</v>
       </c>
       <c r="C40" s="64"/>
       <c r="D40" s="110" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="68" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B41" s="72">
         <v>45000</v>
       </c>
       <c r="C41" s="64"/>
       <c r="D41" s="110" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="68" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B42" s="72">
         <v>45000</v>
       </c>
       <c r="C42" s="64"/>
       <c r="D42" s="110" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -8539,7 +9039,7 @@
         <v>62</v>
       </c>
       <c r="B43" s="65" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C43" s="64"/>
       <c r="D43" s="116">
@@ -8548,14 +9048,14 @@
     </row>
     <row r="44" spans="1:4" s="57" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="68" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B44" s="65" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C44" s="64"/>
       <c r="D44" s="115" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -8567,19 +9067,19 @@
       </c>
       <c r="C45" s="64"/>
       <c r="D45" s="110" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="68" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B46" s="65">
         <v>4700</v>
       </c>
       <c r="C46" s="64"/>
       <c r="D46" s="110" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -8593,25 +9093,25 @@
         <v>1</v>
       </c>
       <c r="D47" s="110" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="68" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B48" s="65" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C48" s="64"/>
       <c r="D48" s="110"/>
     </row>
     <row r="49" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="68" t="s">
+        <v>618</v>
+      </c>
+      <c r="B49" s="73" t="s">
         <v>619</v>
-      </c>
-      <c r="B49" s="73" t="s">
-        <v>620</v>
       </c>
       <c r="C49" s="64"/>
       <c r="D49" s="110"/>
@@ -8637,31 +9137,31 @@
       </c>
       <c r="C51" s="64"/>
       <c r="D51" s="110" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="68" t="s">
+        <v>620</v>
+      </c>
+      <c r="B52" s="65" t="s">
         <v>621</v>
-      </c>
-      <c r="B52" s="65" t="s">
-        <v>622</v>
       </c>
       <c r="C52" s="64"/>
       <c r="D52" s="110" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="68" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B53" s="65">
         <v>1000</v>
       </c>
       <c r="C53" s="64"/>
       <c r="D53" s="110" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -8673,19 +9173,19 @@
       </c>
       <c r="C54" s="64"/>
       <c r="D54" s="110" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="68" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B55" s="65">
         <v>80</v>
       </c>
       <c r="C55" s="64"/>
       <c r="D55" s="110" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -8697,24 +9197,24 @@
       </c>
       <c r="C56" s="64"/>
       <c r="D56" s="110" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="68" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B57" s="65">
         <v>15</v>
       </c>
       <c r="C57" s="64"/>
       <c r="D57" s="110" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="68" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B58" s="65" t="s">
         <v>70</v>
@@ -8724,7 +9224,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="68" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B59" s="65" t="s">
         <v>70</v>
@@ -9031,7 +9531,7 @@
       </c>
       <c r="C93" s="64"/>
       <c r="D93" s="110" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
   </sheetData>
@@ -9064,7 +9564,7 @@
       </c>
       <c r="C1" s="74"/>
       <c r="D1" s="120" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -9076,7 +9576,7 @@
       </c>
       <c r="C2" s="74"/>
       <c r="D2" s="119" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -9084,23 +9584,23 @@
         <v>56</v>
       </c>
       <c r="B3" s="74" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C3" s="74"/>
       <c r="D3" s="119" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="74" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B4" s="74" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C4" s="74"/>
       <c r="D4" s="119" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -9108,11 +9608,11 @@
         <v>55</v>
       </c>
       <c r="B5" s="74" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C5" s="74"/>
       <c r="D5" s="123" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="105" x14ac:dyDescent="0.25">
@@ -9120,11 +9620,11 @@
         <v>57</v>
       </c>
       <c r="B6" s="74" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C6" s="74"/>
       <c r="D6" s="123" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -9136,7 +9636,7 @@
       </c>
       <c r="C7" s="74"/>
       <c r="D7" s="117" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
@@ -9154,7 +9654,7 @@
         <v>59</v>
       </c>
       <c r="B9" s="74" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C9" s="74"/>
       <c r="D9" s="122">
@@ -9163,338 +9663,338 @@
     </row>
     <row r="10" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="76" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B10" s="74">
         <v>10000</v>
       </c>
       <c r="C10" s="74"/>
       <c r="D10" s="118" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="77" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B11" s="74">
         <v>10000</v>
       </c>
       <c r="C11" s="74"/>
       <c r="D11" s="118" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="76" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B12" s="74">
         <v>10000</v>
       </c>
       <c r="C12" s="74"/>
       <c r="D12" s="118" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="76" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B13" s="74">
         <v>10000</v>
       </c>
       <c r="C13" s="74"/>
       <c r="D13" s="118" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="76" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B14" s="74">
         <v>10000</v>
       </c>
       <c r="C14" s="74"/>
       <c r="D14" s="118" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="76" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B15" s="74">
         <v>10000</v>
       </c>
       <c r="C15" s="74"/>
       <c r="D15" s="118" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="76" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B16" s="74">
         <v>10000</v>
       </c>
       <c r="C16" s="74"/>
       <c r="D16" s="118" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="76" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B17" s="74">
         <v>10000</v>
       </c>
       <c r="C17" s="74"/>
       <c r="D17" s="118" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="76" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B18" s="74">
         <v>10000</v>
       </c>
       <c r="C18" s="74"/>
       <c r="D18" s="118" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="76" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B19" s="74">
         <v>10000</v>
       </c>
       <c r="C19" s="74"/>
       <c r="D19" s="118" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="76" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B20" s="74">
         <v>10000</v>
       </c>
       <c r="C20" s="74"/>
       <c r="D20" s="118" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="40" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="76" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B21" s="74">
         <v>10000</v>
       </c>
       <c r="C21" s="74"/>
       <c r="D21" s="118" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="76" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B22" s="74">
         <v>10000</v>
       </c>
       <c r="C22" s="74"/>
       <c r="D22" s="118" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="76" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B23" s="74">
         <v>10000</v>
       </c>
       <c r="C23" s="74"/>
       <c r="D23" s="118" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="76" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B24" s="74">
         <v>10000</v>
       </c>
       <c r="C24" s="74"/>
       <c r="D24" s="118" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="76" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B25" s="74">
         <v>10000</v>
       </c>
       <c r="C25" s="74"/>
       <c r="D25" s="118" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="76" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B26" s="74">
         <v>10000</v>
       </c>
       <c r="C26" s="74"/>
       <c r="D26" s="118" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="76" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B27" s="74">
         <v>10000</v>
       </c>
       <c r="C27" s="74"/>
       <c r="D27" s="118" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="76" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B28" s="74">
         <v>10000</v>
       </c>
       <c r="C28" s="74"/>
       <c r="D28" s="118" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="76" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B29" s="74">
         <v>10000</v>
       </c>
       <c r="C29" s="74"/>
       <c r="D29" s="118" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="76" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B30" s="74">
         <v>10000</v>
       </c>
       <c r="C30" s="74"/>
       <c r="D30" s="118" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="76" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B31" s="74">
         <v>10000</v>
       </c>
       <c r="C31" s="74"/>
       <c r="D31" s="118" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="76" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B32" s="74">
         <v>10000</v>
       </c>
       <c r="C32" s="74"/>
       <c r="D32" s="118" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="76" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B33" s="74">
         <v>10000</v>
       </c>
       <c r="C33" s="74"/>
       <c r="D33" s="118" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="34" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="76" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B34" s="74">
         <v>10000</v>
       </c>
       <c r="C34" s="74"/>
       <c r="D34" s="118" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="76" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B35" s="74">
         <v>10000</v>
       </c>
       <c r="C35" s="74"/>
       <c r="D35" s="118" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="76" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B36" s="74">
         <v>10000</v>
       </c>
       <c r="C36" s="74"/>
       <c r="D36" s="118" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="76" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B37" s="74">
         <v>10000</v>
       </c>
       <c r="C37" s="74"/>
       <c r="D37" s="118" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -9502,23 +10002,23 @@
         <v>62</v>
       </c>
       <c r="B38" s="74" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C38" s="74"/>
       <c r="D38" s="124" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="39" spans="1:4" s="40" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="76" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B39" s="74" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C39" s="74"/>
       <c r="D39" s="125" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="40" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
@@ -9530,19 +10030,19 @@
       </c>
       <c r="C40" s="74"/>
       <c r="D40" s="118" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="41" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="76" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B41" s="74">
         <v>3500</v>
       </c>
       <c r="C41" s="74"/>
       <c r="D41" s="118" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="42" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
@@ -9556,15 +10056,15 @@
         <v>1</v>
       </c>
       <c r="D42" s="118" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="43" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="76" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B43" s="74" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C43" s="74"/>
       <c r="D43" s="117"/>
@@ -9574,7 +10074,7 @@
         <v>65</v>
       </c>
       <c r="B44" s="74" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C44" s="74"/>
       <c r="D44" s="117"/>
@@ -9600,12 +10100,12 @@
       </c>
       <c r="C46" s="74"/>
       <c r="D46" s="121" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="76" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B47" s="74" t="s">
         <v>70</v>
@@ -9615,7 +10115,7 @@
     </row>
     <row r="48" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="76" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B48" s="74" t="s">
         <v>70</v>
@@ -9671,7 +10171,7 @@
       </c>
       <c r="C1" s="85"/>
       <c r="D1" s="127" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -9686,38 +10186,38 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="85" t="s">
+        <v>673</v>
+      </c>
+      <c r="B3" s="85" t="s">
         <v>674</v>
-      </c>
-      <c r="B3" s="85" t="s">
-        <v>675</v>
       </c>
       <c r="C3" s="85"/>
       <c r="D3" s="128" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="85" t="s">
+        <v>675</v>
+      </c>
+      <c r="B4" s="85" t="s">
         <v>676</v>
-      </c>
-      <c r="B4" s="85" t="s">
-        <v>677</v>
       </c>
       <c r="C4" s="85"/>
       <c r="D4" s="128" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="85" t="s">
+        <v>677</v>
+      </c>
+      <c r="B5" s="85" t="s">
         <v>678</v>
-      </c>
-      <c r="B5" s="85" t="s">
-        <v>679</v>
       </c>
       <c r="C5" s="85"/>
       <c r="D5" s="128" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -9729,7 +10229,7 @@
       </c>
       <c r="C6" s="85"/>
       <c r="D6" s="128" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -9737,11 +10237,11 @@
         <v>55</v>
       </c>
       <c r="B7" s="85" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C7" s="85"/>
       <c r="D7" s="128" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -9753,7 +10253,7 @@
       </c>
       <c r="C8" s="85"/>
       <c r="D8" s="128" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -9765,7 +10265,7 @@
       </c>
       <c r="C9" s="85"/>
       <c r="D9" s="128" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -9777,7 +10277,7 @@
       </c>
       <c r="C10" s="85"/>
       <c r="D10" s="128" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -9785,28 +10285,28 @@
         <v>59</v>
       </c>
       <c r="B11" s="85" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C11" s="85"/>
       <c r="D11" s="128" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="85" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B12" s="95">
         <v>10000</v>
       </c>
       <c r="C12" s="85"/>
       <c r="D12" s="128" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="85" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B13" s="92">
         <v>0.2</v>
@@ -9815,36 +10315,36 @@
         <v>0.2</v>
       </c>
       <c r="D13" s="128" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="87" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B14" s="91">
         <v>5</v>
       </c>
       <c r="C14" s="85"/>
       <c r="D14" s="128" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="85" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B15" s="93">
         <v>3</v>
       </c>
       <c r="C15" s="85"/>
       <c r="D15" s="128" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="96" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B16" s="93"/>
       <c r="C16" s="85"/>
@@ -9852,10 +10352,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="85" t="s">
+        <v>683</v>
+      </c>
+      <c r="B17" s="85" t="s">
         <v>684</v>
-      </c>
-      <c r="B17" s="85" t="s">
-        <v>685</v>
       </c>
       <c r="C17" s="85"/>
       <c r="D17" s="129"/>
@@ -9865,7 +10365,7 @@
         <v>65</v>
       </c>
       <c r="B18" s="85" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C18" s="85"/>
       <c r="D18" s="126"/>
@@ -9911,7 +10411,7 @@
       </c>
       <c r="C22" s="85"/>
       <c r="D22" s="128" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -9923,7 +10423,7 @@
       </c>
       <c r="C23" s="85"/>
       <c r="D23" s="128" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -9968,65 +10468,65 @@
         <v>116</v>
       </c>
       <c r="J1" s="132" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="K1" s="131"/>
       <c r="L1" s="131"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="173" t="s">
-        <v>501</v>
-      </c>
-      <c r="B2" s="173"/>
-      <c r="J2" s="174" t="s">
-        <v>501</v>
-      </c>
-      <c r="K2" s="174"/>
+      <c r="A2" s="176" t="s">
+        <v>500</v>
+      </c>
+      <c r="B2" s="176"/>
+      <c r="J2" s="177" t="s">
+        <v>500</v>
+      </c>
+      <c r="K2" s="177"/>
       <c r="L2" s="131"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B3" s="60">
         <v>10000</v>
       </c>
       <c r="J3" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K3" s="131"/>
       <c r="L3" s="131"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B4" s="60">
         <v>12000</v>
       </c>
       <c r="J4" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K4" s="131"/>
       <c r="L4" s="131"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="173" t="s">
-        <v>504</v>
-      </c>
-      <c r="B5" s="173"/>
-      <c r="J5" s="174" t="s">
-        <v>504</v>
-      </c>
-      <c r="K5" s="174"/>
+      <c r="A5" s="176" t="s">
+        <v>503</v>
+      </c>
+      <c r="B5" s="176"/>
+      <c r="J5" s="177" t="s">
+        <v>503</v>
+      </c>
+      <c r="K5" s="177"/>
       <c r="L5" s="131"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="J6" s="131"/>
       <c r="K6" s="131"/>
@@ -10034,7 +10534,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B7" s="40" t="s">
         <v>79</v>
@@ -10045,7 +10545,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B8" s="40" t="s">
         <v>70</v>
@@ -10055,40 +10555,40 @@
       <c r="L8" s="131"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="173" t="s">
-        <v>509</v>
-      </c>
-      <c r="B9" s="173"/>
-      <c r="J9" s="175" t="s">
-        <v>509</v>
-      </c>
-      <c r="K9" s="175"/>
+      <c r="A9" s="176" t="s">
+        <v>508</v>
+      </c>
+      <c r="B9" s="176"/>
+      <c r="J9" s="178" t="s">
+        <v>508</v>
+      </c>
+      <c r="K9" s="178"/>
       <c r="L9" s="131"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>511</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>512</v>
       </c>
       <c r="E10" s="46"/>
       <c r="J10" s="132" t="s">
+        <v>509</v>
+      </c>
+      <c r="K10" s="132" t="s">
         <v>510</v>
       </c>
-      <c r="K10" s="132" t="s">
+      <c r="L10" s="132" t="s">
         <v>511</v>
-      </c>
-      <c r="L10" s="132" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J11" s="131"/>
       <c r="K11" s="131"/>
@@ -10096,16 +10596,16 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J12" s="131"/>
       <c r="K12" s="131"/>
@@ -10113,13 +10613,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B13" s="40" t="s">
+        <v>542</v>
+      </c>
+      <c r="C13" s="40" t="s">
         <v>543</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>544</v>
       </c>
       <c r="D13" s="40"/>
       <c r="J13" s="131"/>
@@ -10128,7 +10628,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B14" s="40">
         <v>10</v>
@@ -10140,18 +10640,18 @@
         <v>10</v>
       </c>
       <c r="J14" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K14" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="L14" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B15" s="40">
         <v>10</v>
@@ -10163,18 +10663,18 @@
         <v>10</v>
       </c>
       <c r="J15" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K15" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="L15" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B16" s="40">
         <v>10</v>
@@ -10186,18 +10686,18 @@
         <v>10</v>
       </c>
       <c r="J16" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K16" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="L16" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J17" s="131"/>
       <c r="K17" s="131"/>
@@ -10205,7 +10705,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B18" s="61">
         <v>50</v>
@@ -10226,18 +10726,18 @@
         <v>0.5</v>
       </c>
       <c r="J18" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K18" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="L18" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B19" s="61">
         <v>20</v>
@@ -10258,18 +10758,18 @@
         <v>0.2</v>
       </c>
       <c r="J19" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K19" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="L19" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B20" s="61">
         <v>30</v>
@@ -10290,18 +10790,18 @@
         <v>0.3</v>
       </c>
       <c r="J20" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K20" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="L20" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="48" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="J21" s="131"/>
       <c r="K21" s="131"/>
@@ -10309,7 +10809,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="47" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B22" s="62"/>
       <c r="J22" s="131"/>
@@ -10318,7 +10818,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B23" s="62">
         <v>10</v>
@@ -10339,18 +10839,18 @@
         <v>0.1</v>
       </c>
       <c r="J23" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K23" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="L23" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B24" s="62">
         <v>10</v>
@@ -10371,18 +10871,18 @@
         <v>0.1</v>
       </c>
       <c r="J24" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K24" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="L24" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B25" s="62">
         <v>10</v>
@@ -10403,18 +10903,18 @@
         <v>0.1</v>
       </c>
       <c r="J25" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K25" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="L25" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B26" s="62">
         <v>10</v>
@@ -10435,18 +10935,18 @@
         <v>0.1</v>
       </c>
       <c r="J26" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K26" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="L26" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B27" s="62">
         <v>10</v>
@@ -10467,18 +10967,18 @@
         <v>0.1</v>
       </c>
       <c r="J27" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K27" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="L27" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B28" s="62">
         <v>10</v>
@@ -10499,18 +10999,18 @@
         <v>0.1</v>
       </c>
       <c r="J28" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K28" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="L28" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B29" s="62">
         <v>40</v>
@@ -10531,18 +11031,18 @@
         <v>0.4</v>
       </c>
       <c r="J29" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K29" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="L29" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="47" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="J30" s="131"/>
       <c r="K30" s="131"/>
@@ -10550,7 +11050,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B31" s="62">
         <v>100</v>
@@ -10571,18 +11071,18 @@
         <v>1</v>
       </c>
       <c r="J31" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K31" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="L31" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="47" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J32" s="131"/>
       <c r="K32" s="131"/>
@@ -10590,7 +11090,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B33" s="61">
         <v>50</v>
@@ -10611,13 +11111,13 @@
         <v>0.5</v>
       </c>
       <c r="J33" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K33" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="L33" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -10643,18 +11143,18 @@
         <v>0.5</v>
       </c>
       <c r="J34" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K34" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="L34" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J35" s="131"/>
       <c r="K35" s="131"/>
@@ -10662,7 +11162,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B36" s="62">
         <v>10</v>
@@ -10683,18 +11183,18 @@
         <v>0.1</v>
       </c>
       <c r="J36" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K36" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="L36" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="24" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B37" s="62">
         <v>10</v>
@@ -10715,18 +11215,18 @@
         <v>0.1</v>
       </c>
       <c r="J37" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K37" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="L37" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B38" s="62">
         <v>10</v>
@@ -10747,18 +11247,18 @@
         <v>0.1</v>
       </c>
       <c r="J38" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K38" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="L38" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B39" s="62">
         <v>10</v>
@@ -10779,18 +11279,18 @@
         <v>0.1</v>
       </c>
       <c r="J39" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K39" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="L39" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B40" s="62">
         <v>10</v>
@@ -10811,18 +11311,18 @@
         <v>0.1</v>
       </c>
       <c r="J40" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K40" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="L40" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B41" s="62">
         <v>10</v>
@@ -10843,18 +11343,18 @@
         <v>0.1</v>
       </c>
       <c r="J41" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K41" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="L41" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B42" s="62">
         <v>40</v>
@@ -10875,13 +11375,13 @@
         <v>0.4</v>
       </c>
       <c r="J42" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K42" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="L42" s="131" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
   </sheetData>
@@ -10920,30 +11420,30 @@
         <v>1</v>
       </c>
       <c r="D1" s="134" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B2" s="54" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D2" s="133"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D3" s="133"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B4" s="54" t="s">
         <v>79</v>
@@ -10952,16 +11452,16 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
+        <v>570</v>
+      </c>
+      <c r="B5" s="54" t="s">
         <v>571</v>
-      </c>
-      <c r="B5" s="54" t="s">
-        <v>572</v>
       </c>
       <c r="D5" s="133"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B6" s="54" t="s">
         <v>79</v>
@@ -10970,63 +11470,63 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D7" s="133"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
+        <v>574</v>
+      </c>
+      <c r="B8" s="54" t="s">
         <v>575</v>
-      </c>
-      <c r="B8" s="54" t="s">
-        <v>576</v>
       </c>
       <c r="D8" s="133"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
+        <v>576</v>
+      </c>
+      <c r="B9" s="54" t="s">
         <v>577</v>
-      </c>
-      <c r="B9" s="54" t="s">
-        <v>578</v>
       </c>
       <c r="D9" s="133"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B10" s="54">
         <v>300</v>
       </c>
       <c r="D10" s="133" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D11" s="133"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D12" s="133"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B13" s="54" t="s">
         <v>79</v>
@@ -11035,7 +11535,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="54" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B14" s="54" t="s">
         <v>79</v>
@@ -11044,10 +11544,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="54" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B15" s="54" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D15" s="133"/>
     </row>
@@ -11079,30 +11579,30 @@
       </c>
       <c r="C1" s="40"/>
       <c r="D1" s="137" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D2" s="135"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D3" s="135"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B4" s="40">
         <v>3</v>
@@ -11111,7 +11611,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B5" s="40">
         <v>2</v>
@@ -11123,7 +11623,7 @@
         <v>82</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D6" s="135"/>
     </row>
@@ -11132,7 +11632,7 @@
         <v>55</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D7" s="135"/>
     </row>
@@ -11156,13 +11656,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B10" s="40" t="s">
         <v>69</v>
       </c>
       <c r="D10" s="135" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -11170,7 +11670,7 @@
         <v>82</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D11" s="135"/>
     </row>
@@ -11179,7 +11679,7 @@
         <v>55</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D12" s="135"/>
     </row>
@@ -11188,7 +11688,7 @@
         <v>57</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D13" s="135"/>
     </row>
@@ -11203,60 +11703,60 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D15" s="135"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B16" s="40">
         <v>10000</v>
       </c>
       <c r="D16" s="136" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B17" s="40">
         <v>4</v>
       </c>
       <c r="D17" s="136" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B18" s="40">
         <v>10000</v>
       </c>
       <c r="D18" s="136" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B19" s="40">
         <v>4</v>
       </c>
       <c r="D19" s="136" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B20" s="40" t="s">
         <v>79</v>
@@ -11265,25 +11765,25 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D21" s="135"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="49" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D22" s="135"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="49" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B23" s="40">
         <v>400</v>
@@ -11292,10 +11792,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="49" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D24" s="135"/>
     </row>
@@ -11329,15 +11829,15 @@
       </c>
       <c r="C1" s="81"/>
       <c r="D1" s="140" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="81" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B2" s="83" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C2" s="81"/>
       <c r="D2" s="138"/>
@@ -11347,7 +11847,7 @@
         <v>55</v>
       </c>
       <c r="B3" s="83" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C3" s="81"/>
       <c r="D3" s="138"/>
@@ -11357,14 +11857,14 @@
         <v>57</v>
       </c>
       <c r="B4" s="83" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C4" s="81"/>
       <c r="D4" s="138"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="81" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B5" s="83" t="s">
         <v>69</v>
@@ -11384,10 +11884,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="81" t="s">
+        <v>589</v>
+      </c>
+      <c r="B7" s="83" t="s">
         <v>590</v>
-      </c>
-      <c r="B7" s="83" t="s">
-        <v>591</v>
       </c>
       <c r="C7" s="81"/>
       <c r="D7" s="142">
@@ -11396,175 +11896,175 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="81" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B8" s="84">
         <v>10000</v>
       </c>
       <c r="C8" s="81"/>
       <c r="D8" s="143" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="81" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B9" s="84">
         <v>10000</v>
       </c>
       <c r="C9" s="81"/>
       <c r="D9" s="143" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="81" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B10" s="84">
         <v>10000</v>
       </c>
       <c r="C10" s="81"/>
       <c r="D10" s="143" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="81" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B11" s="84">
         <v>10000</v>
       </c>
       <c r="C11" s="81"/>
       <c r="D11" s="143" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="81" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B12" s="84">
         <v>10000</v>
       </c>
       <c r="C12" s="81"/>
       <c r="D12" s="143" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="81" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B13" s="84">
         <v>10000</v>
       </c>
       <c r="C13" s="81"/>
       <c r="D13" s="143" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="81" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B14" s="84">
         <v>10000</v>
       </c>
       <c r="C14" s="81"/>
       <c r="D14" s="143" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="81" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B15" s="84">
         <v>10000</v>
       </c>
       <c r="C15" s="81"/>
       <c r="D15" s="143" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="81" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B16" s="84">
         <v>10000</v>
       </c>
       <c r="C16" s="81"/>
       <c r="D16" s="143" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="81" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B17" s="84">
         <v>10000</v>
       </c>
       <c r="C17" s="81"/>
       <c r="D17" s="143" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="81" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B18" s="84">
         <v>10000</v>
       </c>
       <c r="C18" s="81"/>
       <c r="D18" s="143" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="81" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B19" s="84">
         <v>10000</v>
       </c>
       <c r="C19" s="81"/>
       <c r="D19" s="143" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="81" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B20" s="84">
         <v>10000</v>
       </c>
       <c r="C20" s="81"/>
       <c r="D20" s="143" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="81" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B21" s="84">
         <v>10000</v>
       </c>
       <c r="C21" s="81"/>
       <c r="D21" s="143" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="81" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B22" s="84">
         <v>10000</v>
@@ -11574,134 +12074,134 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="81" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B23" s="84">
         <v>10000</v>
       </c>
       <c r="C23" s="81"/>
       <c r="D23" s="143" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="81" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B24" s="84">
         <v>10000</v>
       </c>
       <c r="C24" s="81"/>
       <c r="D24" s="143" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="81" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B25" s="84">
         <v>10000</v>
       </c>
       <c r="C25" s="81"/>
       <c r="D25" s="143" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="81" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B26" s="84">
         <v>10000</v>
       </c>
       <c r="C26" s="81"/>
       <c r="D26" s="143" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="81" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B27" s="84">
         <v>10000</v>
       </c>
       <c r="C27" s="81"/>
       <c r="D27" s="143" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="81" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B28" s="84">
         <v>10000</v>
       </c>
       <c r="C28" s="81"/>
       <c r="D28" s="143" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="81" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B29" s="84">
         <v>10000</v>
       </c>
       <c r="C29" s="81"/>
       <c r="D29" s="143" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="81" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B30" s="84">
         <v>10000</v>
       </c>
       <c r="C30" s="81"/>
       <c r="D30" s="143" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="81" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B31" s="84">
         <v>10000</v>
       </c>
       <c r="C31" s="81"/>
       <c r="D31" s="143" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="81" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B32" s="84">
         <v>10000</v>
       </c>
       <c r="C32" s="81"/>
       <c r="D32" s="143" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="81" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B33" s="84">
         <v>10000</v>
       </c>
       <c r="C33" s="81"/>
       <c r="D33" s="143" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -11709,17 +12209,17 @@
         <v>62</v>
       </c>
       <c r="B34" s="83" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C34" s="81"/>
       <c r="D34" s="138"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="81" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B35" s="83" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C35" s="81"/>
       <c r="D35" s="141"/>
@@ -11736,14 +12236,14 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="81" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B37" s="83">
         <v>2500</v>
       </c>
       <c r="C37" s="81"/>
       <c r="D37" s="139" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -11755,15 +12255,15 @@
       </c>
       <c r="C38" s="81"/>
       <c r="D38" s="139" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="81" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B39" s="83" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C39" s="81"/>
       <c r="D39" s="138"/>
@@ -11773,7 +12273,7 @@
         <v>65</v>
       </c>
       <c r="B40" s="83" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C40" s="81"/>
       <c r="D40" s="138"/>
@@ -11800,17 +12300,17 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="81" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B43" s="83" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C43" s="81"/>
       <c r="D43" s="138"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="81" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B44" s="83" t="s">
         <v>70</v>
@@ -11820,17 +12320,17 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="81" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B45" s="83" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C45" s="81"/>
       <c r="D45" s="138"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="81" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B46" s="83" t="s">
         <v>70</v>
@@ -11840,7 +12340,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="81" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B47" s="83" t="s">
         <v>79</v>
@@ -11850,7 +12350,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="81" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B48" s="83" t="s">
         <v>79</v>
@@ -11860,7 +12360,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="81" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B49" s="83" t="s">
         <v>79</v>
@@ -11868,15 +12368,15 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="81" t="s">
+        <v>650</v>
+      </c>
+      <c r="B50" s="83" t="s">
         <v>651</v>
-      </c>
-      <c r="B50" s="83" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="81" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B51" s="83" t="s">
         <v>79</v>
@@ -11884,7 +12384,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="81" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B52" s="83" t="s">
         <v>79</v>
@@ -11892,15 +12392,15 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="81" t="s">
+        <v>654</v>
+      </c>
+      <c r="B53" s="83" t="s">
         <v>655</v>
-      </c>
-      <c r="B53" s="83" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="81" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B54" s="83" t="s">
         <v>79</v>
@@ -11908,15 +12408,15 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="81" t="s">
+        <v>657</v>
+      </c>
+      <c r="B55" s="83" t="s">
         <v>658</v>
-      </c>
-      <c r="B55" s="83" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="81" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B56" s="83" t="s">
         <v>79</v>
@@ -11924,7 +12424,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="81" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B57" s="83" t="s">
         <v>79</v>
@@ -11932,39 +12432,39 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="81" t="s">
+        <v>661</v>
+      </c>
+      <c r="B58" s="83" t="s">
         <v>662</v>
-      </c>
-      <c r="B58" s="83" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="81" t="s">
+        <v>663</v>
+      </c>
+      <c r="B59" s="83" t="s">
         <v>664</v>
-      </c>
-      <c r="B59" s="83" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="81" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B60" s="83" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="81" t="s">
+        <v>666</v>
+      </c>
+      <c r="B61" s="83" t="s">
         <v>667</v>
-      </c>
-      <c r="B61" s="83" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="81" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B62" s="83" t="s">
         <v>79</v>
@@ -11972,7 +12472,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="81" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B63" s="83" t="s">
         <v>79</v>
@@ -11980,10 +12480,10 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="81" t="s">
+        <v>670</v>
+      </c>
+      <c r="B64" s="83" t="s">
         <v>671</v>
-      </c>
-      <c r="B64" s="83" t="s">
-        <v>672</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/ExcelTestData/Newtestdata.xlsx
+++ b/testdata/ExcelTestData/Newtestdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Shakuntala\Periscope\pandc\testdata\ExcelTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF91FA3-E950-454E-A4BC-3C63F0D83C68}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60FBDB7-2A1D-4C12-AC06-A3BCB6CE5D8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="900" firstSheet="19" activeTab="25" xr2:uid="{D923499C-DDE5-4EE4-B604-8A52F010599A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="900" firstSheet="5" activeTab="8" xr2:uid="{D923499C-DDE5-4EE4-B604-8A52F010599A}"/>
   </bookViews>
   <sheets>
     <sheet name="CoverPage" sheetId="20" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="786">
   <si>
     <t>Column Name</t>
   </si>
@@ -2458,6 +2458,15 @@
   <si>
     <t>Us Workers</t>
   </si>
+  <si>
+    <t>Product Revenues</t>
+  </si>
+  <si>
+    <t>Sales/Service Revenues</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
 </sst>
 </file>
 
@@ -2467,7 +2476,7 @@
     <numFmt numFmtId="164" formatCode="mm\/dd\/yyyy"/>
     <numFmt numFmtId="165" formatCode="dd\/mm\/yyyy"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2606,6 +2615,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF172B4D"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -2764,7 +2779,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3117,6 +3132,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3128,12 +3151,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3521,8 +3538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7386B1F8-159A-49CF-ACED-F12B36D938AD}">
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5282,10 +5299,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="176" t="s">
+      <c r="A6" s="180" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="176"/>
+      <c r="B6" s="180"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -5449,10 +5466,10 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="176" t="s">
+      <c r="A26" s="180" t="s">
         <v>125</v>
       </c>
-      <c r="B26" s="176"/>
+      <c r="B26" s="180"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -5782,8 +5799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80E40C2-8F61-422B-8B66-5E35CD325EB0}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6324,8 +6341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6855AF93-82AA-4D05-A803-46C5BBC6D83F}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6677,7 +6694,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6866,8 +6883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AE8549-2611-4C3D-8F42-2BE39C7FE28A}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7682,7 +7699,7 @@
       <c r="D13" s="165"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="179" t="s">
+      <c r="A14" s="183" t="s">
         <v>389</v>
       </c>
       <c r="B14" s="29">
@@ -7694,7 +7711,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="179"/>
+      <c r="A15" s="183"/>
       <c r="B15" s="29">
         <v>15</v>
       </c>
@@ -8411,16 +8428,16 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079DEC00-3AA1-408E-BD73-5592DDC980E2}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -8457,61 +8474,149 @@
     </row>
     <row r="5" spans="1:4" s="169" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="182" t="s">
+      <c r="A6" s="184" t="s">
         <v>782</v>
       </c>
-      <c r="B6" s="182"/>
+      <c r="B6" s="184"/>
     </row>
     <row r="7" spans="1:4" ht="99" x14ac:dyDescent="0.25">
-      <c r="A7" s="180" t="s">
+      <c r="A7" s="176" t="s">
         <v>778</v>
       </c>
-      <c r="B7" s="181">
+      <c r="B7" s="177">
         <v>10</v>
       </c>
-      <c r="C7" s="180"/>
-      <c r="D7" s="180"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
     </row>
     <row r="8" spans="1:4" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="180" t="s">
+      <c r="A8" s="176" t="s">
         <v>779</v>
       </c>
-      <c r="B8" s="181">
+      <c r="B8" s="177">
         <v>10</v>
       </c>
-      <c r="C8" s="180"/>
-      <c r="D8" s="180"/>
+      <c r="C8" s="176"/>
+      <c r="D8" s="176"/>
     </row>
     <row r="9" spans="1:4" ht="99" x14ac:dyDescent="0.25">
-      <c r="A9" s="180" t="s">
+      <c r="A9" s="176" t="s">
         <v>780</v>
       </c>
-      <c r="B9" s="181">
+      <c r="B9" s="177">
         <v>10</v>
       </c>
-      <c r="C9" s="181">
+      <c r="C9" s="177">
         <v>1000</v>
       </c>
-      <c r="D9" s="180"/>
+      <c r="D9" s="176"/>
     </row>
     <row r="10" spans="1:4" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="180" t="s">
+      <c r="A10" s="176" t="s">
         <v>781</v>
       </c>
-      <c r="B10" s="181">
+      <c r="B10" s="177">
         <v>10</v>
       </c>
-      <c r="C10" s="181">
+      <c r="C10" s="177">
         <v>1000</v>
       </c>
-      <c r="D10" s="180"/>
+      <c r="D10" s="176"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="146" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="162" t="s">
+        <v>479</v>
+      </c>
+      <c r="B12" s="178">
+        <v>12.233000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="162" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="179">
+        <v>123456789123654</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="162" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="179">
+        <v>123456789123654</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="162" t="s">
+        <v>595</v>
+      </c>
+      <c r="B15" s="179">
+        <v>123456789123654</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="162" t="s">
+        <v>596</v>
+      </c>
+      <c r="B16" s="179">
+        <v>123456789123654</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="162" t="s">
+        <v>597</v>
+      </c>
+      <c r="B17" s="179">
+        <v>123456789123654</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="162" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="179">
+        <v>123456789123654</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="176" t="s">
+        <v>783</v>
+      </c>
+      <c r="B19" s="179">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="176" t="s">
+        <v>784</v>
+      </c>
+      <c r="B20" s="179">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="176" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="176" t="s">
+        <v>785</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8519,8 +8624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{327F0A58-02FC-4F22-8797-343AD32130AA}">
   <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10474,14 +10579,14 @@
       <c r="L1" s="131"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>500</v>
       </c>
-      <c r="B2" s="176"/>
-      <c r="J2" s="177" t="s">
+      <c r="B2" s="180"/>
+      <c r="J2" s="181" t="s">
         <v>500</v>
       </c>
-      <c r="K2" s="177"/>
+      <c r="K2" s="181"/>
       <c r="L2" s="131"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -10511,14 +10616,14 @@
       <c r="L4" s="131"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="176" t="s">
+      <c r="A5" s="180" t="s">
         <v>503</v>
       </c>
-      <c r="B5" s="176"/>
-      <c r="J5" s="177" t="s">
+      <c r="B5" s="180"/>
+      <c r="J5" s="181" t="s">
         <v>503</v>
       </c>
-      <c r="K5" s="177"/>
+      <c r="K5" s="181"/>
       <c r="L5" s="131"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -10555,14 +10660,14 @@
       <c r="L8" s="131"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="176" t="s">
+      <c r="A9" s="180" t="s">
         <v>508</v>
       </c>
-      <c r="B9" s="176"/>
-      <c r="J9" s="178" t="s">
+      <c r="B9" s="180"/>
+      <c r="J9" s="182" t="s">
         <v>508</v>
       </c>
-      <c r="K9" s="178"/>
+      <c r="K9" s="182"/>
       <c r="L9" s="131"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -11809,8 +11914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93FDE03-E8E3-44A0-BF55-9C72F1DA2A4D}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11931,7 +12036,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="166" t="s">
         <v>598</v>
       </c>
       <c r="B11" s="84">
@@ -11967,7 +12072,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="166" t="s">
         <v>601</v>
       </c>
       <c r="B14" s="84">
@@ -12015,7 +12120,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="81" t="s">
+      <c r="A18" s="166" t="s">
         <v>605</v>
       </c>
       <c r="B18" s="84">
@@ -12073,7 +12178,7 @@
       <c r="D22" s="143"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="81" t="s">
+      <c r="A23" s="166" t="s">
         <v>609</v>
       </c>
       <c r="B23" s="84">

--- a/testdata/ExcelTestData/Newtestdata.xlsx
+++ b/testdata/ExcelTestData/Newtestdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20337"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Shakuntala\Periscope\pandc\testdata\ExcelTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60FBDB7-2A1D-4C12-AC06-A3BCB6CE5D8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6F3B3F-DBBA-4D5B-B7FD-9AC28D25647C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="900" firstSheet="5" activeTab="8" xr2:uid="{D923499C-DDE5-4EE4-B604-8A52F010599A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="900" firstSheet="19" activeTab="25" xr2:uid="{D923499C-DDE5-4EE4-B604-8A52F010599A}"/>
   </bookViews>
   <sheets>
     <sheet name="CoverPage" sheetId="20" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1910" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="792">
   <si>
     <t>Column Name</t>
   </si>
@@ -2466,6 +2466,24 @@
   </si>
   <si>
     <t>India</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Location1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Number of Foreign hires working or training in U.S. for more than a brief visit (Reverse Trip Travel):</t>
+  </si>
+  <si>
+    <t>Breakbulk/Bulk</t>
+  </si>
+  <si>
+    <t># of Days Coverage for Ordinary Payroll Desired (0 - 365 days)</t>
   </si>
 </sst>
 </file>
@@ -2964,9 +2982,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3140,6 +3155,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3538,8 +3556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7386B1F8-159A-49CF-ACED-F12B36D938AD}">
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3559,27 +3577,27 @@
       <c r="B1" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="146" t="s">
+      <c r="F1" s="145" t="s">
         <v>708</v>
       </c>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="144"/>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
     </row>
     <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="144"/>
-      <c r="J2" s="144"/>
-      <c r="K2" s="144"/>
-      <c r="L2" s="144"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -3594,23 +3612,23 @@
       <c r="D3">
         <v>10000</v>
       </c>
-      <c r="F3" s="145" t="s">
-        <v>706</v>
-      </c>
-      <c r="G3" s="145" t="s">
-        <v>706</v>
-      </c>
-      <c r="H3" s="145" t="s">
-        <v>706</v>
-      </c>
-      <c r="I3" s="144"/>
-      <c r="J3" s="147">
+      <c r="F3" s="144" t="s">
+        <v>706</v>
+      </c>
+      <c r="G3" s="144" t="s">
+        <v>706</v>
+      </c>
+      <c r="H3" s="144" t="s">
+        <v>706</v>
+      </c>
+      <c r="I3" s="143"/>
+      <c r="J3" s="146">
         <v>12345678912365</v>
       </c>
-      <c r="K3" s="148" t="s">
+      <c r="K3" s="147" t="s">
         <v>730</v>
       </c>
-      <c r="L3" s="148" t="s">
+      <c r="L3" s="147" t="s">
         <v>730</v>
       </c>
     </row>
@@ -3627,23 +3645,23 @@
       <c r="D4">
         <v>10000000</v>
       </c>
-      <c r="F4" s="145" t="s">
-        <v>706</v>
-      </c>
-      <c r="G4" s="145" t="s">
-        <v>706</v>
-      </c>
-      <c r="H4" s="145" t="s">
-        <v>706</v>
-      </c>
-      <c r="I4" s="144"/>
-      <c r="J4" s="147">
+      <c r="F4" s="144" t="s">
+        <v>706</v>
+      </c>
+      <c r="G4" s="144" t="s">
+        <v>706</v>
+      </c>
+      <c r="H4" s="144" t="s">
+        <v>706</v>
+      </c>
+      <c r="I4" s="143"/>
+      <c r="J4" s="146">
         <v>12345678912365</v>
       </c>
-      <c r="K4" s="148" t="s">
+      <c r="K4" s="147" t="s">
         <v>730</v>
       </c>
-      <c r="L4" s="148" t="s">
+      <c r="L4" s="147" t="s">
         <v>730</v>
       </c>
     </row>
@@ -3657,23 +3675,23 @@
       <c r="C5" s="14">
         <v>18000000</v>
       </c>
-      <c r="F5" s="145" t="s">
-        <v>706</v>
-      </c>
-      <c r="G5" s="145" t="s">
-        <v>706</v>
-      </c>
-      <c r="H5" s="145" t="s">
-        <v>706</v>
-      </c>
-      <c r="I5" s="144"/>
-      <c r="J5" s="147">
+      <c r="F5" s="144" t="s">
+        <v>706</v>
+      </c>
+      <c r="G5" s="144" t="s">
+        <v>706</v>
+      </c>
+      <c r="H5" s="144" t="s">
+        <v>706</v>
+      </c>
+      <c r="I5" s="143"/>
+      <c r="J5" s="146">
         <v>12345678912365</v>
       </c>
-      <c r="K5" s="148" t="s">
+      <c r="K5" s="147" t="s">
         <v>730</v>
       </c>
-      <c r="L5" s="148" t="s">
+      <c r="L5" s="147" t="s">
         <v>730</v>
       </c>
     </row>
@@ -3681,25 +3699,25 @@
       <c r="A6" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="144"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="I7" s="144"/>
-      <c r="J7" s="144"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="144"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -3708,13 +3726,13 @@
       <c r="B8" s="7">
         <v>20000</v>
       </c>
-      <c r="F8" s="144"/>
-      <c r="G8" s="144"/>
-      <c r="H8" s="144"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="144"/>
-      <c r="K8" s="144"/>
-      <c r="L8" s="144"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="143"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="143"/>
+      <c r="J8" s="143"/>
+      <c r="K8" s="143"/>
+      <c r="L8" s="143"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -3723,25 +3741,25 @@
       <c r="B9" s="7">
         <v>19500</v>
       </c>
-      <c r="F9" s="144"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="144"/>
-      <c r="I9" s="144"/>
-      <c r="J9" s="144"/>
-      <c r="K9" s="144"/>
-      <c r="L9" s="144"/>
+      <c r="F9" s="143"/>
+      <c r="G9" s="143"/>
+      <c r="H9" s="143"/>
+      <c r="I9" s="143"/>
+      <c r="J9" s="143"/>
+      <c r="K9" s="143"/>
+      <c r="L9" s="143"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="144"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="144"/>
-      <c r="I10" s="144"/>
-      <c r="J10" s="144"/>
-      <c r="K10" s="144"/>
-      <c r="L10" s="144"/>
+      <c r="F10" s="143"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="143"/>
+      <c r="K10" s="143"/>
+      <c r="L10" s="143"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -3750,13 +3768,13 @@
       <c r="B11" s="7">
         <v>18500</v>
       </c>
-      <c r="F11" s="144"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="144"/>
-      <c r="I11" s="144"/>
-      <c r="J11" s="144"/>
-      <c r="K11" s="144"/>
-      <c r="L11" s="144"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="143"/>
+      <c r="K11" s="143"/>
+      <c r="L11" s="143"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -3765,13 +3783,13 @@
       <c r="B12" s="7">
         <v>18000</v>
       </c>
-      <c r="F12" s="144"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="144"/>
-      <c r="I12" s="144"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="144"/>
-      <c r="L12" s="144"/>
+      <c r="F12" s="143"/>
+      <c r="G12" s="143"/>
+      <c r="H12" s="143"/>
+      <c r="I12" s="143"/>
+      <c r="J12" s="143"/>
+      <c r="K12" s="143"/>
+      <c r="L12" s="143"/>
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -3780,13 +3798,13 @@
       <c r="B13" s="7">
         <v>17500</v>
       </c>
-      <c r="F13" s="144"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="144"/>
-      <c r="J13" s="144"/>
-      <c r="K13" s="144"/>
-      <c r="L13" s="144"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="143"/>
+      <c r="K13" s="143"/>
+      <c r="L13" s="143"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
@@ -3795,13 +3813,13 @@
       <c r="B14" s="7">
         <v>17000</v>
       </c>
-      <c r="F14" s="144"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="144"/>
-      <c r="I14" s="144"/>
-      <c r="J14" s="144"/>
-      <c r="K14" s="144"/>
-      <c r="L14" s="144"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="143"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="143"/>
+      <c r="K14" s="143"/>
+      <c r="L14" s="143"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -3810,13 +3828,13 @@
       <c r="B15" s="7">
         <v>16500</v>
       </c>
-      <c r="F15" s="144"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144"/>
-      <c r="J15" s="144"/>
-      <c r="K15" s="144"/>
-      <c r="L15" s="144"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="143"/>
     </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
@@ -3825,13 +3843,13 @@
       <c r="B16" s="7">
         <v>16000</v>
       </c>
-      <c r="F16" s="144"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="144"/>
-      <c r="I16" s="144"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="144"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="143"/>
+      <c r="K16" s="143"/>
+      <c r="L16" s="143"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -4357,7 +4375,7 @@
       <c r="B1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="156" t="s">
+      <c r="D1" s="155" t="s">
         <v>708</v>
       </c>
     </row>
@@ -4368,7 +4386,7 @@
       <c r="B2" t="s">
         <v>627</v>
       </c>
-      <c r="D2" s="157" t="s">
+      <c r="D2" s="156" t="s">
         <v>724</v>
       </c>
     </row>
@@ -4379,95 +4397,95 @@
       <c r="B3">
         <v>120000</v>
       </c>
-      <c r="D3" s="155" t="s">
+      <c r="D3" s="154" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="169" t="s">
+      <c r="A4" s="168" t="s">
         <v>89</v>
       </c>
       <c r="B4">
         <v>1000</v>
       </c>
-      <c r="D4" s="166" t="s">
+      <c r="D4" s="165" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="168" t="s">
         <v>748</v>
       </c>
       <c r="B5">
         <v>1000</v>
       </c>
-      <c r="D5" s="166" t="s">
+      <c r="D5" s="165" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="169" t="s">
+      <c r="A6" s="168" t="s">
         <v>531</v>
       </c>
       <c r="B6">
         <v>1000</v>
       </c>
-      <c r="D6" s="166" t="s">
+      <c r="D6" s="165" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="169" t="s">
+      <c r="A7" s="168" t="s">
         <v>749</v>
       </c>
       <c r="B7">
         <v>100</v>
       </c>
-      <c r="D7" s="166" t="s">
+      <c r="D7" s="165" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="169" t="s">
+      <c r="A8" s="168" t="s">
         <v>750</v>
       </c>
       <c r="B8">
         <v>90</v>
       </c>
-      <c r="D8" s="166" t="s">
+      <c r="D8" s="165" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="169" t="s">
+      <c r="A9" s="168" t="s">
         <v>751</v>
       </c>
       <c r="B9">
         <v>80</v>
       </c>
-      <c r="D9" s="166" t="s">
+      <c r="D9" s="165" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="169" t="s">
+      <c r="A10" s="168" t="s">
         <v>752</v>
       </c>
       <c r="B10">
         <v>2000</v>
       </c>
-      <c r="D10" s="166" t="s">
+      <c r="D10" s="165" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="106" t="s">
+      <c r="A11" s="105" t="s">
         <v>753</v>
       </c>
       <c r="B11">
         <v>30</v>
       </c>
-      <c r="D11" s="166" t="s">
+      <c r="D11" s="165" t="s">
         <v>712</v>
       </c>
     </row>
@@ -4493,14 +4511,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="173" t="s">
         <v>754</v>
       </c>
-      <c r="C1" s="169"/>
-      <c r="D1" s="175" t="s">
+      <c r="C1" s="168"/>
+      <c r="D1" s="174" t="s">
         <v>708</v>
       </c>
     </row>
@@ -4508,10 +4526,10 @@
       <c r="A2" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="168" t="s">
         <v>758</v>
       </c>
-      <c r="D2" s="162" t="s">
+      <c r="D2" s="161" t="s">
         <v>755</v>
       </c>
     </row>
@@ -4519,10 +4537,10 @@
       <c r="A3" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="169" t="s">
+      <c r="B3" s="168" t="s">
         <v>759</v>
       </c>
-      <c r="D3" s="162" t="s">
+      <c r="D3" s="161" t="s">
         <v>755</v>
       </c>
     </row>
@@ -4530,10 +4548,10 @@
       <c r="A4" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="169" t="s">
+      <c r="B4" s="168" t="s">
         <v>760</v>
       </c>
-      <c r="D4" s="162" t="s">
+      <c r="D4" s="161" t="s">
         <v>755</v>
       </c>
     </row>
@@ -4541,7 +4559,7 @@
       <c r="A5" t="s">
         <v>442</v>
       </c>
-      <c r="B5" s="169" t="s">
+      <c r="B5" s="168" t="s">
         <v>69</v>
       </c>
       <c r="D5" t="s">
@@ -4549,21 +4567,21 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="169" t="s">
+      <c r="A6" s="168" t="s">
         <v>589</v>
       </c>
-      <c r="B6" s="169">
+      <c r="B6" s="168">
         <v>123456789</v>
       </c>
-      <c r="D6" s="169" t="s">
+      <c r="D6" s="168" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="162" t="s">
+      <c r="A7" s="161" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="169">
+      <c r="B7" s="168">
         <v>12</v>
       </c>
       <c r="D7" t="s">
@@ -4571,7 +4589,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="169" t="s">
+      <c r="A8" s="168" t="s">
         <v>108</v>
       </c>
       <c r="B8">
@@ -4582,7 +4600,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="169" t="s">
+      <c r="A9" s="168" t="s">
         <v>109</v>
       </c>
       <c r="B9">
@@ -4593,7 +4611,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="169" t="s">
+      <c r="A10" s="168" t="s">
         <v>112</v>
       </c>
       <c r="B10">
@@ -4732,11 +4750,11 @@
       <c r="A1" s="43" t="s">
         <v>490</v>
       </c>
-      <c r="F1" s="153" t="s">
+      <c r="F1" s="152" t="s">
         <v>731</v>
       </c>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
     </row>
     <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -4745,11 +4763,11 @@
       <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="154" t="s">
+      <c r="F2" s="153" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="44" t="s">
@@ -4761,13 +4779,13 @@
       <c r="D3" s="44" t="s">
         <v>499</v>
       </c>
-      <c r="F3" s="151" t="s">
+      <c r="F3" s="150" t="s">
         <v>732</v>
       </c>
-      <c r="G3" s="151" t="s">
+      <c r="G3" s="150" t="s">
         <v>733</v>
       </c>
-      <c r="H3" s="151" t="s">
+      <c r="H3" s="150" t="s">
         <v>734</v>
       </c>
     </row>
@@ -4784,13 +4802,13 @@
       <c r="E4">
         <v>0.95</v>
       </c>
-      <c r="F4" s="150" t="s">
-        <v>706</v>
-      </c>
-      <c r="G4" s="149" t="s">
-        <v>706</v>
-      </c>
-      <c r="H4" s="149"/>
+      <c r="F4" s="149" t="s">
+        <v>706</v>
+      </c>
+      <c r="G4" s="148" t="s">
+        <v>706</v>
+      </c>
+      <c r="H4" s="148"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
@@ -4805,13 +4823,13 @@
       <c r="E5">
         <v>0.95</v>
       </c>
-      <c r="F5" s="149" t="s">
-        <v>706</v>
-      </c>
-      <c r="G5" s="149" t="s">
-        <v>706</v>
-      </c>
-      <c r="H5" s="152"/>
+      <c r="F5" s="148" t="s">
+        <v>706</v>
+      </c>
+      <c r="G5" s="148" t="s">
+        <v>706</v>
+      </c>
+      <c r="H5" s="151"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="59" t="s">
@@ -4826,13 +4844,13 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" s="149" t="s">
-        <v>706</v>
-      </c>
-      <c r="G6" s="149" t="s">
-        <v>706</v>
-      </c>
-      <c r="H6" s="149"/>
+      <c r="F6" s="148" t="s">
+        <v>706</v>
+      </c>
+      <c r="G6" s="148" t="s">
+        <v>706</v>
+      </c>
+      <c r="H6" s="148"/>
     </row>
     <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="59" t="s">
@@ -4841,9 +4859,9 @@
       <c r="D7" s="40">
         <v>1000</v>
       </c>
-      <c r="F7" s="149"/>
-      <c r="G7" s="149"/>
-      <c r="H7" s="149" t="s">
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148" t="s">
         <v>706</v>
       </c>
     </row>
@@ -4854,9 +4872,9 @@
       <c r="D8">
         <v>365</v>
       </c>
-      <c r="F8" s="149"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="149" t="s">
+      <c r="F8" s="148"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="148" t="s">
         <v>706</v>
       </c>
     </row>
@@ -4867,9 +4885,9 @@
       <c r="D9">
         <v>12</v>
       </c>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149" t="s">
+      <c r="F9" s="148"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148" t="s">
         <v>706</v>
       </c>
     </row>
@@ -4883,8 +4901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6224BEA-6CB2-4130-9C1A-A927A46E2FD1}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4980,7 +4998,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="179" t="s">
         <v>491</v>
       </c>
       <c r="B10" s="57">
@@ -5002,7 +5020,7 @@
       <c r="F11" s="57"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="179" t="s">
         <v>691</v>
       </c>
       <c r="B12" s="57">
@@ -5024,7 +5042,7 @@
       <c r="F13" s="57"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="179" t="s">
         <v>693</v>
       </c>
       <c r="B14">
@@ -5046,7 +5064,7 @@
       <c r="F15" s="57"/>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="179" t="s">
         <v>695</v>
       </c>
       <c r="B16">
@@ -5057,7 +5075,7 @@
       <c r="F16" s="57"/>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="179" t="s">
         <v>696</v>
       </c>
       <c r="B17">
@@ -5068,7 +5086,7 @@
       <c r="F17" s="57"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="179" t="s">
         <v>697</v>
       </c>
       <c r="B18">
@@ -5119,123 +5137,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="169" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="171" t="s">
+      <c r="B1" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="171" t="s">
+      <c r="D1" s="170" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="168" t="s">
         <v>738</v>
       </c>
-      <c r="B2" s="169" t="s">
+      <c r="B2" s="168" t="s">
         <v>739</v>
       </c>
-      <c r="D2" s="166" t="s">
+      <c r="D2" s="165" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="168" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="169">
+      <c r="B3" s="168">
         <v>1500</v>
       </c>
-      <c r="D3" s="166" t="s">
+      <c r="D3" s="165" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="169" t="s">
+      <c r="A4" s="168" t="s">
         <v>740</v>
       </c>
-      <c r="B4" s="169">
+      <c r="B4" s="168">
         <v>2500</v>
       </c>
-      <c r="D4" s="166" t="s">
+      <c r="D4" s="165" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="168" t="s">
         <v>741</v>
       </c>
-      <c r="B5" s="169">
+      <c r="B5" s="168">
         <v>1500</v>
       </c>
-      <c r="D5" s="166" t="s">
+      <c r="D5" s="165" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="169" t="s">
+      <c r="A6" s="168" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="169">
+      <c r="B6" s="168">
         <v>6</v>
       </c>
-      <c r="D6" s="166" t="s">
+      <c r="D6" s="165" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="169" t="s">
+      <c r="A7" s="168" t="s">
         <v>742</v>
       </c>
-      <c r="B7" s="169">
+      <c r="B7" s="168">
         <v>10000</v>
       </c>
-      <c r="D7" s="166" t="s">
+      <c r="D7" s="165" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="169" t="s">
+      <c r="A8" s="168" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="169" t="s">
+      <c r="B8" s="168" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="166" t="s">
+      <c r="D8" s="165" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="169" t="s">
+      <c r="A9" s="168" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="169" t="s">
+      <c r="B9" s="168" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="166" t="s">
+      <c r="D9" s="165" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="169" t="s">
+      <c r="A10" s="168" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="169">
+      <c r="B10" s="168">
         <v>10000</v>
       </c>
-      <c r="D10" s="166" t="s">
+      <c r="D10" s="165" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="169" t="s">
+      <c r="A11" s="168" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="169">
+      <c r="B11" s="168">
         <v>10000</v>
       </c>
-      <c r="D11" s="166" t="s">
+      <c r="D11" s="165" t="s">
         <v>706</v>
       </c>
     </row>
@@ -5799,8 +5817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80E40C2-8F61-422B-8B66-5E35CD325EB0}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6170,10 +6188,10 @@
         <v>12000</v>
       </c>
       <c r="D26" s="14"/>
-      <c r="E26" s="166" t="s">
-        <v>706</v>
-      </c>
-      <c r="F26" s="166" t="s">
+      <c r="E26" s="165" t="s">
+        <v>706</v>
+      </c>
+      <c r="F26" s="165" t="s">
         <v>706</v>
       </c>
     </row>
@@ -6188,10 +6206,10 @@
         <v>70</v>
       </c>
       <c r="D27" s="14"/>
-      <c r="E27" s="166" t="s">
-        <v>706</v>
-      </c>
-      <c r="F27" s="166" t="s">
+      <c r="E27" s="165" t="s">
+        <v>706</v>
+      </c>
+      <c r="F27" s="165" t="s">
         <v>706</v>
       </c>
     </row>
@@ -6206,10 +6224,10 @@
         <v>70</v>
       </c>
       <c r="D28" s="14"/>
-      <c r="E28" s="166" t="s">
-        <v>706</v>
-      </c>
-      <c r="F28" s="166" t="s">
+      <c r="E28" s="165" t="s">
+        <v>706</v>
+      </c>
+      <c r="F28" s="165" t="s">
         <v>706</v>
       </c>
     </row>
@@ -6224,10 +6242,10 @@
         <v>70</v>
       </c>
       <c r="D29" s="14"/>
-      <c r="E29" s="166" t="s">
-        <v>706</v>
-      </c>
-      <c r="F29" s="166" t="s">
+      <c r="E29" s="165" t="s">
+        <v>706</v>
+      </c>
+      <c r="F29" s="165" t="s">
         <v>706</v>
       </c>
     </row>
@@ -6362,7 +6380,7 @@
       </c>
       <c r="C1" s="42"/>
       <c r="D1" s="42"/>
-      <c r="F1" s="160" t="s">
+      <c r="F1" s="159" t="s">
         <v>708</v>
       </c>
     </row>
@@ -6375,7 +6393,7 @@
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
-      <c r="F2" s="158"/>
+      <c r="F2" s="157"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
@@ -6386,7 +6404,7 @@
       </c>
       <c r="C3" s="40"/>
       <c r="D3" s="40"/>
-      <c r="F3" s="158"/>
+      <c r="F3" s="157"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
@@ -6397,7 +6415,7 @@
       </c>
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
-      <c r="F4" s="158"/>
+      <c r="F4" s="157"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
@@ -6412,7 +6430,7 @@
       <c r="D5" s="40" t="s">
         <v>441</v>
       </c>
-      <c r="F5" s="158" t="s">
+      <c r="F5" s="157" t="s">
         <v>735</v>
       </c>
     </row>
@@ -6427,7 +6445,7 @@
         <v>443</v>
       </c>
       <c r="D6" s="40"/>
-      <c r="F6" s="158" t="s">
+      <c r="F6" s="157" t="s">
         <v>720</v>
       </c>
     </row>
@@ -6438,7 +6456,7 @@
       <c r="B7" s="57" t="s">
         <v>687</v>
       </c>
-      <c r="F7" s="158">
+      <c r="F7" s="157">
         <v>12345678912</v>
       </c>
     </row>
@@ -6449,7 +6467,7 @@
       <c r="B8" s="40" t="s">
         <v>688</v>
       </c>
-      <c r="F8" s="158"/>
+      <c r="F8" s="157"/>
     </row>
     <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
@@ -6458,7 +6476,7 @@
       <c r="B9" s="60">
         <v>50000</v>
       </c>
-      <c r="F9" s="159" t="s">
+      <c r="F9" s="158" t="s">
         <v>706</v>
       </c>
     </row>
@@ -6469,13 +6487,13 @@
       <c r="B10" t="s">
         <v>128</v>
       </c>
-      <c r="F10" s="158"/>
+      <c r="F10" s="157"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="F11" s="158"/>
+      <c r="F11" s="157"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
@@ -6484,7 +6502,7 @@
       <c r="B12">
         <v>100</v>
       </c>
-      <c r="F12" s="159" t="s">
+      <c r="F12" s="158" t="s">
         <v>706</v>
       </c>
     </row>
@@ -6495,7 +6513,7 @@
       <c r="B13" s="60">
         <v>50000</v>
       </c>
-      <c r="F13" s="159" t="s">
+      <c r="F13" s="158" t="s">
         <v>706</v>
       </c>
     </row>
@@ -6503,7 +6521,7 @@
       <c r="A14" s="15" t="s">
         <v>449</v>
       </c>
-      <c r="F14" s="158"/>
+      <c r="F14" s="157"/>
     </row>
     <row r="15" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
@@ -6512,7 +6530,7 @@
       <c r="B15" s="22">
         <v>200</v>
       </c>
-      <c r="F15" s="159" t="s">
+      <c r="F15" s="158" t="s">
         <v>706</v>
       </c>
     </row>
@@ -6523,7 +6541,7 @@
       <c r="B16" s="60">
         <v>100000</v>
       </c>
-      <c r="F16" s="159" t="s">
+      <c r="F16" s="158" t="s">
         <v>706</v>
       </c>
     </row>
@@ -6531,7 +6549,7 @@
       <c r="A17" s="15" t="s">
         <v>450</v>
       </c>
-      <c r="F17" s="158"/>
+      <c r="F17" s="157"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="s">
@@ -6540,7 +6558,7 @@
       <c r="B18">
         <v>100</v>
       </c>
-      <c r="F18" s="159" t="s">
+      <c r="F18" s="158" t="s">
         <v>706</v>
       </c>
     </row>
@@ -6551,7 +6569,7 @@
       <c r="B19" s="60">
         <v>50000</v>
       </c>
-      <c r="F19" s="159" t="s">
+      <c r="F19" s="158" t="s">
         <v>706</v>
       </c>
     </row>
@@ -6584,7 +6602,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="22"/>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="107" t="s">
         <v>708</v>
       </c>
       <c r="E1" s="22"/>
@@ -6597,7 +6615,7 @@
         <v>356</v>
       </c>
       <c r="C2" s="25"/>
-      <c r="D2" s="109" t="s">
+      <c r="D2" s="108" t="s">
         <v>357</v>
       </c>
       <c r="E2" s="22"/>
@@ -6610,7 +6628,7 @@
         <v>359</v>
       </c>
       <c r="C3" s="24"/>
-      <c r="D3" s="106" t="s">
+      <c r="D3" s="105" t="s">
         <v>360</v>
       </c>
       <c r="E3" s="22"/>
@@ -6623,7 +6641,7 @@
         <v>123456789</v>
       </c>
       <c r="C4" s="23"/>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="104" t="s">
         <v>423</v>
       </c>
       <c r="E4" s="22"/>
@@ -6636,7 +6654,7 @@
         <v>366</v>
       </c>
       <c r="C5" s="24"/>
-      <c r="D5" s="106" t="s">
+      <c r="D5" s="105" t="s">
         <v>421</v>
       </c>
       <c r="E5" s="22"/>
@@ -6649,7 +6667,7 @@
         <v>43989</v>
       </c>
       <c r="C6" s="22"/>
-      <c r="D6" s="104" t="s">
+      <c r="D6" s="103" t="s">
         <v>425</v>
       </c>
       <c r="E6" s="26"/>
@@ -6662,7 +6680,7 @@
         <v>424</v>
       </c>
       <c r="C7" s="22"/>
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="103" t="s">
         <v>424</v>
       </c>
       <c r="E7" s="22"/>
@@ -6675,7 +6693,7 @@
         <v>367</v>
       </c>
       <c r="C8" s="25"/>
-      <c r="D8" s="107" t="s">
+      <c r="D8" s="106" t="s">
         <v>422</v>
       </c>
       <c r="E8" s="22"/>
@@ -6694,7 +6712,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6712,7 +6730,7 @@
       <c r="B1" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="163" t="s">
+      <c r="E1" s="162" t="s">
         <v>708</v>
       </c>
     </row>
@@ -6720,7 +6738,7 @@
       <c r="A2" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="E2" s="161"/>
+      <c r="E2" s="160"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
@@ -6729,7 +6747,7 @@
       <c r="B3">
         <v>5</v>
       </c>
-      <c r="E3" s="164">
+      <c r="E3" s="163">
         <v>12345</v>
       </c>
     </row>
@@ -6740,7 +6758,7 @@
       <c r="B4">
         <v>5</v>
       </c>
-      <c r="E4" s="164" t="s">
+      <c r="E4" s="163" t="s">
         <v>712</v>
       </c>
     </row>
@@ -6751,7 +6769,7 @@
       <c r="B5" t="s">
         <v>376</v>
       </c>
-      <c r="E5" s="164"/>
+      <c r="E5" s="163"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -6760,13 +6778,13 @@
       <c r="B6" t="s">
         <v>375</v>
       </c>
-      <c r="E6" s="164"/>
+      <c r="E6" s="163"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="E7" s="161"/>
+      <c r="E7" s="160"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -6775,7 +6793,7 @@
       <c r="B8">
         <v>50</v>
       </c>
-      <c r="E8" s="164" t="s">
+      <c r="E8" s="163" t="s">
         <v>712</v>
       </c>
     </row>
@@ -6786,7 +6804,7 @@
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="E9" s="164">
+      <c r="E9" s="163">
         <v>12345</v>
       </c>
     </row>
@@ -6797,7 +6815,7 @@
       <c r="B10" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="E10" s="161"/>
+      <c r="E10" s="160"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -6806,21 +6824,21 @@
       <c r="B11" s="22" t="s">
         <v>377</v>
       </c>
-      <c r="E11" s="161"/>
+      <c r="E11" s="160"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>437</v>
       </c>
       <c r="B12" s="22"/>
-      <c r="E12" s="161"/>
+      <c r="E12" s="160"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="161"/>
+      <c r="E13" s="160"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
@@ -6829,7 +6847,7 @@
       <c r="B14" s="22">
         <v>60</v>
       </c>
-      <c r="E14" s="164" t="s">
+      <c r="E14" s="163" t="s">
         <v>712</v>
       </c>
     </row>
@@ -6840,7 +6858,7 @@
       <c r="B15" s="22">
         <v>5</v>
       </c>
-      <c r="E15" s="164">
+      <c r="E15" s="163">
         <v>12345</v>
       </c>
     </row>
@@ -6851,7 +6869,7 @@
       <c r="B16" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="E16" s="161"/>
+      <c r="E16" s="160"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -6860,19 +6878,19 @@
       <c r="B17" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="E17" s="161"/>
+      <c r="E17" s="160"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="162"/>
+      <c r="D20" s="161"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="162"/>
+      <c r="D21" s="161"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D23" s="162"/>
+      <c r="D23" s="161"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D24" s="162"/>
+      <c r="D24" s="161"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6902,7 +6920,7 @@
       <c r="B1" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="101" t="s">
+      <c r="D1" s="100" t="s">
         <v>708</v>
       </c>
     </row>
@@ -6913,7 +6931,7 @@
       <c r="B2" s="7">
         <v>9</v>
       </c>
-      <c r="D2" s="98"/>
+      <c r="D2" s="97"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -6922,7 +6940,7 @@
       <c r="B3" s="7">
         <v>8</v>
       </c>
-      <c r="D3" s="98"/>
+      <c r="D3" s="97"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
@@ -6931,7 +6949,7 @@
       <c r="B4" s="7">
         <v>7</v>
       </c>
-      <c r="D4" s="98"/>
+      <c r="D4" s="97"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -6941,7 +6959,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="14"/>
-      <c r="D5" s="98"/>
+      <c r="D5" s="97"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -6951,7 +6969,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="14"/>
-      <c r="D6" s="98"/>
+      <c r="D6" s="97"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -6961,7 +6979,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="14"/>
-      <c r="D7" s="98"/>
+      <c r="D7" s="97"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -6971,7 +6989,7 @@
         <v>89</v>
       </c>
       <c r="C8" s="14"/>
-      <c r="D8" s="100" t="s">
+      <c r="D8" s="99" t="s">
         <v>723</v>
       </c>
     </row>
@@ -6983,7 +7001,7 @@
         <v>280</v>
       </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="100" t="s">
+      <c r="D9" s="99" t="s">
         <v>710</v>
       </c>
     </row>
@@ -6995,7 +7013,7 @@
         <v>57</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="102">
+      <c r="D10" s="101">
         <v>2565896</v>
       </c>
     </row>
@@ -7007,7 +7025,7 @@
         <v>69</v>
       </c>
       <c r="C11" s="14"/>
-      <c r="D11" s="98" t="s">
+      <c r="D11" s="97" t="s">
         <v>720</v>
       </c>
     </row>
@@ -7019,7 +7037,7 @@
         <v>703</v>
       </c>
       <c r="C12" s="14"/>
-      <c r="D12" s="100">
+      <c r="D12" s="99">
         <v>87898314512</v>
       </c>
     </row>
@@ -7031,7 +7049,7 @@
         <v>98789</v>
       </c>
       <c r="C13" s="14"/>
-      <c r="D13" s="172" t="s">
+      <c r="D13" s="171" t="s">
         <v>745</v>
       </c>
     </row>
@@ -7043,7 +7061,7 @@
         <v>98987</v>
       </c>
       <c r="C14" s="14"/>
-      <c r="D14" s="166" t="s">
+      <c r="D14" s="165" t="s">
         <v>746</v>
       </c>
     </row>
@@ -7055,7 +7073,7 @@
         <v>877889</v>
       </c>
       <c r="C15" s="14"/>
-      <c r="D15" s="102" t="s">
+      <c r="D15" s="101" t="s">
         <v>724</v>
       </c>
     </row>
@@ -7064,7 +7082,7 @@
         <v>293</v>
       </c>
       <c r="C16" s="14"/>
-      <c r="D16" s="98"/>
+      <c r="D16" s="97"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -7074,7 +7092,7 @@
         <v>1000</v>
       </c>
       <c r="C17" s="14"/>
-      <c r="D17" s="102">
+      <c r="D17" s="101">
         <v>12345</v>
       </c>
     </row>
@@ -7086,7 +7104,7 @@
         <v>2000000</v>
       </c>
       <c r="C18" s="14"/>
-      <c r="D18" s="103">
+      <c r="D18" s="102">
         <v>1.22233344455566E+18</v>
       </c>
     </row>
@@ -7098,7 +7116,7 @@
         <v>4000000</v>
       </c>
       <c r="C19" s="14"/>
-      <c r="D19" s="99" t="s">
+      <c r="D19" s="98" t="s">
         <v>706</v>
       </c>
     </row>
@@ -7108,7 +7126,7 @@
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="14"/>
-      <c r="D20" s="98"/>
+      <c r="D20" s="97"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
@@ -7118,7 +7136,7 @@
         <v>1000</v>
       </c>
       <c r="C21" s="14"/>
-      <c r="D21" s="102">
+      <c r="D21" s="101">
         <v>12345</v>
       </c>
     </row>
@@ -7130,7 +7148,7 @@
         <v>1500000</v>
       </c>
       <c r="C22" s="14"/>
-      <c r="D22" s="103">
+      <c r="D22" s="102">
         <v>1.22233344455566E+18</v>
       </c>
     </row>
@@ -7142,7 +7160,7 @@
         <v>3000000</v>
       </c>
       <c r="C23" s="14"/>
-      <c r="D23" s="99" t="s">
+      <c r="D23" s="98" t="s">
         <v>706</v>
       </c>
     </row>
@@ -7152,7 +7170,7 @@
       </c>
       <c r="B24"/>
       <c r="C24" s="14"/>
-      <c r="D24" s="98"/>
+      <c r="D24" s="97"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
@@ -7162,7 +7180,7 @@
         <v>303</v>
       </c>
       <c r="C25" s="14"/>
-      <c r="D25" s="98"/>
+      <c r="D25" s="97"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
@@ -7172,7 +7190,7 @@
         <v>8789</v>
       </c>
       <c r="C26" s="14"/>
-      <c r="D26" s="102" t="s">
+      <c r="D26" s="101" t="s">
         <v>725</v>
       </c>
     </row>
@@ -7184,7 +7202,7 @@
         <v>8776</v>
       </c>
       <c r="C27" s="14"/>
-      <c r="D27" s="102" t="s">
+      <c r="D27" s="101" t="s">
         <v>726</v>
       </c>
     </row>
@@ -7196,7 +7214,7 @@
         <v>150000</v>
       </c>
       <c r="C28" s="14"/>
-      <c r="D28" s="102" t="s">
+      <c r="D28" s="101" t="s">
         <v>726</v>
       </c>
     </row>
@@ -7205,7 +7223,7 @@
         <v>131</v>
       </c>
       <c r="C29" s="14"/>
-      <c r="D29" s="98"/>
+      <c r="D29" s="97"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
@@ -7215,7 +7233,7 @@
         <v>304</v>
       </c>
       <c r="C30" s="14"/>
-      <c r="D30" s="98"/>
+      <c r="D30" s="97"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
@@ -7225,7 +7243,7 @@
         <v>8989</v>
       </c>
       <c r="C31" s="14"/>
-      <c r="D31" s="98"/>
+      <c r="D31" s="97"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
@@ -7235,7 +7253,7 @@
         <v>306</v>
       </c>
       <c r="C32" s="14"/>
-      <c r="D32" s="98"/>
+      <c r="D32" s="97"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
@@ -7569,7 +7587,7 @@
       <c r="B1" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="167" t="s">
+      <c r="D1" s="166" t="s">
         <v>708</v>
       </c>
     </row>
@@ -7580,7 +7598,7 @@
       <c r="B2" s="7">
         <v>9</v>
       </c>
-      <c r="D2" s="165" t="s">
+      <c r="D2" s="164" t="s">
         <v>712</v>
       </c>
     </row>
@@ -7591,7 +7609,7 @@
       <c r="B3" s="29" t="s">
         <v>408</v>
       </c>
-      <c r="D3" s="165"/>
+      <c r="D3" s="164"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
@@ -7600,7 +7618,7 @@
       <c r="B4" s="30">
         <v>35</v>
       </c>
-      <c r="D4" s="165" t="s">
+      <c r="D4" s="164" t="s">
         <v>712</v>
       </c>
     </row>
@@ -7612,7 +7630,7 @@
         <v>378</v>
       </c>
       <c r="C5" s="14"/>
-      <c r="D5" s="165"/>
+      <c r="D5" s="164"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
@@ -7622,7 +7640,7 @@
         <v>702</v>
       </c>
       <c r="C6" s="14"/>
-      <c r="D6" s="165"/>
+      <c r="D6" s="164"/>
     </row>
     <row r="7" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
@@ -7630,7 +7648,7 @@
       </c>
       <c r="B7" s="29"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="165"/>
+      <c r="D7" s="164"/>
     </row>
     <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
@@ -7640,7 +7658,7 @@
         <v>379</v>
       </c>
       <c r="C8" s="14"/>
-      <c r="D8" s="168" t="s">
+      <c r="D8" s="167" t="s">
         <v>724</v>
       </c>
     </row>
@@ -7652,7 +7670,7 @@
         <v>382</v>
       </c>
       <c r="C9" s="14"/>
-      <c r="D9" s="168" t="s">
+      <c r="D9" s="167" t="s">
         <v>724</v>
       </c>
     </row>
@@ -7664,7 +7682,7 @@
         <v>384</v>
       </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="168" t="s">
+      <c r="D10" s="167" t="s">
         <v>724</v>
       </c>
     </row>
@@ -7676,7 +7694,7 @@
         <v>386</v>
       </c>
       <c r="C11" s="14"/>
-      <c r="D11" s="168" t="s">
+      <c r="D11" s="167" t="s">
         <v>724</v>
       </c>
     </row>
@@ -7688,7 +7706,7 @@
         <v>388</v>
       </c>
       <c r="C12" s="14"/>
-      <c r="D12" s="168" t="s">
+      <c r="D12" s="167" t="s">
         <v>724</v>
       </c>
     </row>
@@ -7696,7 +7714,7 @@
       <c r="A13" s="33"/>
       <c r="B13" s="29"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="165"/>
+      <c r="D13" s="164"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="183" t="s">
@@ -7706,7 +7724,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="14"/>
-      <c r="D14" s="166" t="s">
+      <c r="D14" s="165" t="s">
         <v>706</v>
       </c>
     </row>
@@ -7716,7 +7734,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="14"/>
-      <c r="D15" s="166" t="s">
+      <c r="D15" s="165" t="s">
         <v>706</v>
       </c>
     </row>
@@ -7728,7 +7746,7 @@
         <v>391</v>
       </c>
       <c r="C16" s="14"/>
-      <c r="D16" s="168" t="s">
+      <c r="D16" s="167" t="s">
         <v>724</v>
       </c>
     </row>
@@ -7740,7 +7758,7 @@
         <v>393</v>
       </c>
       <c r="C17" s="14"/>
-      <c r="D17" s="168" t="s">
+      <c r="D17" s="167" t="s">
         <v>736</v>
       </c>
     </row>
@@ -7752,7 +7770,7 @@
         <v>395</v>
       </c>
       <c r="C18" s="14"/>
-      <c r="D18" s="168" t="s">
+      <c r="D18" s="167" t="s">
         <v>736</v>
       </c>
     </row>
@@ -7764,7 +7782,7 @@
         <v>397</v>
       </c>
       <c r="C19" s="14"/>
-      <c r="D19" s="168" t="s">
+      <c r="D19" s="167" t="s">
         <v>724</v>
       </c>
     </row>
@@ -7776,7 +7794,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="14"/>
-      <c r="D20" s="168" t="s">
+      <c r="D20" s="167" t="s">
         <v>724</v>
       </c>
     </row>
@@ -7788,7 +7806,7 @@
         <v>416</v>
       </c>
       <c r="C21" s="14"/>
-      <c r="D21" s="168" t="s">
+      <c r="D21" s="167" t="s">
         <v>736</v>
       </c>
     </row>
@@ -7800,7 +7818,7 @@
         <v>417</v>
       </c>
       <c r="C22" s="14"/>
-      <c r="D22" s="168" t="s">
+      <c r="D22" s="167" t="s">
         <v>737</v>
       </c>
     </row>
@@ -7814,7 +7832,7 @@
       <c r="C23" s="14" t="s">
         <v>761</v>
       </c>
-      <c r="D23" s="168" t="s">
+      <c r="D23" s="167" t="s">
         <v>736</v>
       </c>
     </row>
@@ -7826,7 +7844,7 @@
         <v>417</v>
       </c>
       <c r="C24" s="14"/>
-      <c r="D24" s="168" t="s">
+      <c r="D24" s="167" t="s">
         <v>737</v>
       </c>
     </row>
@@ -7838,7 +7856,7 @@
         <v>400</v>
       </c>
       <c r="C25" s="14"/>
-      <c r="D25" s="168" t="s">
+      <c r="D25" s="167" t="s">
         <v>724</v>
       </c>
     </row>
@@ -7850,7 +7868,7 @@
         <v>402</v>
       </c>
       <c r="C26" s="14"/>
-      <c r="D26" s="168" t="s">
+      <c r="D26" s="167" t="s">
         <v>724</v>
       </c>
     </row>
@@ -7862,7 +7880,7 @@
         <v>404</v>
       </c>
       <c r="C27" s="14"/>
-      <c r="D27" s="168" t="s">
+      <c r="D27" s="167" t="s">
         <v>724</v>
       </c>
     </row>
@@ -7874,7 +7892,7 @@
         <v>406</v>
       </c>
       <c r="C28" s="14"/>
-      <c r="D28" s="165"/>
+      <c r="D28" s="164"/>
     </row>
     <row r="29" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
@@ -7884,7 +7902,7 @@
         <v>415</v>
       </c>
       <c r="C29" s="14"/>
-      <c r="D29" s="165"/>
+      <c r="D29" s="164"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="34" t="s">
@@ -7894,7 +7912,7 @@
         <v>407</v>
       </c>
       <c r="C30" s="14"/>
-      <c r="D30" s="165"/>
+      <c r="D30" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8313,12 +8331,12 @@
       <c r="A1" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="133" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="168" t="s">
         <v>56</v>
       </c>
       <c r="B2" t="s">
@@ -8326,7 +8344,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="168" t="s">
         <v>451</v>
       </c>
       <c r="B3" t="s">
@@ -8334,7 +8352,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="169" t="s">
+      <c r="A4" s="168" t="s">
         <v>55</v>
       </c>
       <c r="B4" t="s">
@@ -8342,7 +8360,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="168" t="s">
         <v>57</v>
       </c>
       <c r="B5" t="s">
@@ -8350,7 +8368,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="169" t="s">
+      <c r="A6" s="168" t="s">
         <v>442</v>
       </c>
       <c r="B6" t="s">
@@ -8358,7 +8376,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="169" t="s">
+      <c r="A7" s="168" t="s">
         <v>83</v>
       </c>
       <c r="B7" t="s">
@@ -8366,7 +8384,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="169" t="s">
+      <c r="A8" s="168" t="s">
         <v>589</v>
       </c>
       <c r="B8" t="s">
@@ -8374,7 +8392,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="169" t="s">
+      <c r="A9" s="168" t="s">
         <v>766</v>
       </c>
       <c r="B9" t="s">
@@ -8382,7 +8400,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="169" t="s">
+      <c r="A10" s="168" t="s">
         <v>247</v>
       </c>
       <c r="B10" t="s">
@@ -8390,7 +8408,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="169" t="s">
+      <c r="A11" s="168" t="s">
         <v>248</v>
       </c>
       <c r="B11" t="s">
@@ -8398,7 +8416,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="169" t="s">
+      <c r="A12" s="168" t="s">
         <v>767</v>
       </c>
       <c r="B12" t="s">
@@ -8406,7 +8424,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="169" t="s">
+      <c r="A13" s="168" t="s">
         <v>768</v>
       </c>
       <c r="B13" t="s">
@@ -8414,7 +8432,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="169" t="s">
+      <c r="A14" s="168" t="s">
         <v>250</v>
       </c>
       <c r="B14">
@@ -8428,24 +8446,30 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079DEC00-3AA1-408E-BD73-5592DDC980E2}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="146" t="s">
+      <c r="B1" s="145" t="s">
         <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -8472,7 +8496,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="169" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:4" s="168" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="184" t="s">
         <v>782</v>
@@ -8480,135 +8504,261 @@
       <c r="B6" s="184"/>
     </row>
     <row r="7" spans="1:4" ht="99" x14ac:dyDescent="0.25">
-      <c r="A7" s="176" t="s">
+      <c r="A7" s="175" t="s">
         <v>778</v>
       </c>
-      <c r="B7" s="177">
+      <c r="B7" s="176">
         <v>10</v>
       </c>
-      <c r="C7" s="176"/>
-      <c r="D7" s="176"/>
+      <c r="C7" s="175"/>
+      <c r="D7" s="175"/>
     </row>
     <row r="8" spans="1:4" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="176" t="s">
+      <c r="A8" s="175" t="s">
         <v>779</v>
       </c>
-      <c r="B8" s="177">
+      <c r="B8" s="176">
         <v>10</v>
       </c>
-      <c r="C8" s="176"/>
-      <c r="D8" s="176"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="175"/>
     </row>
     <row r="9" spans="1:4" ht="99" x14ac:dyDescent="0.25">
-      <c r="A9" s="176" t="s">
+      <c r="A9" s="175" t="s">
         <v>780</v>
       </c>
-      <c r="B9" s="177">
+      <c r="B9" s="176">
         <v>10</v>
       </c>
-      <c r="C9" s="177">
+      <c r="C9" s="176">
         <v>1000</v>
       </c>
-      <c r="D9" s="176"/>
-    </row>
-    <row r="10" spans="1:4" ht="82.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="176" t="s">
+      <c r="D9" s="175"/>
+    </row>
+    <row r="10" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="175" t="s">
         <v>781</v>
       </c>
-      <c r="B10" s="177">
+      <c r="B10" s="176">
         <v>10</v>
       </c>
-      <c r="C10" s="177">
+      <c r="C10" s="176">
         <v>1000</v>
       </c>
-      <c r="D10" s="176"/>
+      <c r="D10" s="175"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="146" t="s">
+      <c r="B11" s="145" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="162" t="s">
+      <c r="A12" s="161" t="s">
         <v>479</v>
       </c>
-      <c r="B12" s="178">
+      <c r="B12" s="177">
         <v>12.233000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="162" t="s">
+      <c r="A13" s="161" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="179">
-        <v>123456789123654</v>
+      <c r="B13" s="178">
+        <v>123456789123</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="162" t="s">
+      <c r="A14" s="161" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="179">
-        <v>123456789123654</v>
+      <c r="B14" s="178">
+        <v>123456789123</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="162" t="s">
+      <c r="A15" s="161" t="s">
         <v>595</v>
       </c>
-      <c r="B15" s="179">
-        <v>123456789123654</v>
+      <c r="B15" s="178">
+        <v>123456789123</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="162" t="s">
+      <c r="A16" s="161" t="s">
         <v>596</v>
       </c>
-      <c r="B16" s="179">
-        <v>123456789123654</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="162" t="s">
+      <c r="B16" s="178">
+        <v>123456789123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="161" t="s">
         <v>597</v>
       </c>
-      <c r="B17" s="179">
-        <v>123456789123654</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="162" t="s">
+      <c r="B17" s="178">
+        <v>123456789123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="161" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="179">
-        <v>123456789123654</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="176" t="s">
+      <c r="B18" s="178">
+        <v>123456789123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="175" t="s">
         <v>783</v>
       </c>
-      <c r="B19" s="179">
+      <c r="B19" s="178">
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="176" t="s">
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="175" t="s">
         <v>784</v>
       </c>
-      <c r="B20" s="179">
+      <c r="B20" s="178">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="176" t="s">
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="175" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="176" t="s">
+      <c r="B21" s="175" t="s">
         <v>785</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="175" t="s">
+        <v>786</v>
+      </c>
+      <c r="B22" s="175"/>
+      <c r="C22" s="175"/>
+      <c r="D22" s="175"/>
+      <c r="E22" s="175"/>
+      <c r="F22" s="175"/>
+      <c r="G22" s="175"/>
+    </row>
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="175" t="s">
+        <v>787</v>
+      </c>
+      <c r="B23" s="175"/>
+      <c r="C23" s="175"/>
+      <c r="D23" s="175"/>
+      <c r="E23" s="175"/>
+      <c r="F23" s="175"/>
+      <c r="G23" s="175"/>
+    </row>
+    <row r="24" spans="1:7" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="175" t="s">
+        <v>789</v>
+      </c>
+      <c r="B24" s="178">
+        <v>12345678965410</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="175" t="s">
+        <v>574</v>
+      </c>
+      <c r="B25" s="175" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="175" t="s">
+        <v>518</v>
+      </c>
+      <c r="B26" s="176">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A27" s="175" t="s">
+        <v>519</v>
+      </c>
+      <c r="B27" s="176">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="175" t="s">
+        <v>520</v>
+      </c>
+      <c r="B28" s="176">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="175" t="s">
+        <v>522</v>
+      </c>
+      <c r="B29" s="176">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="175" t="s">
+        <v>524</v>
+      </c>
+      <c r="B30" s="176">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="175" t="s">
+        <v>525</v>
+      </c>
+      <c r="B31" s="176">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A32" s="175" t="s">
+        <v>526</v>
+      </c>
+      <c r="B32" s="176">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="175" t="s">
+        <v>527</v>
+      </c>
+      <c r="B33" s="176">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="175" t="s">
+        <v>528</v>
+      </c>
+      <c r="B34" s="176">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="175" t="s">
+        <v>529</v>
+      </c>
+      <c r="B35" s="176">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="175" t="s">
+        <v>791</v>
+      </c>
+      <c r="B36" s="176">
+        <v>1234567</v>
       </c>
     </row>
   </sheetData>
@@ -8643,7 +8793,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="64"/>
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="110" t="s">
         <v>708</v>
       </c>
     </row>
@@ -8655,7 +8805,7 @@
         <v>584</v>
       </c>
       <c r="C2" s="64"/>
-      <c r="D2" s="110" t="s">
+      <c r="D2" s="109" t="s">
         <v>709</v>
       </c>
     </row>
@@ -8667,7 +8817,7 @@
         <v>585</v>
       </c>
       <c r="C3" s="64"/>
-      <c r="D3" s="110" t="s">
+      <c r="D3" s="109" t="s">
         <v>709</v>
       </c>
     </row>
@@ -8679,7 +8829,7 @@
         <v>587</v>
       </c>
       <c r="C4" s="64"/>
-      <c r="D4" s="110" t="s">
+      <c r="D4" s="109" t="s">
         <v>709</v>
       </c>
     </row>
@@ -8691,7 +8841,7 @@
         <v>420</v>
       </c>
       <c r="C5" s="64"/>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="113" t="s">
         <v>710</v>
       </c>
     </row>
@@ -8703,7 +8853,7 @@
         <v>68</v>
       </c>
       <c r="C6" s="64"/>
-      <c r="D6" s="114" t="s">
+      <c r="D6" s="113" t="s">
         <v>710</v>
       </c>
     </row>
@@ -8715,7 +8865,7 @@
         <v>69</v>
       </c>
       <c r="C7" s="64"/>
-      <c r="D7" s="110" t="s">
+      <c r="D7" s="109" t="s">
         <v>711</v>
       </c>
     </row>
@@ -8727,7 +8877,7 @@
         <v>590</v>
       </c>
       <c r="C8" s="64"/>
-      <c r="D8" s="113">
+      <c r="D8" s="112">
         <v>1234567812</v>
       </c>
     </row>
@@ -8739,7 +8889,7 @@
         <v>15000</v>
       </c>
       <c r="C9" s="64"/>
-      <c r="D9" s="110" t="s">
+      <c r="D9" s="109" t="s">
         <v>712</v>
       </c>
     </row>
@@ -8751,7 +8901,7 @@
         <v>10000</v>
       </c>
       <c r="C10" s="64"/>
-      <c r="D10" s="110" t="s">
+      <c r="D10" s="109" t="s">
         <v>712</v>
       </c>
     </row>
@@ -8763,7 +8913,7 @@
         <v>10000</v>
       </c>
       <c r="C11" s="64"/>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="109" t="s">
         <v>712</v>
       </c>
     </row>
@@ -8775,7 +8925,7 @@
         <v>10000</v>
       </c>
       <c r="C12" s="64"/>
-      <c r="D12" s="110" t="s">
+      <c r="D12" s="109" t="s">
         <v>712</v>
       </c>
     </row>
@@ -8787,7 +8937,7 @@
         <v>10000</v>
       </c>
       <c r="C13" s="64"/>
-      <c r="D13" s="110" t="s">
+      <c r="D13" s="109" t="s">
         <v>712</v>
       </c>
     </row>
@@ -8799,7 +8949,7 @@
         <v>10000</v>
       </c>
       <c r="C14" s="64"/>
-      <c r="D14" s="110" t="s">
+      <c r="D14" s="109" t="s">
         <v>712</v>
       </c>
     </row>
@@ -8811,7 +8961,7 @@
         <v>10000</v>
       </c>
       <c r="C15" s="64"/>
-      <c r="D15" s="110" t="s">
+      <c r="D15" s="109" t="s">
         <v>712</v>
       </c>
     </row>
@@ -8823,7 +8973,7 @@
         <v>10000</v>
       </c>
       <c r="C16" s="64"/>
-      <c r="D16" s="110" t="s">
+      <c r="D16" s="109" t="s">
         <v>712</v>
       </c>
     </row>
@@ -8835,7 +8985,7 @@
         <v>10000</v>
       </c>
       <c r="C17" s="64"/>
-      <c r="D17" s="110" t="s">
+      <c r="D17" s="109" t="s">
         <v>712</v>
       </c>
     </row>
@@ -8847,7 +8997,7 @@
         <v>10000</v>
       </c>
       <c r="C18" s="64"/>
-      <c r="D18" s="110" t="s">
+      <c r="D18" s="109" t="s">
         <v>712</v>
       </c>
     </row>
@@ -8859,7 +9009,7 @@
         <v>10000</v>
       </c>
       <c r="C19" s="64"/>
-      <c r="D19" s="110" t="s">
+      <c r="D19" s="109" t="s">
         <v>712</v>
       </c>
     </row>
@@ -8871,7 +9021,7 @@
         <v>10000</v>
       </c>
       <c r="C20" s="64"/>
-      <c r="D20" s="110" t="s">
+      <c r="D20" s="109" t="s">
         <v>712</v>
       </c>
     </row>
@@ -8883,7 +9033,7 @@
         <v>10000</v>
       </c>
       <c r="C21" s="64"/>
-      <c r="D21" s="110" t="s">
+      <c r="D21" s="109" t="s">
         <v>712</v>
       </c>
     </row>
@@ -8895,7 +9045,7 @@
         <v>10000</v>
       </c>
       <c r="C22" s="64"/>
-      <c r="D22" s="110" t="s">
+      <c r="D22" s="109" t="s">
         <v>712</v>
       </c>
     </row>
@@ -8907,7 +9057,7 @@
         <v>10000</v>
       </c>
       <c r="C23" s="64"/>
-      <c r="D23" s="110" t="s">
+      <c r="D23" s="109" t="s">
         <v>712</v>
       </c>
     </row>
@@ -8919,7 +9069,7 @@
         <v>10000</v>
       </c>
       <c r="C24" s="64"/>
-      <c r="D24" s="110" t="s">
+      <c r="D24" s="109" t="s">
         <v>712</v>
       </c>
     </row>
@@ -8931,7 +9081,7 @@
         <v>10000</v>
       </c>
       <c r="C25" s="64"/>
-      <c r="D25" s="110" t="s">
+      <c r="D25" s="109" t="s">
         <v>712</v>
       </c>
     </row>
@@ -8943,7 +9093,7 @@
         <v>10000</v>
       </c>
       <c r="C26" s="64"/>
-      <c r="D26" s="110" t="s">
+      <c r="D26" s="109" t="s">
         <v>712</v>
       </c>
     </row>
@@ -8955,7 +9105,7 @@
         <v>10000</v>
       </c>
       <c r="C27" s="64"/>
-      <c r="D27" s="110" t="s">
+      <c r="D27" s="109" t="s">
         <v>712</v>
       </c>
     </row>
@@ -8967,7 +9117,7 @@
         <v>10000</v>
       </c>
       <c r="C28" s="64"/>
-      <c r="D28" s="110" t="s">
+      <c r="D28" s="109" t="s">
         <v>712</v>
       </c>
     </row>
@@ -8979,7 +9129,7 @@
         <v>10000</v>
       </c>
       <c r="C29" s="64"/>
-      <c r="D29" s="110" t="s">
+      <c r="D29" s="109" t="s">
         <v>712</v>
       </c>
     </row>
@@ -8991,7 +9141,7 @@
         <v>10000</v>
       </c>
       <c r="C30" s="64"/>
-      <c r="D30" s="110" t="s">
+      <c r="D30" s="109" t="s">
         <v>712</v>
       </c>
     </row>
@@ -9003,7 +9153,7 @@
         <v>10000</v>
       </c>
       <c r="C31" s="64"/>
-      <c r="D31" s="110" t="s">
+      <c r="D31" s="109" t="s">
         <v>712</v>
       </c>
     </row>
@@ -9015,7 +9165,7 @@
         <v>10000</v>
       </c>
       <c r="C32" s="64"/>
-      <c r="D32" s="110" t="s">
+      <c r="D32" s="109" t="s">
         <v>712</v>
       </c>
     </row>
@@ -9027,7 +9177,7 @@
         <v>10000</v>
       </c>
       <c r="C33" s="64"/>
-      <c r="D33" s="110" t="s">
+      <c r="D33" s="109" t="s">
         <v>712</v>
       </c>
     </row>
@@ -9039,7 +9189,7 @@
         <v>10000</v>
       </c>
       <c r="C34" s="64"/>
-      <c r="D34" s="110" t="s">
+      <c r="D34" s="109" t="s">
         <v>712</v>
       </c>
     </row>
@@ -9051,7 +9201,7 @@
         <v>10000</v>
       </c>
       <c r="C35" s="64"/>
-      <c r="D35" s="110" t="s">
+      <c r="D35" s="109" t="s">
         <v>712</v>
       </c>
     </row>
@@ -9063,7 +9213,7 @@
         <v>10000</v>
       </c>
       <c r="C36" s="64"/>
-      <c r="D36" s="110" t="s">
+      <c r="D36" s="109" t="s">
         <v>712</v>
       </c>
     </row>
@@ -9075,7 +9225,7 @@
         <v>10000</v>
       </c>
       <c r="C37" s="64"/>
-      <c r="D37" s="110" t="s">
+      <c r="D37" s="109" t="s">
         <v>712</v>
       </c>
     </row>
@@ -9087,7 +9237,7 @@
         <v>15000</v>
       </c>
       <c r="C38" s="64"/>
-      <c r="D38" s="110" t="s">
+      <c r="D38" s="109" t="s">
         <v>712</v>
       </c>
     </row>
@@ -9099,7 +9249,7 @@
         <v>45000</v>
       </c>
       <c r="C39" s="64"/>
-      <c r="D39" s="110" t="s">
+      <c r="D39" s="109" t="s">
         <v>712</v>
       </c>
     </row>
@@ -9111,7 +9261,7 @@
         <v>15000</v>
       </c>
       <c r="C40" s="64"/>
-      <c r="D40" s="110" t="s">
+      <c r="D40" s="109" t="s">
         <v>712</v>
       </c>
     </row>
@@ -9123,7 +9273,7 @@
         <v>45000</v>
       </c>
       <c r="C41" s="64"/>
-      <c r="D41" s="110" t="s">
+      <c r="D41" s="109" t="s">
         <v>712</v>
       </c>
     </row>
@@ -9135,7 +9285,7 @@
         <v>45000</v>
       </c>
       <c r="C42" s="64"/>
-      <c r="D42" s="110" t="s">
+      <c r="D42" s="109" t="s">
         <v>712</v>
       </c>
     </row>
@@ -9147,7 +9297,7 @@
         <v>488</v>
       </c>
       <c r="C43" s="64"/>
-      <c r="D43" s="116">
+      <c r="D43" s="115">
         <v>1234566789900</v>
       </c>
     </row>
@@ -9159,7 +9309,7 @@
         <v>684</v>
       </c>
       <c r="C44" s="64"/>
-      <c r="D44" s="115" t="s">
+      <c r="D44" s="114" t="s">
         <v>727</v>
       </c>
     </row>
@@ -9171,7 +9321,7 @@
         <v>5000</v>
       </c>
       <c r="C45" s="64"/>
-      <c r="D45" s="110" t="s">
+      <c r="D45" s="109" t="s">
         <v>712</v>
       </c>
     </row>
@@ -9183,7 +9333,7 @@
         <v>4700</v>
       </c>
       <c r="C46" s="64"/>
-      <c r="D46" s="110" t="s">
+      <c r="D46" s="109" t="s">
         <v>712</v>
       </c>
     </row>
@@ -9197,7 +9347,7 @@
       <c r="C47" s="64">
         <v>1</v>
       </c>
-      <c r="D47" s="110" t="s">
+      <c r="D47" s="109" t="s">
         <v>712</v>
       </c>
     </row>
@@ -9209,7 +9359,7 @@
         <v>489</v>
       </c>
       <c r="C48" s="64"/>
-      <c r="D48" s="110"/>
+      <c r="D48" s="109"/>
     </row>
     <row r="49" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="68" t="s">
@@ -9219,7 +9369,7 @@
         <v>619</v>
       </c>
       <c r="C49" s="64"/>
-      <c r="D49" s="110"/>
+      <c r="D49" s="109"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="68" t="s">
@@ -9229,7 +9379,7 @@
         <v>2001</v>
       </c>
       <c r="C50" s="64"/>
-      <c r="D50" s="112">
+      <c r="D50" s="111">
         <v>123456</v>
       </c>
     </row>
@@ -9241,7 +9391,7 @@
         <v>4</v>
       </c>
       <c r="C51" s="64"/>
-      <c r="D51" s="110" t="s">
+      <c r="D51" s="109" t="s">
         <v>712</v>
       </c>
     </row>
@@ -9253,7 +9403,7 @@
         <v>621</v>
       </c>
       <c r="C52" s="64"/>
-      <c r="D52" s="110" t="s">
+      <c r="D52" s="109" t="s">
         <v>714</v>
       </c>
     </row>
@@ -9265,7 +9415,7 @@
         <v>1000</v>
       </c>
       <c r="C53" s="64"/>
-      <c r="D53" s="110" t="s">
+      <c r="D53" s="109" t="s">
         <v>714</v>
       </c>
     </row>
@@ -9277,7 +9427,7 @@
         <v>30000</v>
       </c>
       <c r="C54" s="64"/>
-      <c r="D54" s="110" t="s">
+      <c r="D54" s="109" t="s">
         <v>714</v>
       </c>
     </row>
@@ -9289,7 +9439,7 @@
         <v>80</v>
       </c>
       <c r="C55" s="64"/>
-      <c r="D55" s="110" t="s">
+      <c r="D55" s="109" t="s">
         <v>714</v>
       </c>
     </row>
@@ -9301,7 +9451,7 @@
         <v>10</v>
       </c>
       <c r="C56" s="64"/>
-      <c r="D56" s="110" t="s">
+      <c r="D56" s="109" t="s">
         <v>714</v>
       </c>
     </row>
@@ -9313,7 +9463,7 @@
         <v>15</v>
       </c>
       <c r="C57" s="64"/>
-      <c r="D57" s="110" t="s">
+      <c r="D57" s="109" t="s">
         <v>714</v>
       </c>
     </row>
@@ -9325,7 +9475,7 @@
         <v>70</v>
       </c>
       <c r="C58" s="64"/>
-      <c r="D58" s="110"/>
+      <c r="D58" s="109"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="68" t="s">
@@ -9335,7 +9485,7 @@
         <v>70</v>
       </c>
       <c r="C59" s="64"/>
-      <c r="D59" s="110"/>
+      <c r="D59" s="109"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="71" t="s">
@@ -9343,7 +9493,7 @@
       </c>
       <c r="B60" s="68"/>
       <c r="C60" s="64"/>
-      <c r="D60" s="110"/>
+      <c r="D60" s="109"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="68" t="s">
@@ -9353,7 +9503,7 @@
         <v>100000</v>
       </c>
       <c r="C61" s="64"/>
-      <c r="D61" s="110"/>
+      <c r="D61" s="109"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="68" t="s">
@@ -9363,7 +9513,7 @@
         <v>100000</v>
       </c>
       <c r="C62" s="64"/>
-      <c r="D62" s="110"/>
+      <c r="D62" s="109"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="68" t="s">
@@ -9373,7 +9523,7 @@
         <v>100000</v>
       </c>
       <c r="C63" s="64"/>
-      <c r="D63" s="110"/>
+      <c r="D63" s="109"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="68" t="s">
@@ -9383,7 +9533,7 @@
         <v>90000</v>
       </c>
       <c r="C64" s="64"/>
-      <c r="D64" s="110"/>
+      <c r="D64" s="109"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="68" t="s">
@@ -9517,7 +9667,7 @@
         <v>10000</v>
       </c>
       <c r="C81" s="64"/>
-      <c r="D81" s="110"/>
+      <c r="D81" s="109"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="68" t="s">
@@ -9527,7 +9677,7 @@
         <v>9500</v>
       </c>
       <c r="C82" s="64"/>
-      <c r="D82" s="110"/>
+      <c r="D82" s="109"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="68" t="s">
@@ -9537,7 +9687,7 @@
         <v>9000</v>
       </c>
       <c r="C83" s="64"/>
-      <c r="D83" s="110"/>
+      <c r="D83" s="109"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="68" t="s">
@@ -9547,7 +9697,7 @@
         <v>8500</v>
       </c>
       <c r="C84" s="64"/>
-      <c r="D84" s="110"/>
+      <c r="D84" s="109"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="68" t="s">
@@ -9557,7 +9707,7 @@
         <v>8000</v>
       </c>
       <c r="C85" s="64"/>
-      <c r="D85" s="110"/>
+      <c r="D85" s="109"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="68" t="s">
@@ -9567,7 +9717,7 @@
         <v>7500</v>
       </c>
       <c r="C86" s="64"/>
-      <c r="D86" s="110"/>
+      <c r="D86" s="109"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="68" t="s">
@@ -9577,7 +9727,7 @@
         <v>7000</v>
       </c>
       <c r="C87" s="64"/>
-      <c r="D87" s="110"/>
+      <c r="D87" s="109"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="68" t="s">
@@ -9587,7 +9737,7 @@
         <v>6500</v>
       </c>
       <c r="C88" s="64"/>
-      <c r="D88" s="110"/>
+      <c r="D88" s="109"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="68" t="s">
@@ -9597,7 +9747,7 @@
         <v>6000</v>
       </c>
       <c r="C89" s="64"/>
-      <c r="D89" s="110"/>
+      <c r="D89" s="109"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="68" t="s">
@@ -9607,7 +9757,7 @@
         <v>5500</v>
       </c>
       <c r="C90" s="64"/>
-      <c r="D90" s="110"/>
+      <c r="D90" s="109"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="68" t="s">
@@ -9615,7 +9765,7 @@
       </c>
       <c r="B91" s="68"/>
       <c r="C91" s="64"/>
-      <c r="D91" s="110"/>
+      <c r="D91" s="109"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="68" t="s">
@@ -9625,7 +9775,7 @@
         <v>53</v>
       </c>
       <c r="C92" s="64"/>
-      <c r="D92" s="110"/>
+      <c r="D92" s="109"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="68" t="s">
@@ -9635,7 +9785,7 @@
         <v>89</v>
       </c>
       <c r="C93" s="64"/>
-      <c r="D93" s="110" t="s">
+      <c r="D93" s="109" t="s">
         <v>715</v>
       </c>
     </row>
@@ -9668,7 +9818,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="74"/>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="119" t="s">
         <v>708</v>
       </c>
     </row>
@@ -9680,7 +9830,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="74"/>
-      <c r="D2" s="119" t="s">
+      <c r="D2" s="118" t="s">
         <v>709</v>
       </c>
     </row>
@@ -9692,7 +9842,7 @@
         <v>483</v>
       </c>
       <c r="C3" s="74"/>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="118" t="s">
         <v>709</v>
       </c>
     </row>
@@ -9704,7 +9854,7 @@
         <v>484</v>
       </c>
       <c r="C4" s="74"/>
-      <c r="D4" s="119" t="s">
+      <c r="D4" s="118" t="s">
         <v>709</v>
       </c>
     </row>
@@ -9716,7 +9866,7 @@
         <v>485</v>
       </c>
       <c r="C5" s="74"/>
-      <c r="D5" s="123" t="s">
+      <c r="D5" s="122" t="s">
         <v>710</v>
       </c>
     </row>
@@ -9728,7 +9878,7 @@
         <v>486</v>
       </c>
       <c r="C6" s="74"/>
-      <c r="D6" s="123" t="s">
+      <c r="D6" s="122" t="s">
         <v>710</v>
       </c>
     </row>
@@ -9740,7 +9890,7 @@
         <v>69</v>
       </c>
       <c r="C7" s="74"/>
-      <c r="D7" s="117" t="s">
+      <c r="D7" s="116" t="s">
         <v>711</v>
       </c>
     </row>
@@ -9752,7 +9902,7 @@
         <v>89</v>
       </c>
       <c r="C8" s="74"/>
-      <c r="D8" s="117"/>
+      <c r="D8" s="116"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="74" t="s">
@@ -9762,7 +9912,7 @@
         <v>487</v>
       </c>
       <c r="C9" s="74"/>
-      <c r="D9" s="122">
+      <c r="D9" s="121">
         <v>1234567812</v>
       </c>
     </row>
@@ -9774,7 +9924,7 @@
         <v>10000</v>
       </c>
       <c r="C10" s="74"/>
-      <c r="D10" s="118" t="s">
+      <c r="D10" s="117" t="s">
         <v>706</v>
       </c>
     </row>
@@ -9786,7 +9936,7 @@
         <v>10000</v>
       </c>
       <c r="C11" s="74"/>
-      <c r="D11" s="118" t="s">
+      <c r="D11" s="117" t="s">
         <v>706</v>
       </c>
     </row>
@@ -9798,7 +9948,7 @@
         <v>10000</v>
       </c>
       <c r="C12" s="74"/>
-      <c r="D12" s="118" t="s">
+      <c r="D12" s="117" t="s">
         <v>706</v>
       </c>
     </row>
@@ -9810,7 +9960,7 @@
         <v>10000</v>
       </c>
       <c r="C13" s="74"/>
-      <c r="D13" s="118" t="s">
+      <c r="D13" s="117" t="s">
         <v>706</v>
       </c>
     </row>
@@ -9822,7 +9972,7 @@
         <v>10000</v>
       </c>
       <c r="C14" s="74"/>
-      <c r="D14" s="118" t="s">
+      <c r="D14" s="117" t="s">
         <v>706</v>
       </c>
     </row>
@@ -9834,7 +9984,7 @@
         <v>10000</v>
       </c>
       <c r="C15" s="74"/>
-      <c r="D15" s="118" t="s">
+      <c r="D15" s="117" t="s">
         <v>706</v>
       </c>
     </row>
@@ -9846,7 +9996,7 @@
         <v>10000</v>
       </c>
       <c r="C16" s="74"/>
-      <c r="D16" s="118" t="s">
+      <c r="D16" s="117" t="s">
         <v>706</v>
       </c>
     </row>
@@ -9858,7 +10008,7 @@
         <v>10000</v>
       </c>
       <c r="C17" s="74"/>
-      <c r="D17" s="118" t="s">
+      <c r="D17" s="117" t="s">
         <v>706</v>
       </c>
     </row>
@@ -9870,7 +10020,7 @@
         <v>10000</v>
       </c>
       <c r="C18" s="74"/>
-      <c r="D18" s="118" t="s">
+      <c r="D18" s="117" t="s">
         <v>706</v>
       </c>
     </row>
@@ -9882,7 +10032,7 @@
         <v>10000</v>
       </c>
       <c r="C19" s="74"/>
-      <c r="D19" s="118" t="s">
+      <c r="D19" s="117" t="s">
         <v>706</v>
       </c>
     </row>
@@ -9894,7 +10044,7 @@
         <v>10000</v>
       </c>
       <c r="C20" s="74"/>
-      <c r="D20" s="118" t="s">
+      <c r="D20" s="117" t="s">
         <v>706</v>
       </c>
     </row>
@@ -9906,7 +10056,7 @@
         <v>10000</v>
       </c>
       <c r="C21" s="74"/>
-      <c r="D21" s="118" t="s">
+      <c r="D21" s="117" t="s">
         <v>706</v>
       </c>
     </row>
@@ -9918,7 +10068,7 @@
         <v>10000</v>
       </c>
       <c r="C22" s="74"/>
-      <c r="D22" s="118" t="s">
+      <c r="D22" s="117" t="s">
         <v>706</v>
       </c>
     </row>
@@ -9930,7 +10080,7 @@
         <v>10000</v>
       </c>
       <c r="C23" s="74"/>
-      <c r="D23" s="118" t="s">
+      <c r="D23" s="117" t="s">
         <v>706</v>
       </c>
     </row>
@@ -9942,7 +10092,7 @@
         <v>10000</v>
       </c>
       <c r="C24" s="74"/>
-      <c r="D24" s="118" t="s">
+      <c r="D24" s="117" t="s">
         <v>706</v>
       </c>
     </row>
@@ -9954,7 +10104,7 @@
         <v>10000</v>
       </c>
       <c r="C25" s="74"/>
-      <c r="D25" s="118" t="s">
+      <c r="D25" s="117" t="s">
         <v>706</v>
       </c>
     </row>
@@ -9966,7 +10116,7 @@
         <v>10000</v>
       </c>
       <c r="C26" s="74"/>
-      <c r="D26" s="118" t="s">
+      <c r="D26" s="117" t="s">
         <v>706</v>
       </c>
     </row>
@@ -9978,7 +10128,7 @@
         <v>10000</v>
       </c>
       <c r="C27" s="74"/>
-      <c r="D27" s="118" t="s">
+      <c r="D27" s="117" t="s">
         <v>706</v>
       </c>
     </row>
@@ -9990,7 +10140,7 @@
         <v>10000</v>
       </c>
       <c r="C28" s="74"/>
-      <c r="D28" s="118" t="s">
+      <c r="D28" s="117" t="s">
         <v>706</v>
       </c>
     </row>
@@ -10002,7 +10152,7 @@
         <v>10000</v>
       </c>
       <c r="C29" s="74"/>
-      <c r="D29" s="118" t="s">
+      <c r="D29" s="117" t="s">
         <v>706</v>
       </c>
     </row>
@@ -10014,7 +10164,7 @@
         <v>10000</v>
       </c>
       <c r="C30" s="74"/>
-      <c r="D30" s="118" t="s">
+      <c r="D30" s="117" t="s">
         <v>706</v>
       </c>
     </row>
@@ -10026,7 +10176,7 @@
         <v>10000</v>
       </c>
       <c r="C31" s="74"/>
-      <c r="D31" s="118" t="s">
+      <c r="D31" s="117" t="s">
         <v>706</v>
       </c>
     </row>
@@ -10038,7 +10188,7 @@
         <v>10000</v>
       </c>
       <c r="C32" s="74"/>
-      <c r="D32" s="118" t="s">
+      <c r="D32" s="117" t="s">
         <v>706</v>
       </c>
     </row>
@@ -10050,7 +10200,7 @@
         <v>10000</v>
       </c>
       <c r="C33" s="74"/>
-      <c r="D33" s="118" t="s">
+      <c r="D33" s="117" t="s">
         <v>706</v>
       </c>
     </row>
@@ -10062,7 +10212,7 @@
         <v>10000</v>
       </c>
       <c r="C34" s="74"/>
-      <c r="D34" s="118" t="s">
+      <c r="D34" s="117" t="s">
         <v>706</v>
       </c>
     </row>
@@ -10074,7 +10224,7 @@
         <v>10000</v>
       </c>
       <c r="C35" s="74"/>
-      <c r="D35" s="118" t="s">
+      <c r="D35" s="117" t="s">
         <v>706</v>
       </c>
     </row>
@@ -10086,7 +10236,7 @@
         <v>10000</v>
       </c>
       <c r="C36" s="74"/>
-      <c r="D36" s="118" t="s">
+      <c r="D36" s="117" t="s">
         <v>706</v>
       </c>
     </row>
@@ -10098,7 +10248,7 @@
         <v>10000</v>
       </c>
       <c r="C37" s="74"/>
-      <c r="D37" s="118" t="s">
+      <c r="D37" s="117" t="s">
         <v>706</v>
       </c>
     </row>
@@ -10110,7 +10260,7 @@
         <v>488</v>
       </c>
       <c r="C38" s="74"/>
-      <c r="D38" s="124" t="s">
+      <c r="D38" s="123" t="s">
         <v>713</v>
       </c>
     </row>
@@ -10122,7 +10272,7 @@
         <v>684</v>
       </c>
       <c r="C39" s="74"/>
-      <c r="D39" s="125" t="s">
+      <c r="D39" s="124" t="s">
         <v>727</v>
       </c>
     </row>
@@ -10134,7 +10284,7 @@
         <v>4000</v>
       </c>
       <c r="C40" s="74"/>
-      <c r="D40" s="118" t="s">
+      <c r="D40" s="117" t="s">
         <v>706</v>
       </c>
     </row>
@@ -10146,7 +10296,7 @@
         <v>3500</v>
       </c>
       <c r="C41" s="74"/>
-      <c r="D41" s="118" t="s">
+      <c r="D41" s="117" t="s">
         <v>706</v>
       </c>
     </row>
@@ -10160,7 +10310,7 @@
       <c r="C42" s="74">
         <v>1</v>
       </c>
-      <c r="D42" s="118" t="s">
+      <c r="D42" s="117" t="s">
         <v>706</v>
       </c>
     </row>
@@ -10172,7 +10322,7 @@
         <v>489</v>
       </c>
       <c r="C43" s="74"/>
-      <c r="D43" s="117"/>
+      <c r="D43" s="116"/>
     </row>
     <row r="44" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="76" t="s">
@@ -10182,7 +10332,7 @@
         <v>672</v>
       </c>
       <c r="C44" s="74"/>
-      <c r="D44" s="117"/>
+      <c r="D44" s="116"/>
     </row>
     <row r="45" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="76" t="s">
@@ -10192,7 +10342,7 @@
         <v>2011</v>
       </c>
       <c r="C45" s="74"/>
-      <c r="D45" s="121">
+      <c r="D45" s="120">
         <v>12345</v>
       </c>
     </row>
@@ -10204,7 +10354,7 @@
         <v>5</v>
       </c>
       <c r="C46" s="74"/>
-      <c r="D46" s="121" t="s">
+      <c r="D46" s="120" t="s">
         <v>717</v>
       </c>
     </row>
@@ -10216,7 +10366,7 @@
         <v>70</v>
       </c>
       <c r="C47" s="74"/>
-      <c r="D47" s="117"/>
+      <c r="D47" s="116"/>
     </row>
     <row r="48" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="76" t="s">
@@ -10226,25 +10376,25 @@
         <v>70</v>
       </c>
       <c r="C48" s="74"/>
-      <c r="D48" s="117"/>
+      <c r="D48" s="116"/>
     </row>
     <row r="49" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="76"/>
       <c r="B49" s="74"/>
       <c r="C49" s="74"/>
-      <c r="D49" s="117"/>
+      <c r="D49" s="116"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="76"/>
       <c r="B50" s="74"/>
       <c r="C50" s="74"/>
-      <c r="D50" s="117"/>
+      <c r="D50" s="116"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="76"/>
       <c r="B51" s="74"/>
       <c r="C51" s="74"/>
-      <c r="D51" s="117"/>
+      <c r="D51" s="116"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10256,8 +10406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D2AA5C-E1C4-4CA2-AB01-8B2F45BFCDB3}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10275,7 +10425,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="85"/>
-      <c r="D1" s="127" t="s">
+      <c r="D1" s="126" t="s">
         <v>708</v>
       </c>
     </row>
@@ -10283,11 +10433,11 @@
       <c r="A2" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="95">
+      <c r="B2" s="94">
         <v>1000000</v>
       </c>
       <c r="C2" s="85"/>
-      <c r="D2" s="126"/>
+      <c r="D2" s="125"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="85" t="s">
@@ -10297,7 +10447,7 @@
         <v>674</v>
       </c>
       <c r="C3" s="85"/>
-      <c r="D3" s="128" t="s">
+      <c r="D3" s="127" t="s">
         <v>710</v>
       </c>
     </row>
@@ -10309,7 +10459,7 @@
         <v>676</v>
       </c>
       <c r="C4" s="85"/>
-      <c r="D4" s="128" t="s">
+      <c r="D4" s="127" t="s">
         <v>710</v>
       </c>
     </row>
@@ -10321,7 +10471,7 @@
         <v>678</v>
       </c>
       <c r="C5" s="85"/>
-      <c r="D5" s="128" t="s">
+      <c r="D5" s="127" t="s">
         <v>710</v>
       </c>
     </row>
@@ -10333,7 +10483,7 @@
         <v>88</v>
       </c>
       <c r="C6" s="85"/>
-      <c r="D6" s="128" t="s">
+      <c r="D6" s="127" t="s">
         <v>710</v>
       </c>
     </row>
@@ -10345,7 +10495,7 @@
         <v>420</v>
       </c>
       <c r="C7" s="85"/>
-      <c r="D7" s="128" t="s">
+      <c r="D7" s="127" t="s">
         <v>710</v>
       </c>
     </row>
@@ -10357,7 +10507,7 @@
         <v>68</v>
       </c>
       <c r="C8" s="85"/>
-      <c r="D8" s="128" t="s">
+      <c r="D8" s="127" t="s">
         <v>710</v>
       </c>
     </row>
@@ -10369,7 +10519,7 @@
         <v>89</v>
       </c>
       <c r="C9" s="85"/>
-      <c r="D9" s="128" t="s">
+      <c r="D9" s="127" t="s">
         <v>719</v>
       </c>
     </row>
@@ -10381,7 +10531,7 @@
         <v>69</v>
       </c>
       <c r="C10" s="85"/>
-      <c r="D10" s="128" t="s">
+      <c r="D10" s="127" t="s">
         <v>720</v>
       </c>
     </row>
@@ -10393,7 +10543,7 @@
         <v>487</v>
       </c>
       <c r="C11" s="85"/>
-      <c r="D11" s="128" t="s">
+      <c r="D11" s="127" t="s">
         <v>721</v>
       </c>
     </row>
@@ -10401,11 +10551,11 @@
       <c r="A12" s="85" t="s">
         <v>679</v>
       </c>
-      <c r="B12" s="95">
+      <c r="B12" s="94">
         <v>10000</v>
       </c>
       <c r="C12" s="85"/>
-      <c r="D12" s="128" t="s">
+      <c r="D12" s="127" t="s">
         <v>712</v>
       </c>
     </row>
@@ -10413,13 +10563,13 @@
       <c r="A13" s="85" t="s">
         <v>680</v>
       </c>
-      <c r="B13" s="92">
-        <v>0.2</v>
+      <c r="B13" s="94">
+        <v>20</v>
       </c>
       <c r="C13" s="85">
         <v>0.2</v>
       </c>
-      <c r="D13" s="128" t="s">
+      <c r="D13" s="127" t="s">
         <v>712</v>
       </c>
     </row>
@@ -10431,7 +10581,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="85"/>
-      <c r="D14" s="128" t="s">
+      <c r="D14" s="127" t="s">
         <v>712</v>
       </c>
     </row>
@@ -10439,21 +10589,21 @@
       <c r="A15" s="85" t="s">
         <v>682</v>
       </c>
-      <c r="B15" s="93">
+      <c r="B15" s="92">
         <v>3</v>
       </c>
       <c r="C15" s="85"/>
-      <c r="D15" s="128" t="s">
+      <c r="D15" s="127" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="96" t="s">
+      <c r="A16" s="95" t="s">
         <v>722</v>
       </c>
-      <c r="B16" s="93"/>
+      <c r="B16" s="92"/>
       <c r="C16" s="85"/>
-      <c r="D16" s="128"/>
+      <c r="D16" s="127"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="85" t="s">
@@ -10463,7 +10613,7 @@
         <v>684</v>
       </c>
       <c r="C17" s="85"/>
-      <c r="D17" s="129"/>
+      <c r="D17" s="128"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="85" t="s">
@@ -10473,7 +10623,7 @@
         <v>672</v>
       </c>
       <c r="C18" s="85"/>
-      <c r="D18" s="126"/>
+      <c r="D18" s="125"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="85" t="s">
@@ -10483,7 +10633,7 @@
         <v>2001</v>
       </c>
       <c r="C19" s="85"/>
-      <c r="D19" s="128">
+      <c r="D19" s="127">
         <v>123</v>
       </c>
     </row>
@@ -10495,7 +10645,7 @@
         <v>353</v>
       </c>
       <c r="C20" s="85"/>
-      <c r="D20" s="130"/>
+      <c r="D20" s="129"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="86" t="s">
@@ -10505,7 +10655,7 @@
         <v>354</v>
       </c>
       <c r="C21" s="85"/>
-      <c r="D21" s="126"/>
+      <c r="D21" s="125"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="86" t="s">
@@ -10515,7 +10665,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="85"/>
-      <c r="D22" s="128" t="s">
+      <c r="D22" s="127" t="s">
         <v>712</v>
       </c>
     </row>
@@ -10523,11 +10673,11 @@
       <c r="A23" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="94">
+      <c r="B23" s="93">
         <v>40000</v>
       </c>
       <c r="C23" s="85"/>
-      <c r="D23" s="128" t="s">
+      <c r="D23" s="127" t="s">
         <v>712</v>
       </c>
     </row>
@@ -10539,10 +10689,11 @@
         <v>90</v>
       </c>
       <c r="C24" s="85"/>
-      <c r="D24" s="126"/>
+      <c r="D24" s="125"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10572,11 +10723,11 @@
       <c r="B1" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="132" t="s">
+      <c r="J1" s="131" t="s">
         <v>708</v>
       </c>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="180" t="s">
@@ -10587,7 +10738,7 @@
         <v>500</v>
       </c>
       <c r="K2" s="181"/>
-      <c r="L2" s="131"/>
+      <c r="L2" s="130"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
@@ -10596,11 +10747,11 @@
       <c r="B3" s="60">
         <v>10000</v>
       </c>
-      <c r="J3" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
+      <c r="J3" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
@@ -10609,11 +10760,11 @@
       <c r="B4" s="60">
         <v>12000</v>
       </c>
-      <c r="J4" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131"/>
+      <c r="J4" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="K4" s="130"/>
+      <c r="L4" s="130"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="180" t="s">
@@ -10624,7 +10775,7 @@
         <v>503</v>
       </c>
       <c r="K5" s="181"/>
-      <c r="L5" s="131"/>
+      <c r="L5" s="130"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
@@ -10633,9 +10784,9 @@
       <c r="B6" s="40" t="s">
         <v>540</v>
       </c>
-      <c r="J6" s="131"/>
-      <c r="K6" s="131"/>
-      <c r="L6" s="131"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="130"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
@@ -10644,9 +10795,9 @@
       <c r="B7" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="J7" s="131"/>
-      <c r="K7" s="131"/>
-      <c r="L7" s="131"/>
+      <c r="J7" s="130"/>
+      <c r="K7" s="130"/>
+      <c r="L7" s="130"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
@@ -10655,9 +10806,9 @@
       <c r="B8" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="131"/>
-      <c r="K8" s="131"/>
-      <c r="L8" s="131"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="130"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="180" t="s">
@@ -10668,7 +10819,7 @@
         <v>508</v>
       </c>
       <c r="K9" s="182"/>
-      <c r="L9" s="131"/>
+      <c r="L9" s="130"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
@@ -10681,13 +10832,13 @@
         <v>511</v>
       </c>
       <c r="E10" s="46"/>
-      <c r="J10" s="132" t="s">
+      <c r="J10" s="131" t="s">
         <v>509</v>
       </c>
-      <c r="K10" s="132" t="s">
+      <c r="K10" s="131" t="s">
         <v>510</v>
       </c>
-      <c r="L10" s="132" t="s">
+      <c r="L10" s="131" t="s">
         <v>511</v>
       </c>
     </row>
@@ -10695,9 +10846,9 @@
       <c r="A11" s="48" t="s">
         <v>507</v>
       </c>
-      <c r="J11" s="131"/>
-      <c r="K11" s="131"/>
-      <c r="L11" s="131"/>
+      <c r="J11" s="130"/>
+      <c r="K11" s="130"/>
+      <c r="L11" s="130"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
@@ -10712,9 +10863,9 @@
       <c r="D12" s="40" t="s">
         <v>541</v>
       </c>
-      <c r="J12" s="131"/>
-      <c r="K12" s="131"/>
-      <c r="L12" s="131"/>
+      <c r="J12" s="130"/>
+      <c r="K12" s="130"/>
+      <c r="L12" s="130"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
@@ -10727,9 +10878,9 @@
         <v>543</v>
       </c>
       <c r="D13" s="40"/>
-      <c r="J13" s="131"/>
-      <c r="K13" s="131"/>
-      <c r="L13" s="131"/>
+      <c r="J13" s="130"/>
+      <c r="K13" s="130"/>
+      <c r="L13" s="130"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
@@ -10744,13 +10895,13 @@
       <c r="D14">
         <v>10</v>
       </c>
-      <c r="J14" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="K14" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="L14" s="131" t="s">
+      <c r="J14" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="K14" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="L14" s="130" t="s">
         <v>706</v>
       </c>
     </row>
@@ -10767,13 +10918,13 @@
       <c r="D15">
         <v>10</v>
       </c>
-      <c r="J15" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="K15" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="L15" s="131" t="s">
+      <c r="J15" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="K15" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="L15" s="130" t="s">
         <v>706</v>
       </c>
     </row>
@@ -10790,13 +10941,13 @@
       <c r="D16">
         <v>10</v>
       </c>
-      <c r="J16" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="K16" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="L16" s="131" t="s">
+      <c r="J16" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="K16" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="L16" s="130" t="s">
         <v>706</v>
       </c>
     </row>
@@ -10804,9 +10955,9 @@
       <c r="A17" s="48" t="s">
         <v>517</v>
       </c>
-      <c r="J17" s="131"/>
-      <c r="K17" s="131"/>
-      <c r="L17" s="131"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="130"/>
+      <c r="L17" s="130"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
@@ -10830,13 +10981,13 @@
       <c r="H18" s="57">
         <v>0.5</v>
       </c>
-      <c r="J18" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="K18" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="L18" s="131" t="s">
+      <c r="J18" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="K18" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="L18" s="130" t="s">
         <v>706</v>
       </c>
     </row>
@@ -10862,13 +11013,13 @@
       <c r="H19" s="57">
         <v>0.2</v>
       </c>
-      <c r="J19" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="K19" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="L19" s="131" t="s">
+      <c r="J19" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="K19" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="L19" s="130" t="s">
         <v>706</v>
       </c>
     </row>
@@ -10894,13 +11045,13 @@
       <c r="H20" s="57">
         <v>0.3</v>
       </c>
-      <c r="J20" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="K20" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="L20" s="131" t="s">
+      <c r="J20" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="K20" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="L20" s="130" t="s">
         <v>706</v>
       </c>
     </row>
@@ -10908,18 +11059,18 @@
       <c r="A21" s="48" t="s">
         <v>521</v>
       </c>
-      <c r="J21" s="131"/>
-      <c r="K21" s="131"/>
-      <c r="L21" s="131"/>
+      <c r="J21" s="130"/>
+      <c r="K21" s="130"/>
+      <c r="L21" s="130"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="47" t="s">
         <v>523</v>
       </c>
       <c r="B22" s="62"/>
-      <c r="J22" s="131"/>
-      <c r="K22" s="131"/>
-      <c r="L22" s="131"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="130"/>
+      <c r="L22" s="130"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
@@ -10943,13 +11094,13 @@
       <c r="H23" s="57">
         <v>0.1</v>
       </c>
-      <c r="J23" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="K23" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="L23" s="131" t="s">
+      <c r="J23" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="K23" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="L23" s="130" t="s">
         <v>706</v>
       </c>
     </row>
@@ -10975,13 +11126,13 @@
       <c r="H24" s="57">
         <v>0.1</v>
       </c>
-      <c r="J24" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="K24" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="L24" s="131" t="s">
+      <c r="J24" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="K24" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="L24" s="130" t="s">
         <v>706</v>
       </c>
     </row>
@@ -11007,13 +11158,13 @@
       <c r="H25" s="57">
         <v>0.1</v>
       </c>
-      <c r="J25" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="K25" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="L25" s="131" t="s">
+      <c r="J25" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="K25" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="L25" s="130" t="s">
         <v>706</v>
       </c>
     </row>
@@ -11039,13 +11190,13 @@
       <c r="H26" s="57">
         <v>0.1</v>
       </c>
-      <c r="J26" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="K26" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="L26" s="131" t="s">
+      <c r="J26" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="K26" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="L26" s="130" t="s">
         <v>706</v>
       </c>
     </row>
@@ -11071,13 +11222,13 @@
       <c r="H27" s="57">
         <v>0.1</v>
       </c>
-      <c r="J27" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="K27" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="L27" s="131" t="s">
+      <c r="J27" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="K27" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="L27" s="130" t="s">
         <v>706</v>
       </c>
     </row>
@@ -11103,13 +11254,13 @@
       <c r="H28" s="57">
         <v>0.1</v>
       </c>
-      <c r="J28" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="K28" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="L28" s="131" t="s">
+      <c r="J28" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="K28" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="L28" s="130" t="s">
         <v>706</v>
       </c>
     </row>
@@ -11135,13 +11286,13 @@
       <c r="H29" s="57">
         <v>0.4</v>
       </c>
-      <c r="J29" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="K29" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="L29" s="131" t="s">
+      <c r="J29" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="K29" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="L29" s="130" t="s">
         <v>706</v>
       </c>
     </row>
@@ -11149,9 +11300,9 @@
       <c r="A30" s="47" t="s">
         <v>530</v>
       </c>
-      <c r="J30" s="131"/>
-      <c r="K30" s="131"/>
-      <c r="L30" s="131"/>
+      <c r="J30" s="130"/>
+      <c r="K30" s="130"/>
+      <c r="L30" s="130"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
@@ -11175,13 +11326,13 @@
       <c r="H31">
         <v>1</v>
       </c>
-      <c r="J31" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="K31" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="L31" s="131" t="s">
+      <c r="J31" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="K31" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="L31" s="130" t="s">
         <v>706</v>
       </c>
     </row>
@@ -11189,9 +11340,9 @@
       <c r="A32" s="47" t="s">
         <v>531</v>
       </c>
-      <c r="J32" s="131"/>
-      <c r="K32" s="131"/>
-      <c r="L32" s="131"/>
+      <c r="J32" s="130"/>
+      <c r="K32" s="130"/>
+      <c r="L32" s="130"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
@@ -11215,13 +11366,13 @@
       <c r="H33" s="57">
         <v>0.5</v>
       </c>
-      <c r="J33" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="K33" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="L33" s="131" t="s">
+      <c r="J33" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="K33" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="L33" s="130" t="s">
         <v>706</v>
       </c>
     </row>
@@ -11247,13 +11398,13 @@
       <c r="H34" s="57">
         <v>0.5</v>
       </c>
-      <c r="J34" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="K34" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="L34" s="131" t="s">
+      <c r="J34" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="K34" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="L34" s="130" t="s">
         <v>706</v>
       </c>
     </row>
@@ -11261,9 +11412,9 @@
       <c r="A35" s="48" t="s">
         <v>532</v>
       </c>
-      <c r="J35" s="131"/>
-      <c r="K35" s="131"/>
-      <c r="L35" s="131"/>
+      <c r="J35" s="130"/>
+      <c r="K35" s="130"/>
+      <c r="L35" s="130"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
@@ -11287,13 +11438,13 @@
       <c r="H36" s="57">
         <v>0.1</v>
       </c>
-      <c r="J36" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="K36" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="L36" s="131" t="s">
+      <c r="J36" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="K36" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="L36" s="130" t="s">
         <v>706</v>
       </c>
     </row>
@@ -11319,13 +11470,13 @@
       <c r="H37" s="57">
         <v>0.1</v>
       </c>
-      <c r="J37" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="K37" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="L37" s="131" t="s">
+      <c r="J37" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="K37" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="L37" s="130" t="s">
         <v>706</v>
       </c>
     </row>
@@ -11351,13 +11502,13 @@
       <c r="H38" s="57">
         <v>0.1</v>
       </c>
-      <c r="J38" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="K38" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="L38" s="131" t="s">
+      <c r="J38" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="K38" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="L38" s="130" t="s">
         <v>706</v>
       </c>
     </row>
@@ -11383,13 +11534,13 @@
       <c r="H39" s="57">
         <v>0.1</v>
       </c>
-      <c r="J39" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="K39" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="L39" s="131" t="s">
+      <c r="J39" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="K39" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="L39" s="130" t="s">
         <v>706</v>
       </c>
     </row>
@@ -11415,13 +11566,13 @@
       <c r="H40" s="57">
         <v>0.1</v>
       </c>
-      <c r="J40" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="K40" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="L40" s="131" t="s">
+      <c r="J40" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="K40" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="L40" s="130" t="s">
         <v>706</v>
       </c>
     </row>
@@ -11447,13 +11598,13 @@
       <c r="H41" s="57">
         <v>0.1</v>
       </c>
-      <c r="J41" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="K41" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="L41" s="131" t="s">
+      <c r="J41" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="K41" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="L41" s="130" t="s">
         <v>706</v>
       </c>
     </row>
@@ -11479,13 +11630,13 @@
       <c r="H42" s="57">
         <v>0.4</v>
       </c>
-      <c r="J42" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="K42" s="131" t="s">
-        <v>706</v>
-      </c>
-      <c r="L42" s="131" t="s">
+      <c r="J42" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="K42" s="130" t="s">
+        <v>706</v>
+      </c>
+      <c r="L42" s="130" t="s">
         <v>706</v>
       </c>
     </row>
@@ -11524,7 +11675,7 @@
       <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="134" t="s">
+      <c r="D1" s="133" t="s">
         <v>728</v>
       </c>
     </row>
@@ -11535,7 +11686,7 @@
       <c r="B2" s="54" t="s">
         <v>567</v>
       </c>
-      <c r="D2" s="133"/>
+      <c r="D2" s="132"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="54" t="s">
@@ -11544,7 +11695,7 @@
       <c r="B3" s="54" t="s">
         <v>568</v>
       </c>
-      <c r="D3" s="133"/>
+      <c r="D3" s="132"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="54" t="s">
@@ -11553,7 +11704,7 @@
       <c r="B4" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="133"/>
+      <c r="D4" s="132"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="54" t="s">
@@ -11562,7 +11713,7 @@
       <c r="B5" s="54" t="s">
         <v>571</v>
       </c>
-      <c r="D5" s="133"/>
+      <c r="D5" s="132"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
@@ -11571,7 +11722,7 @@
       <c r="B6" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="133"/>
+      <c r="D6" s="132"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="s">
@@ -11580,7 +11731,7 @@
       <c r="B7" s="54" t="s">
         <v>573</v>
       </c>
-      <c r="D7" s="133"/>
+      <c r="D7" s="132"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
@@ -11589,7 +11740,7 @@
       <c r="B8" s="54" t="s">
         <v>575</v>
       </c>
-      <c r="D8" s="133"/>
+      <c r="D8" s="132"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
@@ -11598,7 +11749,7 @@
       <c r="B9" s="54" t="s">
         <v>577</v>
       </c>
-      <c r="D9" s="133"/>
+      <c r="D9" s="132"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
@@ -11607,7 +11758,7 @@
       <c r="B10" s="54">
         <v>300</v>
       </c>
-      <c r="D10" s="133" t="s">
+      <c r="D10" s="132" t="s">
         <v>729</v>
       </c>
     </row>
@@ -11618,7 +11769,7 @@
       <c r="B11" s="54" t="s">
         <v>533</v>
       </c>
-      <c r="D11" s="133"/>
+      <c r="D11" s="132"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="s">
@@ -11627,7 +11778,7 @@
       <c r="B12" s="54" t="s">
         <v>579</v>
       </c>
-      <c r="D12" s="133"/>
+      <c r="D12" s="132"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
@@ -11636,7 +11787,7 @@
       <c r="B13" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="133"/>
+      <c r="D13" s="132"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="54" t="s">
@@ -11645,7 +11796,7 @@
       <c r="B14" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="D14" s="133"/>
+      <c r="D14" s="132"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="54" t="s">
@@ -11654,7 +11805,7 @@
       <c r="B15" s="54" t="s">
         <v>582</v>
       </c>
-      <c r="D15" s="133"/>
+      <c r="D15" s="132"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11665,14 +11816,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A25F307-8F57-4541-9E28-7D82203C1392}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -11683,7 +11835,7 @@
         <v>116</v>
       </c>
       <c r="C1" s="40"/>
-      <c r="D1" s="137" t="s">
+      <c r="D1" s="136" t="s">
         <v>708</v>
       </c>
     </row>
@@ -11694,7 +11846,7 @@
       <c r="B2" s="40" t="s">
         <v>557</v>
       </c>
-      <c r="D2" s="135"/>
+      <c r="D2" s="134"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
@@ -11703,7 +11855,7 @@
       <c r="B3" s="40" t="s">
         <v>558</v>
       </c>
-      <c r="D3" s="135"/>
+      <c r="D3" s="134"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
@@ -11712,7 +11864,7 @@
       <c r="B4" s="40">
         <v>3</v>
       </c>
-      <c r="D4" s="135"/>
+      <c r="D4" s="134"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
@@ -11721,7 +11873,7 @@
       <c r="B5" s="40">
         <v>2</v>
       </c>
-      <c r="D5" s="135"/>
+      <c r="D5" s="134"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
@@ -11730,7 +11882,7 @@
       <c r="B6" s="40" t="s">
         <v>559</v>
       </c>
-      <c r="D6" s="135"/>
+      <c r="D6" s="134"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
@@ -11739,7 +11891,7 @@
       <c r="B7" s="40" t="s">
         <v>560</v>
       </c>
-      <c r="D7" s="135"/>
+      <c r="D7" s="134"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
@@ -11748,7 +11900,7 @@
       <c r="B8" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="135"/>
+      <c r="D8" s="134"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
@@ -11757,7 +11909,7 @@
       <c r="B9" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="135"/>
+      <c r="D9" s="134"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
@@ -11766,7 +11918,7 @@
       <c r="B10" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="135" t="s">
+      <c r="D10" s="134" t="s">
         <v>720</v>
       </c>
     </row>
@@ -11777,7 +11929,7 @@
       <c r="B11" s="40" t="s">
         <v>705</v>
       </c>
-      <c r="D11" s="135"/>
+      <c r="D11" s="134"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
@@ -11786,7 +11938,7 @@
       <c r="B12" s="40" t="s">
         <v>561</v>
       </c>
-      <c r="D12" s="135"/>
+      <c r="D12" s="134"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
@@ -11795,7 +11947,7 @@
       <c r="B13" s="40" t="s">
         <v>562</v>
       </c>
-      <c r="D13" s="135"/>
+      <c r="D13" s="134"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
@@ -11804,7 +11956,7 @@
       <c r="B14" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="135"/>
+      <c r="D14" s="134"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
@@ -11813,7 +11965,7 @@
       <c r="B15" s="40" t="s">
         <v>563</v>
       </c>
-      <c r="D15" s="135"/>
+      <c r="D15" s="134"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
@@ -11822,7 +11974,7 @@
       <c r="B16" s="40">
         <v>10000</v>
       </c>
-      <c r="D16" s="136" t="s">
+      <c r="D16" s="135" t="s">
         <v>706</v>
       </c>
     </row>
@@ -11833,7 +11985,7 @@
       <c r="B17" s="40">
         <v>4</v>
       </c>
-      <c r="D17" s="136" t="s">
+      <c r="D17" s="135" t="s">
         <v>706</v>
       </c>
     </row>
@@ -11844,7 +11996,7 @@
       <c r="B18" s="40">
         <v>10000</v>
       </c>
-      <c r="D18" s="136" t="s">
+      <c r="D18" s="135" t="s">
         <v>706</v>
       </c>
     </row>
@@ -11855,7 +12007,7 @@
       <c r="B19" s="40">
         <v>4</v>
       </c>
-      <c r="D19" s="136" t="s">
+      <c r="D19" s="135" t="s">
         <v>706</v>
       </c>
     </row>
@@ -11866,7 +12018,7 @@
       <c r="B20" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="135"/>
+      <c r="D20" s="134"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
@@ -11875,7 +12027,7 @@
       <c r="B21" s="40" t="s">
         <v>564</v>
       </c>
-      <c r="D21" s="135"/>
+      <c r="D21" s="134"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="49" t="s">
@@ -11884,7 +12036,7 @@
       <c r="B22" s="40" t="s">
         <v>565</v>
       </c>
-      <c r="D22" s="135"/>
+      <c r="D22" s="134"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="49" t="s">
@@ -11893,7 +12045,7 @@
       <c r="B23" s="40">
         <v>400</v>
       </c>
-      <c r="D23" s="135"/>
+      <c r="D23" s="134"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="49" t="s">
@@ -11902,7 +12054,7 @@
       <c r="B24" s="40" t="s">
         <v>566</v>
       </c>
-      <c r="D24" s="135"/>
+      <c r="D24" s="134"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11914,7 +12066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F93FDE03-E8E3-44A0-BF55-9C72F1DA2A4D}">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -11926,14 +12078,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="82" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="81"/>
-      <c r="D1" s="140" t="s">
+      <c r="D1" s="139" t="s">
         <v>708</v>
       </c>
     </row>
@@ -11945,7 +12097,7 @@
         <v>587</v>
       </c>
       <c r="C2" s="81"/>
-      <c r="D2" s="138"/>
+      <c r="D2" s="137"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="81" t="s">
@@ -11955,7 +12107,7 @@
         <v>638</v>
       </c>
       <c r="C3" s="81"/>
-      <c r="D3" s="138"/>
+      <c r="D3" s="137"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="81" t="s">
@@ -11965,7 +12117,7 @@
         <v>639</v>
       </c>
       <c r="C4" s="81"/>
-      <c r="D4" s="138"/>
+      <c r="D4" s="137"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="81" t="s">
@@ -11975,7 +12127,7 @@
         <v>69</v>
       </c>
       <c r="C5" s="81"/>
-      <c r="D5" s="138"/>
+      <c r="D5" s="137"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="81" t="s">
@@ -11985,7 +12137,7 @@
         <v>89</v>
       </c>
       <c r="C6" s="81"/>
-      <c r="D6" s="138"/>
+      <c r="D6" s="137"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="81" t="s">
@@ -11995,7 +12147,7 @@
         <v>590</v>
       </c>
       <c r="C7" s="81"/>
-      <c r="D7" s="142">
+      <c r="D7" s="141">
         <v>12345678901</v>
       </c>
     </row>
@@ -12007,7 +12159,7 @@
         <v>10000</v>
       </c>
       <c r="C8" s="81"/>
-      <c r="D8" s="143" t="s">
+      <c r="D8" s="142" t="s">
         <v>706</v>
       </c>
     </row>
@@ -12019,7 +12171,7 @@
         <v>10000</v>
       </c>
       <c r="C9" s="81"/>
-      <c r="D9" s="143" t="s">
+      <c r="D9" s="142" t="s">
         <v>706</v>
       </c>
     </row>
@@ -12031,19 +12183,19 @@
         <v>10000</v>
       </c>
       <c r="C10" s="81"/>
-      <c r="D10" s="143" t="s">
+      <c r="D10" s="142" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="166" t="s">
+      <c r="A11" s="165" t="s">
         <v>598</v>
       </c>
       <c r="B11" s="84">
         <v>10000</v>
       </c>
       <c r="C11" s="81"/>
-      <c r="D11" s="143" t="s">
+      <c r="D11" s="142" t="s">
         <v>706</v>
       </c>
     </row>
@@ -12055,7 +12207,7 @@
         <v>10000</v>
       </c>
       <c r="C12" s="81"/>
-      <c r="D12" s="143" t="s">
+      <c r="D12" s="142" t="s">
         <v>706</v>
       </c>
     </row>
@@ -12067,19 +12219,19 @@
         <v>10000</v>
       </c>
       <c r="C13" s="81"/>
-      <c r="D13" s="143" t="s">
+      <c r="D13" s="142" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="166" t="s">
+      <c r="A14" s="165" t="s">
         <v>601</v>
       </c>
       <c r="B14" s="84">
         <v>10000</v>
       </c>
       <c r="C14" s="81"/>
-      <c r="D14" s="143" t="s">
+      <c r="D14" s="142" t="s">
         <v>706</v>
       </c>
     </row>
@@ -12091,7 +12243,7 @@
         <v>10000</v>
       </c>
       <c r="C15" s="81"/>
-      <c r="D15" s="143" t="s">
+      <c r="D15" s="142" t="s">
         <v>706</v>
       </c>
     </row>
@@ -12103,7 +12255,7 @@
         <v>10000</v>
       </c>
       <c r="C16" s="81"/>
-      <c r="D16" s="143" t="s">
+      <c r="D16" s="142" t="s">
         <v>706</v>
       </c>
     </row>
@@ -12115,19 +12267,19 @@
         <v>10000</v>
       </c>
       <c r="C17" s="81"/>
-      <c r="D17" s="143" t="s">
+      <c r="D17" s="142" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="166" t="s">
+      <c r="A18" s="165" t="s">
         <v>605</v>
       </c>
       <c r="B18" s="84">
         <v>10000</v>
       </c>
       <c r="C18" s="81"/>
-      <c r="D18" s="143" t="s">
+      <c r="D18" s="142" t="s">
         <v>706</v>
       </c>
     </row>
@@ -12139,7 +12291,7 @@
         <v>10000</v>
       </c>
       <c r="C19" s="81"/>
-      <c r="D19" s="143" t="s">
+      <c r="D19" s="142" t="s">
         <v>706</v>
       </c>
     </row>
@@ -12151,7 +12303,7 @@
         <v>10000</v>
       </c>
       <c r="C20" s="81"/>
-      <c r="D20" s="143" t="s">
+      <c r="D20" s="142" t="s">
         <v>706</v>
       </c>
     </row>
@@ -12163,7 +12315,7 @@
         <v>10000</v>
       </c>
       <c r="C21" s="81"/>
-      <c r="D21" s="143" t="s">
+      <c r="D21" s="142" t="s">
         <v>706</v>
       </c>
     </row>
@@ -12175,17 +12327,17 @@
         <v>10000</v>
       </c>
       <c r="C22" s="81"/>
-      <c r="D22" s="143"/>
+      <c r="D22" s="142"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="166" t="s">
+      <c r="A23" s="165" t="s">
         <v>609</v>
       </c>
       <c r="B23" s="84">
         <v>10000</v>
       </c>
       <c r="C23" s="81"/>
-      <c r="D23" s="143" t="s">
+      <c r="D23" s="142" t="s">
         <v>706</v>
       </c>
     </row>
@@ -12197,7 +12349,7 @@
         <v>10000</v>
       </c>
       <c r="C24" s="81"/>
-      <c r="D24" s="143" t="s">
+      <c r="D24" s="142" t="s">
         <v>706</v>
       </c>
     </row>
@@ -12209,7 +12361,7 @@
         <v>10000</v>
       </c>
       <c r="C25" s="81"/>
-      <c r="D25" s="143" t="s">
+      <c r="D25" s="142" t="s">
         <v>706</v>
       </c>
     </row>
@@ -12221,7 +12373,7 @@
         <v>10000</v>
       </c>
       <c r="C26" s="81"/>
-      <c r="D26" s="143" t="s">
+      <c r="D26" s="142" t="s">
         <v>706</v>
       </c>
     </row>
@@ -12233,7 +12385,7 @@
         <v>10000</v>
       </c>
       <c r="C27" s="81"/>
-      <c r="D27" s="143" t="s">
+      <c r="D27" s="142" t="s">
         <v>706</v>
       </c>
     </row>
@@ -12245,7 +12397,7 @@
         <v>10000</v>
       </c>
       <c r="C28" s="81"/>
-      <c r="D28" s="143" t="s">
+      <c r="D28" s="142" t="s">
         <v>706</v>
       </c>
     </row>
@@ -12257,7 +12409,7 @@
         <v>10000</v>
       </c>
       <c r="C29" s="81"/>
-      <c r="D29" s="143" t="s">
+      <c r="D29" s="142" t="s">
         <v>706</v>
       </c>
     </row>
@@ -12269,7 +12421,7 @@
         <v>10000</v>
       </c>
       <c r="C30" s="81"/>
-      <c r="D30" s="143" t="s">
+      <c r="D30" s="142" t="s">
         <v>706</v>
       </c>
     </row>
@@ -12281,7 +12433,7 @@
         <v>10000</v>
       </c>
       <c r="C31" s="81"/>
-      <c r="D31" s="143" t="s">
+      <c r="D31" s="142" t="s">
         <v>706</v>
       </c>
     </row>
@@ -12293,7 +12445,7 @@
         <v>10000</v>
       </c>
       <c r="C32" s="81"/>
-      <c r="D32" s="143" t="s">
+      <c r="D32" s="142" t="s">
         <v>706</v>
       </c>
     </row>
@@ -12305,7 +12457,7 @@
         <v>10000</v>
       </c>
       <c r="C33" s="81"/>
-      <c r="D33" s="143" t="s">
+      <c r="D33" s="142" t="s">
         <v>706</v>
       </c>
     </row>
@@ -12317,7 +12469,7 @@
         <v>644</v>
       </c>
       <c r="C34" s="81"/>
-      <c r="D34" s="138"/>
+      <c r="D34" s="137"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="81" t="s">
@@ -12327,7 +12479,7 @@
         <v>684</v>
       </c>
       <c r="C35" s="81"/>
-      <c r="D35" s="141"/>
+      <c r="D35" s="140"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="81" t="s">
@@ -12337,7 +12489,7 @@
         <v>3000</v>
       </c>
       <c r="C36" s="81"/>
-      <c r="D36" s="138"/>
+      <c r="D36" s="137"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="81" t="s">
@@ -12347,7 +12499,7 @@
         <v>2500</v>
       </c>
       <c r="C37" s="81"/>
-      <c r="D37" s="139" t="s">
+      <c r="D37" s="138" t="s">
         <v>706</v>
       </c>
     </row>
@@ -12359,7 +12511,7 @@
         <v>100</v>
       </c>
       <c r="C38" s="81"/>
-      <c r="D38" s="139" t="s">
+      <c r="D38" s="138" t="s">
         <v>706</v>
       </c>
     </row>
@@ -12371,7 +12523,7 @@
         <v>489</v>
       </c>
       <c r="C39" s="81"/>
-      <c r="D39" s="138"/>
+      <c r="D39" s="137"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="81" t="s">
@@ -12381,7 +12533,7 @@
         <v>672</v>
       </c>
       <c r="C40" s="81"/>
-      <c r="D40" s="138"/>
+      <c r="D40" s="137"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="81" t="s">
@@ -12391,7 +12543,7 @@
         <v>2006</v>
       </c>
       <c r="C41" s="81"/>
-      <c r="D41" s="138"/>
+      <c r="D41" s="137"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="81" t="s">
@@ -12401,7 +12553,7 @@
         <v>4</v>
       </c>
       <c r="C42" s="81"/>
-      <c r="D42" s="138"/>
+      <c r="D42" s="137"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="81" t="s">
@@ -12411,7 +12563,7 @@
         <v>645</v>
       </c>
       <c r="C43" s="81"/>
-      <c r="D43" s="138"/>
+      <c r="D43" s="137"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="81" t="s">
@@ -12421,7 +12573,7 @@
         <v>70</v>
       </c>
       <c r="C44" s="81"/>
-      <c r="D44" s="138"/>
+      <c r="D44" s="137"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="81" t="s">
@@ -12431,7 +12583,7 @@
         <v>704</v>
       </c>
       <c r="C45" s="81"/>
-      <c r="D45" s="138"/>
+      <c r="D45" s="137"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="81" t="s">
@@ -12441,7 +12593,7 @@
         <v>70</v>
       </c>
       <c r="C46" s="81"/>
-      <c r="D46" s="138"/>
+      <c r="D46" s="137"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="81" t="s">
@@ -12451,7 +12603,7 @@
         <v>79</v>
       </c>
       <c r="C47" s="81"/>
-      <c r="D47" s="138"/>
+      <c r="D47" s="137"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="81" t="s">
@@ -12461,7 +12613,7 @@
         <v>79</v>
       </c>
       <c r="C48" s="81"/>
-      <c r="D48" s="138"/>
+      <c r="D48" s="137"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="81" t="s">

--- a/testdata/ExcelTestData/Newtestdata.xlsx
+++ b/testdata/ExcelTestData/Newtestdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Shakuntala\Periscope\pandc\testdata\ExcelTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6F3B3F-DBBA-4D5B-B7FD-9AC28D25647C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCF1C12-A307-429F-9122-F65262A84E01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="900" firstSheet="19" activeTab="25" xr2:uid="{D923499C-DDE5-4EE4-B604-8A52F010599A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="900" firstSheet="1" activeTab="2" xr2:uid="{D923499C-DDE5-4EE4-B604-8A52F010599A}"/>
   </bookViews>
   <sheets>
     <sheet name="CoverPage" sheetId="20" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <definedName name="country_list">#REF!</definedName>
     <definedName name="us_states">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="793">
   <si>
     <t>Column Name</t>
   </si>
@@ -2484,6 +2484,9 @@
   </si>
   <si>
     <t># of Days Coverage for Ordinary Payroll Desired (0 - 365 days)</t>
+  </si>
+  <si>
+    <t>Revenue By Location</t>
   </si>
 </sst>
 </file>
@@ -6583,7 +6586,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE12E4D-FB7F-4E63-97F0-B0D0FFCBC628}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8448,7 +8453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079DEC00-3AA1-408E-BD73-5592DDC980E2}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -8772,10 +8777,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{327F0A58-02FC-4F22-8797-343AD32130AA}">
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9787,6 +9792,17 @@
       <c r="C93" s="64"/>
       <c r="D93" s="109" t="s">
         <v>715</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="175" t="s">
+        <v>792</v>
+      </c>
+      <c r="B94" s="175">
+        <v>10000</v>
+      </c>
+      <c r="D94" t="s">
+        <v>746</v>
       </c>
     </row>
   </sheetData>
@@ -10406,8 +10422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D2AA5C-E1C4-4CA2-AB01-8B2F45BFCDB3}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/testdata/ExcelTestData/Newtestdata.xlsx
+++ b/testdata/ExcelTestData/Newtestdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Shakuntala\Periscope\pandc\testdata\ExcelTestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pandc\testdata\ExcelTestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCF1C12-A307-429F-9122-F65262A84E01}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02244412-46FC-45E6-BB59-23E527CB1454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="900" firstSheet="1" activeTab="2" xr2:uid="{D923499C-DDE5-4EE4-B604-8A52F010599A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="900" activeTab="9" xr2:uid="{D923499C-DDE5-4EE4-B604-8A52F010599A}"/>
   </bookViews>
   <sheets>
     <sheet name="CoverPage" sheetId="20" r:id="rId1"/>
@@ -49,12 +49,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="793">
   <si>
     <t>Column Name</t>
   </si>
@@ -3496,13 +3505,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="44.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="52" t="s">
         <v>25</v>
       </c>
@@ -3510,7 +3519,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>629</v>
       </c>
@@ -3518,7 +3527,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>630</v>
       </c>
@@ -3526,7 +3535,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>254</v>
       </c>
@@ -3534,7 +3543,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>631</v>
       </c>
@@ -3542,7 +3551,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>632</v>
       </c>
@@ -3557,23 +3566,23 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7386B1F8-159A-49CF-ACED-F12B36D938AD}">
-  <dimension ref="A1:L64"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="57"/>
-    <col min="10" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="57"/>
+    <col min="10" max="12" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -3590,7 +3599,7 @@
       <c r="K1" s="143"/>
       <c r="L1" s="143"/>
     </row>
-    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>147</v>
       </c>
@@ -3602,7 +3611,7 @@
       <c r="K2" s="143"/>
       <c r="L2" s="143"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>148</v>
       </c>
@@ -3635,7 +3644,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>149</v>
       </c>
@@ -3668,7 +3677,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>150</v>
       </c>
@@ -3698,7 +3707,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>131</v>
       </c>
@@ -3710,7 +3719,7 @@
       <c r="K6" s="143"/>
       <c r="L6" s="143"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>132</v>
       </c>
@@ -3722,7 +3731,7 @@
       <c r="K7" s="143"/>
       <c r="L7" s="143"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>152</v>
       </c>
@@ -3737,7 +3746,7 @@
       <c r="K8" s="143"/>
       <c r="L8" s="143"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>153</v>
       </c>
@@ -3752,7 +3761,7 @@
       <c r="K9" s="143"/>
       <c r="L9" s="143"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
         <v>34</v>
       </c>
@@ -3764,7 +3773,7 @@
       <c r="K10" s="143"/>
       <c r="L10" s="143"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>154</v>
       </c>
@@ -3779,7 +3788,7 @@
       <c r="K11" s="143"/>
       <c r="L11" s="143"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>155</v>
       </c>
@@ -3794,7 +3803,7 @@
       <c r="K12" s="143"/>
       <c r="L12" s="143"/>
     </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>156</v>
       </c>
@@ -3809,7 +3818,7 @@
       <c r="K13" s="143"/>
       <c r="L13" s="143"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>157</v>
       </c>
@@ -3824,7 +3833,7 @@
       <c r="K14" s="143"/>
       <c r="L14" s="143"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>158</v>
       </c>
@@ -3839,7 +3848,7 @@
       <c r="K15" s="143"/>
       <c r="L15" s="143"/>
     </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>159</v>
       </c>
@@ -3854,7 +3863,7 @@
       <c r="K16" s="143"/>
       <c r="L16" s="143"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>160</v>
       </c>
@@ -3862,7 +3871,7 @@
         <v>15500</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>161</v>
       </c>
@@ -3870,7 +3879,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>162</v>
       </c>
@@ -3878,7 +3887,7 @@
         <v>14500</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>163</v>
       </c>
@@ -3886,7 +3895,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>164</v>
       </c>
@@ -3894,12 +3903,12 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>52</v>
       </c>
@@ -3907,7 +3916,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>104</v>
       </c>
@@ -3918,7 +3927,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>167</v>
       </c>
@@ -3929,7 +3938,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>168</v>
       </c>
@@ -3940,7 +3949,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>169</v>
       </c>
@@ -3951,7 +3960,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>170</v>
       </c>
@@ -3962,7 +3971,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>171</v>
       </c>
@@ -3973,7 +3982,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>172</v>
       </c>
@@ -3984,7 +3993,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>173</v>
       </c>
@@ -3995,7 +4004,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>174</v>
       </c>
@@ -4006,7 +4015,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>175</v>
       </c>
@@ -4017,7 +4026,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>176</v>
       </c>
@@ -4028,7 +4037,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>177</v>
       </c>
@@ -4039,7 +4048,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>178</v>
       </c>
@@ -4050,7 +4059,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>179</v>
       </c>
@@ -4061,7 +4070,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>180</v>
       </c>
@@ -4072,7 +4081,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>181</v>
       </c>
@@ -4083,7 +4092,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="17" t="s">
         <v>182</v>
       </c>
@@ -4094,7 +4103,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>183</v>
       </c>
@@ -4105,7 +4114,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>184</v>
       </c>
@@ -4116,7 +4125,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>185</v>
       </c>
@@ -4127,7 +4136,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>186</v>
       </c>
@@ -4138,7 +4147,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>187</v>
       </c>
@@ -4149,7 +4158,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>188</v>
       </c>
@@ -4160,7 +4169,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>189</v>
       </c>
@@ -4171,7 +4180,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>190</v>
       </c>
@@ -4182,7 +4191,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>191</v>
       </c>
@@ -4193,7 +4202,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>192</v>
       </c>
@@ -4204,7 +4213,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>193</v>
       </c>
@@ -4215,7 +4224,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>194</v>
       </c>
@@ -4226,7 +4235,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>195</v>
       </c>
@@ -4237,7 +4246,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>196</v>
       </c>
@@ -4248,7 +4257,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>197</v>
       </c>
@@ -4259,7 +4268,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>198</v>
       </c>
@@ -4270,7 +4279,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>199</v>
       </c>
@@ -4281,7 +4290,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>200</v>
       </c>
@@ -4292,7 +4301,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>201</v>
       </c>
@@ -4303,7 +4312,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>202</v>
       </c>
@@ -4314,7 +4323,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>203</v>
       </c>
@@ -4325,7 +4334,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>204</v>
       </c>
@@ -4336,17 +4345,25 @@
         <v>242</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
         <v>244</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>243</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -4358,20 +4375,20 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18B651C0-D06A-4FA6-8AD2-0327450B7699}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.28515625" customWidth="1"/>
+    <col min="4" max="4" width="47.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -4382,7 +4399,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
         <v>625</v>
       </c>
@@ -4393,7 +4410,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>626</v>
       </c>
@@ -4404,7 +4421,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="168" t="s">
         <v>89</v>
       </c>
@@ -4415,7 +4432,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="168" t="s">
         <v>748</v>
       </c>
@@ -4426,7 +4443,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="168" t="s">
         <v>531</v>
       </c>
@@ -4437,7 +4454,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="168" t="s">
         <v>749</v>
       </c>
@@ -4448,7 +4465,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="168" t="s">
         <v>750</v>
       </c>
@@ -4459,7 +4476,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="168" t="s">
         <v>751</v>
       </c>
@@ -4470,7 +4487,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="168" t="s">
         <v>752</v>
       </c>
@@ -4481,7 +4498,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="105" t="s">
         <v>753</v>
       </c>
@@ -4490,6 +4507,17 @@
       </c>
       <c r="D11" s="165" t="s">
         <v>712</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>482</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="105" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -4506,14 +4534,14 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="125.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="125.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="172" t="s">
         <v>0</v>
       </c>
@@ -4525,7 +4553,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>105</v>
       </c>
@@ -4536,7 +4564,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -4547,7 +4575,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -4558,7 +4586,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>442</v>
       </c>
@@ -4569,7 +4597,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="168" t="s">
         <v>589</v>
       </c>
@@ -4580,7 +4608,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="161" t="s">
         <v>107</v>
       </c>
@@ -4591,7 +4619,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="168" t="s">
         <v>108</v>
       </c>
@@ -4602,7 +4630,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="168" t="s">
         <v>109</v>
       </c>
@@ -4613,7 +4641,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="168" t="s">
         <v>112</v>
       </c>
@@ -4643,13 +4671,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="1" max="1" width="40.44140625" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -4657,7 +4685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -4665,7 +4693,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>72</v>
       </c>
@@ -4673,7 +4701,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>73</v>
       </c>
@@ -4681,7 +4709,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>74</v>
       </c>
@@ -4689,7 +4717,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>75</v>
       </c>
@@ -4697,7 +4725,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -4705,7 +4733,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -4713,7 +4741,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -4721,7 +4749,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -4742,14 +4770,14 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="27.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
         <v>490</v>
       </c>
@@ -4759,7 +4787,7 @@
       <c r="G1" s="148"/>
       <c r="H1" s="148"/>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -4772,7 +4800,7 @@
       <c r="G2" s="151"/>
       <c r="H2" s="151"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="44" t="s">
         <v>493</v>
       </c>
@@ -4792,7 +4820,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="59" t="s">
         <v>491</v>
       </c>
@@ -4813,7 +4841,7 @@
       </c>
       <c r="H4" s="148"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="59" t="s">
         <v>492</v>
       </c>
@@ -4834,7 +4862,7 @@
       </c>
       <c r="H5" s="151"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
         <v>495</v>
       </c>
@@ -4855,7 +4883,7 @@
       </c>
       <c r="H6" s="148"/>
     </row>
-    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="59" t="s">
         <v>496</v>
       </c>
@@ -4868,7 +4896,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="59" t="s">
         <v>497</v>
       </c>
@@ -4881,7 +4909,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="59" t="s">
         <v>498</v>
       </c>
@@ -4908,14 +4936,14 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="56.140625" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.109375" customWidth="1"/>
+    <col min="2" max="2" width="34.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
         <v>490</v>
       </c>
@@ -4923,7 +4951,7 @@
       <c r="C1" s="57"/>
       <c r="D1" s="57"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="58" t="s">
         <v>25</v>
       </c>
@@ -4933,7 +4961,7 @@
       <c r="C2" s="57"/>
       <c r="D2" s="57"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="59" t="s">
         <v>689</v>
       </c>
@@ -4943,7 +4971,7 @@
       <c r="C3" s="57"/>
       <c r="D3" s="57"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="59" t="s">
         <v>56</v>
       </c>
@@ -4953,7 +4981,7 @@
       <c r="C4" s="45"/>
       <c r="D4" s="57"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="59" t="s">
         <v>55</v>
       </c>
@@ -4963,7 +4991,7 @@
       <c r="C5" s="45"/>
       <c r="D5" s="57"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="59" t="s">
         <v>57</v>
       </c>
@@ -4973,7 +5001,7 @@
       <c r="C6" s="45"/>
       <c r="D6" s="57"/>
     </row>
-    <row r="7" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="59" t="s">
         <v>83</v>
       </c>
@@ -4982,7 +5010,7 @@
       </c>
       <c r="C7" s="45"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="59" t="s">
         <v>442</v>
       </c>
@@ -4992,7 +5020,7 @@
       <c r="C8" s="57"/>
       <c r="D8" s="57"/>
     </row>
-    <row r="9" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="59" t="s">
         <v>589</v>
       </c>
@@ -5000,7 +5028,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="179" t="s">
         <v>491</v>
       </c>
@@ -5011,7 +5039,7 @@
       <c r="D10" s="57"/>
       <c r="F10" s="57"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="59" t="s">
         <v>690</v>
       </c>
@@ -5022,7 +5050,7 @@
       <c r="D11" s="57"/>
       <c r="F11" s="57"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="179" t="s">
         <v>691</v>
       </c>
@@ -5033,7 +5061,7 @@
       <c r="D12" s="57"/>
       <c r="F12" s="57"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="59" t="s">
         <v>692</v>
       </c>
@@ -5044,7 +5072,7 @@
       <c r="D13" s="57"/>
       <c r="F13" s="57"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="179" t="s">
         <v>693</v>
       </c>
@@ -5055,7 +5083,7 @@
       <c r="D14" s="57"/>
       <c r="F14" s="57"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="59" t="s">
         <v>694</v>
       </c>
@@ -5066,7 +5094,7 @@
       <c r="D15" s="57"/>
       <c r="F15" s="57"/>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="179" t="s">
         <v>695</v>
       </c>
@@ -5077,7 +5105,7 @@
       <c r="D16" s="57"/>
       <c r="F16" s="57"/>
     </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="179" t="s">
         <v>696</v>
       </c>
@@ -5088,7 +5116,7 @@
       <c r="D17" s="57"/>
       <c r="F17" s="57"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="179" t="s">
         <v>697</v>
       </c>
@@ -5099,22 +5127,22 @@
       <c r="D18" s="57"/>
       <c r="F18" s="57"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" s="57"/>
       <c r="D19" s="57"/>
       <c r="F19" s="57"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" s="57"/>
       <c r="D20" s="57"/>
       <c r="F20" s="57"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" s="57"/>
       <c r="D21" s="57"/>
       <c r="F21" s="57"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D22" s="57"/>
       <c r="F22" s="57"/>
     </row>
@@ -5132,14 +5160,14 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="97" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="169" t="s">
         <v>25</v>
       </c>
@@ -5150,7 +5178,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="168" t="s">
         <v>738</v>
       </c>
@@ -5161,7 +5189,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="168" t="s">
         <v>71</v>
       </c>
@@ -5172,7 +5200,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="168" t="s">
         <v>740</v>
       </c>
@@ -5183,7 +5211,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="168" t="s">
         <v>741</v>
       </c>
@@ -5194,7 +5222,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="168" t="s">
         <v>73</v>
       </c>
@@ -5205,7 +5233,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="168" t="s">
         <v>742</v>
       </c>
@@ -5216,7 +5244,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="168" t="s">
         <v>75</v>
       </c>
@@ -5227,7 +5255,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="168" t="s">
         <v>76</v>
       </c>
@@ -5238,7 +5266,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="168" t="s">
         <v>77</v>
       </c>
@@ -5249,7 +5277,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="168" t="s">
         <v>78</v>
       </c>
@@ -5273,13 +5301,13 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5287,7 +5315,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>126</v>
       </c>
@@ -5295,7 +5323,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>127</v>
       </c>
@@ -5303,7 +5331,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>128</v>
       </c>
@@ -5311,7 +5339,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>117</v>
       </c>
@@ -5319,18 +5347,18 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="180" t="s">
         <v>115</v>
       </c>
       <c r="B6" s="180"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>118</v>
       </c>
@@ -5338,7 +5366,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>119</v>
       </c>
@@ -5346,7 +5374,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>120</v>
       </c>
@@ -5354,13 +5382,13 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>121</v>
       </c>
       <c r="B11" s="57"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>118</v>
       </c>
@@ -5368,7 +5396,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>119</v>
       </c>
@@ -5376,7 +5404,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>120</v>
       </c>
@@ -5384,13 +5412,13 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>122</v>
       </c>
       <c r="B15" s="57"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>118</v>
       </c>
@@ -5398,7 +5426,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>119</v>
       </c>
@@ -5406,7 +5434,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>120</v>
       </c>
@@ -5414,7 +5442,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>123</v>
       </c>
@@ -5428,7 +5456,7 @@
         <v>99.55</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>100.45</v>
       </c>
@@ -5439,7 +5467,7 @@
         <v>100.45</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>55</v>
       </c>
@@ -5450,7 +5478,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>999</v>
       </c>
@@ -5461,7 +5489,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>124</v>
       </c>
@@ -5475,7 +5503,7 @@
         <v>777.55</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>10</v>
       </c>
@@ -5486,13 +5514,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="180" t="s">
         <v>125</v>
       </c>
       <c r="B26" s="180"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -5500,12 +5528,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>118</v>
       </c>
@@ -5513,7 +5541,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>119</v>
       </c>
@@ -5521,7 +5549,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>120</v>
       </c>
@@ -5529,13 +5557,13 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>121</v>
       </c>
       <c r="B32" s="57"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>118</v>
       </c>
@@ -5543,7 +5571,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>119</v>
       </c>
@@ -5551,7 +5579,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>120</v>
       </c>
@@ -5559,13 +5587,13 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>122</v>
       </c>
       <c r="B36" s="57"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>118</v>
       </c>
@@ -5573,7 +5601,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>119</v>
       </c>
@@ -5581,7 +5609,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>120</v>
       </c>
@@ -5589,7 +5617,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>123</v>
       </c>
@@ -5603,7 +5631,7 @@
         <v>99.55</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>100.45</v>
       </c>
@@ -5614,7 +5642,7 @@
         <v>100.45</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>55</v>
       </c>
@@ -5625,7 +5653,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>999</v>
       </c>
@@ -5636,7 +5664,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>124</v>
       </c>
@@ -5650,7 +5678,7 @@
         <v>777.55</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>10</v>
       </c>
@@ -5661,17 +5689,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>133</v>
       </c>
@@ -5679,7 +5707,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>134</v>
       </c>
@@ -5687,7 +5715,7 @@
         <v>19500</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>135</v>
       </c>
@@ -5695,12 +5723,12 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>133</v>
       </c>
@@ -5708,7 +5736,7 @@
         <v>18500</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>136</v>
       </c>
@@ -5716,7 +5744,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>137</v>
       </c>
@@ -5724,7 +5752,7 @@
         <v>17500</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>138</v>
       </c>
@@ -5732,7 +5760,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>139</v>
       </c>
@@ -5740,7 +5768,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>140</v>
       </c>
@@ -5748,7 +5776,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>141</v>
       </c>
@@ -5756,7 +5784,7 @@
         <v>15500</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>142</v>
       </c>
@@ -5764,7 +5792,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>143</v>
       </c>
@@ -5772,7 +5800,7 @@
         <v>14500</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>134</v>
       </c>
@@ -5780,7 +5808,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>134</v>
       </c>
@@ -5788,17 +5816,17 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>52</v>
       </c>
@@ -5824,17 +5852,17 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5845,12 +5873,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>246</v>
       </c>
@@ -5861,7 +5889,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>247</v>
       </c>
@@ -5872,7 +5900,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>248</v>
       </c>
@@ -5886,7 +5914,7 @@
       </c>
       <c r="F5" s="14"/>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>249</v>
       </c>
@@ -5902,7 +5930,7 @@
       </c>
       <c r="F6" s="14"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>250</v>
       </c>
@@ -5916,7 +5944,7 @@
       </c>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>83</v>
       </c>
@@ -5930,7 +5958,7 @@
       </c>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>55</v>
       </c>
@@ -5944,7 +5972,7 @@
       </c>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>57</v>
       </c>
@@ -5958,7 +5986,7 @@
       </c>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>58</v>
       </c>
@@ -5972,7 +6000,7 @@
       </c>
       <c r="F11" s="14"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>251</v>
       </c>
@@ -5986,7 +6014,7 @@
       </c>
       <c r="F12" s="14"/>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>252</v>
       </c>
@@ -6000,7 +6028,7 @@
       </c>
       <c r="F13" s="14"/>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>253</v>
       </c>
@@ -6014,7 +6042,7 @@
       </c>
       <c r="F14" s="14"/>
     </row>
-    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>254</v>
       </c>
@@ -6028,7 +6056,7 @@
       </c>
       <c r="F15" s="14"/>
     </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>255</v>
       </c>
@@ -6042,7 +6070,7 @@
       </c>
       <c r="F16" s="14"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>256</v>
       </c>
@@ -6056,7 +6084,7 @@
       </c>
       <c r="F17" s="14"/>
     </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>58</v>
       </c>
@@ -6070,7 +6098,7 @@
       </c>
       <c r="F18" s="14"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>257</v>
       </c>
@@ -6080,7 +6108,7 @@
       <c r="E19" s="22"/>
       <c r="F19" s="14"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>118</v>
       </c>
@@ -6094,7 +6122,7 @@
       </c>
       <c r="F20" s="14"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>258</v>
       </c>
@@ -6108,7 +6136,7 @@
       </c>
       <c r="F21" s="14"/>
     </row>
-    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>259</v>
       </c>
@@ -6126,7 +6154,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>262</v>
       </c>
@@ -6144,7 +6172,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>263</v>
       </c>
@@ -6162,7 +6190,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
         <v>264</v>
       </c>
@@ -6180,7 +6208,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>267</v>
       </c>
@@ -6198,7 +6226,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>268</v>
       </c>
@@ -6216,7 +6244,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>269</v>
       </c>
@@ -6234,7 +6262,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
         <v>270</v>
       </c>
@@ -6252,17 +6280,17 @@
         <v>706</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>271</v>
       </c>
@@ -6270,7 +6298,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>272</v>
       </c>
@@ -6278,12 +6306,12 @@
         <v>19500</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>273</v>
       </c>
@@ -6291,7 +6319,7 @@
         <v>18500</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>274</v>
       </c>
@@ -6299,7 +6327,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>160</v>
       </c>
@@ -6307,7 +6335,7 @@
         <v>17500</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>275</v>
       </c>
@@ -6315,7 +6343,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>276</v>
       </c>
@@ -6323,7 +6351,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>277</v>
       </c>
@@ -6331,12 +6359,12 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>244</v>
       </c>
@@ -6366,15 +6394,15 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6387,7 +6415,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
         <v>439</v>
       </c>
@@ -6398,7 +6426,7 @@
       <c r="D2" s="40"/>
       <c r="F2" s="157"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
         <v>55</v>
       </c>
@@ -6409,7 +6437,7 @@
       <c r="D3" s="40"/>
       <c r="F3" s="157"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
         <v>57</v>
       </c>
@@ -6420,7 +6448,7 @@
       <c r="D4" s="40"/>
       <c r="F4" s="157"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>83</v>
       </c>
@@ -6437,7 +6465,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>442</v>
       </c>
@@ -6452,7 +6480,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="59" t="s">
         <v>685</v>
       </c>
@@ -6463,7 +6491,7 @@
         <v>12345678912</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="40" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="40" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
         <v>445</v>
       </c>
@@ -6472,7 +6500,7 @@
       </c>
       <c r="F8" s="157"/>
     </row>
-    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>444</v>
       </c>
@@ -6483,7 +6511,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
         <v>446</v>
       </c>
@@ -6492,13 +6520,13 @@
       </c>
       <c r="F10" s="157"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>447</v>
       </c>
       <c r="F11" s="157"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
         <v>294</v>
       </c>
@@ -6509,7 +6537,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="41" t="s">
         <v>448</v>
       </c>
@@ -6520,13 +6548,13 @@
         <v>706</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>449</v>
       </c>
       <c r="F14" s="157"/>
     </row>
-    <row r="15" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="41" t="s">
         <v>294</v>
       </c>
@@ -6537,7 +6565,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="41" t="s">
         <v>448</v>
       </c>
@@ -6548,13 +6576,13 @@
         <v>706</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>450</v>
       </c>
       <c r="F17" s="157"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="41" t="s">
         <v>294</v>
       </c>
@@ -6565,7 +6593,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="41" t="s">
         <v>448</v>
       </c>
@@ -6586,20 +6614,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE12E4D-FB7F-4E63-97F0-B0D0FFCBC628}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="93.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="216.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="93.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="216.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -6612,7 +6640,7 @@
       </c>
       <c r="E1" s="22"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>355</v>
       </c>
@@ -6625,7 +6653,7 @@
       </c>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>358</v>
       </c>
@@ -6638,7 +6666,7 @@
       </c>
       <c r="E3" s="22"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="23" t="s">
         <v>361</v>
       </c>
@@ -6651,7 +6679,7 @@
       </c>
       <c r="E4" s="22"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="23" t="s">
         <v>362</v>
       </c>
@@ -6664,7 +6692,7 @@
       </c>
       <c r="E5" s="22"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>363</v>
       </c>
@@ -6677,7 +6705,7 @@
       </c>
       <c r="E6" s="26"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>364</v>
       </c>
@@ -6690,7 +6718,7 @@
       </c>
       <c r="E7" s="22"/>
     </row>
-    <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>365</v>
       </c>
@@ -6720,15 +6748,15 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6739,13 +6767,13 @@
         <v>708</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>371</v>
       </c>
       <c r="E2" s="160"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>369</v>
       </c>
@@ -6756,7 +6784,7 @@
         <v>12345</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>372</v>
       </c>
@@ -6767,7 +6795,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>373</v>
       </c>
@@ -6776,7 +6804,7 @@
       </c>
       <c r="E5" s="163"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>370</v>
       </c>
@@ -6785,13 +6813,13 @@
       </c>
       <c r="E6" s="163"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>374</v>
       </c>
       <c r="E7" s="160"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>369</v>
       </c>
@@ -6802,7 +6830,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>372</v>
       </c>
@@ -6813,7 +6841,7 @@
         <v>12345</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>373</v>
       </c>
@@ -6822,7 +6850,7 @@
       </c>
       <c r="E10" s="160"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>370</v>
       </c>
@@ -6831,21 +6859,21 @@
       </c>
       <c r="E11" s="160"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>437</v>
       </c>
       <c r="B12" s="22"/>
       <c r="E12" s="160"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="22" t="s">
         <v>89</v>
       </c>
       <c r="E13" s="160"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>369</v>
       </c>
@@ -6856,7 +6884,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>372</v>
       </c>
@@ -6867,7 +6895,7 @@
         <v>12345</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>373</v>
       </c>
@@ -6876,7 +6904,7 @@
       </c>
       <c r="E16" s="160"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>370</v>
       </c>
@@ -6885,16 +6913,16 @@
       </c>
       <c r="E17" s="160"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D20" s="161"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D21" s="161"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D23" s="161"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D24" s="161"/>
     </row>
   </sheetData>
@@ -6910,15 +6938,15 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" style="7" customWidth="1"/>
     <col min="4" max="4" width="71" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6929,7 +6957,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>284</v>
       </c>
@@ -6938,7 +6966,7 @@
       </c>
       <c r="D2" s="97"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>285</v>
       </c>
@@ -6947,7 +6975,7 @@
       </c>
       <c r="D3" s="97"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>286</v>
       </c>
@@ -6956,7 +6984,7 @@
       </c>
       <c r="D4" s="97"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>287</v>
       </c>
@@ -6966,7 +6994,7 @@
       <c r="C5" s="14"/>
       <c r="D5" s="97"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>288</v>
       </c>
@@ -6976,7 +7004,7 @@
       <c r="C6" s="14"/>
       <c r="D6" s="97"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>289</v>
       </c>
@@ -6986,7 +7014,7 @@
       <c r="C7" s="14"/>
       <c r="D7" s="97"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>83</v>
       </c>
@@ -6998,7 +7026,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>55</v>
       </c>
@@ -7010,7 +7038,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>57</v>
       </c>
@@ -7022,7 +7050,7 @@
         <v>2565896</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>58</v>
       </c>
@@ -7034,7 +7062,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>251</v>
       </c>
@@ -7046,7 +7074,7 @@
         <v>87898314512</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>290</v>
       </c>
@@ -7058,7 +7086,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>291</v>
       </c>
@@ -7070,7 +7098,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>292</v>
       </c>
@@ -7082,14 +7110,14 @@
         <v>724</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>293</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="97"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>294</v>
       </c>
@@ -7101,7 +7129,7 @@
         <v>12345</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>295</v>
       </c>
@@ -7113,7 +7141,7 @@
         <v>1.22233344455566E+18</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>296</v>
       </c>
@@ -7125,7 +7153,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>297</v>
       </c>
@@ -7133,7 +7161,7 @@
       <c r="C20" s="14"/>
       <c r="D20" s="97"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>294</v>
       </c>
@@ -7145,7 +7173,7 @@
         <v>12345</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>295</v>
       </c>
@@ -7157,7 +7185,7 @@
         <v>1.22233344455566E+18</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>296</v>
       </c>
@@ -7169,7 +7197,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
         <v>298</v>
       </c>
@@ -7177,7 +7205,7 @@
       <c r="C24" s="14"/>
       <c r="D24" s="97"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>299</v>
       </c>
@@ -7187,7 +7215,7 @@
       <c r="C25" s="14"/>
       <c r="D25" s="97"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>300</v>
       </c>
@@ -7199,7 +7227,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>301</v>
       </c>
@@ -7211,7 +7239,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>302</v>
       </c>
@@ -7223,14 +7251,14 @@
         <v>726</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
         <v>131</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="97"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>58</v>
       </c>
@@ -7240,7 +7268,7 @@
       <c r="C30" s="14"/>
       <c r="D30" s="97"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>291</v>
       </c>
@@ -7250,7 +7278,7 @@
       <c r="C31" s="14"/>
       <c r="D31" s="97"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>305</v>
       </c>
@@ -7260,22 +7288,22 @@
       <c r="C32" s="14"/>
       <c r="D32" s="97"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>307</v>
       </c>
@@ -7283,7 +7311,7 @@
         <v>18500</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>308</v>
       </c>
@@ -7291,7 +7319,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>309</v>
       </c>
@@ -7299,7 +7327,7 @@
         <v>17500</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>310</v>
       </c>
@@ -7307,7 +7335,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>311</v>
       </c>
@@ -7315,12 +7343,12 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>52</v>
       </c>
@@ -7328,7 +7356,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
         <v>104</v>
       </c>
@@ -7339,7 +7367,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>313</v>
       </c>
@@ -7350,7 +7378,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>188</v>
       </c>
@@ -7361,7 +7389,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>314</v>
       </c>
@@ -7372,7 +7400,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>315</v>
       </c>
@@ -7383,7 +7411,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>316</v>
       </c>
@@ -7394,7 +7422,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>317</v>
       </c>
@@ -7405,7 +7433,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>318</v>
       </c>
@@ -7416,7 +7444,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>319</v>
       </c>
@@ -7427,7 +7455,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>320</v>
       </c>
@@ -7438,7 +7466,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>321</v>
       </c>
@@ -7449,7 +7477,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>322</v>
       </c>
@@ -7460,7 +7488,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>323</v>
       </c>
@@ -7471,7 +7499,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>324</v>
       </c>
@@ -7482,7 +7510,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>325</v>
       </c>
@@ -7493,7 +7521,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>326</v>
       </c>
@@ -7504,7 +7532,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>327</v>
       </c>
@@ -7515,7 +7543,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>199</v>
       </c>
@@ -7526,7 +7554,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
         <v>328</v>
       </c>
@@ -7537,7 +7565,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
         <v>329</v>
       </c>
@@ -7548,7 +7576,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>330</v>
       </c>
@@ -7577,15 +7605,15 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.5703125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" customWidth="1"/>
+    <col min="1" max="1" width="44.5546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="36.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -7596,7 +7624,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>349</v>
       </c>
@@ -7607,7 +7635,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>350</v>
       </c>
@@ -7616,7 +7644,7 @@
       </c>
       <c r="D3" s="164"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>351</v>
       </c>
@@ -7627,7 +7655,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>352</v>
       </c>
@@ -7637,7 +7665,7 @@
       <c r="C5" s="14"/>
       <c r="D5" s="164"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>765</v>
       </c>
@@ -7647,7 +7675,7 @@
       <c r="C6" s="14"/>
       <c r="D6" s="164"/>
     </row>
-    <row r="7" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>409</v>
       </c>
@@ -7655,7 +7683,7 @@
       <c r="C7" s="14"/>
       <c r="D7" s="164"/>
     </row>
-    <row r="8" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>380</v>
       </c>
@@ -7667,7 +7695,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>381</v>
       </c>
@@ -7679,7 +7707,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>383</v>
       </c>
@@ -7691,7 +7719,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>385</v>
       </c>
@@ -7703,7 +7731,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>387</v>
       </c>
@@ -7715,13 +7743,13 @@
         <v>724</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33"/>
       <c r="B13" s="29"/>
       <c r="C13" s="14"/>
       <c r="D13" s="164"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="183" t="s">
         <v>389</v>
       </c>
@@ -7733,7 +7761,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="183"/>
       <c r="B15" s="29">
         <v>15</v>
@@ -7743,7 +7771,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>390</v>
       </c>
@@ -7755,7 +7783,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
         <v>392</v>
       </c>
@@ -7767,7 +7795,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="34" t="s">
         <v>394</v>
       </c>
@@ -7779,7 +7807,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
         <v>396</v>
       </c>
@@ -7791,7 +7819,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
         <v>398</v>
       </c>
@@ -7803,7 +7831,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="22" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="31" t="s">
         <v>410</v>
       </c>
@@ -7815,7 +7843,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="37" t="s">
         <v>411</v>
       </c>
@@ -7827,7 +7855,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="22" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="31" t="s">
         <v>412</v>
       </c>
@@ -7841,7 +7869,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="36" t="s">
         <v>413</v>
       </c>
@@ -7853,7 +7881,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="34" t="s">
         <v>399</v>
       </c>
@@ -7865,7 +7893,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="34" t="s">
         <v>401</v>
       </c>
@@ -7877,7 +7905,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="34" t="s">
         <v>403</v>
       </c>
@@ -7889,7 +7917,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="34" t="s">
         <v>405</v>
       </c>
@@ -7899,7 +7927,7 @@
       <c r="C28" s="14"/>
       <c r="D28" s="164"/>
     </row>
-    <row r="29" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="37" t="s">
         <v>414</v>
       </c>
@@ -7909,7 +7937,7 @@
       <c r="C29" s="14"/>
       <c r="D29" s="164"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
         <v>52</v>
       </c>
@@ -7936,16 +7964,16 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.88671875" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7953,7 +7981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -7961,7 +7989,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -7981,7 +8009,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -8001,7 +8029,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -8021,7 +8049,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -8041,7 +8069,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -8061,7 +8089,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -8081,7 +8109,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -8101,7 +8129,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -8134,13 +8162,13 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35.44140625" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -8148,7 +8176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -8156,7 +8184,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -8164,7 +8192,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>93</v>
       </c>
@@ -8172,7 +8200,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -8180,7 +8208,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -8188,7 +8216,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>96</v>
       </c>
@@ -8196,7 +8224,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -8204,7 +8232,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>98</v>
       </c>
@@ -8212,7 +8240,7 @@
         <v>112500</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>99</v>
       </c>
@@ -8220,7 +8248,7 @@
         <v>102500</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>100</v>
       </c>
@@ -8228,7 +8256,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>101</v>
       </c>
@@ -8236,7 +8264,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>102</v>
       </c>
@@ -8244,7 +8272,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>103</v>
       </c>
@@ -8252,12 +8280,12 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>105</v>
       </c>
@@ -8265,7 +8293,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>106</v>
       </c>
@@ -8273,7 +8301,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>107</v>
       </c>
@@ -8281,7 +8309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>108</v>
       </c>
@@ -8289,7 +8317,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>109</v>
       </c>
@@ -8297,7 +8325,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>112</v>
       </c>
@@ -8305,7 +8333,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>113</v>
       </c>
@@ -8326,13 +8354,13 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="89" t="s">
         <v>25</v>
       </c>
@@ -8340,7 +8368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="168" t="s">
         <v>56</v>
       </c>
@@ -8348,7 +8376,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="168" t="s">
         <v>451</v>
       </c>
@@ -8356,7 +8384,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="168" t="s">
         <v>55</v>
       </c>
@@ -8364,7 +8392,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="168" t="s">
         <v>57</v>
       </c>
@@ -8372,7 +8400,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="168" t="s">
         <v>442</v>
       </c>
@@ -8380,7 +8408,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="168" t="s">
         <v>83</v>
       </c>
@@ -8388,7 +8416,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="168" t="s">
         <v>589</v>
       </c>
@@ -8396,7 +8424,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="168" t="s">
         <v>766</v>
       </c>
@@ -8404,7 +8432,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="168" t="s">
         <v>247</v>
       </c>
@@ -8412,7 +8440,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="168" t="s">
         <v>248</v>
       </c>
@@ -8420,7 +8448,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="168" t="s">
         <v>767</v>
       </c>
@@ -8428,7 +8456,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="168" t="s">
         <v>768</v>
       </c>
@@ -8436,7 +8464,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="168" t="s">
         <v>250</v>
       </c>
@@ -8457,16 +8485,16 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -8477,7 +8505,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -8485,7 +8513,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -8493,7 +8521,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>442</v>
       </c>
@@ -8501,14 +8529,14 @@
         <v>764</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="168" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="168" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="184" t="s">
         <v>782</v>
       </c>
       <c r="B6" s="184"/>
     </row>
-    <row r="7" spans="1:4" ht="99" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A7" s="175" t="s">
         <v>778</v>
       </c>
@@ -8518,7 +8546,7 @@
       <c r="C7" s="175"/>
       <c r="D7" s="175"/>
     </row>
-    <row r="8" spans="1:4" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A8" s="175" t="s">
         <v>779</v>
       </c>
@@ -8528,7 +8556,7 @@
       <c r="C8" s="175"/>
       <c r="D8" s="175"/>
     </row>
-    <row r="9" spans="1:4" ht="99" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A9" s="175" t="s">
         <v>780</v>
       </c>
@@ -8540,7 +8568,7 @@
       </c>
       <c r="D9" s="175"/>
     </row>
-    <row r="10" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A10" s="175" t="s">
         <v>781</v>
       </c>
@@ -8552,7 +8580,7 @@
       </c>
       <c r="D10" s="175"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
         <v>0</v>
       </c>
@@ -8560,7 +8588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A12" s="161" t="s">
         <v>479</v>
       </c>
@@ -8568,7 +8596,7 @@
         <v>12.233000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="161" t="s">
         <v>60</v>
       </c>
@@ -8576,7 +8604,7 @@
         <v>123456789123</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="161" t="s">
         <v>61</v>
       </c>
@@ -8584,7 +8612,7 @@
         <v>123456789123</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="161" t="s">
         <v>595</v>
       </c>
@@ -8592,7 +8620,7 @@
         <v>123456789123</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="161" t="s">
         <v>596</v>
       </c>
@@ -8600,7 +8628,7 @@
         <v>123456789123</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="161" t="s">
         <v>597</v>
       </c>
@@ -8608,7 +8636,7 @@
         <v>123456789123</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="161" t="s">
         <v>63</v>
       </c>
@@ -8616,7 +8644,7 @@
         <v>123456789123</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A19" s="175" t="s">
         <v>783</v>
       </c>
@@ -8624,7 +8652,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A20" s="175" t="s">
         <v>784</v>
       </c>
@@ -8632,7 +8660,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A21" s="175" t="s">
         <v>83</v>
       </c>
@@ -8640,7 +8668,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A22" s="175" t="s">
         <v>786</v>
       </c>
@@ -8651,7 +8679,7 @@
       <c r="F22" s="175"/>
       <c r="G22" s="175"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A23" s="175" t="s">
         <v>787</v>
       </c>
@@ -8662,7 +8690,7 @@
       <c r="F23" s="175"/>
       <c r="G23" s="175"/>
     </row>
-    <row r="24" spans="1:7" ht="82.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="67.2" x14ac:dyDescent="0.3">
       <c r="A24" s="175" t="s">
         <v>789</v>
       </c>
@@ -8670,7 +8698,7 @@
         <v>12345678965410</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A25" s="175" t="s">
         <v>574</v>
       </c>
@@ -8678,7 +8706,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A26" s="175" t="s">
         <v>518</v>
       </c>
@@ -8686,7 +8714,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A27" s="175" t="s">
         <v>519</v>
       </c>
@@ -8694,7 +8722,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A28" s="175" t="s">
         <v>520</v>
       </c>
@@ -8702,7 +8730,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A29" s="175" t="s">
         <v>522</v>
       </c>
@@ -8710,7 +8738,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A30" s="175" t="s">
         <v>524</v>
       </c>
@@ -8718,7 +8746,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A31" s="175" t="s">
         <v>525</v>
       </c>
@@ -8726,7 +8754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A32" s="175" t="s">
         <v>526</v>
       </c>
@@ -8734,7 +8762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A33" s="175" t="s">
         <v>527</v>
       </c>
@@ -8742,7 +8770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A34" s="175" t="s">
         <v>528</v>
       </c>
@@ -8750,7 +8778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A35" s="175" t="s">
         <v>529</v>
       </c>
@@ -8758,7 +8786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="49.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="50.4" x14ac:dyDescent="0.3">
       <c r="A36" s="175" t="s">
         <v>791</v>
       </c>
@@ -8779,18 +8807,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{327F0A58-02FC-4F22-8797-343AD32130AA}">
   <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="67.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="186.7109375" customWidth="1"/>
+    <col min="1" max="1" width="67.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="186.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
@@ -8802,7 +8830,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="68" t="s">
         <v>583</v>
       </c>
@@ -8814,7 +8842,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="68" t="s">
         <v>56</v>
       </c>
@@ -8826,7 +8854,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="68" t="s">
         <v>586</v>
       </c>
@@ -8838,7 +8866,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="68" t="s">
         <v>55</v>
       </c>
@@ -8850,7 +8878,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="68" t="s">
         <v>57</v>
       </c>
@@ -8862,7 +8890,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="68" t="s">
         <v>588</v>
       </c>
@@ -8874,7 +8902,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="68" t="s">
         <v>589</v>
       </c>
@@ -8886,7 +8914,7 @@
         <v>1234567812</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="68" t="s">
         <v>591</v>
       </c>
@@ -8898,7 +8926,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="68" t="s">
         <v>592</v>
       </c>
@@ -8910,7 +8938,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="68" t="s">
         <v>593</v>
       </c>
@@ -8922,7 +8950,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="68" t="s">
         <v>60</v>
       </c>
@@ -8934,7 +8962,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="68" t="s">
         <v>61</v>
       </c>
@@ -8946,7 +8974,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="68" t="s">
         <v>594</v>
       </c>
@@ -8958,7 +8986,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="68" t="s">
         <v>595</v>
       </c>
@@ -8970,7 +8998,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="69" t="s">
         <v>596</v>
       </c>
@@ -8982,7 +9010,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="68" t="s">
         <v>597</v>
       </c>
@@ -8994,7 +9022,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="68" t="s">
         <v>598</v>
       </c>
@@ -9006,7 +9034,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="68" t="s">
         <v>599</v>
       </c>
@@ -9018,7 +9046,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="68" t="s">
         <v>600</v>
       </c>
@@ -9030,7 +9058,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="68" t="s">
         <v>601</v>
       </c>
@@ -9042,7 +9070,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="68" t="s">
         <v>602</v>
       </c>
@@ -9054,7 +9082,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="68" t="s">
         <v>603</v>
       </c>
@@ -9066,7 +9094,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="68" t="s">
         <v>604</v>
       </c>
@@ -9078,7 +9106,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="68" t="s">
         <v>605</v>
       </c>
@@ -9090,7 +9118,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="68" t="s">
         <v>606</v>
       </c>
@@ -9102,7 +9130,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="68" t="s">
         <v>607</v>
       </c>
@@ -9114,7 +9142,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="68" t="s">
         <v>608</v>
       </c>
@@ -9126,7 +9154,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="68" t="s">
         <v>609</v>
       </c>
@@ -9138,7 +9166,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="68" t="s">
         <v>610</v>
       </c>
@@ -9150,7 +9178,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="68" t="s">
         <v>611</v>
       </c>
@@ -9162,7 +9190,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="68" t="s">
         <v>612</v>
       </c>
@@ -9174,7 +9202,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="68" t="s">
         <v>613</v>
       </c>
@@ -9186,7 +9214,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="68" t="s">
         <v>614</v>
       </c>
@@ -9198,7 +9226,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="68" t="s">
         <v>615</v>
       </c>
@@ -9210,7 +9238,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="68" t="s">
         <v>616</v>
       </c>
@@ -9222,7 +9250,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="68" t="s">
         <v>617</v>
       </c>
@@ -9234,7 +9262,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="68" t="s">
         <v>475</v>
       </c>
@@ -9246,7 +9274,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="68" t="s">
         <v>476</v>
       </c>
@@ -9258,7 +9286,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="68" t="s">
         <v>477</v>
       </c>
@@ -9270,7 +9298,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="68" t="s">
         <v>478</v>
       </c>
@@ -9282,7 +9310,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="68" t="s">
         <v>637</v>
       </c>
@@ -9294,7 +9322,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="68" t="s">
         <v>62</v>
       </c>
@@ -9306,7 +9334,7 @@
         <v>1234566789900</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="57" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" s="57" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="68" t="s">
         <v>707</v>
       </c>
@@ -9318,7 +9346,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="68" t="s">
         <v>63</v>
       </c>
@@ -9330,7 +9358,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="68" t="s">
         <v>479</v>
       </c>
@@ -9342,7 +9370,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="68" t="s">
         <v>64</v>
       </c>
@@ -9356,7 +9384,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="68" t="s">
         <v>480</v>
       </c>
@@ -9366,7 +9394,7 @@
       <c r="C48" s="64"/>
       <c r="D48" s="109"/>
     </row>
-    <row r="49" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" s="68" t="s">
         <v>618</v>
       </c>
@@ -9376,7 +9404,7 @@
       <c r="C49" s="64"/>
       <c r="D49" s="109"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="68" t="s">
         <v>66</v>
       </c>
@@ -9388,7 +9416,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="68" t="s">
         <v>67</v>
       </c>
@@ -9400,7 +9428,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="68" t="s">
         <v>620</v>
       </c>
@@ -9412,7 +9440,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="68" t="s">
         <v>622</v>
       </c>
@@ -9424,7 +9452,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="68" t="s">
         <v>305</v>
       </c>
@@ -9436,7 +9464,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="68" t="s">
         <v>623</v>
       </c>
@@ -9448,7 +9476,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="68" t="s">
         <v>294</v>
       </c>
@@ -9460,7 +9488,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="68" t="s">
         <v>624</v>
       </c>
@@ -9472,7 +9500,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="68" t="s">
         <v>481</v>
       </c>
@@ -9482,7 +9510,7 @@
       <c r="C58" s="64"/>
       <c r="D58" s="109"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="68" t="s">
         <v>482</v>
       </c>
@@ -9492,7 +9520,7 @@
       <c r="C59" s="64"/>
       <c r="D59" s="109"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="71" t="s">
         <v>26</v>
       </c>
@@ -9500,7 +9528,7 @@
       <c r="C60" s="64"/>
       <c r="D60" s="109"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="68" t="s">
         <v>11</v>
       </c>
@@ -9510,7 +9538,7 @@
       <c r="C61" s="64"/>
       <c r="D61" s="109"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="68" t="s">
         <v>27</v>
       </c>
@@ -9520,7 +9548,7 @@
       <c r="C62" s="64"/>
       <c r="D62" s="109"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="68" t="s">
         <v>28</v>
       </c>
@@ -9530,7 +9558,7 @@
       <c r="C63" s="64"/>
       <c r="D63" s="109"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="68" t="s">
         <v>29</v>
       </c>
@@ -9540,7 +9568,7 @@
       <c r="C64" s="64"/>
       <c r="D64" s="109"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="68" t="s">
         <v>30</v>
       </c>
@@ -9548,7 +9576,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="68" t="s">
         <v>31</v>
       </c>
@@ -9556,7 +9584,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="68" t="s">
         <v>32</v>
       </c>
@@ -9564,7 +9592,7 @@
         <v>6900</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="68" t="s">
         <v>33</v>
       </c>
@@ -9572,19 +9600,19 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="71" t="s">
         <v>34</v>
       </c>
       <c r="B69" s="68"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="68" t="s">
         <v>35</v>
       </c>
       <c r="B70" s="68"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="68" t="s">
         <v>36</v>
       </c>
@@ -9592,7 +9620,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="68" t="s">
         <v>37</v>
       </c>
@@ -9600,7 +9628,7 @@
         <v>14500</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="68" t="s">
         <v>38</v>
       </c>
@@ -9608,7 +9636,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="68" t="s">
         <v>39</v>
       </c>
@@ -9616,7 +9644,7 @@
         <v>13500</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="68" t="s">
         <v>40</v>
       </c>
@@ -9624,7 +9652,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="68" t="s">
         <v>32</v>
       </c>
@@ -9632,7 +9660,7 @@
         <v>12500</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="68" t="s">
         <v>33</v>
       </c>
@@ -9640,7 +9668,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="68" t="s">
         <v>41</v>
       </c>
@@ -9648,7 +9676,7 @@
         <v>11500</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="68" t="s">
         <v>27</v>
       </c>
@@ -9656,7 +9684,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="68" t="s">
         <v>42</v>
       </c>
@@ -9664,7 +9692,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="68" t="s">
         <v>43</v>
       </c>
@@ -9674,7 +9702,7 @@
       <c r="C81" s="64"/>
       <c r="D81" s="109"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="68" t="s">
         <v>44</v>
       </c>
@@ -9684,7 +9712,7 @@
       <c r="C82" s="64"/>
       <c r="D82" s="109"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="68" t="s">
         <v>39</v>
       </c>
@@ -9694,7 +9722,7 @@
       <c r="C83" s="64"/>
       <c r="D83" s="109"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="68" t="s">
         <v>40</v>
       </c>
@@ -9704,7 +9732,7 @@
       <c r="C84" s="64"/>
       <c r="D84" s="109"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="68" t="s">
         <v>45</v>
       </c>
@@ -9714,7 +9742,7 @@
       <c r="C85" s="64"/>
       <c r="D85" s="109"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="68" t="s">
         <v>46</v>
       </c>
@@ -9724,7 +9752,7 @@
       <c r="C86" s="64"/>
       <c r="D86" s="109"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="68" t="s">
         <v>47</v>
       </c>
@@ -9734,7 +9762,7 @@
       <c r="C87" s="64"/>
       <c r="D87" s="109"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="68" t="s">
         <v>48</v>
       </c>
@@ -9744,7 +9772,7 @@
       <c r="C88" s="64"/>
       <c r="D88" s="109"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="68" t="s">
         <v>49</v>
       </c>
@@ -9754,7 +9782,7 @@
       <c r="C89" s="64"/>
       <c r="D89" s="109"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="68" t="s">
         <v>50</v>
       </c>
@@ -9764,7 +9792,7 @@
       <c r="C90" s="64"/>
       <c r="D90" s="109"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="68" t="s">
         <v>51</v>
       </c>
@@ -9772,7 +9800,7 @@
       <c r="C91" s="64"/>
       <c r="D91" s="109"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="68" t="s">
         <v>52</v>
       </c>
@@ -9782,7 +9810,7 @@
       <c r="C92" s="64"/>
       <c r="D92" s="109"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="68" t="s">
         <v>83</v>
       </c>
@@ -9794,7 +9822,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A94" s="175" t="s">
         <v>792</v>
       </c>
@@ -9819,14 +9847,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="76.7109375" customWidth="1"/>
+    <col min="1" max="1" width="46.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" customWidth="1"/>
+    <col min="4" max="4" width="76.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="79" t="s">
         <v>25</v>
       </c>
@@ -9838,7 +9866,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="75" t="s">
         <v>54</v>
       </c>
@@ -9850,7 +9878,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="74" t="s">
         <v>56</v>
       </c>
@@ -9862,7 +9890,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="74" t="s">
         <v>451</v>
       </c>
@@ -9874,7 +9902,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="74" t="s">
         <v>55</v>
       </c>
@@ -9886,7 +9914,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="74" t="s">
         <v>57</v>
       </c>
@@ -9898,7 +9926,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="74" t="s">
         <v>58</v>
       </c>
@@ -9910,7 +9938,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="74" t="s">
         <v>83</v>
       </c>
@@ -9920,7 +9948,7 @@
       <c r="C8" s="74"/>
       <c r="D8" s="116"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="74" t="s">
         <v>59</v>
       </c>
@@ -9932,7 +9960,7 @@
         <v>1234567812</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="76" t="s">
         <v>452</v>
       </c>
@@ -9944,7 +9972,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="77" t="s">
         <v>453</v>
       </c>
@@ -9956,7 +9984,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="76" t="s">
         <v>454</v>
       </c>
@@ -9968,7 +9996,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="76" t="s">
         <v>455</v>
       </c>
@@ -9980,7 +10008,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="76" t="s">
         <v>456</v>
       </c>
@@ -9992,7 +10020,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="76" t="s">
         <v>457</v>
       </c>
@@ -10004,7 +10032,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="76" t="s">
         <v>458</v>
       </c>
@@ -10016,7 +10044,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="76" t="s">
         <v>459</v>
       </c>
@@ -10028,7 +10056,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="76" t="s">
         <v>460</v>
       </c>
@@ -10040,7 +10068,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="76" t="s">
         <v>461</v>
       </c>
@@ -10052,7 +10080,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="76" t="s">
         <v>462</v>
       </c>
@@ -10064,7 +10092,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="40" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="40" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="76" t="s">
         <v>463</v>
       </c>
@@ -10076,7 +10104,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="76" t="s">
         <v>464</v>
       </c>
@@ -10088,7 +10116,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="76" t="s">
         <v>465</v>
       </c>
@@ -10100,7 +10128,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="76" t="s">
         <v>716</v>
       </c>
@@ -10112,7 +10140,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="76" t="s">
         <v>466</v>
       </c>
@@ -10124,7 +10152,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="76" t="s">
         <v>467</v>
       </c>
@@ -10136,7 +10164,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="76" t="s">
         <v>468</v>
       </c>
@@ -10148,7 +10176,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="76" t="s">
         <v>469</v>
       </c>
@@ -10160,7 +10188,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="76" t="s">
         <v>470</v>
       </c>
@@ -10172,7 +10200,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="76" t="s">
         <v>471</v>
       </c>
@@ -10184,7 +10212,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="76" t="s">
         <v>472</v>
       </c>
@@ -10196,7 +10224,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="32" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="76" t="s">
         <v>473</v>
       </c>
@@ -10208,7 +10236,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="76" t="s">
         <v>474</v>
       </c>
@@ -10220,7 +10248,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="76" t="s">
         <v>475</v>
       </c>
@@ -10232,7 +10260,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="76" t="s">
         <v>476</v>
       </c>
@@ -10244,7 +10272,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="76" t="s">
         <v>477</v>
       </c>
@@ -10256,7 +10284,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="76" t="s">
         <v>478</v>
       </c>
@@ -10268,7 +10296,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" s="40" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="76" t="s">
         <v>62</v>
       </c>
@@ -10280,7 +10308,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="40" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" s="40" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A39" s="76" t="s">
         <v>707</v>
       </c>
@@ -10292,7 +10320,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="76" t="s">
         <v>63</v>
       </c>
@@ -10304,7 +10332,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="41" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="76" t="s">
         <v>479</v>
       </c>
@@ -10316,7 +10344,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="76" t="s">
         <v>64</v>
       </c>
@@ -10330,7 +10358,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="76" t="s">
         <v>480</v>
       </c>
@@ -10340,7 +10368,7 @@
       <c r="C43" s="74"/>
       <c r="D43" s="116"/>
     </row>
-    <row r="44" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="76" t="s">
         <v>65</v>
       </c>
@@ -10350,7 +10378,7 @@
       <c r="C44" s="74"/>
       <c r="D44" s="116"/>
     </row>
-    <row r="45" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="76" t="s">
         <v>66</v>
       </c>
@@ -10362,7 +10390,7 @@
         <v>12345</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="76" t="s">
         <v>67</v>
       </c>
@@ -10374,7 +10402,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="76" t="s">
         <v>481</v>
       </c>
@@ -10384,7 +10412,7 @@
       <c r="C47" s="74"/>
       <c r="D47" s="116"/>
     </row>
-    <row r="48" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="76" t="s">
         <v>482</v>
       </c>
@@ -10394,19 +10422,19 @@
       <c r="C48" s="74"/>
       <c r="D48" s="116"/>
     </row>
-    <row r="49" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="76"/>
       <c r="B49" s="74"/>
       <c r="C49" s="74"/>
       <c r="D49" s="116"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="76"/>
       <c r="B50" s="74"/>
       <c r="C50" s="74"/>
       <c r="D50" s="116"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="76"/>
       <c r="B51" s="74"/>
       <c r="C51" s="74"/>
@@ -10422,18 +10450,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D2AA5C-E1C4-4CA2-AB01-8B2F45BFCDB3}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" customWidth="1"/>
-    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.44140625" customWidth="1"/>
+    <col min="2" max="2" width="36.5546875" customWidth="1"/>
+    <col min="4" max="4" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="89" t="s">
         <v>25</v>
       </c>
@@ -10445,7 +10473,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="85" t="s">
         <v>81</v>
       </c>
@@ -10455,7 +10483,7 @@
       <c r="C2" s="85"/>
       <c r="D2" s="125"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="85" t="s">
         <v>673</v>
       </c>
@@ -10467,7 +10495,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="85" t="s">
         <v>675</v>
       </c>
@@ -10479,7 +10507,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="85" t="s">
         <v>677</v>
       </c>
@@ -10491,7 +10519,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="85" t="s">
         <v>82</v>
       </c>
@@ -10503,7 +10531,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="85" t="s">
         <v>55</v>
       </c>
@@ -10515,7 +10543,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="85" t="s">
         <v>57</v>
       </c>
@@ -10527,7 +10555,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="85" t="s">
         <v>83</v>
       </c>
@@ -10539,7 +10567,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="85" t="s">
         <v>58</v>
       </c>
@@ -10551,7 +10579,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="85" t="s">
         <v>59</v>
       </c>
@@ -10563,7 +10591,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="85" t="s">
         <v>679</v>
       </c>
@@ -10575,7 +10603,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="85" t="s">
         <v>680</v>
       </c>
@@ -10589,7 +10617,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="87" t="s">
         <v>681</v>
       </c>
@@ -10601,7 +10629,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="85" t="s">
         <v>682</v>
       </c>
@@ -10613,7 +10641,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="95" t="s">
         <v>722</v>
       </c>
@@ -10621,7 +10649,7 @@
       <c r="C16" s="85"/>
       <c r="D16" s="127"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="85" t="s">
         <v>683</v>
       </c>
@@ -10631,7 +10659,7 @@
       <c r="C17" s="85"/>
       <c r="D17" s="128"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="85" t="s">
         <v>65</v>
       </c>
@@ -10641,7 +10669,7 @@
       <c r="C18" s="85"/>
       <c r="D18" s="125"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="85" t="s">
         <v>66</v>
       </c>
@@ -10653,7 +10681,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="86" t="s">
         <v>84</v>
       </c>
@@ -10663,7 +10691,7 @@
       <c r="C20" s="85"/>
       <c r="D20" s="129"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="86" t="s">
         <v>85</v>
       </c>
@@ -10673,7 +10701,7 @@
       <c r="C21" s="85"/>
       <c r="D21" s="125"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="86" t="s">
         <v>86</v>
       </c>
@@ -10685,7 +10713,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="86" t="s">
         <v>87</v>
       </c>
@@ -10697,7 +10725,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="85" t="s">
         <v>52</v>
       </c>
@@ -10717,22 +10745,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{159AFB93-DEF7-4104-9367-BDEC917D2296}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="B29" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.140625" customWidth="1"/>
-    <col min="2" max="2" width="33.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
-    <col min="11" max="11" width="22.140625" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="54.109375" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" customWidth="1"/>
+    <col min="11" max="11" width="22.109375" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10745,7 +10773,7 @@
       <c r="K1" s="130"/>
       <c r="L1" s="130"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="180" t="s">
         <v>500</v>
       </c>
@@ -10756,7 +10784,7 @@
       <c r="K2" s="181"/>
       <c r="L2" s="130"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>502</v>
       </c>
@@ -10769,7 +10797,7 @@
       <c r="K3" s="130"/>
       <c r="L3" s="130"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>501</v>
       </c>
@@ -10782,7 +10810,7 @@
       <c r="K4" s="130"/>
       <c r="L4" s="130"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="180" t="s">
         <v>503</v>
       </c>
@@ -10793,7 +10821,7 @@
       <c r="K5" s="181"/>
       <c r="L5" s="130"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
         <v>504</v>
       </c>
@@ -10804,7 +10832,7 @@
       <c r="K6" s="130"/>
       <c r="L6" s="130"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>505</v>
       </c>
@@ -10815,7 +10843,7 @@
       <c r="K7" s="130"/>
       <c r="L7" s="130"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>506</v>
       </c>
@@ -10826,7 +10854,7 @@
       <c r="K8" s="130"/>
       <c r="L8" s="130"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="180" t="s">
         <v>508</v>
       </c>
@@ -10837,7 +10865,7 @@
       <c r="K9" s="182"/>
       <c r="L9" s="130"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
         <v>509</v>
       </c>
@@ -10858,7 +10886,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="48" t="s">
         <v>507</v>
       </c>
@@ -10866,7 +10894,7 @@
       <c r="K11" s="130"/>
       <c r="L11" s="130"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>512</v>
       </c>
@@ -10883,7 +10911,7 @@
       <c r="K12" s="130"/>
       <c r="L12" s="130"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>513</v>
       </c>
@@ -10898,7 +10926,7 @@
       <c r="K13" s="130"/>
       <c r="L13" s="130"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>514</v>
       </c>
@@ -10921,7 +10949,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
         <v>515</v>
       </c>
@@ -10944,7 +10972,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>516</v>
       </c>
@@ -10967,7 +10995,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="48" t="s">
         <v>517</v>
       </c>
@@ -10975,7 +11003,7 @@
       <c r="K17" s="130"/>
       <c r="L17" s="130"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
         <v>518</v>
       </c>
@@ -11007,7 +11035,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
         <v>519</v>
       </c>
@@ -11039,7 +11067,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
         <v>520</v>
       </c>
@@ -11071,7 +11099,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="48" t="s">
         <v>521</v>
       </c>
@@ -11079,7 +11107,7 @@
       <c r="K21" s="130"/>
       <c r="L21" s="130"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="47" t="s">
         <v>523</v>
       </c>
@@ -11088,7 +11116,7 @@
       <c r="K22" s="130"/>
       <c r="L22" s="130"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
         <v>522</v>
       </c>
@@ -11120,7 +11148,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>524</v>
       </c>
@@ -11152,7 +11180,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
         <v>525</v>
       </c>
@@ -11184,7 +11212,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
         <v>526</v>
       </c>
@@ -11216,7 +11244,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
         <v>527</v>
       </c>
@@ -11248,7 +11276,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="24" t="s">
         <v>528</v>
       </c>
@@ -11280,7 +11308,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
         <v>529</v>
       </c>
@@ -11312,7 +11340,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="47" t="s">
         <v>530</v>
       </c>
@@ -11320,7 +11348,7 @@
       <c r="K30" s="130"/>
       <c r="L30" s="130"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
         <v>522</v>
       </c>
@@ -11352,7 +11380,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="47" t="s">
         <v>531</v>
       </c>
@@ -11360,7 +11388,7 @@
       <c r="K32" s="130"/>
       <c r="L32" s="130"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="24" t="s">
         <v>522</v>
       </c>
@@ -11392,7 +11420,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="24" t="s">
         <v>119</v>
       </c>
@@ -11424,7 +11452,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="48" t="s">
         <v>532</v>
       </c>
@@ -11432,7 +11460,7 @@
       <c r="K35" s="130"/>
       <c r="L35" s="130"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="24" t="s">
         <v>533</v>
       </c>
@@ -11464,7 +11492,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="24" t="s">
         <v>534</v>
       </c>
@@ -11496,7 +11524,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="24" t="s">
         <v>535</v>
       </c>
@@ -11528,7 +11556,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
         <v>536</v>
       </c>
@@ -11560,7 +11588,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="24" t="s">
         <v>537</v>
       </c>
@@ -11592,7 +11620,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="24" t="s">
         <v>538</v>
       </c>
@@ -11624,7 +11652,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="24" t="s">
         <v>539</v>
       </c>
@@ -11678,13 +11706,13 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="71.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
@@ -11695,7 +11723,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="54" t="s">
         <v>544</v>
       </c>
@@ -11704,7 +11732,7 @@
       </c>
       <c r="D2" s="132"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="54" t="s">
         <v>545</v>
       </c>
@@ -11713,7 +11741,7 @@
       </c>
       <c r="D3" s="132"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="54" t="s">
         <v>569</v>
       </c>
@@ -11722,7 +11750,7 @@
       </c>
       <c r="D4" s="132"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="54" t="s">
         <v>570</v>
       </c>
@@ -11731,7 +11759,7 @@
       </c>
       <c r="D5" s="132"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="54" t="s">
         <v>572</v>
       </c>
@@ -11740,7 +11768,7 @@
       </c>
       <c r="D6" s="132"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="54" t="s">
         <v>553</v>
       </c>
@@ -11749,7 +11777,7 @@
       </c>
       <c r="D7" s="132"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="54" t="s">
         <v>574</v>
       </c>
@@ -11758,7 +11786,7 @@
       </c>
       <c r="D8" s="132"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="54" t="s">
         <v>576</v>
       </c>
@@ -11767,7 +11795,7 @@
       </c>
       <c r="D9" s="132"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="54" t="s">
         <v>555</v>
       </c>
@@ -11778,7 +11806,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="54" t="s">
         <v>578</v>
       </c>
@@ -11787,7 +11815,7 @@
       </c>
       <c r="D11" s="132"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="54" t="s">
         <v>556</v>
       </c>
@@ -11796,7 +11824,7 @@
       </c>
       <c r="D12" s="132"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="54" t="s">
         <v>580</v>
       </c>
@@ -11805,7 +11833,7 @@
       </c>
       <c r="D13" s="132"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="54" t="s">
         <v>581</v>
       </c>
@@ -11814,7 +11842,7 @@
       </c>
       <c r="D14" s="132"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="54" t="s">
         <v>554</v>
       </c>
@@ -11836,14 +11864,14 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -11855,7 +11883,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
         <v>544</v>
       </c>
@@ -11864,7 +11892,7 @@
       </c>
       <c r="D2" s="134"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="49" t="s">
         <v>545</v>
       </c>
@@ -11873,7 +11901,7 @@
       </c>
       <c r="D3" s="134"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="49" t="s">
         <v>546</v>
       </c>
@@ -11882,7 +11910,7 @@
       </c>
       <c r="D4" s="134"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="49" t="s">
         <v>547</v>
       </c>
@@ -11891,7 +11919,7 @@
       </c>
       <c r="D5" s="134"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="49" t="s">
         <v>82</v>
       </c>
@@ -11900,7 +11928,7 @@
       </c>
       <c r="D6" s="134"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="49" t="s">
         <v>55</v>
       </c>
@@ -11909,7 +11937,7 @@
       </c>
       <c r="D7" s="134"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="49" t="s">
         <v>57</v>
       </c>
@@ -11918,7 +11946,7 @@
       </c>
       <c r="D8" s="134"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
         <v>83</v>
       </c>
@@ -11927,7 +11955,7 @@
       </c>
       <c r="D9" s="134"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="49" t="s">
         <v>442</v>
       </c>
@@ -11938,7 +11966,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="49" t="s">
         <v>82</v>
       </c>
@@ -11947,7 +11975,7 @@
       </c>
       <c r="D11" s="134"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="49" t="s">
         <v>55</v>
       </c>
@@ -11956,7 +11984,7 @@
       </c>
       <c r="D12" s="134"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="49" t="s">
         <v>57</v>
       </c>
@@ -11965,7 +11993,7 @@
       </c>
       <c r="D13" s="134"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="49" t="s">
         <v>83</v>
       </c>
@@ -11974,7 +12002,7 @@
       </c>
       <c r="D14" s="134"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="49" t="s">
         <v>442</v>
       </c>
@@ -11983,7 +12011,7 @@
       </c>
       <c r="D15" s="134"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="49" t="s">
         <v>548</v>
       </c>
@@ -11994,7 +12022,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="49" t="s">
         <v>549</v>
       </c>
@@ -12005,7 +12033,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="49" t="s">
         <v>550</v>
       </c>
@@ -12016,7 +12044,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="49" t="s">
         <v>551</v>
       </c>
@@ -12027,7 +12055,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="49" t="s">
         <v>552</v>
       </c>
@@ -12036,7 +12064,7 @@
       </c>
       <c r="D20" s="134"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="49" t="s">
         <v>553</v>
       </c>
@@ -12045,7 +12073,7 @@
       </c>
       <c r="D21" s="134"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="49" t="s">
         <v>554</v>
       </c>
@@ -12054,7 +12082,7 @@
       </c>
       <c r="D22" s="134"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="49" t="s">
         <v>555</v>
       </c>
@@ -12063,7 +12091,7 @@
       </c>
       <c r="D23" s="134"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="49" t="s">
         <v>556</v>
       </c>
@@ -12086,14 +12114,14 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="73.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="73.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
@@ -12105,7 +12133,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
         <v>451</v>
       </c>
@@ -12115,7 +12143,7 @@
       <c r="C2" s="81"/>
       <c r="D2" s="137"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="81" t="s">
         <v>55</v>
       </c>
@@ -12125,7 +12153,7 @@
       <c r="C3" s="81"/>
       <c r="D3" s="137"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="81" t="s">
         <v>57</v>
       </c>
@@ -12135,7 +12163,7 @@
       <c r="C4" s="81"/>
       <c r="D4" s="137"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="81" t="s">
         <v>442</v>
       </c>
@@ -12145,7 +12173,7 @@
       <c r="C5" s="81"/>
       <c r="D5" s="137"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="81" t="s">
         <v>83</v>
       </c>
@@ -12155,7 +12183,7 @@
       <c r="C6" s="81"/>
       <c r="D6" s="137"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="81" t="s">
         <v>589</v>
       </c>
@@ -12167,7 +12195,7 @@
         <v>12345678901</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="81" t="s">
         <v>595</v>
       </c>
@@ -12179,7 +12207,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="81" t="s">
         <v>596</v>
       </c>
@@ -12191,7 +12219,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="81" t="s">
         <v>597</v>
       </c>
@@ -12203,7 +12231,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="165" t="s">
         <v>598</v>
       </c>
@@ -12215,7 +12243,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="81" t="s">
         <v>599</v>
       </c>
@@ -12227,7 +12255,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="81" t="s">
         <v>600</v>
       </c>
@@ -12239,7 +12267,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="165" t="s">
         <v>601</v>
       </c>
@@ -12251,7 +12279,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="81" t="s">
         <v>602</v>
       </c>
@@ -12263,7 +12291,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="81" t="s">
         <v>603</v>
       </c>
@@ -12275,7 +12303,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="81" t="s">
         <v>604</v>
       </c>
@@ -12287,7 +12315,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="165" t="s">
         <v>605</v>
       </c>
@@ -12299,7 +12327,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="81" t="s">
         <v>606</v>
       </c>
@@ -12311,7 +12339,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="81" t="s">
         <v>607</v>
       </c>
@@ -12323,7 +12351,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="81" t="s">
         <v>608</v>
       </c>
@@ -12335,7 +12363,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="81" t="s">
         <v>718</v>
       </c>
@@ -12345,7 +12373,7 @@
       <c r="C22" s="81"/>
       <c r="D22" s="142"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="165" t="s">
         <v>609</v>
       </c>
@@ -12357,7 +12385,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="81" t="s">
         <v>610</v>
       </c>
@@ -12369,7 +12397,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="81" t="s">
         <v>640</v>
       </c>
@@ -12381,7 +12409,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="81" t="s">
         <v>612</v>
       </c>
@@ -12393,7 +12421,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="81" t="s">
         <v>641</v>
       </c>
@@ -12405,7 +12433,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="81" t="s">
         <v>614</v>
       </c>
@@ -12417,7 +12445,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="81" t="s">
         <v>615</v>
       </c>
@@ -12429,7 +12457,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="81" t="s">
         <v>616</v>
       </c>
@@ -12441,7 +12469,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="81" t="s">
         <v>617</v>
       </c>
@@ -12453,7 +12481,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="81" t="s">
         <v>642</v>
       </c>
@@ -12465,7 +12493,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="81" t="s">
         <v>643</v>
       </c>
@@ -12477,7 +12505,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="81" t="s">
         <v>62</v>
       </c>
@@ -12487,7 +12515,7 @@
       <c r="C34" s="81"/>
       <c r="D34" s="137"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="81" t="s">
         <v>707</v>
       </c>
@@ -12497,7 +12525,7 @@
       <c r="C35" s="81"/>
       <c r="D35" s="140"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="81" t="s">
         <v>63</v>
       </c>
@@ -12507,7 +12535,7 @@
       <c r="C36" s="81"/>
       <c r="D36" s="137"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="81" t="s">
         <v>479</v>
       </c>
@@ -12519,7 +12547,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="81" t="s">
         <v>64</v>
       </c>
@@ -12531,7 +12559,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="81" t="s">
         <v>480</v>
       </c>
@@ -12541,7 +12569,7 @@
       <c r="C39" s="81"/>
       <c r="D39" s="137"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="81" t="s">
         <v>65</v>
       </c>
@@ -12551,7 +12579,7 @@
       <c r="C40" s="81"/>
       <c r="D40" s="137"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="81" t="s">
         <v>66</v>
       </c>
@@ -12561,7 +12589,7 @@
       <c r="C41" s="81"/>
       <c r="D41" s="137"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="81" t="s">
         <v>67</v>
       </c>
@@ -12571,7 +12599,7 @@
       <c r="C42" s="81"/>
       <c r="D42" s="137"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="81" t="s">
         <v>553</v>
       </c>
@@ -12581,7 +12609,7 @@
       <c r="C43" s="81"/>
       <c r="D43" s="137"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="81" t="s">
         <v>481</v>
       </c>
@@ -12591,7 +12619,7 @@
       <c r="C44" s="81"/>
       <c r="D44" s="137"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="81" t="s">
         <v>482</v>
       </c>
@@ -12601,7 +12629,7 @@
       <c r="C45" s="81"/>
       <c r="D45" s="137"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="81" t="s">
         <v>646</v>
       </c>
@@ -12611,7 +12639,7 @@
       <c r="C46" s="81"/>
       <c r="D46" s="137"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="81" t="s">
         <v>647</v>
       </c>
@@ -12621,7 +12649,7 @@
       <c r="C47" s="81"/>
       <c r="D47" s="137"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="81" t="s">
         <v>648</v>
       </c>
@@ -12631,7 +12659,7 @@
       <c r="C48" s="81"/>
       <c r="D48" s="137"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="81" t="s">
         <v>649</v>
       </c>
@@ -12639,7 +12667,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="81" t="s">
         <v>650</v>
       </c>
@@ -12647,7 +12675,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="81" t="s">
         <v>652</v>
       </c>
@@ -12655,7 +12683,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="81" t="s">
         <v>653</v>
       </c>
@@ -12663,7 +12691,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="81" t="s">
         <v>654</v>
       </c>
@@ -12671,7 +12699,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="81" t="s">
         <v>656</v>
       </c>
@@ -12679,7 +12707,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="81" t="s">
         <v>657</v>
       </c>
@@ -12687,7 +12715,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="81" t="s">
         <v>659</v>
       </c>
@@ -12695,7 +12723,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="81" t="s">
         <v>660</v>
       </c>
@@ -12703,7 +12731,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="81" t="s">
         <v>661</v>
       </c>
@@ -12711,7 +12739,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="81" t="s">
         <v>663</v>
       </c>
@@ -12719,7 +12747,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="81" t="s">
         <v>665</v>
       </c>
@@ -12727,7 +12755,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="81" t="s">
         <v>666</v>
       </c>
@@ -12735,7 +12763,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="81" t="s">
         <v>668</v>
       </c>
@@ -12743,7 +12771,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="81" t="s">
         <v>669</v>
       </c>
@@ -12751,7 +12779,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="81" t="s">
         <v>670</v>
       </c>
